--- a/name/dictionary_flavor.xlsx
+++ b/name/dictionary_flavor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\excel_list\englishNameTranslate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A830D6B7-D158-43F6-B1F8-D93F386216A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2049BB6-29C0-4582-8AC9-D60BB44B73FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10320" yWindow="2190" windowWidth="22470" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="586">
   <si>
     <t>Japanese</t>
   </si>
@@ -1650,18 +1650,166 @@
   </si>
   <si>
     <t>Slightly Spicy</t>
+  </si>
+  <si>
+    <t>オーツミルク</t>
+  </si>
+  <si>
+    <t>Oat Milk</t>
+  </si>
+  <si>
+    <t>チョコレートバニラ</t>
+  </si>
+  <si>
+    <t>Chocolate Vanilla</t>
+  </si>
+  <si>
+    <t>ホワイトC</t>
+  </si>
+  <si>
+    <t>White Chocolate</t>
+  </si>
+  <si>
+    <t>濃いミルク</t>
+  </si>
+  <si>
+    <t>Rich Milk</t>
+  </si>
+  <si>
+    <t>ブラックP</t>
+  </si>
+  <si>
+    <t>サワクリ</t>
+  </si>
+  <si>
+    <t>Wオニオン</t>
+  </si>
+  <si>
+    <t>Double Onion</t>
+  </si>
+  <si>
+    <t>Wガーリック</t>
+  </si>
+  <si>
+    <t>Double Garlic</t>
+  </si>
+  <si>
+    <t>アーモンドキャラメル</t>
+  </si>
+  <si>
+    <t>Almond Caramel</t>
+  </si>
+  <si>
+    <t>クラシックバニラ</t>
+  </si>
+  <si>
+    <t>Classic Vanilla</t>
+  </si>
+  <si>
+    <t>ヨーグルト</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>レーズンチョコ</t>
+  </si>
+  <si>
+    <t>Raisin Choco</t>
+  </si>
+  <si>
+    <t>アールグレイティー</t>
+  </si>
+  <si>
+    <t>Earl Grey Tea</t>
+  </si>
+  <si>
+    <t>焙煎ごま香</t>
+  </si>
+  <si>
+    <t>Roasted Sesame Scent</t>
+  </si>
+  <si>
+    <t>ベーコン</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>ピーナッツ</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>チョコホワイト</t>
+  </si>
+  <si>
+    <t>White Choco</t>
+  </si>
+  <si>
+    <t>Milk Nougat</t>
+  </si>
+  <si>
+    <t>ミルクヌガー</t>
+  </si>
+  <si>
+    <t>ホワイトチョコ</t>
+  </si>
+  <si>
+    <t>鯛塩</t>
+  </si>
+  <si>
+    <t>Sea Bream Salt</t>
+  </si>
+  <si>
+    <t>豚骨塩</t>
+  </si>
+  <si>
+    <t>Tonkotsu Salt</t>
+  </si>
+  <si>
+    <t>豚骨</t>
+  </si>
+  <si>
+    <t>から揚げ</t>
+  </si>
+  <si>
+    <t>Karaage</t>
+  </si>
+  <si>
+    <t>味付たまご</t>
+  </si>
+  <si>
+    <t>Flavored Egg</t>
+  </si>
+  <si>
+    <t>かぼちゃ</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>カボチャ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="99">
+  <fonts count="100">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2397,40 +2545,43 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2439,7 +2590,7 @@
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2460,202 +2611,205 @@
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2665,28 +2819,25 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2698,49 +2849,49 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2753,25 +2904,31 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2784,35 +2941,39 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2821,22 +2982,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2849,71 +3009,62 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3243,8 +3394,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -3263,7 +3414,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="123" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="110" t="s">
@@ -3271,26 +3422,26 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="124" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="124" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="124" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3298,23 +3449,23 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="124" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="124" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="124" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3322,28 +3473,28 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="124" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="124" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="124" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="125" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="110" t="s">
@@ -3351,55 +3502,55 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="124" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="124" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="124" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="124" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="124" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="126" t="s">
+      <c r="A18" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="124" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="125" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="110" t="s">
@@ -3407,10 +3558,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="124" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3418,7 +3569,7 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="124" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3426,15 +3577,15 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="124" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="124" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3442,7 +3593,7 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="124" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3450,7 +3601,7 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="124" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3458,7 +3609,7 @@
       <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="124" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3466,7 +3617,7 @@
       <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="124" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3474,39 +3625,39 @@
       <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="124" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="124" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="124" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="125" t="s">
+      <c r="B31" s="124" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="125" t="s">
+      <c r="B32" s="124" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3559,18 +3710,18 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="124" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="126" t="s">
+      <c r="A40" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="125" t="s">
+      <c r="B40" s="124" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3690,7 +3841,7 @@
       <c r="A55" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="125" t="s">
+      <c r="B55" s="124" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3698,28 +3849,28 @@
       <c r="A56" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="125" t="s">
+      <c r="B56" s="124" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="125" t="s">
+      <c r="B57" s="124" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="126" t="s">
+      <c r="A58" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="125" t="s">
+      <c r="B58" s="124" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="126" t="s">
+      <c r="A59" s="125" t="s">
         <v>112</v>
       </c>
       <c r="B59" s="110" t="s">
@@ -3738,7 +3889,7 @@
       <c r="A61" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="125" t="s">
+      <c r="B61" s="124" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3767,10 +3918,10 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="126" t="s">
+      <c r="A65" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="125" t="s">
+      <c r="B65" s="124" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3778,15 +3929,15 @@
       <c r="A66" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="127" t="s">
+      <c r="B66" s="126" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="126" t="s">
+      <c r="A67" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="125" t="s">
+      <c r="B67" s="124" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3802,7 +3953,7 @@
       <c r="A69" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="125" t="s">
+      <c r="B69" s="124" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3810,7 +3961,7 @@
       <c r="A70" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="125" t="s">
+      <c r="B70" s="124" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3818,7 +3969,7 @@
       <c r="A71" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="128" t="s">
+      <c r="B71" s="127" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3831,18 +3982,18 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="129" t="s">
+      <c r="A73" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="128" t="s">
+      <c r="B73" s="127" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="130" t="s">
+      <c r="A74" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="131" t="s">
+      <c r="B74" s="130" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3850,15 +4001,15 @@
       <c r="A75" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="138" t="s">
+      <c r="B75" s="137" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="133" t="s">
+      <c r="A76" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="B76" s="132" t="s">
+      <c r="B76" s="131" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3866,31 +4017,31 @@
       <c r="A77" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="132" t="s">
+      <c r="B77" s="131" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="133" t="s">
+      <c r="A78" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="132" t="s">
+      <c r="B78" s="131" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="134" t="s">
+      <c r="A79" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="135" t="s">
+      <c r="B79" s="134" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="136" t="s">
+      <c r="A80" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="B80" s="137" t="s">
+      <c r="B80" s="136" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3898,15 +4049,15 @@
       <c r="A81" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="137" t="s">
+      <c r="B81" s="136" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="136" t="s">
+      <c r="A82" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="137" t="s">
+      <c r="B82" s="136" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3914,15 +4065,15 @@
       <c r="A83" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="138" t="s">
+      <c r="B83" s="137" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="139" t="s">
+      <c r="A84" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="138" t="s">
+      <c r="B84" s="137" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3975,15 +4126,15 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="139" t="s">
+      <c r="A91" s="138" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="138" t="s">
+      <c r="B91" s="137" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="139" t="s">
+      <c r="A92" s="138" t="s">
         <v>174</v>
       </c>
       <c r="B92" s="110" t="s">
@@ -3994,23 +4145,23 @@
       <c r="A93" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="B93" s="138" t="s">
+      <c r="B93" s="137" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="139" t="s">
+      <c r="A94" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="138" t="s">
+      <c r="B94" s="137" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="139" t="s">
+      <c r="A95" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="B95" s="138" t="s">
+      <c r="B95" s="137" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4018,7 +4169,7 @@
       <c r="A96" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B96" s="138" t="s">
+      <c r="B96" s="137" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4026,23 +4177,23 @@
       <c r="A97" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="138" t="s">
+      <c r="B97" s="137" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="139" t="s">
+      <c r="A98" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="138" t="s">
+      <c r="B98" s="137" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="139" t="s">
+      <c r="A99" s="138" t="s">
         <v>188</v>
       </c>
-      <c r="B99" s="138" t="s">
+      <c r="B99" s="137" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4050,7 +4201,7 @@
       <c r="A100" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="138" t="s">
+      <c r="B100" s="137" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4058,7 +4209,7 @@
       <c r="A101" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="140" t="s">
+      <c r="B101" s="139" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4066,39 +4217,39 @@
       <c r="A102" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="141" t="s">
+      <c r="B102" s="140" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="142" t="s">
+      <c r="A103" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="B103" s="141" t="s">
+      <c r="B103" s="140" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="143" t="s">
+      <c r="A104" s="142" t="s">
         <v>197</v>
       </c>
-      <c r="B104" s="144" t="s">
+      <c r="B104" s="143" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="143" t="s">
+      <c r="A105" s="142" t="s">
         <v>199</v>
       </c>
-      <c r="B105" s="144" t="s">
+      <c r="B105" s="143" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="143" t="s">
+      <c r="A106" s="142" t="s">
         <v>201</v>
       </c>
-      <c r="B106" s="144" t="s">
+      <c r="B106" s="143" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4106,7 +4257,7 @@
       <c r="A107" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="B107" s="144" t="s">
+      <c r="B107" s="143" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4122,71 +4273,71 @@
       <c r="A109" t="s">
         <v>207</v>
       </c>
-      <c r="B109" s="144" t="s">
+      <c r="B109" s="143" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="143" t="s">
+      <c r="A110" s="142" t="s">
         <v>208</v>
       </c>
-      <c r="B110" s="144" t="s">
+      <c r="B110" s="143" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="143" t="s">
+      <c r="A111" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="B111" s="144" t="s">
+      <c r="B111" s="143" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="143" t="s">
+      <c r="A112" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="144" t="s">
+      <c r="B112" s="143" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="143" t="s">
+      <c r="A113" s="142" t="s">
         <v>214</v>
       </c>
-      <c r="B113" s="144" t="s">
+      <c r="B113" s="143" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="143" t="s">
+      <c r="A114" s="142" t="s">
         <v>216</v>
       </c>
-      <c r="B114" s="144" t="s">
+      <c r="B114" s="143" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="145" t="s">
+      <c r="A115" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="B115" s="146" t="s">
+      <c r="B115" s="145" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="145" t="s">
+      <c r="A116" s="144" t="s">
         <v>220</v>
       </c>
-      <c r="B116" s="147" t="s">
+      <c r="B116" s="146" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="148" t="s">
+      <c r="A117" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="B117" s="146" t="s">
+      <c r="B117" s="145" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4194,15 +4345,15 @@
       <c r="A118" t="s">
         <v>223</v>
       </c>
-      <c r="B118" s="146" t="s">
+      <c r="B118" s="145" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="145" t="s">
+      <c r="A119" s="144" t="s">
         <v>224</v>
       </c>
-      <c r="B119" s="146" t="s">
+      <c r="B119" s="145" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4210,15 +4361,15 @@
       <c r="A120" t="s">
         <v>226</v>
       </c>
-      <c r="B120" s="146" t="s">
+      <c r="B120" s="145" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="145" t="s">
+      <c r="A121" s="144" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="146" t="s">
+      <c r="B121" s="145" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4226,7 +4377,7 @@
       <c r="A122" t="s">
         <v>230</v>
       </c>
-      <c r="B122" s="146" t="s">
+      <c r="B122" s="145" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4234,31 +4385,31 @@
       <c r="A123" t="s">
         <v>232</v>
       </c>
-      <c r="B123" s="146" t="s">
+      <c r="B123" s="145" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="145" t="s">
+      <c r="A124" s="144" t="s">
         <v>234</v>
       </c>
-      <c r="B124" s="146" t="s">
+      <c r="B124" s="145" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="145" t="s">
+      <c r="A125" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="B125" s="146" t="s">
+      <c r="B125" s="145" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="145" t="s">
+      <c r="A126" s="144" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="146" t="s">
+      <c r="B126" s="145" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4266,7 +4417,7 @@
       <c r="A127" t="s">
         <v>239</v>
       </c>
-      <c r="B127" s="146" t="s">
+      <c r="B127" s="145" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4274,7 +4425,7 @@
       <c r="A128" t="s">
         <v>241</v>
       </c>
-      <c r="B128" s="146" t="s">
+      <c r="B128" s="145" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4282,12 +4433,12 @@
       <c r="A129" t="s">
         <v>244</v>
       </c>
-      <c r="B129" s="146" t="s">
+      <c r="B129" s="145" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="145" t="s">
+      <c r="A130" s="144" t="s">
         <v>245</v>
       </c>
       <c r="B130" s="110" t="s">
@@ -4298,23 +4449,23 @@
       <c r="A131" t="s">
         <v>247</v>
       </c>
-      <c r="B131" s="146" t="s">
+      <c r="B131" s="145" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="145" t="s">
+      <c r="A132" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="B132" s="146" t="s">
+      <c r="B132" s="145" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="145" t="s">
+      <c r="A133" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="B133" s="146" t="s">
+      <c r="B133" s="145" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4322,7 +4473,7 @@
       <c r="A134" t="s">
         <v>253</v>
       </c>
-      <c r="B134" s="146" t="s">
+      <c r="B134" s="145" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4335,15 +4486,15 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="149" t="s">
+      <c r="A136" s="148" t="s">
         <v>257</v>
       </c>
-      <c r="B136" s="150" t="s">
+      <c r="B136" s="149" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="149" t="s">
+      <c r="A137" s="148" t="s">
         <v>259</v>
       </c>
       <c r="B137" s="110" t="s">
@@ -4351,10 +4502,10 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="149" t="s">
+      <c r="A138" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="B138" s="150" t="s">
+      <c r="B138" s="149" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4362,15 +4513,15 @@
       <c r="A139" t="s">
         <v>262</v>
       </c>
-      <c r="B139" s="150" t="s">
+      <c r="B139" s="149" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="149" t="s">
+      <c r="A140" s="148" t="s">
         <v>264</v>
       </c>
-      <c r="B140" s="150" t="s">
+      <c r="B140" s="149" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4378,12 +4529,12 @@
       <c r="A141" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B141" s="151" t="s">
+      <c r="B141" s="150" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="152" t="s">
+      <c r="A142" s="151" t="s">
         <v>268</v>
       </c>
       <c r="B142" s="110" t="s">
@@ -4391,26 +4542,26 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="153" t="s">
+      <c r="A143" s="152" t="s">
         <v>270</v>
       </c>
-      <c r="B143" s="154" t="s">
+      <c r="B143" s="153" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="153" t="s">
+      <c r="A144" s="152" t="s">
         <v>272</v>
       </c>
-      <c r="B144" s="154" t="s">
+      <c r="B144" s="153" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="153" t="s">
+      <c r="A145" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="B145" s="154" t="s">
+      <c r="B145" s="153" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4418,7 +4569,7 @@
       <c r="A146" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B146" s="154" t="s">
+      <c r="B146" s="153" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4431,10 +4582,10 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="153" t="s">
+      <c r="A148" s="152" t="s">
         <v>280</v>
       </c>
-      <c r="B148" s="154" t="s">
+      <c r="B148" s="153" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4442,15 +4593,15 @@
       <c r="A149" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B149" s="154" t="s">
+      <c r="B149" s="153" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="153" t="s">
+      <c r="A150" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="B150" s="154" t="s">
+      <c r="B150" s="153" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4458,23 +4609,23 @@
       <c r="A151" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B151" s="154" t="s">
+      <c r="B151" s="153" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="153" t="s">
+      <c r="A152" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="B152" s="154" t="s">
+      <c r="B152" s="153" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="153" t="s">
+      <c r="A153" s="152" t="s">
         <v>290</v>
       </c>
-      <c r="B153" s="154" t="s">
+      <c r="B153" s="153" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4482,7 +4633,7 @@
       <c r="A154" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="154" t="s">
+      <c r="B154" s="153" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4495,26 +4646,26 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="153" t="s">
+      <c r="A156" s="152" t="s">
         <v>296</v>
       </c>
-      <c r="B156" s="154" t="s">
+      <c r="B156" s="153" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="153" t="s">
+      <c r="A157" s="152" t="s">
         <v>298</v>
       </c>
-      <c r="B157" s="154" t="s">
+      <c r="B157" s="153" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="153" t="s">
+      <c r="A158" s="152" t="s">
         <v>300</v>
       </c>
-      <c r="B158" s="154" t="s">
+      <c r="B158" s="153" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4522,23 +4673,23 @@
       <c r="A159" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="B159" s="154" t="s">
+      <c r="B159" s="153" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="153" t="s">
+      <c r="A160" s="152" t="s">
         <v>304</v>
       </c>
-      <c r="B160" s="154" t="s">
+      <c r="B160" s="153" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="153" t="s">
+      <c r="A161" s="152" t="s">
         <v>305</v>
       </c>
-      <c r="B161" s="154" t="s">
+      <c r="B161" s="153" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4551,18 +4702,18 @@
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="153" t="s">
+      <c r="A163" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="B163" s="154" t="s">
+      <c r="B163" s="153" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="153" t="s">
+      <c r="A164" s="152" t="s">
         <v>312</v>
       </c>
-      <c r="B164" s="154" t="s">
+      <c r="B164" s="153" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4570,23 +4721,23 @@
       <c r="A165" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B165" s="154" t="s">
+      <c r="B165" s="153" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="153" t="s">
+      <c r="A166" s="152" t="s">
         <v>315</v>
       </c>
-      <c r="B166" s="154" t="s">
+      <c r="B166" s="153" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="153" t="s">
+      <c r="A167" s="152" t="s">
         <v>317</v>
       </c>
-      <c r="B167" s="154" t="s">
+      <c r="B167" s="153" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4594,23 +4745,23 @@
       <c r="A168" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B168" s="154" t="s">
+      <c r="B168" s="153" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="155" t="s">
+      <c r="A169" s="154" t="s">
         <v>321</v>
       </c>
-      <c r="B169" s="154" t="s">
+      <c r="B169" s="153" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="153" t="s">
+      <c r="A170" s="152" t="s">
         <v>323</v>
       </c>
-      <c r="B170" s="154" t="s">
+      <c r="B170" s="153" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4618,7 +4769,7 @@
       <c r="A171" s="109" t="s">
         <v>325</v>
       </c>
-      <c r="B171" s="154" t="s">
+      <c r="B171" s="153" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4626,23 +4777,23 @@
       <c r="A172" t="s">
         <v>326</v>
       </c>
-      <c r="B172" s="154" t="s">
+      <c r="B172" s="153" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="153" t="s">
+      <c r="A173" s="152" t="s">
         <v>329</v>
       </c>
-      <c r="B173" s="154" t="s">
+      <c r="B173" s="153" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="153" t="s">
+      <c r="A174" s="152" t="s">
         <v>331</v>
       </c>
-      <c r="B174" s="154" t="s">
+      <c r="B174" s="153" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4650,7 +4801,7 @@
       <c r="A175" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B175" s="154" t="s">
+      <c r="B175" s="153" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4658,15 +4809,15 @@
       <c r="A176" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B176" s="154" t="s">
+      <c r="B176" s="153" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="153" t="s">
+      <c r="A177" s="152" t="s">
         <v>336</v>
       </c>
-      <c r="B177" s="154" t="s">
+      <c r="B177" s="153" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4674,7 +4825,7 @@
       <c r="A178" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B178" s="154" t="s">
+      <c r="B178" s="153" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4690,7 +4841,7 @@
       <c r="A180" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B180" s="154" t="s">
+      <c r="B180" s="153" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4698,7 +4849,7 @@
       <c r="A181" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B181" s="154" t="s">
+      <c r="B181" s="153" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4706,7 +4857,7 @@
       <c r="A182" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B182" s="154" t="s">
+      <c r="B182" s="153" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4714,7 +4865,7 @@
       <c r="A183" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B183" s="154" t="s">
+      <c r="B183" s="153" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4722,7 +4873,7 @@
       <c r="A184" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B184" s="154" t="s">
+      <c r="B184" s="153" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4730,7 +4881,7 @@
       <c r="A185" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B185" s="154" t="s">
+      <c r="B185" s="153" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4738,23 +4889,23 @@
       <c r="A186" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B186" s="154" t="s">
+      <c r="B186" s="153" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="153" t="s">
+      <c r="A187" s="152" t="s">
         <v>354</v>
       </c>
-      <c r="B187" s="154" t="s">
+      <c r="B187" s="153" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="153" t="s">
+      <c r="A188" s="152" t="s">
         <v>356</v>
       </c>
-      <c r="B188" s="154" t="s">
+      <c r="B188" s="153" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4762,7 +4913,7 @@
       <c r="A189" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B189" s="154" t="s">
+      <c r="B189" s="153" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4778,7 +4929,7 @@
       <c r="A191" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B191" s="156" t="s">
+      <c r="B191" s="155" t="s">
         <v>361</v>
       </c>
     </row>
@@ -4786,7 +4937,7 @@
       <c r="A192" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B192" s="156" t="s">
+      <c r="B192" s="155" t="s">
         <v>363</v>
       </c>
       <c r="G192" s="3"/>
@@ -4795,7 +4946,7 @@
       <c r="A193" s="103" t="s">
         <v>364</v>
       </c>
-      <c r="B193" s="156" t="s">
+      <c r="B193" s="155" t="s">
         <v>365</v>
       </c>
       <c r="G193" s="2"/>
@@ -4804,7 +4955,7 @@
       <c r="A194" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B194" s="156" t="s">
+      <c r="B194" s="155" t="s">
         <v>367</v>
       </c>
       <c r="G194" s="3"/>
@@ -4819,37 +4970,37 @@
       <c r="G195" s="2"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="157" t="s">
+      <c r="A196" s="156" t="s">
         <v>370</v>
       </c>
-      <c r="B196" s="156" t="s">
+      <c r="B196" s="155" t="s">
         <v>371</v>
       </c>
       <c r="G196" s="2"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="157" t="s">
+      <c r="A197" s="156" t="s">
         <v>372</v>
       </c>
-      <c r="B197" s="156" t="s">
+      <c r="B197" s="155" t="s">
         <v>373</v>
       </c>
       <c r="G197" s="3"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="157" t="s">
+      <c r="A198" s="156" t="s">
         <v>374</v>
       </c>
-      <c r="B198" s="156" t="s">
+      <c r="B198" s="155" t="s">
         <v>375</v>
       </c>
       <c r="G198" s="3"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="157" t="s">
+      <c r="A199" s="156" t="s">
         <v>376</v>
       </c>
-      <c r="B199" s="156" t="s">
+      <c r="B199" s="155" t="s">
         <v>377</v>
       </c>
       <c r="G199" s="2"/>
@@ -4858,34 +5009,34 @@
       <c r="A200" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B200" s="156" t="s">
+      <c r="B200" s="155" t="s">
         <v>379</v>
       </c>
       <c r="G200" s="2"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="157" t="s">
+      <c r="A201" s="156" t="s">
         <v>380</v>
       </c>
-      <c r="B201" s="156" t="s">
+      <c r="B201" s="155" t="s">
         <v>381</v>
       </c>
       <c r="G201" s="2"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="157" t="s">
+      <c r="A202" s="156" t="s">
         <v>382</v>
       </c>
-      <c r="B202" s="156" t="s">
+      <c r="B202" s="155" t="s">
         <v>383</v>
       </c>
       <c r="G202" s="2"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="157" t="s">
+      <c r="A203" s="156" t="s">
         <v>384</v>
       </c>
-      <c r="B203" s="156" t="s">
+      <c r="B203" s="155" t="s">
         <v>385</v>
       </c>
       <c r="G203" s="3"/>
@@ -4894,16 +5045,16 @@
       <c r="A204" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B204" s="156" t="s">
+      <c r="B204" s="155" t="s">
         <v>387</v>
       </c>
       <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="157" t="s">
+      <c r="A205" s="156" t="s">
         <v>388</v>
       </c>
-      <c r="B205" s="156" t="s">
+      <c r="B205" s="155" t="s">
         <v>389</v>
       </c>
       <c r="G205" s="3"/>
@@ -4912,7 +5063,7 @@
       <c r="A206" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B206" s="156" t="s">
+      <c r="B206" s="155" t="s">
         <v>391</v>
       </c>
       <c r="G206" s="3"/>
@@ -4921,24 +5072,24 @@
       <c r="A207" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B207" s="156" t="s">
+      <c r="B207" s="155" t="s">
         <v>392</v>
       </c>
       <c r="G207" s="3"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="157" t="s">
+      <c r="A208" s="156" t="s">
         <v>394</v>
       </c>
-      <c r="B208" s="156" t="s">
+      <c r="B208" s="155" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="157" t="s">
+      <c r="A209" s="156" t="s">
         <v>396</v>
       </c>
-      <c r="B209" s="156" t="s">
+      <c r="B209" s="155" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4946,31 +5097,31 @@
       <c r="A210" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B210" s="156" t="s">
+      <c r="B210" s="155" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="158" t="s">
+      <c r="A211" s="157" t="s">
         <v>400</v>
       </c>
-      <c r="B211" s="159" t="s">
+      <c r="B211" s="158" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="160" t="s">
+      <c r="A212" s="159" t="s">
         <v>402</v>
       </c>
-      <c r="B212" s="161" t="s">
+      <c r="B212" s="160" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="160" t="s">
+      <c r="A213" s="159" t="s">
         <v>404</v>
       </c>
-      <c r="B213" s="161" t="s">
+      <c r="B213" s="160" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4978,55 +5129,55 @@
       <c r="A214" s="104" t="s">
         <v>403</v>
       </c>
-      <c r="B214" s="161" t="s">
+      <c r="B214" s="160" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="160" t="s">
+      <c r="A215" s="159" t="s">
         <v>406</v>
       </c>
-      <c r="B215" s="161" t="s">
+      <c r="B215" s="160" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="160" t="s">
+      <c r="A216" s="159" t="s">
         <v>408</v>
       </c>
-      <c r="B216" s="161" t="s">
+      <c r="B216" s="160" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="160" t="s">
+      <c r="A217" s="159" t="s">
         <v>410</v>
       </c>
-      <c r="B217" s="161" t="s">
+      <c r="B217" s="160" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="160" t="s">
+      <c r="A218" s="159" t="s">
         <v>411</v>
       </c>
-      <c r="B218" s="161" t="s">
+      <c r="B218" s="160" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="160" t="s">
+      <c r="A219" s="159" t="s">
         <v>413</v>
       </c>
-      <c r="B219" s="161" t="s">
+      <c r="B219" s="160" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="160" t="s">
+      <c r="A220" s="159" t="s">
         <v>415</v>
       </c>
-      <c r="B220" s="161" t="s">
+      <c r="B220" s="160" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5034,15 +5185,15 @@
       <c r="A221" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B221" s="161" t="s">
+      <c r="B221" s="160" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="160" t="s">
+      <c r="A222" s="159" t="s">
         <v>420</v>
       </c>
-      <c r="B222" s="161" t="s">
+      <c r="B222" s="160" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5050,36 +5201,36 @@
       <c r="A223" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B223" s="161" t="s">
+      <c r="B223" s="160" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="160" t="s">
+      <c r="A224" s="159" t="s">
         <v>423</v>
       </c>
-      <c r="B224" s="161" t="s">
+      <c r="B224" s="160" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="160" t="s">
+      <c r="A225" s="159" t="s">
         <v>424</v>
       </c>
-      <c r="B225" s="161" t="s">
+      <c r="B225" s="160" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="160" t="s">
+      <c r="A226" s="159" t="s">
         <v>427</v>
       </c>
-      <c r="B226" s="161" t="s">
+      <c r="B226" s="160" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="160" t="s">
+      <c r="A227" s="159" t="s">
         <v>428</v>
       </c>
       <c r="B227" s="110" t="s">
@@ -5087,10 +5238,10 @@
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="162" t="s">
+      <c r="A228" s="161" t="s">
         <v>430</v>
       </c>
-      <c r="B228" s="164" t="s">
+      <c r="B228" s="163" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5098,23 +5249,23 @@
       <c r="A229" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B229" s="163" t="s">
+      <c r="B229" s="162" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="162" t="s">
+      <c r="A230" s="161" t="s">
         <v>433</v>
       </c>
-      <c r="B230" s="163" t="s">
+      <c r="B230" s="162" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="162" t="s">
+      <c r="A231" s="161" t="s">
         <v>435</v>
       </c>
-      <c r="B231" s="163" t="s">
+      <c r="B231" s="162" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5122,15 +5273,15 @@
       <c r="A232" t="s">
         <v>438</v>
       </c>
-      <c r="B232" s="165" t="s">
+      <c r="B232" s="164" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="166" t="s">
+      <c r="A233" s="165" t="s">
         <v>440</v>
       </c>
-      <c r="B233" s="167" t="s">
+      <c r="B233" s="166" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5138,15 +5289,15 @@
       <c r="A234" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B234" s="168" t="s">
+      <c r="B234" s="167" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="169" t="s">
+      <c r="A235" s="168" t="s">
         <v>444</v>
       </c>
-      <c r="B235" s="168" t="s">
+      <c r="B235" s="167" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5154,7 +5305,7 @@
       <c r="A236" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B236" s="170" t="s">
+      <c r="B236" s="169" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5162,7 +5313,7 @@
       <c r="A237" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="B237" s="170" t="s">
+      <c r="B237" s="169" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5175,7 +5326,7 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="171" t="s">
+      <c r="A239" s="170" t="s">
         <v>451</v>
       </c>
       <c r="B239" s="108" t="s">
@@ -5183,18 +5334,18 @@
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="171" t="s">
+      <c r="A240" s="170" t="s">
         <v>452</v>
       </c>
-      <c r="B240" s="170" t="s">
+      <c r="B240" s="169" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="171" t="s">
+      <c r="A241" s="170" t="s">
         <v>454</v>
       </c>
-      <c r="B241" s="170" t="s">
+      <c r="B241" s="169" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5202,39 +5353,39 @@
       <c r="A242" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="B242" s="170" t="s">
+      <c r="B242" s="169" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="171" t="s">
+      <c r="A243" s="170" t="s">
         <v>458</v>
       </c>
-      <c r="B243" s="170" t="s">
+      <c r="B243" s="169" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="171" t="s">
+      <c r="A244" s="170" t="s">
         <v>460</v>
       </c>
-      <c r="B244" s="170" t="s">
+      <c r="B244" s="169" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="171" t="s">
+      <c r="A245" s="170" t="s">
         <v>461</v>
       </c>
-      <c r="B245" s="170" t="s">
+      <c r="B245" s="169" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="171" t="s">
+      <c r="A246" s="170" t="s">
         <v>463</v>
       </c>
-      <c r="B246" s="170" t="s">
+      <c r="B246" s="169" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5242,7 +5393,7 @@
       <c r="A247" s="114" t="s">
         <v>464</v>
       </c>
-      <c r="B247" s="170" t="s">
+      <c r="B247" s="169" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5250,15 +5401,15 @@
       <c r="A248" s="111" t="s">
         <v>466</v>
       </c>
-      <c r="B248" s="170" t="s">
+      <c r="B248" s="169" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="172" t="s">
+      <c r="A249" s="171" t="s">
         <v>468</v>
       </c>
-      <c r="B249" s="170" t="s">
+      <c r="B249" s="169" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5266,7 +5417,7 @@
       <c r="A250" s="111" t="s">
         <v>469</v>
       </c>
-      <c r="B250" s="170" t="s">
+      <c r="B250" s="169" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5274,7 +5425,7 @@
       <c r="A251" s="111" t="s">
         <v>470</v>
       </c>
-      <c r="B251" s="170" t="s">
+      <c r="B251" s="169" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5290,7 +5441,7 @@
       <c r="A253" s="111" t="s">
         <v>473</v>
       </c>
-      <c r="B253" s="170" t="s">
+      <c r="B253" s="169" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5298,7 +5449,7 @@
       <c r="A254" s="112" t="s">
         <v>475</v>
       </c>
-      <c r="B254" s="170" t="s">
+      <c r="B254" s="169" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5338,7 +5489,7 @@
       <c r="A259" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="B259" s="173" t="s">
+      <c r="B259" s="172" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5378,7 +5529,7 @@
       <c r="A264" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B264" s="174" t="s">
+      <c r="B264" s="173" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5426,7 +5577,7 @@
       <c r="A270" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="B270" s="174" t="s">
+      <c r="B270" s="173" t="s">
         <v>506</v>
       </c>
     </row>
@@ -5434,7 +5585,7 @@
       <c r="A271" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B271" s="174" t="s">
+      <c r="B271" s="173" t="s">
         <v>508</v>
       </c>
     </row>
@@ -5442,7 +5593,7 @@
       <c r="A272" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B272" s="174" t="s">
+      <c r="B272" s="173" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5514,7 +5665,7 @@
       <c r="A281" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="B281" s="175" t="s">
+      <c r="B281" s="174" t="s">
         <v>527</v>
       </c>
     </row>
@@ -5522,39 +5673,39 @@
       <c r="A282" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B282" s="176" t="s">
+      <c r="B282" s="175" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="177" t="s">
+      <c r="A283" s="176" t="s">
         <v>530</v>
       </c>
-      <c r="B283" s="176" t="s">
+      <c r="B283" s="175" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="177" t="s">
+      <c r="A284" s="176" t="s">
         <v>532</v>
       </c>
-      <c r="B284" s="176" t="s">
+      <c r="B284" s="175" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="177" t="s">
+      <c r="A285" s="176" t="s">
         <v>533</v>
       </c>
-      <c r="B285" s="176" t="s">
+      <c r="B285" s="175" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="177" t="s">
+      <c r="A286" s="176" t="s">
         <v>535</v>
       </c>
-      <c r="B286" s="176" t="s">
+      <c r="B286" s="175" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5567,103 +5718,215 @@
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="8"/>
-      <c r="B288" s="110"/>
+      <c r="A288" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B288" s="110" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="8"/>
-      <c r="B289" s="110"/>
+      <c r="A289" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B289" s="110" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="8"/>
-      <c r="B290" s="110"/>
+      <c r="A290" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B290" s="110" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="8"/>
-      <c r="B291" s="110"/>
+      <c r="A291" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B291" s="110" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="103"/>
-      <c r="B292" s="117"/>
+      <c r="A292" s="103" t="s">
+        <v>547</v>
+      </c>
+      <c r="B292" s="177" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="8"/>
-      <c r="B293" s="117"/>
+      <c r="A293" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B293" s="177" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="8"/>
-      <c r="B294" s="110"/>
+      <c r="A294" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B294" s="110" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="8"/>
-      <c r="B295" s="110"/>
+      <c r="A295" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B295" s="110" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="8"/>
-      <c r="B296" s="110"/>
+      <c r="A296" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B296" s="110" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="8"/>
-      <c r="B297" s="110"/>
+      <c r="A297" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B297" s="110" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="8"/>
-      <c r="B298" s="110"/>
+      <c r="A298" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B298" s="110" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="8"/>
-      <c r="B299" s="110"/>
+      <c r="A299" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B299" s="110" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="8"/>
-      <c r="B300" s="110"/>
+      <c r="A300" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B300" s="110" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="8"/>
-      <c r="B301" s="110"/>
+      <c r="A301" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B301" s="110" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="8"/>
-      <c r="B302" s="117"/>
+      <c r="A302" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B302" s="178" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="8"/>
-      <c r="B303" s="110"/>
+      <c r="A303" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B303" s="110" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="8"/>
-      <c r="B304" s="117"/>
+      <c r="A304" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B304" s="178" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="8"/>
-      <c r="B305" s="117"/>
+      <c r="A305" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B305" s="178" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="8"/>
-      <c r="B306" s="117"/>
+      <c r="A306" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B306" s="178" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="8"/>
-      <c r="B307" s="110"/>
+      <c r="A307" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B307" s="110" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="8"/>
-      <c r="B308" s="117"/>
+      <c r="A308" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B308" s="178" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="8"/>
-      <c r="B309" s="110"/>
+      <c r="A309" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B309" s="110" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="8"/>
-      <c r="B310" s="110"/>
+      <c r="A310" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B310" s="110" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="8"/>
-      <c r="B311" s="110"/>
+      <c r="A311" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B311" s="110" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B312" s="110" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B313" s="110" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="B319" s="118"/>
+      <c r="B319" s="117"/>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="8"/>
@@ -5675,7 +5938,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="103"/>
-      <c r="B328" s="119"/>
+      <c r="B328" s="118"/>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="8"/>
@@ -5699,7 +5962,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="8"/>
-      <c r="B334" s="120"/>
+      <c r="B334" s="119"/>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="8"/>
@@ -5747,7 +6010,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="8"/>
-      <c r="B346" s="121"/>
+      <c r="B346" s="120"/>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="8"/>
@@ -5775,11 +6038,11 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="8"/>
-      <c r="B353" s="122"/>
+      <c r="B353" s="121"/>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="8"/>
-      <c r="B354" s="122"/>
+      <c r="B354" s="121"/>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="8"/>
@@ -5821,8 +6084,8 @@
       <c r="B364" s="110"/>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="123"/>
-      <c r="B365" s="122"/>
+      <c r="A365" s="122"/>
+      <c r="B365" s="121"/>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="8"/>

--- a/name/dictionary_flavor.xlsx
+++ b/name/dictionary_flavor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\name\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648A9B46-4295-4BE5-BD64-1B36FDD4E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E80D5-6311-45DB-A6DC-140213FDA600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="634">
   <si>
     <t>Japanese</t>
   </si>
@@ -1884,6 +1884,57 @@
   </si>
   <si>
     <t>Shine Muscat</t>
+  </si>
+  <si>
+    <t>マヨネーズ</t>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+  </si>
+  <si>
+    <t>ホワイトミルク</t>
+  </si>
+  <si>
+    <t>White Milk</t>
+  </si>
+  <si>
+    <t>スパイス</t>
+  </si>
+  <si>
+    <t>Spice</t>
+  </si>
+  <si>
+    <t>スパイシー</t>
+  </si>
+  <si>
+    <t>うなぎ</t>
+  </si>
+  <si>
+    <t>Unagi</t>
+  </si>
+  <si>
+    <t>さくら抹茶</t>
+  </si>
+  <si>
+    <t>Sakura Matcha</t>
+  </si>
+  <si>
+    <t>抹茶チョコ</t>
+  </si>
+  <si>
+    <t>Matcha Choco</t>
+  </si>
+  <si>
+    <t>アーモンドチョコ</t>
+  </si>
+  <si>
+    <t>Almond Choco</t>
+  </si>
+  <si>
+    <t>白桃</t>
+  </si>
+  <si>
+    <t>White Peach</t>
   </si>
 </sst>
 </file>
@@ -2865,10 +2916,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2890,20 +2941,20 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2928,20 +2979,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3292,8 +3343,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -3312,7 +3363,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3320,26 +3371,26 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3347,23 +3398,23 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3371,28 +3422,28 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3400,55 +3451,55 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="77" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3456,10 +3507,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3467,7 +3518,7 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3475,15 +3526,15 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3491,7 +3542,7 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3499,7 +3550,7 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="77" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3507,7 +3558,7 @@
       <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="77" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3515,7 +3566,7 @@
       <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="77" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3523,39 +3574,39 @@
       <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="77" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="77" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="77" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="77" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3608,18 +3659,18 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="77" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="77" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3739,7 +3790,7 @@
       <c r="A55" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="77" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3747,28 +3798,28 @@
       <c r="A56" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="77" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="77" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="78" t="s">
+      <c r="A58" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="77" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="78" t="s">
+      <c r="A59" s="77" t="s">
         <v>112</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3787,7 +3838,7 @@
       <c r="A61" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="77" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3816,10 +3867,10 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="77" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3827,15 +3878,15 @@
       <c r="A66" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="78" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="78" t="s">
+      <c r="A67" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="77" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3851,7 +3902,7 @@
       <c r="A69" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="77" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3859,7 +3910,7 @@
       <c r="A70" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="77" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3867,7 +3918,7 @@
       <c r="A71" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="80" t="s">
+      <c r="B71" s="79" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3880,18 +3931,18 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="80" t="s">
+      <c r="A73" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="79" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="81" t="s">
+      <c r="A74" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="81" t="s">
+      <c r="B74" s="80" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3899,15 +3950,15 @@
       <c r="A75" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="85" t="s">
+      <c r="B75" s="84" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="82" t="s">
+      <c r="A76" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="B76" s="82" t="s">
+      <c r="B76" s="81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3915,31 +3966,31 @@
       <c r="A77" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="82" t="s">
+      <c r="B77" s="81" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="82" t="s">
+      <c r="A78" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="82" t="s">
+      <c r="B78" s="81" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="83" t="s">
+      <c r="A79" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="83" t="s">
+      <c r="B79" s="82" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B80" s="84" t="s">
+      <c r="B80" s="83" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3947,15 +3998,15 @@
       <c r="A81" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="84" t="s">
+      <c r="B81" s="83" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="83" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3963,15 +4014,15 @@
       <c r="A83" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="85" t="s">
+      <c r="B83" s="84" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="85" t="s">
+      <c r="A84" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="85" t="s">
+      <c r="B84" s="84" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4024,15 +4075,15 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="85" t="s">
+      <c r="A91" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="85" t="s">
+      <c r="B91" s="84" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="85" t="s">
+      <c r="A92" s="84" t="s">
         <v>174</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -4043,23 +4094,23 @@
       <c r="A93" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="B93" s="85" t="s">
+      <c r="B93" s="84" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="85" t="s">
+      <c r="A94" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="85" t="s">
+      <c r="B94" s="84" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="B95" s="85" t="s">
+      <c r="B95" s="84" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4067,7 +4118,7 @@
       <c r="A96" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B96" s="85" t="s">
+      <c r="B96" s="84" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4075,23 +4126,23 @@
       <c r="A97" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="85" t="s">
+      <c r="B97" s="84" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="85" t="s">
+      <c r="A98" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="85" t="s">
+      <c r="B98" s="84" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="85" t="s">
+      <c r="A99" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B99" s="85" t="s">
+      <c r="B99" s="84" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4099,7 +4150,7 @@
       <c r="A100" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="85" t="s">
+      <c r="B100" s="84" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4107,7 +4158,7 @@
       <c r="A101" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="86" t="s">
+      <c r="B101" s="85" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4115,39 +4166,39 @@
       <c r="A102" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="87" t="s">
+      <c r="B102" s="86" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="88" t="s">
+      <c r="A103" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="B103" s="87" t="s">
+      <c r="B103" s="86" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="89" t="s">
+      <c r="A104" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="B104" s="89" t="s">
+      <c r="B104" s="88" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="89" t="s">
+      <c r="A105" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="B105" s="89" t="s">
+      <c r="B105" s="88" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="89" t="s">
+      <c r="A106" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="B106" s="89" t="s">
+      <c r="B106" s="88" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4155,7 +4206,7 @@
       <c r="A107" t="s">
         <v>203</v>
       </c>
-      <c r="B107" s="89" t="s">
+      <c r="B107" s="88" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4171,71 +4222,71 @@
       <c r="A109" t="s">
         <v>207</v>
       </c>
-      <c r="B109" s="89" t="s">
+      <c r="B109" s="88" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="89" t="s">
+      <c r="A110" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="B110" s="89" t="s">
+      <c r="B110" s="88" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="89" t="s">
+      <c r="A111" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="B111" s="89" t="s">
+      <c r="B111" s="88" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="89" t="s">
+      <c r="A112" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="89" t="s">
+      <c r="B112" s="88" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="89" t="s">
+      <c r="A113" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="B113" s="89" t="s">
+      <c r="B113" s="88" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="89" t="s">
+      <c r="A114" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="B114" s="89" t="s">
+      <c r="B114" s="88" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="90" t="s">
+      <c r="A115" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="B115" s="90" t="s">
+      <c r="B115" s="89" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="90" t="s">
+      <c r="A116" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="B116" s="91" t="s">
+      <c r="B116" s="90" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="92" t="s">
+      <c r="A117" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="B117" s="90" t="s">
+      <c r="B117" s="89" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4243,15 +4294,15 @@
       <c r="A118" t="s">
         <v>223</v>
       </c>
-      <c r="B118" s="90" t="s">
+      <c r="B118" s="89" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="90" t="s">
+      <c r="A119" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="B119" s="90" t="s">
+      <c r="B119" s="89" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4259,15 +4310,15 @@
       <c r="A120" t="s">
         <v>226</v>
       </c>
-      <c r="B120" s="90" t="s">
+      <c r="B120" s="89" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="90" t="s">
+      <c r="A121" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="90" t="s">
+      <c r="B121" s="89" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4275,7 +4326,7 @@
       <c r="A122" t="s">
         <v>230</v>
       </c>
-      <c r="B122" s="90" t="s">
+      <c r="B122" s="89" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4283,31 +4334,31 @@
       <c r="A123" t="s">
         <v>232</v>
       </c>
-      <c r="B123" s="90" t="s">
+      <c r="B123" s="89" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="90" t="s">
+      <c r="A124" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="B124" s="90" t="s">
+      <c r="B124" s="89" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="90" t="s">
+      <c r="A125" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="B125" s="90" t="s">
+      <c r="B125" s="89" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="90" t="s">
+      <c r="A126" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="90" t="s">
+      <c r="B126" s="89" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4315,7 +4366,7 @@
       <c r="A127" t="s">
         <v>239</v>
       </c>
-      <c r="B127" s="90" t="s">
+      <c r="B127" s="89" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4323,7 +4374,7 @@
       <c r="A128" t="s">
         <v>241</v>
       </c>
-      <c r="B128" s="90" t="s">
+      <c r="B128" s="89" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4331,12 +4382,12 @@
       <c r="A129" t="s">
         <v>244</v>
       </c>
-      <c r="B129" s="90" t="s">
+      <c r="B129" s="89" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="90" t="s">
+      <c r="A130" s="89" t="s">
         <v>245</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -4347,23 +4398,23 @@
       <c r="A131" t="s">
         <v>247</v>
       </c>
-      <c r="B131" s="90" t="s">
+      <c r="B131" s="89" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="90" t="s">
+      <c r="A132" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="B132" s="90" t="s">
+      <c r="B132" s="89" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="90" t="s">
+      <c r="A133" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="B133" s="90" t="s">
+      <c r="B133" s="89" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4371,7 +4422,7 @@
       <c r="A134" t="s">
         <v>253</v>
       </c>
-      <c r="B134" s="90" t="s">
+      <c r="B134" s="89" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4384,15 +4435,15 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="93" t="s">
+      <c r="A136" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B136" s="93" t="s">
+      <c r="B136" s="92" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="93" t="s">
+      <c r="A137" s="92" t="s">
         <v>259</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -4400,10 +4451,10 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="93" t="s">
+      <c r="A138" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="B138" s="93" t="s">
+      <c r="B138" s="92" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4411,15 +4462,15 @@
       <c r="A139" t="s">
         <v>262</v>
       </c>
-      <c r="B139" s="93" t="s">
+      <c r="B139" s="92" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="93" t="s">
+      <c r="A140" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="B140" s="93" t="s">
+      <c r="B140" s="92" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4427,12 +4478,12 @@
       <c r="A141" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B141" s="94" t="s">
+      <c r="B141" s="93" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="94" t="s">
+      <c r="A142" s="93" t="s">
         <v>268</v>
       </c>
       <c r="B142" s="8" t="s">
@@ -4440,26 +4491,26 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="95" t="s">
+      <c r="A143" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="B143" s="95" t="s">
+      <c r="B143" s="94" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="95" t="s">
+      <c r="A144" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="B144" s="95" t="s">
+      <c r="B144" s="94" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="95" t="s">
+      <c r="A145" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B145" s="95" t="s">
+      <c r="B145" s="94" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4467,7 +4518,7 @@
       <c r="A146" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B146" s="95" t="s">
+      <c r="B146" s="94" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4480,10 +4531,10 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="95" t="s">
+      <c r="A148" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="B148" s="95" t="s">
+      <c r="B148" s="94" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4491,15 +4542,15 @@
       <c r="A149" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B149" s="95" t="s">
+      <c r="B149" s="94" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="95" t="s">
+      <c r="A150" s="94" t="s">
         <v>284</v>
       </c>
-      <c r="B150" s="95" t="s">
+      <c r="B150" s="94" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4507,23 +4558,23 @@
       <c r="A151" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B151" s="95" t="s">
+      <c r="B151" s="94" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="95" t="s">
+      <c r="A152" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="B152" s="95" t="s">
+      <c r="B152" s="94" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="95" t="s">
+      <c r="A153" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="B153" s="95" t="s">
+      <c r="B153" s="94" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4531,7 +4582,7 @@
       <c r="A154" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="95" t="s">
+      <c r="B154" s="94" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4544,26 +4595,26 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="95" t="s">
+      <c r="A156" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="B156" s="95" t="s">
+      <c r="B156" s="94" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="95" t="s">
+      <c r="A157" s="94" t="s">
         <v>298</v>
       </c>
-      <c r="B157" s="95" t="s">
+      <c r="B157" s="94" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="95" t="s">
+      <c r="A158" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="B158" s="95" t="s">
+      <c r="B158" s="94" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4571,23 +4622,23 @@
       <c r="A159" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B159" s="95" t="s">
+      <c r="B159" s="94" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="95" t="s">
+      <c r="A160" s="94" t="s">
         <v>304</v>
       </c>
-      <c r="B160" s="95" t="s">
+      <c r="B160" s="94" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="95" t="s">
+      <c r="A161" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="B161" s="95" t="s">
+      <c r="B161" s="94" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4600,18 +4651,18 @@
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="95" t="s">
+      <c r="A163" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="B163" s="95" t="s">
+      <c r="B163" s="94" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="95" t="s">
+      <c r="A164" s="94" t="s">
         <v>312</v>
       </c>
-      <c r="B164" s="95" t="s">
+      <c r="B164" s="94" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4619,23 +4670,23 @@
       <c r="A165" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B165" s="95" t="s">
+      <c r="B165" s="94" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="95" t="s">
+      <c r="A166" s="94" t="s">
         <v>315</v>
       </c>
-      <c r="B166" s="95" t="s">
+      <c r="B166" s="94" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="95" t="s">
+      <c r="A167" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="B167" s="95" t="s">
+      <c r="B167" s="94" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4643,23 +4694,23 @@
       <c r="A168" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B168" s="95" t="s">
+      <c r="B168" s="94" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="95" t="s">
+      <c r="A169" s="94" t="s">
         <v>321</v>
       </c>
-      <c r="B169" s="95" t="s">
+      <c r="B169" s="94" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="95" t="s">
+      <c r="A170" s="94" t="s">
         <v>323</v>
       </c>
-      <c r="B170" s="95" t="s">
+      <c r="B170" s="94" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4667,7 +4718,7 @@
       <c r="A171" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="B171" s="95" t="s">
+      <c r="B171" s="94" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4675,23 +4726,23 @@
       <c r="A172" t="s">
         <v>326</v>
       </c>
-      <c r="B172" s="95" t="s">
+      <c r="B172" s="94" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="95" t="s">
+      <c r="A173" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="B173" s="95" t="s">
+      <c r="B173" s="94" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="95" t="s">
+      <c r="A174" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="B174" s="95" t="s">
+      <c r="B174" s="94" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4699,7 +4750,7 @@
       <c r="A175" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B175" s="95" t="s">
+      <c r="B175" s="94" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4707,15 +4758,15 @@
       <c r="A176" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B176" s="95" t="s">
+      <c r="B176" s="94" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="95" t="s">
+      <c r="A177" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="B177" s="95" t="s">
+      <c r="B177" s="94" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4723,7 +4774,7 @@
       <c r="A178" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B178" s="95" t="s">
+      <c r="B178" s="94" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4739,7 +4790,7 @@
       <c r="A180" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B180" s="95" t="s">
+      <c r="B180" s="94" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4747,7 +4798,7 @@
       <c r="A181" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B181" s="95" t="s">
+      <c r="B181" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4755,7 +4806,7 @@
       <c r="A182" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B182" s="95" t="s">
+      <c r="B182" s="94" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4763,7 +4814,7 @@
       <c r="A183" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B183" s="95" t="s">
+      <c r="B183" s="94" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4771,7 +4822,7 @@
       <c r="A184" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B184" s="95" t="s">
+      <c r="B184" s="94" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4779,7 +4830,7 @@
       <c r="A185" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B185" s="95" t="s">
+      <c r="B185" s="94" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4787,23 +4838,23 @@
       <c r="A186" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B186" s="95" t="s">
+      <c r="B186" s="94" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="95" t="s">
+      <c r="A187" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="B187" s="95" t="s">
+      <c r="B187" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="95" t="s">
+      <c r="A188" s="94" t="s">
         <v>356</v>
       </c>
-      <c r="B188" s="95" t="s">
+      <c r="B188" s="94" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4811,7 +4862,7 @@
       <c r="A189" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B189" s="95" t="s">
+      <c r="B189" s="94" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4827,7 +4878,7 @@
       <c r="A191" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B191" s="96" t="s">
+      <c r="B191" s="95" t="s">
         <v>361</v>
       </c>
     </row>
@@ -4835,7 +4886,7 @@
       <c r="A192" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B192" s="96" t="s">
+      <c r="B192" s="95" t="s">
         <v>363</v>
       </c>
       <c r="G192" s="3"/>
@@ -4844,7 +4895,7 @@
       <c r="A193" s="67" t="s">
         <v>364</v>
       </c>
-      <c r="B193" s="96" t="s">
+      <c r="B193" s="95" t="s">
         <v>365</v>
       </c>
       <c r="G193" s="2"/>
@@ -4853,7 +4904,7 @@
       <c r="A194" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B194" s="96" t="s">
+      <c r="B194" s="95" t="s">
         <v>367</v>
       </c>
       <c r="G194" s="3"/>
@@ -4868,37 +4919,37 @@
       <c r="G195" s="2"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="96" t="s">
+      <c r="A196" s="95" t="s">
         <v>370</v>
       </c>
-      <c r="B196" s="96" t="s">
+      <c r="B196" s="95" t="s">
         <v>371</v>
       </c>
       <c r="G196" s="2"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="96" t="s">
+      <c r="A197" s="95" t="s">
         <v>372</v>
       </c>
-      <c r="B197" s="96" t="s">
+      <c r="B197" s="95" t="s">
         <v>373</v>
       </c>
       <c r="G197" s="3"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="96" t="s">
+      <c r="A198" s="95" t="s">
         <v>374</v>
       </c>
-      <c r="B198" s="96" t="s">
+      <c r="B198" s="95" t="s">
         <v>375</v>
       </c>
       <c r="G198" s="3"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="96" t="s">
+      <c r="A199" s="95" t="s">
         <v>376</v>
       </c>
-      <c r="B199" s="96" t="s">
+      <c r="B199" s="95" t="s">
         <v>377</v>
       </c>
       <c r="G199" s="2"/>
@@ -4907,34 +4958,34 @@
       <c r="A200" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B200" s="96" t="s">
+      <c r="B200" s="95" t="s">
         <v>379</v>
       </c>
       <c r="G200" s="2"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="96" t="s">
+      <c r="A201" s="95" t="s">
         <v>380</v>
       </c>
-      <c r="B201" s="96" t="s">
+      <c r="B201" s="95" t="s">
         <v>381</v>
       </c>
       <c r="G201" s="2"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="96" t="s">
+      <c r="A202" s="95" t="s">
         <v>382</v>
       </c>
-      <c r="B202" s="96" t="s">
+      <c r="B202" s="95" t="s">
         <v>383</v>
       </c>
       <c r="G202" s="2"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="96" t="s">
+      <c r="A203" s="95" t="s">
         <v>384</v>
       </c>
-      <c r="B203" s="96" t="s">
+      <c r="B203" s="95" t="s">
         <v>385</v>
       </c>
       <c r="G203" s="3"/>
@@ -4943,16 +4994,16 @@
       <c r="A204" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B204" s="96" t="s">
+      <c r="B204" s="95" t="s">
         <v>387</v>
       </c>
       <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="96" t="s">
+      <c r="A205" s="95" t="s">
         <v>388</v>
       </c>
-      <c r="B205" s="96" t="s">
+      <c r="B205" s="95" t="s">
         <v>389</v>
       </c>
       <c r="G205" s="3"/>
@@ -4961,7 +5012,7 @@
       <c r="A206" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B206" s="96" t="s">
+      <c r="B206" s="95" t="s">
         <v>391</v>
       </c>
       <c r="G206" s="3"/>
@@ -4970,24 +5021,24 @@
       <c r="A207" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B207" s="96" t="s">
+      <c r="B207" s="95" t="s">
         <v>392</v>
       </c>
       <c r="G207" s="3"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="96" t="s">
+      <c r="A208" s="95" t="s">
         <v>394</v>
       </c>
-      <c r="B208" s="96" t="s">
+      <c r="B208" s="95" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="96" t="s">
+      <c r="A209" s="95" t="s">
         <v>396</v>
       </c>
-      <c r="B209" s="96" t="s">
+      <c r="B209" s="95" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4995,31 +5046,31 @@
       <c r="A210" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B210" s="96" t="s">
+      <c r="B210" s="95" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="97" t="s">
+      <c r="A211" s="96" t="s">
         <v>400</v>
       </c>
-      <c r="B211" s="97" t="s">
+      <c r="B211" s="96" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="98" t="s">
+      <c r="A212" s="97" t="s">
         <v>402</v>
       </c>
-      <c r="B212" s="98" t="s">
+      <c r="B212" s="97" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="98" t="s">
+      <c r="A213" s="97" t="s">
         <v>404</v>
       </c>
-      <c r="B213" s="98" t="s">
+      <c r="B213" s="97" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5027,55 +5078,55 @@
       <c r="A214" s="68" t="s">
         <v>403</v>
       </c>
-      <c r="B214" s="98" t="s">
+      <c r="B214" s="97" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="98" t="s">
+      <c r="A215" s="97" t="s">
         <v>406</v>
       </c>
-      <c r="B215" s="98" t="s">
+      <c r="B215" s="97" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="98" t="s">
+      <c r="A216" s="97" t="s">
         <v>408</v>
       </c>
-      <c r="B216" s="98" t="s">
+      <c r="B216" s="97" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="98" t="s">
+      <c r="A217" s="97" t="s">
         <v>410</v>
       </c>
-      <c r="B217" s="98" t="s">
+      <c r="B217" s="97" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="98" t="s">
+      <c r="A218" s="97" t="s">
         <v>411</v>
       </c>
-      <c r="B218" s="98" t="s">
+      <c r="B218" s="97" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="98" t="s">
+      <c r="A219" s="97" t="s">
         <v>413</v>
       </c>
-      <c r="B219" s="98" t="s">
+      <c r="B219" s="97" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="98" t="s">
+      <c r="A220" s="97" t="s">
         <v>415</v>
       </c>
-      <c r="B220" s="98" t="s">
+      <c r="B220" s="97" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5083,15 +5134,15 @@
       <c r="A221" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B221" s="98" t="s">
+      <c r="B221" s="97" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="98" t="s">
+      <c r="A222" s="97" t="s">
         <v>420</v>
       </c>
-      <c r="B222" s="98" t="s">
+      <c r="B222" s="97" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5099,36 +5150,36 @@
       <c r="A223" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B223" s="98" t="s">
+      <c r="B223" s="97" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="98" t="s">
+      <c r="A224" s="97" t="s">
         <v>423</v>
       </c>
-      <c r="B224" s="98" t="s">
+      <c r="B224" s="97" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="98" t="s">
+      <c r="A225" s="97" t="s">
         <v>424</v>
       </c>
-      <c r="B225" s="98" t="s">
+      <c r="B225" s="97" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="98" t="s">
+      <c r="A226" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B226" s="98" t="s">
+      <c r="B226" s="97" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="98" t="s">
+      <c r="A227" s="97" t="s">
         <v>428</v>
       </c>
       <c r="B227" s="8" t="s">
@@ -5136,10 +5187,10 @@
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="99" t="s">
+      <c r="A228" s="98" t="s">
         <v>430</v>
       </c>
-      <c r="B228" s="100" t="s">
+      <c r="B228" s="99" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5147,23 +5198,23 @@
       <c r="A229" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B229" s="99" t="s">
+      <c r="B229" s="98" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="99" t="s">
+      <c r="A230" s="98" t="s">
         <v>433</v>
       </c>
-      <c r="B230" s="99" t="s">
+      <c r="B230" s="98" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="99" t="s">
+      <c r="A231" s="98" t="s">
         <v>435</v>
       </c>
-      <c r="B231" s="99" t="s">
+      <c r="B231" s="98" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5171,15 +5222,15 @@
       <c r="A232" t="s">
         <v>438</v>
       </c>
-      <c r="B232" s="101" t="s">
+      <c r="B232" s="100" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="102" t="s">
+      <c r="A233" s="101" t="s">
         <v>440</v>
       </c>
-      <c r="B233" s="103" t="s">
+      <c r="B233" s="102" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5187,15 +5238,15 @@
       <c r="A234" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B234" s="104" t="s">
+      <c r="B234" s="103" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="104" t="s">
+      <c r="A235" s="103" t="s">
         <v>444</v>
       </c>
-      <c r="B235" s="104" t="s">
+      <c r="B235" s="103" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5203,7 +5254,7 @@
       <c r="A236" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B236" s="105" t="s">
+      <c r="B236" s="104" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5211,7 +5262,7 @@
       <c r="A237" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="B237" s="105" t="s">
+      <c r="B237" s="104" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5224,7 +5275,7 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="105" t="s">
+      <c r="A239" s="104" t="s">
         <v>451</v>
       </c>
       <c r="B239" s="71" t="s">
@@ -5232,18 +5283,18 @@
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="105" t="s">
+      <c r="A240" s="104" t="s">
         <v>452</v>
       </c>
-      <c r="B240" s="105" t="s">
+      <c r="B240" s="104" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="105" t="s">
+      <c r="A241" s="104" t="s">
         <v>454</v>
       </c>
-      <c r="B241" s="105" t="s">
+      <c r="B241" s="104" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5251,39 +5302,39 @@
       <c r="A242" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="B242" s="105" t="s">
+      <c r="B242" s="104" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="105" t="s">
+      <c r="A243" s="104" t="s">
         <v>458</v>
       </c>
-      <c r="B243" s="105" t="s">
+      <c r="B243" s="104" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="105" t="s">
+      <c r="A244" s="104" t="s">
         <v>460</v>
       </c>
-      <c r="B244" s="105" t="s">
+      <c r="B244" s="104" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="105" t="s">
+      <c r="A245" s="104" t="s">
         <v>461</v>
       </c>
-      <c r="B245" s="105" t="s">
+      <c r="B245" s="104" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="105" t="s">
+      <c r="A246" s="104" t="s">
         <v>463</v>
       </c>
-      <c r="B246" s="105" t="s">
+      <c r="B246" s="104" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5291,7 +5342,7 @@
       <c r="A247" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B247" s="105" t="s">
+      <c r="B247" s="104" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5299,15 +5350,15 @@
       <c r="A248" s="72" t="s">
         <v>466</v>
       </c>
-      <c r="B248" s="105" t="s">
+      <c r="B248" s="104" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="106" t="s">
+      <c r="A249" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="B249" s="105" t="s">
+      <c r="B249" s="104" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5315,7 +5366,7 @@
       <c r="A250" s="72" t="s">
         <v>469</v>
       </c>
-      <c r="B250" s="105" t="s">
+      <c r="B250" s="104" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5323,7 +5374,7 @@
       <c r="A251" s="72" t="s">
         <v>470</v>
       </c>
-      <c r="B251" s="105" t="s">
+      <c r="B251" s="104" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5339,7 +5390,7 @@
       <c r="A253" s="72" t="s">
         <v>473</v>
       </c>
-      <c r="B253" s="105" t="s">
+      <c r="B253" s="104" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5347,7 +5398,7 @@
       <c r="A254" s="73" t="s">
         <v>475</v>
       </c>
-      <c r="B254" s="105" t="s">
+      <c r="B254" s="104" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5387,7 +5438,7 @@
       <c r="A259" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="B259" s="107" t="s">
+      <c r="B259" s="106" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5427,7 +5478,7 @@
       <c r="A264" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B264" s="108" t="s">
+      <c r="B264" s="107" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5475,7 +5526,7 @@
       <c r="A270" s="72" t="s">
         <v>505</v>
       </c>
-      <c r="B270" s="108" t="s">
+      <c r="B270" s="107" t="s">
         <v>506</v>
       </c>
     </row>
@@ -5483,7 +5534,7 @@
       <c r="A271" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B271" s="108" t="s">
+      <c r="B271" s="107" t="s">
         <v>508</v>
       </c>
     </row>
@@ -5491,7 +5542,7 @@
       <c r="A272" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B272" s="108" t="s">
+      <c r="B272" s="107" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5563,7 +5614,7 @@
       <c r="A281" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="B281" s="109" t="s">
+      <c r="B281" s="108" t="s">
         <v>527</v>
       </c>
     </row>
@@ -5571,39 +5622,39 @@
       <c r="A282" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B282" s="110" t="s">
+      <c r="B282" s="109" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="110" t="s">
+      <c r="A283" s="109" t="s">
         <v>530</v>
       </c>
-      <c r="B283" s="110" t="s">
+      <c r="B283" s="109" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="110" t="s">
+      <c r="A284" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="B284" s="110" t="s">
+      <c r="B284" s="109" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="110" t="s">
+      <c r="A285" s="109" t="s">
         <v>533</v>
       </c>
-      <c r="B285" s="110" t="s">
+      <c r="B285" s="109" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="110" t="s">
+      <c r="A286" s="109" t="s">
         <v>535</v>
       </c>
-      <c r="B286" s="110" t="s">
+      <c r="B286" s="109" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5651,7 +5702,7 @@
       <c r="A292" s="67" t="s">
         <v>547</v>
       </c>
-      <c r="B292" s="111" t="s">
+      <c r="B292" s="110" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5659,7 +5710,7 @@
       <c r="A293" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B293" s="111" t="s">
+      <c r="B293" s="110" t="s">
         <v>311</v>
       </c>
     </row>
@@ -5731,7 +5782,7 @@
       <c r="A302" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="B302" s="112" t="s">
+      <c r="B302" s="111" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5747,7 +5798,7 @@
       <c r="A304" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="B304" s="112" t="s">
+      <c r="B304" s="111" t="s">
         <v>570</v>
       </c>
     </row>
@@ -5755,7 +5806,7 @@
       <c r="A305" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="B305" s="112" t="s">
+      <c r="B305" s="111" t="s">
         <v>571</v>
       </c>
     </row>
@@ -5763,7 +5814,7 @@
       <c r="A306" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B306" s="112" t="s">
+      <c r="B306" s="111" t="s">
         <v>570</v>
       </c>
     </row>
@@ -5779,7 +5830,7 @@
       <c r="A308" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="B308" s="112" t="s">
+      <c r="B308" s="111" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5867,7 +5918,7 @@
       <c r="A319" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="B319" s="113" t="s">
+      <c r="B319" s="112" t="s">
         <v>594</v>
       </c>
     </row>
@@ -5968,40 +6019,76 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="8"/>
-      <c r="B332" s="8"/>
+      <c r="A332" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="8"/>
-      <c r="B333" s="75"/>
+      <c r="A333" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B333" s="113" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="8"/>
-      <c r="B334" s="8"/>
+      <c r="A334" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="8"/>
-      <c r="B335" s="8"/>
+      <c r="A335" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="8"/>
-      <c r="B336" s="8"/>
+      <c r="A336" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="8"/>
-      <c r="B337" s="8"/>
+      <c r="A337" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="338" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A338" s="8"/>
-      <c r="B338" s="8"/>
+      <c r="A338" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="8"/>
-      <c r="B339" s="8"/>
+      <c r="A339" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="8"/>
-      <c r="B340" s="8"/>
+      <c r="A340" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="8"/>
@@ -6021,7 +6108,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="8"/>
-      <c r="B345" s="76"/>
+      <c r="B345" s="75"/>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="8"/>
@@ -6049,11 +6136,11 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="8"/>
-      <c r="B352" s="77"/>
+      <c r="B352" s="76"/>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="8"/>
-      <c r="B353" s="77"/>
+      <c r="B353" s="76"/>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="8"/>
@@ -6095,8 +6182,8 @@
       <c r="B363" s="8"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="77"/>
-      <c r="B364" s="77"/>
+      <c r="A364" s="76"/>
+      <c r="B364" s="76"/>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="8"/>

--- a/name/dictionary_flavor.xlsx
+++ b/name/dictionary_flavor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E80D5-6311-45DB-A6DC-140213FDA600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C3A58-48CB-4689-96FE-A7BFF6900B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1682</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="642">
   <si>
     <t>Japanese</t>
   </si>
@@ -1935,6 +1925,30 @@
   </si>
   <si>
     <t>White Peach</t>
+  </si>
+  <si>
+    <t>無限のり</t>
+  </si>
+  <si>
+    <t>Infinite Seaweed</t>
+  </si>
+  <si>
+    <t>生ビール</t>
+  </si>
+  <si>
+    <t>Draft Beer</t>
+  </si>
+  <si>
+    <t>えびしお</t>
+  </si>
+  <si>
+    <t>Salt Shrimp</t>
+  </si>
+  <si>
+    <t>ラムレーズン</t>
+  </si>
+  <si>
+    <t>Rum Raisin</t>
   </si>
 </sst>
 </file>
@@ -3344,7 +3358,7 @@
   <dimension ref="A1:G2398"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A341" sqref="A341"/>
+      <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -6091,20 +6105,36 @@
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="8"/>
-      <c r="B341" s="8"/>
+      <c r="A341" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="8"/>
-      <c r="B342" s="8"/>
+      <c r="A342" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="8"/>
-      <c r="B343" s="8"/>
+      <c r="A343" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="8"/>
-      <c r="B344" s="8"/>
+      <c r="A344" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="8"/>

--- a/name/dictionary_flavor.xlsx
+++ b/name/dictionary_flavor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C3A58-48CB-4689-96FE-A7BFF6900B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E085F329-790F-4104-9465-46EF8669E559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1682</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1681</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="723">
   <si>
     <t>Japanese</t>
   </si>
@@ -1540,12 +1540,6 @@
     <t>Mentaiko</t>
   </si>
   <si>
-    <t>塩</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
     <t>トマトクリーム</t>
   </si>
   <si>
@@ -1949,18 +1943,281 @@
   </si>
   <si>
     <t>Rum Raisin</t>
+  </si>
+  <si>
+    <t>甘さ控えめ</t>
+  </si>
+  <si>
+    <t>Moderately Sweet</t>
+  </si>
+  <si>
+    <t>ティーウズレモン</t>
+  </si>
+  <si>
+    <t>Tea with Lemon</t>
+  </si>
+  <si>
+    <t>辛い明太子</t>
+  </si>
+  <si>
+    <t>Spicy Mentaiko</t>
+  </si>
+  <si>
+    <t>カフェオレ</t>
+  </si>
+  <si>
+    <t>Café au Lait</t>
+  </si>
+  <si>
+    <t>深いコク</t>
+  </si>
+  <si>
+    <t>Deep Rich</t>
+  </si>
+  <si>
+    <t>甘い香り</t>
+  </si>
+  <si>
+    <t>Sweet Scent</t>
+  </si>
+  <si>
+    <t>コクしお</t>
+  </si>
+  <si>
+    <t>Rich Salt</t>
+  </si>
+  <si>
+    <t>オニオン</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>いちごみるく</t>
+  </si>
+  <si>
+    <t>Strawberry Milk</t>
+  </si>
+  <si>
+    <t>スイートコーン</t>
+  </si>
+  <si>
+    <t>Sweet Corn</t>
+  </si>
+  <si>
+    <t>食塩</t>
+  </si>
+  <si>
+    <t>Table Salt</t>
+  </si>
+  <si>
+    <t>レアチーズ</t>
+  </si>
+  <si>
+    <t>Rare Cheese</t>
+  </si>
+  <si>
+    <t>ほうれん草</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>たこせんべい</t>
+  </si>
+  <si>
+    <t>Octopus Senbei</t>
+  </si>
+  <si>
+    <t>ローズヒップ</t>
+  </si>
+  <si>
+    <t>Rosehip</t>
+  </si>
+  <si>
+    <t>さくらんぼ</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>シャキッとコーン</t>
+  </si>
+  <si>
+    <t>Crispy Corn</t>
+  </si>
+  <si>
+    <t>ジャージャー麺</t>
+  </si>
+  <si>
+    <t>Jajangmyeon</t>
+  </si>
+  <si>
+    <t>モカブレンド</t>
+  </si>
+  <si>
+    <t>Mocha Blend</t>
+  </si>
+  <si>
+    <t>ココア</t>
+  </si>
+  <si>
+    <t>Cocoa</t>
+  </si>
+  <si>
+    <t>ガナッシュ</t>
+  </si>
+  <si>
+    <t>Ganache</t>
+  </si>
+  <si>
+    <t>ほろ苦カカオ</t>
+  </si>
+  <si>
+    <t>Bittersweet Cacao</t>
+  </si>
+  <si>
+    <t>ほろ苦</t>
+  </si>
+  <si>
+    <t>Bittersweet</t>
+  </si>
+  <si>
+    <t>濃ごま</t>
+  </si>
+  <si>
+    <t>ビスケット</t>
+  </si>
+  <si>
+    <t>Biscuit</t>
+  </si>
+  <si>
+    <t>クラッカー</t>
+  </si>
+  <si>
+    <t>Cracker</t>
+  </si>
+  <si>
+    <t>チーズおかき</t>
+  </si>
+  <si>
+    <t>Cheese Okaki</t>
+  </si>
+  <si>
+    <t>チョコおかき</t>
+  </si>
+  <si>
+    <t>Choco Okaki</t>
+  </si>
+  <si>
+    <t>食塩不使用</t>
+  </si>
+  <si>
+    <t>Salt-free</t>
+  </si>
+  <si>
+    <t>アボカド</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>杏仁豆腐</t>
+  </si>
+  <si>
+    <t>Annin Tofu</t>
+  </si>
+  <si>
+    <t>みかん</t>
+  </si>
+  <si>
+    <t>豆板醤</t>
+  </si>
+  <si>
+    <t>Doubanjiang</t>
+  </si>
+  <si>
+    <t>Mandarin Orange</t>
+  </si>
+  <si>
+    <t>熟成豆板醤</t>
+  </si>
+  <si>
+    <t>Aged Doubanjiang</t>
+  </si>
+  <si>
+    <t>コチュジャン</t>
+  </si>
+  <si>
+    <t>Gochujang</t>
+  </si>
+  <si>
+    <t>みるく飴</t>
+  </si>
+  <si>
+    <t>Milk Candy</t>
+  </si>
+  <si>
+    <t>みるく</t>
+  </si>
+  <si>
+    <t>濃チーズ</t>
+  </si>
+  <si>
+    <t>Rich Cheese</t>
+  </si>
+  <si>
+    <t>Rich Sesame</t>
+  </si>
+  <si>
+    <t>お好み焼</t>
+  </si>
+  <si>
+    <t>Okonomiyaki</t>
+  </si>
+  <si>
+    <t>コーンクリーム</t>
+  </si>
+  <si>
+    <t>Corn Cream</t>
+  </si>
+  <si>
+    <t>カマンベールチーズ</t>
+  </si>
+  <si>
+    <t>パルメザンチーズ</t>
+  </si>
+  <si>
+    <t>Parmesan Cheese</t>
+  </si>
+  <si>
+    <t>Camembert Cheese</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="100">
+  <fonts count="102">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2703,154 +2960,160 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2893,31 +3156,32 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2930,7 +3194,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2943,29 +3206,29 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2981,6 +3244,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2990,10 +3254,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3001,9 +3267,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3083,10 +3346,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31E880F3-601E-4A23-91BF-5CF49E0AE873}" name="Table1" displayName="Table1" ref="A1:B1682" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B1682" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1682">
-    <sortCondition descending="1" ref="B5:B1682"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31E880F3-601E-4A23-91BF-5CF49E0AE873}" name="Table1" displayName="Table1" ref="A1:B1681" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:B1681" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1681">
+    <sortCondition descending="1" ref="B5:B1681"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{54EBA6F5-E9BF-4232-BECC-69FB485DBB2B}" name="Japanese" dataDxfId="1"/>
@@ -3355,10 +3618,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2398"/>
+  <dimension ref="A1:G2397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A342" sqref="A342"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -3377,7 +3640,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3385,26 +3648,26 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="75" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3412,23 +3675,23 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="75" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="75" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3436,28 +3699,28 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="75" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="75" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3465,55 +3728,55 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="75" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="75" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="75" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="75" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="75" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="75" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="75" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3521,10 +3784,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3532,7 +3795,7 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="75" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3540,15 +3803,15 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="75" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="75" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3556,7 +3819,7 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="75" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3564,7 +3827,7 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="75" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3572,7 +3835,7 @@
       <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="75" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3580,7 +3843,7 @@
       <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="75" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3588,39 +3851,39 @@
       <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="75" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="75" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="75" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="75" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3673,18 +3936,18 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="75" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="75" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3804,7 +4067,7 @@
       <c r="A55" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="75" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3812,28 +4075,28 @@
       <c r="A56" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="77" t="s">
+      <c r="B56" s="75" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="75" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="77" t="s">
+      <c r="A58" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="75" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="75" t="s">
         <v>112</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3852,7 +4115,7 @@
       <c r="A61" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="75" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3881,10 +4144,10 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="77" t="s">
+      <c r="A65" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="77" t="s">
+      <c r="B65" s="75" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3892,15 +4155,15 @@
       <c r="A66" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="76" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="75" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3916,7 +4179,7 @@
       <c r="A69" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="75" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3924,7 +4187,7 @@
       <c r="A70" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="75" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3932,7 +4195,7 @@
       <c r="A71" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="77" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3945,18 +4208,18 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="79" t="s">
+      <c r="B73" s="77" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="80" t="s">
+      <c r="A74" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="80" t="s">
+      <c r="B74" s="78" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3964,15 +4227,15 @@
       <c r="A75" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="84" t="s">
+      <c r="B75" s="82" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="81" t="s">
+      <c r="A76" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B76" s="81" t="s">
+      <c r="B76" s="79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3980,31 +4243,31 @@
       <c r="A77" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="81" t="s">
+      <c r="B77" s="79" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="81" t="s">
+      <c r="A78" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="79" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="82" t="s">
+      <c r="A79" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="82" t="s">
+      <c r="B79" s="80" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="83" t="s">
+      <c r="A80" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="B80" s="83" t="s">
+      <c r="B80" s="81" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4012,15 +4275,15 @@
       <c r="A81" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="83" t="s">
+      <c r="B81" s="81" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="83" t="s">
+      <c r="A82" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="83" t="s">
+      <c r="B82" s="81" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4028,15 +4291,15 @@
       <c r="A83" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="82" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="84" t="s">
+      <c r="A84" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="84" t="s">
+      <c r="B84" s="82" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4089,15 +4352,15 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="84" t="s">
+      <c r="A91" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="84" t="s">
+      <c r="B91" s="82" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="84" t="s">
+      <c r="A92" s="82" t="s">
         <v>174</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -4108,23 +4371,23 @@
       <c r="A93" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="B93" s="84" t="s">
+      <c r="B93" s="82" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="84" t="s">
+      <c r="A94" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="84" t="s">
+      <c r="B94" s="82" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="84" t="s">
+      <c r="A95" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="B95" s="84" t="s">
+      <c r="B95" s="82" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4132,7 +4395,7 @@
       <c r="A96" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B96" s="84" t="s">
+      <c r="B96" s="82" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4140,23 +4403,23 @@
       <c r="A97" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="84" t="s">
+      <c r="B97" s="82" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="84" t="s">
+      <c r="A98" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="84" t="s">
+      <c r="B98" s="82" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="84" t="s">
+      <c r="A99" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="B99" s="84" t="s">
+      <c r="B99" s="82" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4164,7 +4427,7 @@
       <c r="A100" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="84" t="s">
+      <c r="B100" s="82" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4172,7 +4435,7 @@
       <c r="A101" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="85" t="s">
+      <c r="B101" s="83" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4180,39 +4443,39 @@
       <c r="A102" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="86" t="s">
+      <c r="B102" s="84" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="87" t="s">
+      <c r="A103" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="B103" s="86" t="s">
+      <c r="B103" s="84" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="88" t="s">
+      <c r="A104" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="B104" s="88" t="s">
+      <c r="B104" s="86" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="88" t="s">
+      <c r="A105" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="B105" s="88" t="s">
+      <c r="B105" s="86" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="88" t="s">
+      <c r="A106" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="B106" s="88" t="s">
+      <c r="B106" s="86" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4220,7 +4483,7 @@
       <c r="A107" t="s">
         <v>203</v>
       </c>
-      <c r="B107" s="88" t="s">
+      <c r="B107" s="86" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4236,71 +4499,71 @@
       <c r="A109" t="s">
         <v>207</v>
       </c>
-      <c r="B109" s="88" t="s">
+      <c r="B109" s="86" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="88" t="s">
+      <c r="A110" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="B110" s="88" t="s">
+      <c r="B110" s="86" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="88" t="s">
+      <c r="A111" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="B111" s="88" t="s">
+      <c r="B111" s="86" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="88" t="s">
+      <c r="A112" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="88" t="s">
+      <c r="B112" s="86" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="88" t="s">
+      <c r="A113" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="B113" s="88" t="s">
+      <c r="B113" s="86" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="88" t="s">
+      <c r="A114" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="B114" s="88" t="s">
+      <c r="B114" s="86" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="89" t="s">
+      <c r="A115" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="B115" s="89" t="s">
+      <c r="B115" s="87" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="89" t="s">
+      <c r="A116" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="B116" s="90" t="s">
+      <c r="B116" s="88" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="91" t="s">
+      <c r="A117" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="B117" s="89" t="s">
+      <c r="B117" s="87" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4308,15 +4571,15 @@
       <c r="A118" t="s">
         <v>223</v>
       </c>
-      <c r="B118" s="89" t="s">
+      <c r="B118" s="87" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="89" t="s">
+      <c r="A119" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="B119" s="89" t="s">
+      <c r="B119" s="87" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4324,15 +4587,15 @@
       <c r="A120" t="s">
         <v>226</v>
       </c>
-      <c r="B120" s="89" t="s">
+      <c r="B120" s="87" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="89" t="s">
+      <c r="A121" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="89" t="s">
+      <c r="B121" s="87" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4340,7 +4603,7 @@
       <c r="A122" t="s">
         <v>230</v>
       </c>
-      <c r="B122" s="89" t="s">
+      <c r="B122" s="87" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4348,31 +4611,31 @@
       <c r="A123" t="s">
         <v>232</v>
       </c>
-      <c r="B123" s="89" t="s">
+      <c r="B123" s="87" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="89" t="s">
+      <c r="A124" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="B124" s="89" t="s">
+      <c r="B124" s="87" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="89" t="s">
+      <c r="A125" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="B125" s="89" t="s">
+      <c r="B125" s="87" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="89" t="s">
+      <c r="A126" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="89" t="s">
+      <c r="B126" s="87" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4380,7 +4643,7 @@
       <c r="A127" t="s">
         <v>239</v>
       </c>
-      <c r="B127" s="89" t="s">
+      <c r="B127" s="87" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4388,7 +4651,7 @@
       <c r="A128" t="s">
         <v>241</v>
       </c>
-      <c r="B128" s="89" t="s">
+      <c r="B128" s="87" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4396,12 +4659,12 @@
       <c r="A129" t="s">
         <v>244</v>
       </c>
-      <c r="B129" s="89" t="s">
+      <c r="B129" s="87" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="89" t="s">
+      <c r="A130" s="87" t="s">
         <v>245</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -4412,23 +4675,23 @@
       <c r="A131" t="s">
         <v>247</v>
       </c>
-      <c r="B131" s="89" t="s">
+      <c r="B131" s="87" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="89" t="s">
+      <c r="A132" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="B132" s="89" t="s">
+      <c r="B132" s="87" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="89" t="s">
+      <c r="A133" s="87" t="s">
         <v>251</v>
       </c>
-      <c r="B133" s="89" t="s">
+      <c r="B133" s="87" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4436,7 +4699,7 @@
       <c r="A134" t="s">
         <v>253</v>
       </c>
-      <c r="B134" s="89" t="s">
+      <c r="B134" s="87" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4449,15 +4712,15 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="92" t="s">
+      <c r="A136" s="90" t="s">
         <v>257</v>
       </c>
-      <c r="B136" s="92" t="s">
+      <c r="B136" s="90" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="92" t="s">
+      <c r="A137" s="90" t="s">
         <v>259</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -4465,10 +4728,10 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="92" t="s">
+      <c r="A138" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="B138" s="92" t="s">
+      <c r="B138" s="90" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4476,15 +4739,15 @@
       <c r="A139" t="s">
         <v>262</v>
       </c>
-      <c r="B139" s="92" t="s">
+      <c r="B139" s="90" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="92" t="s">
+      <c r="A140" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="B140" s="92" t="s">
+      <c r="B140" s="90" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4492,12 +4755,12 @@
       <c r="A141" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B141" s="93" t="s">
+      <c r="B141" s="91" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="93" t="s">
+      <c r="A142" s="91" t="s">
         <v>268</v>
       </c>
       <c r="B142" s="8" t="s">
@@ -4505,26 +4768,26 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="94" t="s">
+      <c r="A143" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="B143" s="94" t="s">
+      <c r="B143" s="92" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="94" t="s">
+      <c r="A144" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="B144" s="94" t="s">
+      <c r="B144" s="92" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="94" t="s">
+      <c r="A145" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B145" s="94" t="s">
+      <c r="B145" s="92" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4532,7 +4795,7 @@
       <c r="A146" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B146" s="94" t="s">
+      <c r="B146" s="92" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4545,10 +4808,10 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="94" t="s">
+      <c r="A148" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="B148" s="94" t="s">
+      <c r="B148" s="92" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4556,15 +4819,15 @@
       <c r="A149" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B149" s="94" t="s">
+      <c r="B149" s="92" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="94" t="s">
+      <c r="A150" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="B150" s="94" t="s">
+      <c r="B150" s="92" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4572,23 +4835,23 @@
       <c r="A151" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B151" s="94" t="s">
+      <c r="B151" s="92" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="94" t="s">
+      <c r="A152" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="B152" s="94" t="s">
+      <c r="B152" s="92" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="94" t="s">
+      <c r="A153" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="B153" s="94" t="s">
+      <c r="B153" s="92" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4596,7 +4859,7 @@
       <c r="A154" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="94" t="s">
+      <c r="B154" s="92" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4609,26 +4872,26 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="94" t="s">
+      <c r="A156" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="B156" s="94" t="s">
+      <c r="B156" s="92" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="94" t="s">
+      <c r="A157" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="B157" s="94" t="s">
+      <c r="B157" s="92" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="94" t="s">
+      <c r="A158" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="B158" s="94" t="s">
+      <c r="B158" s="92" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4636,23 +4899,23 @@
       <c r="A159" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B159" s="94" t="s">
+      <c r="B159" s="92" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="94" t="s">
+      <c r="A160" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="B160" s="94" t="s">
+      <c r="B160" s="92" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="94" t="s">
+      <c r="A161" s="92" t="s">
         <v>305</v>
       </c>
-      <c r="B161" s="94" t="s">
+      <c r="B161" s="92" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4665,18 +4928,18 @@
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="94" t="s">
+      <c r="A163" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="B163" s="94" t="s">
+      <c r="B163" s="92" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="94" t="s">
+      <c r="A164" s="92" t="s">
         <v>312</v>
       </c>
-      <c r="B164" s="94" t="s">
+      <c r="B164" s="92" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4684,23 +4947,23 @@
       <c r="A165" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B165" s="94" t="s">
+      <c r="B165" s="92" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="94" t="s">
+      <c r="A166" s="92" t="s">
         <v>315</v>
       </c>
-      <c r="B166" s="94" t="s">
+      <c r="B166" s="92" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="94" t="s">
+      <c r="A167" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="B167" s="94" t="s">
+      <c r="B167" s="92" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4708,23 +4971,23 @@
       <c r="A168" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B168" s="94" t="s">
+      <c r="B168" s="92" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="94" t="s">
+      <c r="A169" s="92" t="s">
         <v>321</v>
       </c>
-      <c r="B169" s="94" t="s">
+      <c r="B169" s="92" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="94" t="s">
+      <c r="A170" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="B170" s="94" t="s">
+      <c r="B170" s="92" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4732,7 +4995,7 @@
       <c r="A171" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="B171" s="94" t="s">
+      <c r="B171" s="92" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4740,23 +5003,23 @@
       <c r="A172" t="s">
         <v>326</v>
       </c>
-      <c r="B172" s="94" t="s">
+      <c r="B172" s="92" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="94" t="s">
+      <c r="A173" s="92" t="s">
         <v>329</v>
       </c>
-      <c r="B173" s="94" t="s">
+      <c r="B173" s="92" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="94" t="s">
+      <c r="A174" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="B174" s="94" t="s">
+      <c r="B174" s="92" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4764,7 +5027,7 @@
       <c r="A175" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B175" s="94" t="s">
+      <c r="B175" s="92" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4772,15 +5035,15 @@
       <c r="A176" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B176" s="94" t="s">
+      <c r="B176" s="92" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="94" t="s">
+      <c r="A177" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="B177" s="94" t="s">
+      <c r="B177" s="92" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4788,7 +5051,7 @@
       <c r="A178" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B178" s="94" t="s">
+      <c r="B178" s="92" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4804,7 +5067,7 @@
       <c r="A180" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B180" s="94" t="s">
+      <c r="B180" s="92" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4812,7 +5075,7 @@
       <c r="A181" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B181" s="94" t="s">
+      <c r="B181" s="92" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4820,7 +5083,7 @@
       <c r="A182" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B182" s="94" t="s">
+      <c r="B182" s="92" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4828,7 +5091,7 @@
       <c r="A183" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B183" s="94" t="s">
+      <c r="B183" s="92" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4836,7 +5099,7 @@
       <c r="A184" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B184" s="94" t="s">
+      <c r="B184" s="92" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4844,7 +5107,7 @@
       <c r="A185" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B185" s="94" t="s">
+      <c r="B185" s="92" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4852,23 +5115,23 @@
       <c r="A186" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B186" s="94" t="s">
+      <c r="B186" s="92" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="94" t="s">
+      <c r="A187" s="92" t="s">
         <v>354</v>
       </c>
-      <c r="B187" s="94" t="s">
+      <c r="B187" s="92" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="94" t="s">
+      <c r="A188" s="92" t="s">
         <v>356</v>
       </c>
-      <c r="B188" s="94" t="s">
+      <c r="B188" s="92" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4876,7 +5139,7 @@
       <c r="A189" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B189" s="94" t="s">
+      <c r="B189" s="92" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4892,7 +5155,7 @@
       <c r="A191" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B191" s="95" t="s">
+      <c r="B191" s="93" t="s">
         <v>361</v>
       </c>
     </row>
@@ -4900,7 +5163,7 @@
       <c r="A192" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B192" s="95" t="s">
+      <c r="B192" s="93" t="s">
         <v>363</v>
       </c>
       <c r="G192" s="3"/>
@@ -4909,7 +5172,7 @@
       <c r="A193" s="67" t="s">
         <v>364</v>
       </c>
-      <c r="B193" s="95" t="s">
+      <c r="B193" s="93" t="s">
         <v>365</v>
       </c>
       <c r="G193" s="2"/>
@@ -4918,7 +5181,7 @@
       <c r="A194" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B194" s="95" t="s">
+      <c r="B194" s="93" t="s">
         <v>367</v>
       </c>
       <c r="G194" s="3"/>
@@ -4933,37 +5196,37 @@
       <c r="G195" s="2"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="95" t="s">
+      <c r="A196" s="93" t="s">
         <v>370</v>
       </c>
-      <c r="B196" s="95" t="s">
+      <c r="B196" s="93" t="s">
         <v>371</v>
       </c>
       <c r="G196" s="2"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="95" t="s">
+      <c r="A197" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B197" s="95" t="s">
+      <c r="B197" s="93" t="s">
         <v>373</v>
       </c>
       <c r="G197" s="3"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="95" t="s">
+      <c r="A198" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="B198" s="95" t="s">
+      <c r="B198" s="93" t="s">
         <v>375</v>
       </c>
       <c r="G198" s="3"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="95" t="s">
+      <c r="A199" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="B199" s="95" t="s">
+      <c r="B199" s="93" t="s">
         <v>377</v>
       </c>
       <c r="G199" s="2"/>
@@ -4972,34 +5235,34 @@
       <c r="A200" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B200" s="95" t="s">
+      <c r="B200" s="93" t="s">
         <v>379</v>
       </c>
       <c r="G200" s="2"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="95" t="s">
+      <c r="A201" s="93" t="s">
         <v>380</v>
       </c>
-      <c r="B201" s="95" t="s">
+      <c r="B201" s="93" t="s">
         <v>381</v>
       </c>
       <c r="G201" s="2"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="95" t="s">
+      <c r="A202" s="93" t="s">
         <v>382</v>
       </c>
-      <c r="B202" s="95" t="s">
+      <c r="B202" s="93" t="s">
         <v>383</v>
       </c>
       <c r="G202" s="2"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="95" t="s">
+      <c r="A203" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B203" s="95" t="s">
+      <c r="B203" s="93" t="s">
         <v>385</v>
       </c>
       <c r="G203" s="3"/>
@@ -5008,16 +5271,16 @@
       <c r="A204" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B204" s="95" t="s">
+      <c r="B204" s="93" t="s">
         <v>387</v>
       </c>
       <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="95" t="s">
+      <c r="A205" s="93" t="s">
         <v>388</v>
       </c>
-      <c r="B205" s="95" t="s">
+      <c r="B205" s="93" t="s">
         <v>389</v>
       </c>
       <c r="G205" s="3"/>
@@ -5026,7 +5289,7 @@
       <c r="A206" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B206" s="95" t="s">
+      <c r="B206" s="93" t="s">
         <v>391</v>
       </c>
       <c r="G206" s="3"/>
@@ -5035,24 +5298,24 @@
       <c r="A207" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B207" s="95" t="s">
+      <c r="B207" s="93" t="s">
         <v>392</v>
       </c>
       <c r="G207" s="3"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="95" t="s">
+      <c r="A208" s="93" t="s">
         <v>394</v>
       </c>
-      <c r="B208" s="95" t="s">
+      <c r="B208" s="93" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="95" t="s">
+      <c r="A209" s="93" t="s">
         <v>396</v>
       </c>
-      <c r="B209" s="95" t="s">
+      <c r="B209" s="93" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5060,31 +5323,31 @@
       <c r="A210" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B210" s="95" t="s">
+      <c r="B210" s="93" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="96" t="s">
+      <c r="A211" s="94" t="s">
         <v>400</v>
       </c>
-      <c r="B211" s="96" t="s">
+      <c r="B211" s="94" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="97" t="s">
+      <c r="A212" s="95" t="s">
         <v>402</v>
       </c>
-      <c r="B212" s="97" t="s">
+      <c r="B212" s="95" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="97" t="s">
+      <c r="A213" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="B213" s="97" t="s">
+      <c r="B213" s="95" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5092,55 +5355,55 @@
       <c r="A214" s="68" t="s">
         <v>403</v>
       </c>
-      <c r="B214" s="97" t="s">
+      <c r="B214" s="95" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="97" t="s">
+      <c r="A215" s="95" t="s">
         <v>406</v>
       </c>
-      <c r="B215" s="97" t="s">
+      <c r="B215" s="95" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="97" t="s">
+      <c r="A216" s="95" t="s">
         <v>408</v>
       </c>
-      <c r="B216" s="97" t="s">
+      <c r="B216" s="95" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="97" t="s">
+      <c r="A217" s="95" t="s">
         <v>410</v>
       </c>
-      <c r="B217" s="97" t="s">
+      <c r="B217" s="95" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="97" t="s">
+      <c r="A218" s="95" t="s">
         <v>411</v>
       </c>
-      <c r="B218" s="97" t="s">
+      <c r="B218" s="95" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="97" t="s">
+      <c r="A219" s="95" t="s">
         <v>413</v>
       </c>
-      <c r="B219" s="97" t="s">
+      <c r="B219" s="95" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="97" t="s">
+      <c r="A220" s="95" t="s">
         <v>415</v>
       </c>
-      <c r="B220" s="97" t="s">
+      <c r="B220" s="95" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5148,15 +5411,15 @@
       <c r="A221" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B221" s="97" t="s">
+      <c r="B221" s="95" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="97" t="s">
+      <c r="A222" s="95" t="s">
         <v>420</v>
       </c>
-      <c r="B222" s="97" t="s">
+      <c r="B222" s="95" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5164,36 +5427,36 @@
       <c r="A223" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B223" s="97" t="s">
+      <c r="B223" s="95" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="97" t="s">
+      <c r="A224" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="B224" s="97" t="s">
+      <c r="B224" s="95" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="97" t="s">
+      <c r="A225" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="B225" s="97" t="s">
+      <c r="B225" s="95" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="97" t="s">
+      <c r="A226" s="95" t="s">
         <v>427</v>
       </c>
-      <c r="B226" s="97" t="s">
+      <c r="B226" s="95" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="97" t="s">
+      <c r="A227" s="95" t="s">
         <v>428</v>
       </c>
       <c r="B227" s="8" t="s">
@@ -5201,10 +5464,10 @@
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="98" t="s">
+      <c r="A228" s="96" t="s">
         <v>430</v>
       </c>
-      <c r="B228" s="99" t="s">
+      <c r="B228" s="97" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5212,23 +5475,23 @@
       <c r="A229" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B229" s="98" t="s">
+      <c r="B229" s="96" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="98" t="s">
+      <c r="A230" s="96" t="s">
         <v>433</v>
       </c>
-      <c r="B230" s="98" t="s">
+      <c r="B230" s="96" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="98" t="s">
+      <c r="A231" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="B231" s="98" t="s">
+      <c r="B231" s="96" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5236,15 +5499,15 @@
       <c r="A232" t="s">
         <v>438</v>
       </c>
-      <c r="B232" s="100" t="s">
+      <c r="B232" s="98" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="101" t="s">
+      <c r="A233" s="99" t="s">
         <v>440</v>
       </c>
-      <c r="B233" s="102" t="s">
+      <c r="B233" s="100" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5252,15 +5515,15 @@
       <c r="A234" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B234" s="103" t="s">
+      <c r="B234" s="101" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="103" t="s">
+      <c r="A235" s="101" t="s">
         <v>444</v>
       </c>
-      <c r="B235" s="103" t="s">
+      <c r="B235" s="101" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5268,7 +5531,7 @@
       <c r="A236" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B236" s="104" t="s">
+      <c r="B236" s="102" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5276,7 +5539,7 @@
       <c r="A237" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="B237" s="104" t="s">
+      <c r="B237" s="102" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5289,7 +5552,7 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="104" t="s">
+      <c r="A239" s="102" t="s">
         <v>451</v>
       </c>
       <c r="B239" s="71" t="s">
@@ -5297,18 +5560,18 @@
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="104" t="s">
+      <c r="A240" s="102" t="s">
         <v>452</v>
       </c>
-      <c r="B240" s="104" t="s">
+      <c r="B240" s="102" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="104" t="s">
+      <c r="A241" s="102" t="s">
         <v>454</v>
       </c>
-      <c r="B241" s="104" t="s">
+      <c r="B241" s="102" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5316,39 +5579,39 @@
       <c r="A242" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="B242" s="104" t="s">
+      <c r="B242" s="102" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="104" t="s">
+      <c r="A243" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="B243" s="104" t="s">
+      <c r="B243" s="102" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="104" t="s">
+      <c r="A244" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="B244" s="104" t="s">
+      <c r="B244" s="102" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="104" t="s">
+      <c r="A245" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="B245" s="104" t="s">
+      <c r="B245" s="102" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="104" t="s">
+      <c r="A246" s="102" t="s">
         <v>463</v>
       </c>
-      <c r="B246" s="104" t="s">
+      <c r="B246" s="102" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5356,7 +5619,7 @@
       <c r="A247" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B247" s="104" t="s">
+      <c r="B247" s="102" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5364,15 +5627,15 @@
       <c r="A248" s="72" t="s">
         <v>466</v>
       </c>
-      <c r="B248" s="104" t="s">
+      <c r="B248" s="102" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="105" t="s">
+      <c r="A249" s="103" t="s">
         <v>468</v>
       </c>
-      <c r="B249" s="104" t="s">
+      <c r="B249" s="102" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5380,7 +5643,7 @@
       <c r="A250" s="72" t="s">
         <v>469</v>
       </c>
-      <c r="B250" s="104" t="s">
+      <c r="B250" s="102" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5388,7 +5651,7 @@
       <c r="A251" s="72" t="s">
         <v>470</v>
       </c>
-      <c r="B251" s="104" t="s">
+      <c r="B251" s="102" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5404,7 +5667,7 @@
       <c r="A253" s="72" t="s">
         <v>473</v>
       </c>
-      <c r="B253" s="104" t="s">
+      <c r="B253" s="102" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5412,7 +5675,7 @@
       <c r="A254" s="73" t="s">
         <v>475</v>
       </c>
-      <c r="B254" s="104" t="s">
+      <c r="B254" s="102" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5452,7 +5715,7 @@
       <c r="A259" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="B259" s="106" t="s">
+      <c r="B259" s="104" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5492,7 +5755,7 @@
       <c r="A264" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B264" s="107" t="s">
+      <c r="B264" s="105" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5537,10 +5800,10 @@
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="72" t="s">
+      <c r="A270" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B270" s="107" t="s">
+      <c r="B270" s="105" t="s">
         <v>506</v>
       </c>
     </row>
@@ -5548,16 +5811,16 @@
       <c r="A271" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B271" s="107" t="s">
-        <v>508</v>
+      <c r="B271" s="105" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B272" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="B272" s="107" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5620,7 +5883,7 @@
       <c r="A280" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="B280" s="106" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5628,47 +5891,47 @@
       <c r="A281" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="B281" s="108" t="s">
+      <c r="B281" s="107" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="8" t="s">
+      <c r="A282" s="107" t="s">
         <v>528</v>
       </c>
-      <c r="B282" s="109" t="s">
+      <c r="B282" s="107" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="109" t="s">
+      <c r="A283" s="107" t="s">
         <v>530</v>
       </c>
-      <c r="B283" s="109" t="s">
+      <c r="B283" s="107" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="107" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="109" t="s">
+      <c r="B284" s="107" t="s">
         <v>532</v>
       </c>
-      <c r="B284" s="109" t="s">
-        <v>494</v>
-      </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="109" t="s">
+      <c r="A285" s="107" t="s">
         <v>533</v>
       </c>
-      <c r="B285" s="109" t="s">
+      <c r="B285" s="107" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="109" t="s">
+      <c r="A286" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="B286" s="109" t="s">
+      <c r="B286" s="8" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5705,27 +5968,27 @@
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="67" t="s">
         <v>545</v>
       </c>
-      <c r="B291" s="8" t="s">
+      <c r="B291" s="108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="67" t="s">
-        <v>547</v>
-      </c>
-      <c r="B292" s="110" t="s">
-        <v>37</v>
+      <c r="B292" s="108" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B293" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="B293" s="110" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5770,25 +6033,25 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="8" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="8" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="B301" s="8" t="s">
+      <c r="B301" s="109" t="s">
         <v>562</v>
       </c>
     </row>
@@ -5796,47 +6059,47 @@
       <c r="A302" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="B302" s="111" t="s">
+      <c r="B302" s="8" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
+      </c>
+      <c r="B303" s="109" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B304" s="109" t="s">
         <v>569</v>
-      </c>
-      <c r="B304" s="111" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="B305" s="111" t="s">
         <v>571</v>
+      </c>
+      <c r="B305" s="109" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B306" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="B306" s="111" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="B307" s="8" t="s">
+      <c r="B307" s="109" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5844,16 +6107,16 @@
       <c r="A308" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="B308" s="111" t="s">
-        <v>577</v>
+      <c r="B308" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B309" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5877,15 +6140,15 @@
         <v>583</v>
       </c>
       <c r="B312" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="8" t="s">
+      <c r="B313" t="s">
         <v>585</v>
-      </c>
-      <c r="B313" s="8" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5893,38 +6156,38 @@
         <v>586</v>
       </c>
       <c r="B314" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
+        <v>587</v>
+      </c>
+      <c r="B315" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="B315" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
-        <v>589</v>
-      </c>
-      <c r="B316" t="s">
-        <v>587</v>
+      <c r="B316" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B317" s="8" t="s">
         <v>590</v>
-      </c>
-      <c r="B317" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B318" s="8" t="s">
+      <c r="B318" s="110" t="s">
         <v>592</v>
       </c>
     </row>
@@ -5932,7 +6195,7 @@
       <c r="A319" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="B319" s="112" t="s">
+      <c r="B319" s="8" t="s">
         <v>594</v>
       </c>
     </row>
@@ -5985,27 +6248,27 @@
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="8" t="s">
+      <c r="A326" s="67" t="s">
         <v>607</v>
       </c>
-      <c r="B326" s="8" t="s">
+      <c r="B326" s="74" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="8" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="67" t="s">
-        <v>609</v>
-      </c>
-      <c r="B327" s="74" t="s">
-        <v>608</v>
+      <c r="B327" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B328" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="B328" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6036,7 +6299,7 @@
       <c r="A332" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B332" s="8" t="s">
+      <c r="B332" s="111" t="s">
         <v>618</v>
       </c>
     </row>
@@ -6044,7 +6307,7 @@
       <c r="A333" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="B333" s="113" t="s">
+      <c r="B333" s="8" t="s">
         <v>620</v>
       </c>
     </row>
@@ -6053,15 +6316,15 @@
         <v>621</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>622</v>
+        <v>381</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B335" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6072,7 +6335,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" ht="15.75" customHeight="1">
       <c r="A337" s="8" t="s">
         <v>626</v>
       </c>
@@ -6080,7 +6343,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15.75" customHeight="1">
+    <row r="338" spans="1:2">
       <c r="A338" s="8" t="s">
         <v>628</v>
       </c>
@@ -6132,140 +6395,348 @@
       <c r="A344" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="B344" s="8" t="s">
+      <c r="B344" s="112" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="8"/>
-      <c r="B345" s="75"/>
+      <c r="A345" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="8"/>
-      <c r="B346" s="8"/>
+      <c r="A346" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="8"/>
-      <c r="B347" s="8"/>
+      <c r="A347" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="8"/>
-      <c r="B348" s="8"/>
+      <c r="A348" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="8"/>
-      <c r="B349" s="8"/>
+      <c r="A349" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="8"/>
-      <c r="B350" s="8"/>
+      <c r="A350" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="8"/>
-      <c r="B351" s="8"/>
+      <c r="A351" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B351" s="112" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="8"/>
-      <c r="B352" s="76"/>
+      <c r="A352" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B352" s="112" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="8"/>
-      <c r="B353" s="76"/>
+      <c r="A353" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="8"/>
-      <c r="B354" s="8"/>
+      <c r="A354" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="8"/>
-      <c r="B355" s="8"/>
+      <c r="A355" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="8"/>
-      <c r="B356" s="8"/>
+      <c r="A356" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="8"/>
-      <c r="B357" s="8"/>
+      <c r="A357" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="8"/>
-      <c r="B358" s="8"/>
+      <c r="A358" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="B358" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="8"/>
+      <c r="A359" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="8"/>
-      <c r="B360" s="8"/>
+      <c r="A360" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="8"/>
-      <c r="B361" s="8"/>
+      <c r="A361" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="8"/>
-      <c r="B362" s="8"/>
+      <c r="A362" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="8"/>
-      <c r="B363" s="8"/>
+      <c r="A363" s="113" t="s">
+        <v>678</v>
+      </c>
+      <c r="B363" s="113" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="76"/>
-      <c r="B364" s="76"/>
+      <c r="A364" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="8"/>
-      <c r="B365" s="8"/>
+      <c r="A365" t="s">
+        <v>682</v>
+      </c>
+      <c r="B365" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>684</v>
+      </c>
+      <c r="B366" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>686</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>687</v>
+      </c>
+      <c r="B368" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>689</v>
+      </c>
+      <c r="B369" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>691</v>
+      </c>
+      <c r="B370" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>693</v>
+      </c>
+      <c r="B371" s="113" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="372" spans="1:5">
-      <c r="B372" s="7"/>
+      <c r="A372" s="113" t="s">
+        <v>695</v>
+      </c>
+      <c r="B372" s="113" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="373" spans="1:5">
-      <c r="B373" s="34"/>
+      <c r="A373" s="113" t="s">
+        <v>697</v>
+      </c>
+      <c r="B373" s="113" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="374" spans="1:5">
-      <c r="B374" s="7"/>
+      <c r="A374" s="113" t="s">
+        <v>699</v>
+      </c>
+      <c r="B374" s="113" t="s">
+        <v>700</v>
+      </c>
+      <c r="E374" s="3"/>
     </row>
     <row r="375" spans="1:5">
-      <c r="E375" s="3"/>
+      <c r="A375" s="113" t="s">
+        <v>701</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5">
+      <c r="A376" s="114" t="s">
+        <v>702</v>
+      </c>
+      <c r="B376" s="114" t="s">
+        <v>703</v>
+      </c>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
-      <c r="E377" s="2"/>
+      <c r="A377" s="114" t="s">
+        <v>705</v>
+      </c>
+      <c r="B377" s="114" t="s">
+        <v>706</v>
+      </c>
+      <c r="E377" s="3"/>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="A378" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>708</v>
+      </c>
       <c r="E378" s="3"/>
     </row>
     <row r="379" spans="1:5">
-      <c r="E379" s="3"/>
+      <c r="A379" s="114" t="s">
+        <v>709</v>
+      </c>
+      <c r="B379" s="114" t="s">
+        <v>710</v>
+      </c>
+      <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5">
-      <c r="A380" s="6"/>
-      <c r="B380" s="34"/>
+      <c r="A380" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5">
-      <c r="E381" s="2"/>
+      <c r="A381" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E381" s="3"/>
     </row>
     <row r="382" spans="1:5">
-      <c r="E382" s="3"/>
+      <c r="A382" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5">
+      <c r="A383" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B383" s="114" t="s">
+        <v>718</v>
+      </c>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5">
-      <c r="B384" s="7"/>
+      <c r="A384" t="s">
+        <v>719</v>
+      </c>
+      <c r="B384" t="s">
+        <v>722</v>
+      </c>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>720</v>
+      </c>
+      <c r="B385" s="115" t="s">
+        <v>721</v>
+      </c>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5">
@@ -6281,19 +6752,18 @@
       <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5">
-      <c r="B389" s="34"/>
-      <c r="E389" s="2"/>
+      <c r="E389" s="3"/>
     </row>
     <row r="390" spans="1:5">
-      <c r="E390" s="3"/>
+      <c r="B390" s="7"/>
+      <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5">
-      <c r="B391" s="7"/>
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5">
-      <c r="A392" s="1"/>
-      <c r="B392" s="1"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5">
@@ -6303,16 +6773,17 @@
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5">
-      <c r="E395" s="2"/>
+      <c r="A395" s="34"/>
+      <c r="E395" s="3"/>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" s="34"/>
-      <c r="E396" s="3"/>
+      <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5">
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5">
+      <c r="B398" s="5"/>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5">
@@ -6320,14 +6791,13 @@
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5">
-      <c r="B400" s="5"/>
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5">
-      <c r="E401" s="2"/>
+      <c r="E401" s="3"/>
     </row>
     <row r="402" spans="1:5">
-      <c r="E402" s="3"/>
+      <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5">
       <c r="E403" s="2"/>
@@ -6339,85 +6809,85 @@
       <c r="E405" s="2"/>
     </row>
     <row r="406" spans="1:5">
-      <c r="E406" s="2"/>
+      <c r="B406" s="5"/>
+      <c r="E406" s="3"/>
     </row>
     <row r="407" spans="1:5">
-      <c r="B407" s="5"/>
-      <c r="E407" s="3"/>
+      <c r="E407" s="2"/>
     </row>
     <row r="408" spans="1:5">
-      <c r="E408" s="2"/>
+      <c r="A408" s="10"/>
+      <c r="B408" s="5"/>
+      <c r="E408" s="3"/>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="10"/>
-      <c r="B409" s="5"/>
-      <c r="E409" s="3"/>
+      <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5">
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5">
-      <c r="E411" s="2"/>
+      <c r="E411" s="3"/>
     </row>
     <row r="412" spans="1:5">
-      <c r="E412" s="3"/>
+      <c r="B412" s="20"/>
+      <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5">
-      <c r="B413" s="20"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5">
-      <c r="E414" s="2"/>
+      <c r="E414" s="3"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="E415" s="3"/>
+      <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5">
-      <c r="E416" s="2"/>
+      <c r="E416" s="3"/>
     </row>
     <row r="417" spans="1:5">
+      <c r="B417" s="34"/>
       <c r="E417" s="3"/>
     </row>
     <row r="418" spans="1:5">
-      <c r="B418" s="34"/>
+      <c r="A418" s="12"/>
       <c r="E418" s="3"/>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="12"/>
       <c r="E419" s="3"/>
     </row>
     <row r="420" spans="1:5">
-      <c r="E420" s="3"/>
+      <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5">
-      <c r="E421" s="2"/>
+      <c r="E421" s="3"/>
     </row>
     <row r="422" spans="1:5">
-      <c r="E422" s="3"/>
+      <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5">
-      <c r="E423" s="2"/>
+      <c r="A423" s="6"/>
+      <c r="B423" s="5"/>
+      <c r="E423" s="3"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="6"/>
-      <c r="B424" s="5"/>
+      <c r="A424" s="9"/>
+      <c r="B424" s="9"/>
       <c r="E424" s="3"/>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="9"/>
-      <c r="B425" s="9"/>
-      <c r="E425" s="3"/>
+      <c r="B425" s="7"/>
+      <c r="E425" s="2"/>
     </row>
     <row r="426" spans="1:5">
-      <c r="B426" s="7"/>
-      <c r="E426" s="2"/>
+      <c r="B426" s="12"/>
+      <c r="E426" s="3"/>
     </row>
     <row r="427" spans="1:5">
-      <c r="B427" s="12"/>
       <c r="E427" s="3"/>
     </row>
     <row r="428" spans="1:5">
-      <c r="E428" s="3"/>
+      <c r="E428" s="2"/>
     </row>
     <row r="429" spans="1:5">
       <c r="E429" s="2"/>
@@ -6426,27 +6896,27 @@
       <c r="E430" s="2"/>
     </row>
     <row r="431" spans="1:5">
-      <c r="E431" s="2"/>
+      <c r="B431" s="7"/>
+      <c r="E431" s="3"/>
     </row>
     <row r="432" spans="1:5">
-      <c r="B432" s="7"/>
-      <c r="E432" s="3"/>
+      <c r="E432" s="2"/>
     </row>
     <row r="433" spans="1:5">
       <c r="E433" s="2"/>
     </row>
     <row r="434" spans="1:5">
+      <c r="B434" s="12"/>
       <c r="E434" s="2"/>
     </row>
     <row r="435" spans="1:5">
-      <c r="B435" s="12"/>
       <c r="E435" s="2"/>
     </row>
     <row r="436" spans="1:5">
+      <c r="B436" s="34"/>
       <c r="E436" s="2"/>
     </row>
     <row r="437" spans="1:5">
-      <c r="B437" s="34"/>
       <c r="E437" s="2"/>
     </row>
     <row r="438" spans="1:5">
@@ -6459,98 +6929,99 @@
       <c r="E440" s="2"/>
     </row>
     <row r="441" spans="1:5">
-      <c r="E441" s="2"/>
+      <c r="B441" s="34"/>
+      <c r="E441" s="3"/>
     </row>
     <row r="442" spans="1:5">
-      <c r="B442" s="34"/>
-      <c r="E442" s="3"/>
+      <c r="B442" s="7"/>
+      <c r="E442" s="2"/>
     </row>
     <row r="443" spans="1:5">
-      <c r="B443" s="7"/>
+      <c r="B443" s="5"/>
       <c r="E443" s="2"/>
     </row>
     <row r="444" spans="1:5">
-      <c r="B444" s="5"/>
-      <c r="E444" s="2"/>
+      <c r="B444" s="42"/>
+      <c r="E444" s="3"/>
     </row>
     <row r="445" spans="1:5">
-      <c r="B445" s="42"/>
-      <c r="E445" s="3"/>
+      <c r="E445" s="2"/>
     </row>
     <row r="446" spans="1:5">
-      <c r="E446" s="2"/>
+      <c r="E446" s="3"/>
     </row>
     <row r="447" spans="1:5">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
       <c r="E447" s="3"/>
     </row>
     <row r="448" spans="1:5">
-      <c r="A448" s="1"/>
-      <c r="B448" s="1"/>
-      <c r="E448" s="3"/>
+      <c r="B448" s="5"/>
+      <c r="E448" s="2"/>
     </row>
     <row r="449" spans="1:5">
-      <c r="B449" s="5"/>
-      <c r="E449" s="2"/>
+      <c r="E449" s="3"/>
     </row>
     <row r="450" spans="1:5">
       <c r="E450" s="3"/>
     </row>
     <row r="451" spans="1:5">
+      <c r="A451" s="11"/>
+      <c r="B451" s="5"/>
       <c r="E451" s="3"/>
     </row>
     <row r="452" spans="1:5">
-      <c r="A452" s="11"/>
-      <c r="B452" s="5"/>
+      <c r="A452" s="12"/>
       <c r="E452" s="3"/>
     </row>
     <row r="453" spans="1:5">
-      <c r="A453" s="12"/>
-      <c r="E453" s="3"/>
+      <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:5">
-      <c r="E454" s="2"/>
+      <c r="E454" s="3"/>
     </row>
     <row r="455" spans="1:5">
-      <c r="E455" s="3"/>
+      <c r="E455" s="2"/>
     </row>
     <row r="456" spans="1:5">
       <c r="E456" s="2"/>
     </row>
     <row r="457" spans="1:5">
+      <c r="A457" s="10"/>
+      <c r="B457" s="5"/>
       <c r="E457" s="2"/>
     </row>
     <row r="458" spans="1:5">
-      <c r="A458" s="10"/>
-      <c r="B458" s="5"/>
       <c r="E458" s="2"/>
     </row>
     <row r="459" spans="1:5">
       <c r="E459" s="2"/>
     </row>
     <row r="460" spans="1:5">
+      <c r="A460" s="34"/>
+      <c r="B460" s="34"/>
       <c r="E460" s="2"/>
     </row>
     <row r="461" spans="1:5">
-      <c r="A461" s="34"/>
-      <c r="B461" s="34"/>
+      <c r="A461" s="7"/>
+      <c r="B461" s="7"/>
       <c r="E461" s="2"/>
     </row>
     <row r="462" spans="1:5">
-      <c r="A462" s="7"/>
-      <c r="B462" s="7"/>
       <c r="E462" s="2"/>
     </row>
     <row r="463" spans="1:5">
+      <c r="B463" s="7"/>
       <c r="E463" s="2"/>
     </row>
     <row r="464" spans="1:5">
+      <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="E464" s="2"/>
     </row>
     <row r="465" spans="1:5">
-      <c r="A465" s="7"/>
       <c r="B465" s="7"/>
-      <c r="E465" s="2"/>
+      <c r="E465" s="3"/>
     </row>
     <row r="466" spans="1:5">
       <c r="B466" s="7"/>
@@ -6561,73 +7032,74 @@
       <c r="E467" s="3"/>
     </row>
     <row r="468" spans="1:5">
-      <c r="B468" s="7"/>
+      <c r="B468" s="5"/>
       <c r="E468" s="3"/>
     </row>
     <row r="469" spans="1:5">
-      <c r="B469" s="5"/>
       <c r="E469" s="3"/>
     </row>
     <row r="470" spans="1:5">
       <c r="E470" s="3"/>
     </row>
     <row r="471" spans="1:5">
-      <c r="E471" s="3"/>
+      <c r="A471" s="6"/>
+      <c r="B471" s="5"/>
+      <c r="E471" s="2"/>
     </row>
     <row r="472" spans="1:5">
-      <c r="A472" s="6"/>
-      <c r="B472" s="5"/>
+      <c r="A472" s="34"/>
+      <c r="B472" s="34"/>
       <c r="E472" s="2"/>
     </row>
     <row r="473" spans="1:5">
-      <c r="A473" s="34"/>
-      <c r="B473" s="34"/>
       <c r="E473" s="2"/>
     </row>
     <row r="474" spans="1:5">
       <c r="E474" s="2"/>
     </row>
     <row r="475" spans="1:5">
+      <c r="B475" s="7"/>
       <c r="E475" s="2"/>
     </row>
     <row r="476" spans="1:5">
-      <c r="B476" s="7"/>
       <c r="E476" s="2"/>
     </row>
     <row r="477" spans="1:5">
+      <c r="B477" s="12"/>
       <c r="E477" s="2"/>
     </row>
     <row r="478" spans="1:5">
-      <c r="B478" s="12"/>
       <c r="E478" s="2"/>
     </row>
     <row r="479" spans="1:5">
-      <c r="E479" s="2"/>
+      <c r="E479" s="3"/>
     </row>
     <row r="480" spans="1:5">
+      <c r="B480" s="34"/>
       <c r="E480" s="3"/>
     </row>
     <row r="481" spans="1:5">
+      <c r="A481" s="7"/>
       <c r="B481" s="34"/>
-      <c r="E481" s="3"/>
+      <c r="E481" s="2"/>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="7"/>
       <c r="B482" s="34"/>
-      <c r="E482" s="2"/>
+      <c r="E482" s="3"/>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="7"/>
-      <c r="B483" s="34"/>
       <c r="E483" s="3"/>
     </row>
     <row r="484" spans="1:5">
-      <c r="E484" s="3"/>
+      <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
+      <c r="E484" s="2"/>
     </row>
     <row r="485" spans="1:5">
-      <c r="A485" s="1"/>
-      <c r="B485" s="1"/>
-      <c r="E485" s="2"/>
+      <c r="A485" s="7"/>
+      <c r="B485" s="7"/>
+      <c r="E485" s="3"/>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="7"/>
@@ -6635,162 +7107,160 @@
       <c r="E486" s="3"/>
     </row>
     <row r="487" spans="1:5">
-      <c r="A487" s="7"/>
-      <c r="B487" s="7"/>
-      <c r="E487" s="3"/>
+      <c r="E487" s="2"/>
     </row>
     <row r="488" spans="1:5">
-      <c r="E488" s="2"/>
+      <c r="E488" s="3"/>
     </row>
     <row r="489" spans="1:5">
-      <c r="E489" s="3"/>
+      <c r="E489" s="2"/>
     </row>
     <row r="490" spans="1:5">
-      <c r="E490" s="2"/>
+      <c r="E490" s="3"/>
     </row>
     <row r="491" spans="1:5">
-      <c r="E491" s="3"/>
+      <c r="A491" s="9"/>
+      <c r="B491" s="9"/>
+      <c r="E491" s="2"/>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="9"/>
-      <c r="B492" s="9"/>
-      <c r="E492" s="2"/>
+      <c r="E492" s="3"/>
     </row>
     <row r="493" spans="1:5">
+      <c r="B493" s="5"/>
       <c r="E493" s="3"/>
     </row>
     <row r="494" spans="1:5">
-      <c r="B494" s="5"/>
-      <c r="E494" s="3"/>
+      <c r="E494" s="2"/>
     </row>
     <row r="495" spans="1:5">
-      <c r="E495" s="2"/>
+      <c r="E495" s="3"/>
     </row>
     <row r="496" spans="1:5">
+      <c r="B496" s="7"/>
       <c r="E496" s="3"/>
     </row>
     <row r="497" spans="1:5">
+      <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="E497" s="3"/>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
-      <c r="E498" s="3"/>
+      <c r="E498" s="2"/>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="7"/>
-      <c r="B499" s="7"/>
+      <c r="A499" s="34"/>
+      <c r="B499" s="34"/>
       <c r="E499" s="2"/>
     </row>
     <row r="500" spans="1:5">
-      <c r="A500" s="34"/>
-      <c r="B500" s="34"/>
       <c r="E500" s="2"/>
     </row>
     <row r="501" spans="1:5">
-      <c r="E501" s="2"/>
+      <c r="E501" s="3"/>
     </row>
     <row r="502" spans="1:5">
-      <c r="E502" s="3"/>
+      <c r="E502" s="2"/>
     </row>
     <row r="503" spans="1:5">
       <c r="E503" s="2"/>
     </row>
     <row r="504" spans="1:5">
-      <c r="E504" s="2"/>
+      <c r="E504" s="3"/>
     </row>
     <row r="505" spans="1:5">
-      <c r="E505" s="3"/>
+      <c r="E505" s="2"/>
     </row>
     <row r="506" spans="1:5">
-      <c r="E506" s="2"/>
+      <c r="E506" s="3"/>
     </row>
     <row r="507" spans="1:5">
-      <c r="E507" s="3"/>
+      <c r="E507" s="2"/>
     </row>
     <row r="508" spans="1:5">
-      <c r="E508" s="2"/>
+      <c r="E508" s="3"/>
     </row>
     <row r="509" spans="1:5">
-      <c r="E509" s="3"/>
+      <c r="E509" s="2"/>
     </row>
     <row r="510" spans="1:5">
+      <c r="A510" s="10"/>
+      <c r="B510" s="41"/>
       <c r="E510" s="2"/>
     </row>
     <row r="511" spans="1:5">
-      <c r="A511" s="10"/>
-      <c r="B511" s="41"/>
-      <c r="E511" s="2"/>
+      <c r="E511" s="3"/>
     </row>
     <row r="512" spans="1:5">
-      <c r="E512" s="3"/>
+      <c r="A512" s="1"/>
+      <c r="B512" s="7"/>
+      <c r="E512" s="2"/>
     </row>
     <row r="513" spans="1:5">
-      <c r="A513" s="1"/>
-      <c r="B513" s="7"/>
+      <c r="A513" s="34"/>
+      <c r="B513" s="34"/>
       <c r="E513" s="2"/>
     </row>
     <row r="514" spans="1:5">
-      <c r="A514" s="34"/>
-      <c r="B514" s="34"/>
       <c r="E514" s="2"/>
     </row>
     <row r="515" spans="1:5">
-      <c r="E515" s="2"/>
+      <c r="B515" s="34"/>
+      <c r="E515" s="3"/>
     </row>
     <row r="516" spans="1:5">
-      <c r="B516" s="34"/>
       <c r="E516" s="3"/>
     </row>
     <row r="517" spans="1:5">
-      <c r="E517" s="3"/>
+      <c r="E517" s="2"/>
     </row>
     <row r="518" spans="1:5">
+      <c r="B518" s="43"/>
       <c r="E518" s="2"/>
     </row>
     <row r="519" spans="1:5">
-      <c r="B519" s="43"/>
       <c r="E519" s="2"/>
     </row>
     <row r="520" spans="1:5">
+      <c r="B520" s="7"/>
       <c r="E520" s="2"/>
     </row>
     <row r="521" spans="1:5">
-      <c r="B521" s="7"/>
-      <c r="E521" s="2"/>
+      <c r="A521" s="12"/>
+      <c r="B521" s="12"/>
+      <c r="E521" s="3"/>
     </row>
     <row r="522" spans="1:5">
-      <c r="A522" s="12"/>
-      <c r="B522" s="12"/>
-      <c r="E522" s="3"/>
+      <c r="E522" s="2"/>
     </row>
     <row r="523" spans="1:5">
       <c r="E523" s="2"/>
     </row>
     <row r="524" spans="1:5">
-      <c r="E524" s="2"/>
+      <c r="E524" s="3"/>
     </row>
     <row r="525" spans="1:5">
+      <c r="B525" s="34"/>
       <c r="E525" s="3"/>
     </row>
     <row r="526" spans="1:5">
-      <c r="B526" s="34"/>
+      <c r="B526" s="5"/>
       <c r="E526" s="3"/>
     </row>
     <row r="527" spans="1:5">
-      <c r="B527" s="5"/>
-      <c r="E527" s="3"/>
+      <c r="B527" s="7"/>
+      <c r="E527" s="2"/>
     </row>
     <row r="528" spans="1:5">
-      <c r="B528" s="7"/>
-      <c r="E528" s="2"/>
+      <c r="E528" s="3"/>
     </row>
     <row r="529" spans="1:5">
       <c r="E529" s="3"/>
     </row>
     <row r="530" spans="1:5">
-      <c r="E530" s="3"/>
+      <c r="E530" s="2"/>
     </row>
     <row r="531" spans="1:5">
       <c r="E531" s="2"/>
@@ -6799,33 +7269,33 @@
       <c r="E532" s="2"/>
     </row>
     <row r="533" spans="1:5">
+      <c r="B533" s="20"/>
       <c r="E533" s="2"/>
     </row>
     <row r="534" spans="1:5">
-      <c r="B534" s="20"/>
+      <c r="A534" s="10"/>
+      <c r="B534" s="5"/>
       <c r="E534" s="2"/>
     </row>
     <row r="535" spans="1:5">
-      <c r="A535" s="10"/>
-      <c r="B535" s="5"/>
       <c r="E535" s="2"/>
     </row>
     <row r="536" spans="1:5">
-      <c r="E536" s="2"/>
+      <c r="E536" s="3"/>
     </row>
     <row r="537" spans="1:5">
+      <c r="A537" s="10"/>
+      <c r="B537" s="5"/>
       <c r="E537" s="3"/>
     </row>
     <row r="538" spans="1:5">
-      <c r="A538" s="10"/>
-      <c r="B538" s="5"/>
-      <c r="E538" s="3"/>
+      <c r="E538" s="2"/>
     </row>
     <row r="539" spans="1:5">
+      <c r="B539" s="7"/>
       <c r="E539" s="2"/>
     </row>
     <row r="540" spans="1:5">
-      <c r="B540" s="7"/>
       <c r="E540" s="2"/>
     </row>
     <row r="541" spans="1:5">
@@ -6841,42 +7311,43 @@
       <c r="E544" s="2"/>
     </row>
     <row r="545" spans="1:5">
-      <c r="E545" s="2"/>
+      <c r="B545" s="12"/>
+      <c r="E545" s="3"/>
     </row>
     <row r="546" spans="1:5">
-      <c r="B546" s="12"/>
-      <c r="E546" s="3"/>
+      <c r="E546" s="2"/>
     </row>
     <row r="547" spans="1:5">
       <c r="E547" s="2"/>
     </row>
     <row r="548" spans="1:5">
+      <c r="B548" s="27"/>
       <c r="E548" s="2"/>
     </row>
     <row r="549" spans="1:5">
-      <c r="B549" s="27"/>
-      <c r="E549" s="2"/>
+      <c r="E549" s="3"/>
     </row>
     <row r="550" spans="1:5">
-      <c r="E550" s="3"/>
+      <c r="E550" s="2"/>
     </row>
     <row r="551" spans="1:5">
-      <c r="E551" s="2"/>
+      <c r="E551" s="3"/>
     </row>
     <row r="552" spans="1:5">
-      <c r="E552" s="3"/>
+      <c r="B552" s="35"/>
+      <c r="E552" s="2"/>
     </row>
     <row r="553" spans="1:5">
-      <c r="B553" s="35"/>
       <c r="E553" s="2"/>
     </row>
     <row r="554" spans="1:5">
       <c r="E554" s="2"/>
     </row>
     <row r="555" spans="1:5">
-      <c r="E555" s="2"/>
+      <c r="B555" s="7"/>
     </row>
     <row r="556" spans="1:5">
+      <c r="A556" s="7"/>
       <c r="B556" s="7"/>
     </row>
     <row r="557" spans="1:5">
@@ -6884,55 +7355,54 @@
       <c r="B557" s="7"/>
     </row>
     <row r="558" spans="1:5">
-      <c r="A558" s="7"/>
-      <c r="B558" s="7"/>
+      <c r="A558" s="10"/>
+      <c r="B558" s="5"/>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="10"/>
-      <c r="B559" s="5"/>
-    </row>
-    <row r="560" spans="1:5">
-      <c r="A560" s="10"/>
-      <c r="B560" s="35"/>
+      <c r="B559" s="35"/>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="B564" s="7"/>
     </row>
     <row r="565" spans="1:3">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="1:3">
-      <c r="B566" s="7"/>
+    <row r="570" spans="1:3">
+      <c r="B570" s="7"/>
     </row>
     <row r="571" spans="1:3">
-      <c r="B571" s="7"/>
+      <c r="A571" s="1"/>
+      <c r="B571" s="1"/>
     </row>
     <row r="572" spans="1:3">
-      <c r="A572" s="1"/>
-      <c r="B572" s="1"/>
+      <c r="C572" s="3"/>
     </row>
     <row r="573" spans="1:3">
-      <c r="C573" s="3"/>
+      <c r="A573" s="34"/>
+      <c r="B573" s="34"/>
+      <c r="C573" s="2"/>
     </row>
     <row r="574" spans="1:3">
-      <c r="A574" s="34"/>
-      <c r="B574" s="34"/>
-      <c r="C574" s="2"/>
+      <c r="C574" s="3"/>
     </row>
     <row r="575" spans="1:3">
-      <c r="C575" s="3"/>
+      <c r="C575" s="2"/>
     </row>
     <row r="576" spans="1:3">
       <c r="C576" s="2"/>
     </row>
     <row r="577" spans="1:3">
-      <c r="C577" s="2"/>
+      <c r="C577" s="3"/>
     </row>
     <row r="578" spans="1:3">
-      <c r="C578" s="3"/>
+      <c r="C578" s="2"/>
     </row>
     <row r="579" spans="1:3">
+      <c r="A579" s="34"/>
       <c r="C579" s="2"/>
     </row>
     <row r="580" spans="1:3">
-      <c r="A580" s="34"/>
       <c r="C580" s="2"/>
     </row>
     <row r="581" spans="1:3">
@@ -6942,41 +7412,42 @@
       <c r="C582" s="2"/>
     </row>
     <row r="583" spans="1:3">
-      <c r="C583" s="2"/>
+      <c r="C583" s="3"/>
     </row>
     <row r="584" spans="1:3">
-      <c r="C584" s="3"/>
+      <c r="C584" s="2"/>
     </row>
     <row r="585" spans="1:3">
+      <c r="A585" s="34"/>
+      <c r="B585" s="34"/>
       <c r="C585" s="2"/>
     </row>
     <row r="586" spans="1:3">
-      <c r="A586" s="34"/>
-      <c r="B586" s="34"/>
       <c r="C586" s="2"/>
     </row>
     <row r="587" spans="1:3">
-      <c r="C587" s="2"/>
+      <c r="A587" s="1"/>
+      <c r="B587" s="1"/>
     </row>
     <row r="588" spans="1:3">
-      <c r="A588" s="1"/>
-      <c r="B588" s="1"/>
+      <c r="C588" s="3"/>
     </row>
     <row r="589" spans="1:3">
-      <c r="C589" s="3"/>
+      <c r="B589" s="7"/>
+      <c r="C589" s="2"/>
     </row>
     <row r="590" spans="1:3">
       <c r="B590" s="7"/>
-      <c r="C590" s="2"/>
+      <c r="C590" s="3"/>
     </row>
     <row r="591" spans="1:3">
-      <c r="B591" s="7"/>
-      <c r="C591" s="3"/>
+      <c r="C591" s="2"/>
     </row>
     <row r="592" spans="1:3">
-      <c r="C592" s="2"/>
+      <c r="C592" s="3"/>
     </row>
     <row r="593" spans="1:3">
+      <c r="B593" s="34"/>
       <c r="C593" s="3"/>
     </row>
     <row r="594" spans="1:3">
@@ -6984,76 +7455,75 @@
       <c r="C594" s="3"/>
     </row>
     <row r="595" spans="1:3">
-      <c r="B595" s="34"/>
       <c r="C595" s="3"/>
     </row>
     <row r="596" spans="1:3">
-      <c r="C596" s="3"/>
+      <c r="B596" s="20"/>
+      <c r="C596" s="2"/>
     </row>
     <row r="597" spans="1:3">
-      <c r="B597" s="20"/>
       <c r="C597" s="2"/>
     </row>
     <row r="598" spans="1:3">
-      <c r="C598" s="2"/>
+      <c r="C598" s="3"/>
     </row>
     <row r="599" spans="1:3">
+      <c r="A599" s="34"/>
+      <c r="B599" s="34"/>
       <c r="C599" s="3"/>
     </row>
     <row r="600" spans="1:3">
-      <c r="A600" s="34"/>
-      <c r="B600" s="34"/>
       <c r="C600" s="3"/>
     </row>
     <row r="601" spans="1:3">
-      <c r="C601" s="3"/>
+      <c r="C601" s="2"/>
     </row>
     <row r="602" spans="1:3">
+      <c r="A602" s="55"/>
       <c r="C602" s="2"/>
     </row>
     <row r="603" spans="1:3">
-      <c r="A603" s="55"/>
-      <c r="C603" s="2"/>
+      <c r="B603" s="7"/>
+      <c r="C603" s="3"/>
     </row>
     <row r="604" spans="1:3">
+      <c r="A604" s="7"/>
       <c r="B604" s="7"/>
       <c r="C604" s="3"/>
     </row>
     <row r="605" spans="1:3">
-      <c r="A605" s="7"/>
-      <c r="B605" s="7"/>
       <c r="C605" s="3"/>
     </row>
     <row r="606" spans="1:3">
+      <c r="B606" s="5"/>
       <c r="C606" s="3"/>
     </row>
     <row r="607" spans="1:3">
-      <c r="B607" s="5"/>
       <c r="C607" s="3"/>
     </row>
     <row r="608" spans="1:3">
+      <c r="B608" s="7"/>
       <c r="C608" s="3"/>
     </row>
     <row r="609" spans="1:3">
-      <c r="B609" s="7"/>
       <c r="C609" s="3"/>
     </row>
     <row r="610" spans="1:3">
       <c r="C610" s="3"/>
     </row>
     <row r="611" spans="1:3">
+      <c r="B611" s="5"/>
       <c r="C611" s="3"/>
     </row>
     <row r="612" spans="1:3">
-      <c r="B612" s="5"/>
-      <c r="C612" s="3"/>
+      <c r="C612" s="2"/>
     </row>
     <row r="613" spans="1:3">
+      <c r="B613" s="7"/>
       <c r="C613" s="2"/>
     </row>
     <row r="614" spans="1:3">
-      <c r="B614" s="7"/>
-      <c r="C614" s="2"/>
+      <c r="C614" s="3"/>
     </row>
     <row r="615" spans="1:3">
       <c r="C615" s="3"/>
@@ -7062,58 +7532,58 @@
       <c r="C616" s="3"/>
     </row>
     <row r="617" spans="1:3">
-      <c r="C617" s="3"/>
+      <c r="A617" s="5"/>
+      <c r="B617" s="5"/>
+      <c r="C617" s="2"/>
     </row>
     <row r="618" spans="1:3">
-      <c r="A618" s="5"/>
-      <c r="B618" s="5"/>
       <c r="C618" s="2"/>
     </row>
     <row r="619" spans="1:3">
-      <c r="C619" s="2"/>
+      <c r="C619" s="3"/>
     </row>
     <row r="620" spans="1:3">
+      <c r="A620" s="4"/>
+      <c r="B620" s="4"/>
       <c r="C620" s="3"/>
     </row>
     <row r="621" spans="1:3">
-      <c r="A621" s="4"/>
-      <c r="B621" s="4"/>
-      <c r="C621" s="3"/>
+      <c r="A621" s="10"/>
+      <c r="B621" s="5"/>
+      <c r="C621" s="2"/>
     </row>
     <row r="622" spans="1:3">
-      <c r="A622" s="10"/>
-      <c r="B622" s="5"/>
-      <c r="C622" s="2"/>
+      <c r="B622" s="20"/>
+      <c r="C622" s="3"/>
     </row>
     <row r="623" spans="1:3">
-      <c r="B623" s="20"/>
-      <c r="C623" s="3"/>
+      <c r="C623" s="2"/>
     </row>
     <row r="624" spans="1:3">
       <c r="C624" s="2"/>
     </row>
     <row r="625" spans="2:3">
-      <c r="C625" s="2"/>
+      <c r="C625" s="3"/>
     </row>
     <row r="626" spans="2:3">
-      <c r="C626" s="3"/>
+      <c r="B626" s="7"/>
+      <c r="C626" s="2"/>
     </row>
     <row r="627" spans="2:3">
-      <c r="B627" s="7"/>
       <c r="C627" s="2"/>
     </row>
     <row r="628" spans="2:3">
-      <c r="C628" s="2"/>
+      <c r="B628" s="7"/>
+      <c r="C628" s="3"/>
     </row>
     <row r="629" spans="2:3">
-      <c r="B629" s="7"/>
       <c r="C629" s="3"/>
     </row>
     <row r="630" spans="2:3">
-      <c r="C630" s="3"/>
+      <c r="C630" s="2"/>
     </row>
     <row r="631" spans="2:3">
-      <c r="C631" s="2"/>
+      <c r="C631" s="3"/>
     </row>
     <row r="632" spans="2:3">
       <c r="C632" s="3"/>
@@ -7125,109 +7595,109 @@
       <c r="C634" s="3"/>
     </row>
     <row r="635" spans="2:3">
-      <c r="C635" s="3"/>
+      <c r="B635" s="7"/>
+      <c r="C635" s="2"/>
     </row>
     <row r="636" spans="2:3">
-      <c r="B636" s="7"/>
-      <c r="C636" s="2"/>
+      <c r="C636" s="3"/>
     </row>
     <row r="637" spans="2:3">
-      <c r="C637" s="3"/>
+      <c r="C637" s="2"/>
     </row>
     <row r="638" spans="2:3">
       <c r="C638" s="2"/>
     </row>
     <row r="639" spans="2:3">
-      <c r="C639" s="2"/>
+      <c r="B639" s="7"/>
+      <c r="C639" s="3"/>
     </row>
     <row r="640" spans="2:3">
-      <c r="B640" s="7"/>
       <c r="C640" s="3"/>
     </row>
     <row r="641" spans="1:3">
+      <c r="A641" s="34"/>
+      <c r="B641" s="34"/>
       <c r="C641" s="3"/>
     </row>
     <row r="642" spans="1:3">
-      <c r="A642" s="34"/>
-      <c r="B642" s="34"/>
       <c r="C642" s="3"/>
     </row>
     <row r="643" spans="1:3">
-      <c r="C643" s="3"/>
+      <c r="C643" s="2"/>
     </row>
     <row r="644" spans="1:3">
-      <c r="C644" s="2"/>
+      <c r="C644" s="3"/>
     </row>
     <row r="645" spans="1:3">
-      <c r="C645" s="3"/>
+      <c r="C645" s="2"/>
     </row>
     <row r="646" spans="1:3">
-      <c r="C646" s="2"/>
+      <c r="C646" s="3"/>
     </row>
     <row r="647" spans="1:3">
-      <c r="C647" s="3"/>
+      <c r="A647" s="34"/>
+      <c r="B647" s="34"/>
+      <c r="C647" s="2"/>
     </row>
     <row r="648" spans="1:3">
-      <c r="A648" s="34"/>
-      <c r="B648" s="34"/>
-      <c r="C648" s="2"/>
+      <c r="C648" s="3"/>
     </row>
     <row r="649" spans="1:3">
+      <c r="B649" s="7"/>
       <c r="C649" s="3"/>
     </row>
     <row r="650" spans="1:3">
-      <c r="B650" s="7"/>
-      <c r="C650" s="3"/>
+      <c r="C650" s="2"/>
     </row>
     <row r="651" spans="1:3">
       <c r="C651" s="2"/>
     </row>
     <row r="652" spans="1:3">
-      <c r="C652" s="2"/>
+      <c r="C652" s="3"/>
     </row>
     <row r="653" spans="1:3">
       <c r="C653" s="3"/>
     </row>
     <row r="654" spans="1:3">
-      <c r="C654" s="3"/>
+      <c r="A654" s="7"/>
+      <c r="B654" s="7"/>
+      <c r="C654" s="2"/>
     </row>
     <row r="655" spans="1:3">
-      <c r="A655" s="7"/>
-      <c r="B655" s="7"/>
       <c r="C655" s="2"/>
     </row>
     <row r="656" spans="1:3">
+      <c r="B656" s="7"/>
       <c r="C656" s="2"/>
     </row>
     <row r="657" spans="1:3">
-      <c r="B657" s="7"/>
+      <c r="B657" s="5"/>
       <c r="C657" s="2"/>
     </row>
     <row r="658" spans="1:3">
-      <c r="B658" s="5"/>
-      <c r="C658" s="2"/>
+      <c r="C658" s="3"/>
     </row>
     <row r="659" spans="1:3">
+      <c r="A659" s="7"/>
+      <c r="B659" s="7"/>
       <c r="C659" s="3"/>
     </row>
     <row r="660" spans="1:3">
-      <c r="A660" s="7"/>
-      <c r="B660" s="7"/>
-      <c r="C660" s="3"/>
+      <c r="B660" s="34"/>
+      <c r="C660" s="2"/>
     </row>
     <row r="661" spans="1:3">
-      <c r="B661" s="34"/>
       <c r="C661" s="2"/>
     </row>
     <row r="662" spans="1:3">
+      <c r="B662" s="34"/>
       <c r="C662" s="2"/>
     </row>
     <row r="663" spans="1:3">
-      <c r="B663" s="34"/>
-      <c r="C663" s="2"/>
+      <c r="C663" s="3"/>
     </row>
     <row r="664" spans="1:3">
-      <c r="C664" s="3"/>
+      <c r="C664" s="2"/>
     </row>
     <row r="665" spans="1:3">
       <c r="C665" s="2"/>
@@ -7236,23 +7706,23 @@
       <c r="C666" s="2"/>
     </row>
     <row r="667" spans="1:3">
+      <c r="A667" s="5"/>
+      <c r="B667" s="5"/>
       <c r="C667" s="2"/>
     </row>
     <row r="668" spans="1:3">
-      <c r="A668" s="5"/>
-      <c r="B668" s="5"/>
-      <c r="C668" s="2"/>
+      <c r="A668" s="7"/>
+      <c r="B668" s="7"/>
+      <c r="C668" s="3"/>
     </row>
     <row r="669" spans="1:3">
-      <c r="A669" s="7"/>
-      <c r="B669" s="7"/>
-      <c r="C669" s="3"/>
+      <c r="C669" s="2"/>
     </row>
     <row r="670" spans="1:3">
-      <c r="C670" s="2"/>
+      <c r="B670" s="5"/>
+      <c r="C670" s="3"/>
     </row>
     <row r="671" spans="1:3">
-      <c r="B671" s="5"/>
       <c r="C671" s="3"/>
     </row>
     <row r="672" spans="1:3">
@@ -7262,31 +7732,31 @@
       <c r="C673" s="3"/>
     </row>
     <row r="674" spans="1:3">
-      <c r="C674" s="3"/>
+      <c r="C674" s="2"/>
     </row>
     <row r="675" spans="1:3">
-      <c r="C675" s="2"/>
+      <c r="A675" s="10"/>
+      <c r="B675" s="34"/>
+      <c r="C675" s="3"/>
     </row>
     <row r="676" spans="1:3">
-      <c r="A676" s="10"/>
-      <c r="B676" s="34"/>
       <c r="C676" s="3"/>
     </row>
     <row r="677" spans="1:3">
+      <c r="A677" s="7"/>
+      <c r="B677" s="7"/>
       <c r="C677" s="3"/>
     </row>
     <row r="678" spans="1:3">
-      <c r="A678" s="7"/>
+      <c r="A678" s="1"/>
       <c r="B678" s="7"/>
       <c r="C678" s="3"/>
     </row>
     <row r="679" spans="1:3">
-      <c r="A679" s="1"/>
-      <c r="B679" s="7"/>
       <c r="C679" s="3"/>
     </row>
     <row r="680" spans="1:3">
-      <c r="C680" s="3"/>
+      <c r="C680" s="2"/>
     </row>
     <row r="681" spans="1:3">
       <c r="C681" s="2"/>
@@ -7298,66 +7768,66 @@
       <c r="C683" s="2"/>
     </row>
     <row r="684" spans="1:3">
+      <c r="B684" s="7"/>
       <c r="C684" s="2"/>
     </row>
     <row r="685" spans="1:3">
-      <c r="B685" s="7"/>
-      <c r="C685" s="2"/>
+      <c r="C685" s="3"/>
     </row>
     <row r="686" spans="1:3">
-      <c r="C686" s="3"/>
+      <c r="B686" s="7"/>
+      <c r="C686" s="2"/>
     </row>
     <row r="687" spans="1:3">
-      <c r="B687" s="7"/>
       <c r="C687" s="2"/>
     </row>
     <row r="688" spans="1:3">
+      <c r="A688" s="10"/>
+      <c r="B688" s="5"/>
       <c r="C688" s="2"/>
     </row>
     <row r="689" spans="1:3">
-      <c r="A689" s="10"/>
-      <c r="B689" s="5"/>
-      <c r="C689" s="2"/>
+      <c r="C689" s="3"/>
     </row>
     <row r="690" spans="1:3">
-      <c r="C690" s="3"/>
+      <c r="B690" s="7"/>
+      <c r="C690" s="2"/>
     </row>
     <row r="691" spans="1:3">
-      <c r="B691" s="7"/>
       <c r="C691" s="2"/>
     </row>
     <row r="692" spans="1:3">
-      <c r="C692" s="2"/>
+      <c r="C692" s="3"/>
     </row>
     <row r="693" spans="1:3">
       <c r="C693" s="3"/>
     </row>
     <row r="694" spans="1:3">
-      <c r="C694" s="3"/>
+      <c r="A694" s="1"/>
+      <c r="B694" s="1"/>
+      <c r="C694" s="2"/>
     </row>
     <row r="695" spans="1:3">
-      <c r="A695" s="1"/>
-      <c r="B695" s="1"/>
       <c r="C695" s="2"/>
     </row>
     <row r="696" spans="1:3">
-      <c r="C696" s="2"/>
+      <c r="B696" s="7"/>
+      <c r="C696" s="3"/>
     </row>
     <row r="697" spans="1:3">
-      <c r="B697" s="7"/>
       <c r="C697" s="3"/>
     </row>
     <row r="698" spans="1:3">
+      <c r="B698" s="35"/>
       <c r="C698" s="3"/>
     </row>
     <row r="699" spans="1:3">
+      <c r="A699" s="34"/>
       <c r="B699" s="35"/>
       <c r="C699" s="3"/>
     </row>
     <row r="700" spans="1:3">
-      <c r="A700" s="34"/>
-      <c r="B700" s="35"/>
-      <c r="C700" s="3"/>
+      <c r="C700" s="2"/>
     </row>
     <row r="701" spans="1:3">
       <c r="C701" s="2"/>
@@ -7366,198 +7836,198 @@
       <c r="C702" s="2"/>
     </row>
     <row r="703" spans="1:3">
+      <c r="B703" s="7"/>
       <c r="C703" s="2"/>
     </row>
     <row r="704" spans="1:3">
-      <c r="B704" s="7"/>
-      <c r="C704" s="2"/>
+      <c r="A704" s="12"/>
+      <c r="C704" s="3"/>
     </row>
     <row r="705" spans="1:3">
-      <c r="A705" s="12"/>
-      <c r="C705" s="3"/>
+      <c r="C705" s="2"/>
     </row>
     <row r="706" spans="1:3">
       <c r="C706" s="2"/>
     </row>
     <row r="707" spans="1:3">
+      <c r="A707" s="34"/>
+      <c r="B707" s="34"/>
       <c r="C707" s="2"/>
     </row>
     <row r="708" spans="1:3">
-      <c r="A708" s="34"/>
-      <c r="B708" s="34"/>
       <c r="C708" s="2"/>
     </row>
     <row r="709" spans="1:3">
+      <c r="B709" s="34"/>
       <c r="C709" s="2"/>
     </row>
     <row r="710" spans="1:3">
-      <c r="B710" s="34"/>
-      <c r="C710" s="2"/>
+      <c r="B710" s="7"/>
+      <c r="C710" s="3"/>
     </row>
     <row r="711" spans="1:3">
-      <c r="B711" s="7"/>
-      <c r="C711" s="3"/>
+      <c r="B711" s="34"/>
+      <c r="C711" s="2"/>
     </row>
     <row r="712" spans="1:3">
       <c r="B712" s="34"/>
       <c r="C712" s="2"/>
     </row>
     <row r="713" spans="1:3">
-      <c r="B713" s="34"/>
       <c r="C713" s="2"/>
     </row>
     <row r="714" spans="1:3">
       <c r="C714" s="2"/>
     </row>
     <row r="715" spans="1:3">
-      <c r="C715" s="2"/>
+      <c r="C715" s="3"/>
     </row>
     <row r="716" spans="1:3">
-      <c r="C716" s="3"/>
+      <c r="C716" s="2"/>
     </row>
     <row r="717" spans="1:3">
       <c r="C717" s="2"/>
     </row>
     <row r="718" spans="1:3">
+      <c r="A718" s="34"/>
       <c r="C718" s="2"/>
     </row>
-    <row r="719" spans="1:3">
-      <c r="A719" s="34"/>
-      <c r="C719" s="2"/>
-    </row>
-    <row r="732" spans="2:2">
-      <c r="B732" s="34"/>
-    </row>
-    <row r="737" spans="1:2">
-      <c r="B737" s="7"/>
+    <row r="731" spans="2:2">
+      <c r="B731" s="34"/>
+    </row>
+    <row r="736" spans="2:2">
+      <c r="B736" s="7"/>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="B739" s="7"/>
     </row>
     <row r="740" spans="1:2">
-      <c r="B740" s="7"/>
-    </row>
-    <row r="741" spans="1:2">
-      <c r="A741" s="5"/>
-      <c r="B741" s="5"/>
+      <c r="A740" s="5"/>
+      <c r="B740" s="5"/>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="B742" s="7"/>
     </row>
     <row r="743" spans="1:2">
+      <c r="A743" s="6"/>
       <c r="B743" s="7"/>
     </row>
     <row r="744" spans="1:2">
-      <c r="A744" s="6"/>
-      <c r="B744" s="7"/>
+      <c r="A744" s="34"/>
+      <c r="B744" s="34"/>
     </row>
     <row r="745" spans="1:2">
-      <c r="A745" s="34"/>
-      <c r="B745" s="34"/>
+      <c r="A745" s="12"/>
+      <c r="B745" s="12"/>
     </row>
     <row r="746" spans="1:2">
-      <c r="A746" s="12"/>
-      <c r="B746" s="12"/>
+      <c r="A746" s="34"/>
+      <c r="B746" s="34"/>
     </row>
     <row r="747" spans="1:2">
-      <c r="A747" s="34"/>
       <c r="B747" s="34"/>
     </row>
     <row r="748" spans="1:2">
-      <c r="B748" s="34"/>
+      <c r="A748" s="12"/>
+      <c r="B748" s="20"/>
     </row>
     <row r="749" spans="1:2">
-      <c r="A749" s="12"/>
-      <c r="B749" s="20"/>
+      <c r="A749" s="34"/>
+      <c r="B749" s="34"/>
     </row>
     <row r="750" spans="1:2">
-      <c r="A750" s="34"/>
-      <c r="B750" s="34"/>
+      <c r="B750" s="44"/>
     </row>
     <row r="751" spans="1:2">
-      <c r="B751" s="44"/>
+      <c r="B751" s="12"/>
     </row>
     <row r="752" spans="1:2">
-      <c r="B752" s="12"/>
+      <c r="A752" s="12"/>
+      <c r="B752" s="34"/>
     </row>
     <row r="753" spans="1:2">
-      <c r="A753" s="12"/>
       <c r="B753" s="34"/>
     </row>
     <row r="754" spans="1:2">
       <c r="B754" s="34"/>
     </row>
     <row r="755" spans="1:2">
+      <c r="A755" s="55"/>
       <c r="B755" s="34"/>
     </row>
     <row r="756" spans="1:2">
-      <c r="A756" s="55"/>
       <c r="B756" s="34"/>
     </row>
     <row r="757" spans="1:2">
-      <c r="B757" s="34"/>
-    </row>
-    <row r="758" spans="1:2">
-      <c r="A758" s="8"/>
-      <c r="B758" s="20"/>
-    </row>
-    <row r="760" spans="1:2">
-      <c r="B760" s="13"/>
+      <c r="A757" s="8"/>
+      <c r="B757" s="20"/>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="B759" s="13"/>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="B761" s="34"/>
     </row>
     <row r="762" spans="1:2">
       <c r="B762" s="34"/>
     </row>
     <row r="763" spans="1:2">
-      <c r="B763" s="34"/>
-    </row>
-    <row r="764" spans="1:2">
-      <c r="B764" s="13"/>
+      <c r="B763" s="13"/>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="B765" s="13"/>
     </row>
     <row r="766" spans="1:2">
-      <c r="B766" s="13"/>
-    </row>
-    <row r="767" spans="1:2">
-      <c r="B767" s="34"/>
-    </row>
-    <row r="769" spans="2:2">
+      <c r="B766" s="34"/>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="B768" s="13"/>
+    </row>
+    <row r="769" spans="1:2">
       <c r="B769" s="13"/>
     </row>
-    <row r="770" spans="2:2">
-      <c r="B770" s="13"/>
-    </row>
-    <row r="771" spans="2:2">
-      <c r="B771" s="34"/>
-    </row>
-    <row r="772" spans="2:2">
+    <row r="770" spans="1:2">
+      <c r="B770" s="34"/>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="B771" s="13"/>
+    </row>
+    <row r="772" spans="1:2">
       <c r="B772" s="13"/>
     </row>
-    <row r="773" spans="2:2">
-      <c r="B773" s="13"/>
-    </row>
-    <row r="775" spans="2:2">
+    <row r="774" spans="1:2">
+      <c r="B774" s="13"/>
+    </row>
+    <row r="775" spans="1:2">
       <c r="B775" s="13"/>
     </row>
-    <row r="776" spans="2:2">
-      <c r="B776" s="13"/>
-    </row>
-    <row r="778" spans="2:2">
+    <row r="777" spans="1:2">
+      <c r="B777" s="34"/>
+    </row>
+    <row r="778" spans="1:2">
       <c r="B778" s="34"/>
     </row>
-    <row r="779" spans="2:2">
-      <c r="B779" s="34"/>
-    </row>
-    <row r="780" spans="2:2">
+    <row r="779" spans="1:2">
+      <c r="B779" s="13"/>
+    </row>
+    <row r="780" spans="1:2">
       <c r="B780" s="13"/>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="1:2">
       <c r="B781" s="13"/>
     </row>
-    <row r="782" spans="2:2">
+    <row r="782" spans="1:2">
       <c r="B782" s="13"/>
     </row>
-    <row r="783" spans="2:2">
+    <row r="783" spans="1:2">
       <c r="B783" s="13"/>
     </row>
-    <row r="784" spans="2:2">
+    <row r="784" spans="1:2">
+      <c r="A784" s="13"/>
       <c r="B784" s="13"/>
     </row>
-    <row r="785" spans="1:2">
-      <c r="A785" s="13"/>
-      <c r="B785" s="13"/>
+    <row r="786" spans="1:2">
+      <c r="B786" s="13"/>
     </row>
     <row r="787" spans="1:2">
       <c r="B787" s="13"/>
@@ -7566,29 +8036,29 @@
       <c r="B788" s="13"/>
     </row>
     <row r="789" spans="1:2">
+      <c r="A789" s="13"/>
       <c r="B789" s="13"/>
     </row>
     <row r="790" spans="1:2">
-      <c r="A790" s="13"/>
       <c r="B790" s="13"/>
     </row>
     <row r="791" spans="1:2">
-      <c r="B791" s="13"/>
+      <c r="B791" s="34"/>
     </row>
     <row r="792" spans="1:2">
-      <c r="B792" s="34"/>
+      <c r="B792" s="13"/>
     </row>
     <row r="793" spans="1:2">
       <c r="B793" s="13"/>
     </row>
-    <row r="794" spans="1:2">
-      <c r="B794" s="13"/>
+    <row r="795" spans="1:2">
+      <c r="B795" s="34"/>
     </row>
     <row r="796" spans="1:2">
       <c r="B796" s="34"/>
     </row>
     <row r="797" spans="1:2">
-      <c r="B797" s="34"/>
+      <c r="B797" s="13"/>
     </row>
     <row r="798" spans="1:2">
       <c r="B798" s="13"/>
@@ -7599,83 +8069,84 @@
     <row r="800" spans="1:2">
       <c r="B800" s="13"/>
     </row>
-    <row r="801" spans="2:2">
+    <row r="801" spans="1:2">
       <c r="B801" s="13"/>
     </row>
-    <row r="802" spans="2:2">
+    <row r="802" spans="1:2">
       <c r="B802" s="13"/>
     </row>
-    <row r="803" spans="2:2">
-      <c r="B803" s="13"/>
-    </row>
-    <row r="804" spans="2:2">
-      <c r="B804" s="20"/>
-    </row>
-    <row r="805" spans="2:2">
-      <c r="B805" s="34"/>
-    </row>
-    <row r="806" spans="2:2">
-      <c r="B806" s="13"/>
-    </row>
-    <row r="807" spans="2:2">
-      <c r="B807" s="20"/>
-    </row>
-    <row r="808" spans="2:2">
-      <c r="B808" s="34"/>
-    </row>
-    <row r="810" spans="2:2">
-      <c r="B810" s="13"/>
-    </row>
-    <row r="811" spans="2:2">
-      <c r="B811" s="34"/>
-    </row>
-    <row r="812" spans="2:2">
+    <row r="803" spans="1:2">
+      <c r="B803" s="20"/>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="B804" s="34"/>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="B805" s="13"/>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="B806" s="20"/>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="B807" s="34"/>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="B809" s="13"/>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="B810" s="34"/>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="B811" s="13"/>
+    </row>
+    <row r="812" spans="1:2">
       <c r="B812" s="13"/>
     </row>
-    <row r="813" spans="2:2">
-      <c r="B813" s="13"/>
-    </row>
-    <row r="815" spans="2:2">
-      <c r="B815" s="14"/>
+    <row r="814" spans="1:2">
+      <c r="B814" s="14"/>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="14"/>
+      <c r="B816" s="14"/>
     </row>
     <row r="817" spans="1:3">
-      <c r="A817" s="14"/>
-      <c r="B817" s="14"/>
+      <c r="C817" s="2"/>
     </row>
     <row r="818" spans="1:3">
       <c r="C818" s="2"/>
     </row>
     <row r="819" spans="1:3">
+      <c r="B819" s="14"/>
       <c r="C819" s="2"/>
     </row>
     <row r="820" spans="1:3">
       <c r="B820" s="14"/>
-      <c r="C820" s="2"/>
+      <c r="C820" s="3"/>
     </row>
     <row r="821" spans="1:3">
-      <c r="B821" s="14"/>
+      <c r="A821" s="34"/>
+      <c r="B821" s="34"/>
       <c r="C821" s="3"/>
     </row>
     <row r="822" spans="1:3">
-      <c r="A822" s="34"/>
-      <c r="B822" s="34"/>
+      <c r="B822" s="20"/>
       <c r="C822" s="3"/>
     </row>
     <row r="823" spans="1:3">
-      <c r="B823" s="20"/>
-      <c r="C823" s="3"/>
+      <c r="C823" s="2"/>
     </row>
     <row r="824" spans="1:3">
       <c r="C824" s="2"/>
     </row>
     <row r="825" spans="1:3">
-      <c r="C825" s="2"/>
+      <c r="B825" s="14"/>
+      <c r="C825" s="3"/>
     </row>
     <row r="826" spans="1:3">
-      <c r="B826" s="14"/>
       <c r="C826" s="3"/>
     </row>
     <row r="827" spans="1:3">
+      <c r="B827" s="34"/>
       <c r="C827" s="3"/>
     </row>
     <row r="828" spans="1:3">
@@ -7687,23 +8158,22 @@
       <c r="C829" s="3"/>
     </row>
     <row r="830" spans="1:3">
-      <c r="B830" s="34"/>
       <c r="C830" s="3"/>
     </row>
     <row r="831" spans="1:3">
-      <c r="C831" s="3"/>
+      <c r="C831" s="2"/>
     </row>
     <row r="832" spans="1:3">
-      <c r="C832" s="2"/>
+      <c r="C832" s="3"/>
     </row>
     <row r="833" spans="3:3">
       <c r="C833" s="3"/>
     </row>
     <row r="834" spans="3:3">
-      <c r="C834" s="3"/>
+      <c r="C834" s="2"/>
     </row>
     <row r="835" spans="3:3">
-      <c r="C835" s="2"/>
+      <c r="C835" s="3"/>
     </row>
     <row r="836" spans="3:3">
       <c r="C836" s="3"/>
@@ -7715,7 +8185,7 @@
       <c r="C838" s="3"/>
     </row>
     <row r="839" spans="3:3">
-      <c r="C839" s="3"/>
+      <c r="C839" s="2"/>
     </row>
     <row r="840" spans="3:3">
       <c r="C840" s="2"/>
@@ -7724,13 +8194,13 @@
       <c r="C841" s="2"/>
     </row>
     <row r="842" spans="3:3">
-      <c r="C842" s="2"/>
+      <c r="C842" s="3"/>
     </row>
     <row r="843" spans="3:3">
-      <c r="C843" s="3"/>
+      <c r="C843" s="2"/>
     </row>
     <row r="844" spans="3:3">
-      <c r="C844" s="2"/>
+      <c r="C844" s="3"/>
     </row>
     <row r="845" spans="3:3">
       <c r="C845" s="3"/>
@@ -7739,13 +8209,13 @@
       <c r="C846" s="3"/>
     </row>
     <row r="847" spans="3:3">
-      <c r="C847" s="3"/>
+      <c r="C847" s="2"/>
     </row>
     <row r="848" spans="3:3">
       <c r="C848" s="2"/>
     </row>
     <row r="849" spans="1:3">
-      <c r="C849" s="2"/>
+      <c r="C849" s="3"/>
     </row>
     <row r="850" spans="1:3">
       <c r="C850" s="3"/>
@@ -7766,19 +8236,19 @@
       <c r="C855" s="3"/>
     </row>
     <row r="856" spans="1:3">
-      <c r="C856" s="3"/>
+      <c r="C856" s="2"/>
     </row>
     <row r="857" spans="1:3">
-      <c r="C857" s="2"/>
+      <c r="C857" s="3"/>
     </row>
     <row r="858" spans="1:3">
-      <c r="C858" s="3"/>
+      <c r="C858" s="2"/>
     </row>
     <row r="859" spans="1:3">
+      <c r="A859" s="55"/>
       <c r="C859" s="2"/>
     </row>
     <row r="860" spans="1:3">
-      <c r="A860" s="55"/>
       <c r="C860" s="2"/>
     </row>
     <row r="861" spans="1:3">
@@ -7791,65 +8261,65 @@
       <c r="C863" s="2"/>
     </row>
     <row r="864" spans="1:3">
-      <c r="C864" s="2"/>
+      <c r="C864" s="3"/>
     </row>
     <row r="865" spans="1:3">
-      <c r="C865" s="3"/>
+      <c r="C865" s="2"/>
     </row>
     <row r="866" spans="1:3">
-      <c r="C866" s="2"/>
+      <c r="C866" s="3"/>
     </row>
     <row r="867" spans="1:3">
-      <c r="C867" s="3"/>
+      <c r="C867" s="2"/>
     </row>
     <row r="868" spans="1:3">
       <c r="C868" s="2"/>
     </row>
     <row r="869" spans="1:3">
-      <c r="C869" s="2"/>
+      <c r="C869" s="3"/>
     </row>
     <row r="870" spans="1:3">
-      <c r="C870" s="3"/>
+      <c r="B870" s="15"/>
+      <c r="C870" s="2"/>
     </row>
     <row r="871" spans="1:3">
+      <c r="A871" s="15"/>
       <c r="B871" s="15"/>
-      <c r="C871" s="2"/>
+      <c r="C871" s="3"/>
     </row>
     <row r="872" spans="1:3">
-      <c r="A872" s="15"/>
       <c r="B872" s="15"/>
-      <c r="C872" s="3"/>
+      <c r="C872" s="2"/>
     </row>
     <row r="873" spans="1:3">
       <c r="B873" s="15"/>
       <c r="C873" s="2"/>
     </row>
     <row r="874" spans="1:3">
-      <c r="B874" s="15"/>
       <c r="C874" s="2"/>
     </row>
     <row r="875" spans="1:3">
-      <c r="C875" s="2"/>
+      <c r="C875" s="3"/>
     </row>
     <row r="876" spans="1:3">
-      <c r="C876" s="3"/>
+      <c r="A876" s="15"/>
+      <c r="C876" s="2"/>
     </row>
     <row r="877" spans="1:3">
-      <c r="A877" s="15"/>
-      <c r="C877" s="2"/>
+      <c r="C877" s="3"/>
     </row>
     <row r="878" spans="1:3">
-      <c r="C878" s="3"/>
+      <c r="B878" s="15"/>
+      <c r="C878" s="2"/>
     </row>
     <row r="879" spans="1:3">
-      <c r="B879" s="15"/>
       <c r="C879" s="2"/>
     </row>
     <row r="880" spans="1:3">
-      <c r="C880" s="2"/>
+      <c r="C880" s="3"/>
     </row>
     <row r="881" spans="1:3">
-      <c r="C881" s="3"/>
+      <c r="C881" s="2"/>
     </row>
     <row r="882" spans="1:3">
       <c r="C882" s="2"/>
@@ -7858,132 +8328,133 @@
       <c r="C883" s="2"/>
     </row>
     <row r="884" spans="1:3">
-      <c r="C884" s="2"/>
+      <c r="C884" s="3"/>
     </row>
     <row r="885" spans="1:3">
-      <c r="C885" s="3"/>
+      <c r="C885" s="2"/>
     </row>
     <row r="886" spans="1:3">
-      <c r="C886" s="2"/>
+      <c r="C886" s="3"/>
     </row>
     <row r="887" spans="1:3">
+      <c r="B887" s="35"/>
       <c r="C887" s="3"/>
     </row>
     <row r="888" spans="1:3">
+      <c r="A888" s="15"/>
       <c r="B888" s="35"/>
-      <c r="C888" s="3"/>
-    </row>
-    <row r="889" spans="1:3">
-      <c r="A889" s="15"/>
-      <c r="B889" s="35"/>
-    </row>
-    <row r="893" spans="1:3">
-      <c r="B893" s="34"/>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="B892" s="34"/>
+    </row>
+    <row r="895" spans="1:3">
+      <c r="B895" s="34"/>
     </row>
     <row r="896" spans="1:3">
+      <c r="A896" s="34"/>
       <c r="B896" s="34"/>
     </row>
     <row r="897" spans="1:2">
-      <c r="A897" s="34"/>
-      <c r="B897" s="34"/>
+      <c r="B897" s="15"/>
     </row>
     <row r="898" spans="1:2">
       <c r="B898" s="15"/>
     </row>
     <row r="899" spans="1:2">
-      <c r="B899" s="15"/>
-    </row>
-    <row r="900" spans="1:2">
-      <c r="B900" s="37"/>
+      <c r="B899" s="37"/>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="B903" s="45"/>
     </row>
     <row r="904" spans="1:2">
-      <c r="B904" s="45"/>
-    </row>
-    <row r="905" spans="1:2">
-      <c r="A905" s="18"/>
-      <c r="B905" s="18"/>
-    </row>
-    <row r="908" spans="1:2">
-      <c r="B908" s="34"/>
+      <c r="A904" s="18"/>
+      <c r="B904" s="18"/>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="B907" s="34"/>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="8"/>
+      <c r="B914" s="16"/>
     </row>
     <row r="915" spans="1:2">
-      <c r="A915" s="8"/>
       <c r="B915" s="16"/>
     </row>
     <row r="916" spans="1:2">
-      <c r="B916" s="16"/>
+      <c r="A916" s="16"/>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" s="16"/>
-    </row>
-    <row r="918" spans="1:2">
-      <c r="A918" s="16"/>
-      <c r="B918" s="16"/>
+      <c r="B917" s="16"/>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="55"/>
     </row>
     <row r="921" spans="1:2">
-      <c r="A921" s="55"/>
+      <c r="B921" s="34"/>
     </row>
     <row r="922" spans="1:2">
       <c r="B922" s="34"/>
     </row>
-    <row r="923" spans="1:2">
-      <c r="B923" s="34"/>
+    <row r="927" spans="1:2">
+      <c r="A927" s="16"/>
+      <c r="B927" s="16"/>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" s="16"/>
       <c r="B928" s="16"/>
     </row>
-    <row r="929" spans="1:2">
-      <c r="A929" s="16"/>
-      <c r="B929" s="16"/>
-    </row>
-    <row r="933" spans="1:2">
-      <c r="B933" s="16"/>
-    </row>
-    <row r="936" spans="1:2">
-      <c r="A936" s="34"/>
-      <c r="B936" s="34"/>
-    </row>
-    <row r="943" spans="1:2">
-      <c r="A943" s="17"/>
-      <c r="B943" s="17"/>
-    </row>
-    <row r="947" spans="1:2">
-      <c r="B947" s="17"/>
-    </row>
-    <row r="950" spans="1:2">
-      <c r="A950" s="18"/>
-    </row>
-    <row r="954" spans="1:2">
-      <c r="A954" s="18"/>
-      <c r="B954" s="18"/>
+    <row r="932" spans="1:2">
+      <c r="B932" s="16"/>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="34"/>
+      <c r="B935" s="34"/>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="17"/>
+      <c r="B942" s="17"/>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="B946" s="17"/>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="18"/>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="18"/>
+      <c r="B953" s="18"/>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="18"/>
     </row>
     <row r="962" spans="1:2">
-      <c r="A962" s="18"/>
+      <c r="B962" s="19"/>
     </row>
     <row r="963" spans="1:2">
+      <c r="A963" s="19"/>
       <c r="B963" s="19"/>
     </row>
-    <row r="964" spans="1:2">
-      <c r="A964" s="19"/>
-      <c r="B964" s="19"/>
+    <row r="965" spans="1:2">
+      <c r="B965" s="34"/>
     </row>
     <row r="966" spans="1:2">
-      <c r="B966" s="34"/>
+      <c r="B966" s="19"/>
     </row>
     <row r="967" spans="1:2">
-      <c r="B967" s="19"/>
-    </row>
-    <row r="968" spans="1:2">
-      <c r="A968" s="34"/>
-      <c r="B968" s="34"/>
+      <c r="A967" s="34"/>
+      <c r="B967" s="34"/>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="8"/>
+      <c r="B971" s="19"/>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" s="8"/>
       <c r="B972" s="19"/>
     </row>
     <row r="973" spans="1:2">
-      <c r="A973" s="8"/>
+      <c r="A973" s="19"/>
       <c r="B973" s="19"/>
     </row>
     <row r="974" spans="1:2">
@@ -7991,419 +8462,419 @@
       <c r="B974" s="19"/>
     </row>
     <row r="975" spans="1:2">
-      <c r="A975" s="19"/>
-      <c r="B975" s="19"/>
-    </row>
-    <row r="976" spans="1:2">
-      <c r="B976" s="34"/>
-    </row>
-    <row r="989" spans="1:2">
-      <c r="A989" s="19"/>
-      <c r="B989" s="19"/>
+      <c r="B975" s="34"/>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="19"/>
+      <c r="B988" s="19"/>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="B994" s="34"/>
     </row>
     <row r="995" spans="1:2">
+      <c r="A995" s="19"/>
       <c r="B995" s="34"/>
     </row>
-    <row r="996" spans="1:2">
-      <c r="A996" s="19"/>
-      <c r="B996" s="34"/>
-    </row>
-    <row r="998" spans="1:2">
-      <c r="B998" s="19"/>
-    </row>
-    <row r="1002" spans="1:2">
-      <c r="A1002" s="19"/>
-      <c r="B1002" s="20"/>
-    </row>
-    <row r="1015" spans="1:1">
-      <c r="A1015" s="20"/>
-    </row>
-    <row r="1026" spans="1:2">
-      <c r="B1026" s="19"/>
-    </row>
-    <row r="1028" spans="1:2">
-      <c r="A1028" s="34"/>
-      <c r="B1028" s="34"/>
-    </row>
-    <row r="1030" spans="1:2">
-      <c r="B1030" s="34"/>
+    <row r="997" spans="1:2">
+      <c r="B997" s="19"/>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="19"/>
+      <c r="B1001" s="20"/>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014" s="20"/>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="B1025" s="19"/>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" s="34"/>
+      <c r="B1027" s="34"/>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="B1029" s="34"/>
+    </row>
+    <row r="1031" spans="1:2">
+      <c r="A1031" s="20"/>
     </row>
     <row r="1032" spans="1:2">
-      <c r="A1032" s="20"/>
+      <c r="B1032" s="35"/>
     </row>
     <row r="1033" spans="1:2">
-      <c r="B1033" s="35"/>
+      <c r="A1033" s="34"/>
     </row>
     <row r="1034" spans="1:2">
-      <c r="A1034" s="34"/>
-    </row>
-    <row r="1035" spans="1:2">
-      <c r="B1035" s="35"/>
+      <c r="B1034" s="35"/>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="20"/>
+      <c r="B1036" s="35"/>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" s="20"/>
-      <c r="B1037" s="35"/>
+      <c r="B1037" s="20"/>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" s="20"/>
       <c r="B1038" s="20"/>
     </row>
     <row r="1039" spans="1:2">
-      <c r="A1039" s="20"/>
-      <c r="B1039" s="20"/>
+      <c r="A1039" s="34"/>
+      <c r="B1039" s="34"/>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" s="34"/>
       <c r="B1040" s="34"/>
     </row>
     <row r="1041" spans="1:2">
-      <c r="A1041" s="34"/>
+      <c r="A1041" s="20"/>
       <c r="B1041" s="34"/>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" s="20"/>
-      <c r="B1042" s="34"/>
     </row>
     <row r="1043" spans="1:2">
-      <c r="A1043" s="20"/>
-    </row>
-    <row r="1044" spans="1:2">
-      <c r="B1044" s="34"/>
-    </row>
-    <row r="1047" spans="1:2">
-      <c r="A1047" s="34"/>
-    </row>
-    <row r="1049" spans="1:2">
-      <c r="B1049" s="34"/>
-    </row>
-    <row r="1051" spans="1:2">
-      <c r="A1051" s="20"/>
-      <c r="B1051" s="20"/>
+      <c r="B1043" s="34"/>
+    </row>
+    <row r="1046" spans="1:2">
+      <c r="A1046" s="34"/>
+    </row>
+    <row r="1048" spans="1:2">
+      <c r="B1048" s="34"/>
+    </row>
+    <row r="1050" spans="1:2">
+      <c r="A1050" s="20"/>
+      <c r="B1050" s="20"/>
+    </row>
+    <row r="1053" spans="1:2">
+      <c r="A1053" s="20"/>
+      <c r="B1053" s="20"/>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" s="20"/>
-      <c r="B1054" s="20"/>
-    </row>
-    <row r="1055" spans="1:2">
-      <c r="A1055" s="20"/>
-    </row>
-    <row r="1057" spans="1:2">
-      <c r="A1057" s="20"/>
-      <c r="B1057" s="20"/>
-    </row>
-    <row r="1059" spans="1:2">
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="A1056" s="20"/>
+      <c r="B1056" s="20"/>
+    </row>
+    <row r="1058" spans="2:2">
+      <c r="B1058" s="20"/>
+    </row>
+    <row r="1059" spans="2:2">
       <c r="B1059" s="20"/>
     </row>
-    <row r="1060" spans="1:2">
+    <row r="1060" spans="2:2">
       <c r="B1060" s="20"/>
     </row>
-    <row r="1061" spans="1:2">
-      <c r="B1061" s="20"/>
-    </row>
-    <row r="1063" spans="1:2">
-      <c r="B1063" s="34"/>
-    </row>
-    <row r="1066" spans="1:2">
+    <row r="1062" spans="2:2">
+      <c r="B1062" s="34"/>
+    </row>
+    <row r="1065" spans="2:2">
+      <c r="B1065" s="34"/>
+    </row>
+    <row r="1066" spans="2:2">
       <c r="B1066" s="34"/>
     </row>
-    <row r="1067" spans="1:2">
-      <c r="B1067" s="34"/>
-    </row>
-    <row r="1068" spans="1:2">
-      <c r="B1068" s="20"/>
-    </row>
-    <row r="1070" spans="1:2">
-      <c r="B1070" s="20"/>
+    <row r="1067" spans="2:2">
+      <c r="B1067" s="20"/>
+    </row>
+    <row r="1069" spans="2:2">
+      <c r="B1069" s="20"/>
+    </row>
+    <row r="1072" spans="2:2">
+      <c r="B1072" s="20"/>
     </row>
     <row r="1073" spans="1:2">
       <c r="B1073" s="20"/>
     </row>
-    <row r="1074" spans="1:2">
-      <c r="B1074" s="20"/>
+    <row r="1080" spans="1:2">
+      <c r="A1080" s="55"/>
+      <c r="B1080" s="34"/>
     </row>
     <row r="1081" spans="1:2">
-      <c r="A1081" s="55"/>
-      <c r="B1081" s="34"/>
+      <c r="B1081" s="20"/>
     </row>
     <row r="1082" spans="1:2">
       <c r="B1082" s="20"/>
     </row>
-    <row r="1083" spans="1:2">
-      <c r="B1083" s="20"/>
-    </row>
-    <row r="1087" spans="1:2">
-      <c r="B1087" s="34"/>
+    <row r="1086" spans="1:2">
+      <c r="B1086" s="34"/>
+    </row>
+    <row r="1090" spans="1:2">
+      <c r="B1090" s="21"/>
     </row>
     <row r="1091" spans="1:2">
-      <c r="B1091" s="21"/>
-    </row>
-    <row r="1092" spans="1:2">
-      <c r="A1092" s="21"/>
+      <c r="A1091" s="21"/>
+    </row>
+    <row r="1100" spans="1:2">
+      <c r="A1100" s="22"/>
+      <c r="B1100" s="34"/>
     </row>
     <row r="1101" spans="1:2">
-      <c r="A1101" s="22"/>
-      <c r="B1101" s="34"/>
+      <c r="B1101" s="22"/>
     </row>
     <row r="1102" spans="1:2">
+      <c r="A1102" s="22"/>
       <c r="B1102" s="22"/>
     </row>
     <row r="1103" spans="1:2">
-      <c r="A1103" s="22"/>
       <c r="B1103" s="22"/>
     </row>
     <row r="1104" spans="1:2">
-      <c r="B1104" s="22"/>
-    </row>
-    <row r="1105" spans="1:2">
-      <c r="B1105" s="34"/>
-    </row>
-    <row r="1107" spans="1:2">
-      <c r="A1107" s="22"/>
-      <c r="B1107" s="34"/>
-    </row>
-    <row r="1110" spans="1:2">
-      <c r="B1110" s="22"/>
-    </row>
-    <row r="1112" spans="1:2">
-      <c r="B1112" s="22"/>
-    </row>
-    <row r="1117" spans="1:2">
-      <c r="A1117" s="34"/>
-    </row>
-    <row r="1119" spans="1:2">
-      <c r="A1119" s="34"/>
-      <c r="B1119" s="34"/>
+      <c r="B1104" s="34"/>
+    </row>
+    <row r="1106" spans="1:2">
+      <c r="A1106" s="22"/>
+      <c r="B1106" s="34"/>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="B1109" s="22"/>
+    </row>
+    <row r="1111" spans="1:2">
+      <c r="B1111" s="22"/>
+    </row>
+    <row r="1116" spans="1:2">
+      <c r="A1116" s="34"/>
+    </row>
+    <row r="1118" spans="1:2">
+      <c r="A1118" s="34"/>
+      <c r="B1118" s="34"/>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="22"/>
     </row>
     <row r="1121" spans="1:2">
-      <c r="A1121" s="22"/>
-    </row>
-    <row r="1122" spans="1:2">
-      <c r="B1122" s="34"/>
+      <c r="B1121" s="34"/>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="A1123" s="34"/>
     </row>
     <row r="1124" spans="1:2">
-      <c r="A1124" s="34"/>
+      <c r="B1124" s="22"/>
     </row>
     <row r="1125" spans="1:2">
-      <c r="B1125" s="22"/>
-    </row>
-    <row r="1126" spans="1:2">
-      <c r="B1126" s="34"/>
-    </row>
-    <row r="1130" spans="1:2">
-      <c r="A1130" s="34"/>
-      <c r="B1130" s="35"/>
-    </row>
-    <row r="1132" spans="1:2">
-      <c r="A1132" s="34"/>
-      <c r="B1132" s="35"/>
+      <c r="B1125" s="34"/>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="34"/>
+      <c r="B1129" s="35"/>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="A1131" s="34"/>
+      <c r="B1131" s="35"/>
+    </row>
+    <row r="1133" spans="1:2">
+      <c r="A1133" s="22"/>
+      <c r="B1133" s="22"/>
     </row>
     <row r="1134" spans="1:2">
-      <c r="A1134" s="22"/>
       <c r="B1134" s="22"/>
     </row>
     <row r="1135" spans="1:2">
-      <c r="B1135" s="22"/>
+      <c r="A1135" s="22"/>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" s="22"/>
     </row>
     <row r="1137" spans="1:2">
-      <c r="A1137" s="22"/>
-    </row>
-    <row r="1138" spans="1:2">
-      <c r="B1138" s="34"/>
-    </row>
-    <row r="1142" spans="1:2">
-      <c r="A1142" s="34"/>
-      <c r="B1142" s="34"/>
+      <c r="B1137" s="34"/>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="34"/>
+      <c r="B1141" s="34"/>
+    </row>
+    <row r="1143" spans="1:2">
+      <c r="B1143" s="22"/>
     </row>
     <row r="1144" spans="1:2">
+      <c r="A1144" s="22"/>
       <c r="B1144" s="22"/>
     </row>
-    <row r="1145" spans="1:2">
-      <c r="A1145" s="22"/>
-      <c r="B1145" s="22"/>
+    <row r="1146" spans="1:2">
+      <c r="B1146" s="22"/>
     </row>
     <row r="1147" spans="1:2">
       <c r="B1147" s="22"/>
     </row>
-    <row r="1148" spans="1:2">
-      <c r="B1148" s="22"/>
+    <row r="1149" spans="1:2">
+      <c r="B1149" s="22"/>
     </row>
     <row r="1150" spans="1:2">
-      <c r="B1150" s="22"/>
+      <c r="B1150" s="34"/>
     </row>
     <row r="1151" spans="1:2">
-      <c r="B1151" s="34"/>
+      <c r="A1151" s="22"/>
+      <c r="B1151" s="22"/>
     </row>
     <row r="1152" spans="1:2">
-      <c r="A1152" s="22"/>
-      <c r="B1152" s="22"/>
+      <c r="B1152" s="34"/>
     </row>
     <row r="1153" spans="1:2">
       <c r="B1153" s="34"/>
     </row>
-    <row r="1154" spans="1:2">
-      <c r="B1154" s="34"/>
-    </row>
-    <row r="1159" spans="1:2">
-      <c r="A1159" s="34"/>
-    </row>
-    <row r="1162" spans="1:2">
-      <c r="B1162" s="22"/>
+    <row r="1158" spans="1:2">
+      <c r="A1158" s="34"/>
+    </row>
+    <row r="1161" spans="1:2">
+      <c r="B1161" s="22"/>
+    </row>
+    <row r="1163" spans="1:2">
+      <c r="B1163" s="22"/>
     </row>
     <row r="1164" spans="1:2">
       <c r="B1164" s="22"/>
     </row>
     <row r="1165" spans="1:2">
-      <c r="B1165" s="22"/>
+      <c r="B1165" s="35"/>
     </row>
     <row r="1166" spans="1:2">
-      <c r="B1166" s="35"/>
-    </row>
-    <row r="1167" spans="1:2">
-      <c r="A1167" s="22"/>
+      <c r="A1166" s="22"/>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" s="34"/>
+      <c r="B1170" s="34"/>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" s="34"/>
       <c r="B1171" s="34"/>
     </row>
-    <row r="1172" spans="1:2">
-      <c r="A1172" s="34"/>
-      <c r="B1172" s="34"/>
+    <row r="1173" spans="1:2">
+      <c r="A1173" s="22"/>
+      <c r="B1173" s="34"/>
     </row>
     <row r="1174" spans="1:2">
-      <c r="A1174" s="22"/>
-      <c r="B1174" s="34"/>
-    </row>
-    <row r="1175" spans="1:2">
-      <c r="B1175" s="22"/>
-    </row>
-    <row r="1185" spans="2:2">
-      <c r="B1185" s="23"/>
-    </row>
-    <row r="1188" spans="2:2">
-      <c r="B1188" s="23"/>
-    </row>
-    <row r="1198" spans="2:2">
-      <c r="B1198" s="23"/>
+      <c r="B1174" s="22"/>
+    </row>
+    <row r="1184" spans="1:2">
+      <c r="B1184" s="23"/>
+    </row>
+    <row r="1187" spans="1:2">
+      <c r="B1187" s="23"/>
+    </row>
+    <row r="1197" spans="1:2">
+      <c r="B1197" s="23"/>
+    </row>
+    <row r="1200" spans="1:2">
+      <c r="A1200" s="23"/>
+      <c r="B1200" s="39"/>
     </row>
     <row r="1201" spans="1:2">
-      <c r="A1201" s="23"/>
-      <c r="B1201" s="39"/>
+      <c r="B1201" s="34"/>
     </row>
     <row r="1202" spans="1:2">
+      <c r="A1202" s="34"/>
       <c r="B1202" s="34"/>
     </row>
-    <row r="1203" spans="1:2">
-      <c r="A1203" s="34"/>
-      <c r="B1203" s="34"/>
-    </row>
-    <row r="1205" spans="1:2">
-      <c r="A1205" s="34"/>
-      <c r="B1205" s="34"/>
-    </row>
-    <row r="1213" spans="1:2">
-      <c r="B1213" s="23"/>
-    </row>
-    <row r="1215" spans="1:2">
-      <c r="B1215" s="23"/>
+    <row r="1204" spans="1:2">
+      <c r="A1204" s="34"/>
+      <c r="B1204" s="34"/>
+    </row>
+    <row r="1212" spans="1:2">
+      <c r="B1212" s="23"/>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="B1214" s="23"/>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="B1216" s="23"/>
     </row>
     <row r="1217" spans="1:2">
+      <c r="A1217" s="23"/>
       <c r="B1217" s="23"/>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" s="23"/>
       <c r="B1218" s="23"/>
     </row>
-    <row r="1219" spans="1:2">
-      <c r="A1219" s="23"/>
-      <c r="B1219" s="23"/>
+    <row r="1220" spans="1:2">
+      <c r="A1220" s="23"/>
+      <c r="B1220" s="23"/>
     </row>
     <row r="1221" spans="1:2">
-      <c r="A1221" s="23"/>
+      <c r="A1221" s="8"/>
       <c r="B1221" s="23"/>
     </row>
     <row r="1222" spans="1:2">
-      <c r="A1222" s="8"/>
-      <c r="B1222" s="23"/>
-    </row>
-    <row r="1223" spans="1:2">
-      <c r="A1223" s="23"/>
+      <c r="A1222" s="23"/>
+    </row>
+    <row r="1224" spans="1:2">
+      <c r="B1224" s="23"/>
     </row>
     <row r="1225" spans="1:2">
-      <c r="B1225" s="23"/>
-    </row>
-    <row r="1226" spans="1:2">
-      <c r="B1226" s="34"/>
-    </row>
-    <row r="1231" spans="1:2">
-      <c r="B1231" s="23"/>
-    </row>
-    <row r="1235" spans="1:2">
-      <c r="B1235" s="34"/>
-    </row>
-    <row r="1237" spans="1:2">
-      <c r="B1237" s="23"/>
-    </row>
-    <row r="1241" spans="1:2">
-      <c r="B1241" s="34"/>
-    </row>
-    <row r="1243" spans="1:2">
-      <c r="B1243" s="34"/>
+      <c r="B1225" s="34"/>
+    </row>
+    <row r="1230" spans="1:2">
+      <c r="B1230" s="23"/>
+    </row>
+    <row r="1234" spans="1:2">
+      <c r="B1234" s="34"/>
+    </row>
+    <row r="1236" spans="1:2">
+      <c r="B1236" s="23"/>
+    </row>
+    <row r="1240" spans="1:2">
+      <c r="B1240" s="34"/>
+    </row>
+    <row r="1242" spans="1:2">
+      <c r="B1242" s="34"/>
+    </row>
+    <row r="1244" spans="1:2">
+      <c r="B1244" s="34"/>
     </row>
     <row r="1245" spans="1:2">
+      <c r="A1245" s="34"/>
       <c r="B1245" s="34"/>
     </row>
-    <row r="1246" spans="1:2">
-      <c r="A1246" s="34"/>
-      <c r="B1246" s="34"/>
-    </row>
-    <row r="1249" spans="1:2">
-      <c r="B1249" s="34"/>
-    </row>
-    <row r="1252" spans="1:2">
-      <c r="B1252" s="23"/>
+    <row r="1248" spans="1:2">
+      <c r="B1248" s="34"/>
+    </row>
+    <row r="1251" spans="1:2">
+      <c r="B1251" s="23"/>
+    </row>
+    <row r="1254" spans="1:2">
+      <c r="B1254" s="23"/>
     </row>
     <row r="1255" spans="1:2">
       <c r="B1255" s="23"/>
     </row>
     <row r="1256" spans="1:2">
+      <c r="A1256" s="23"/>
       <c r="B1256" s="23"/>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="23"/>
-      <c r="B1257" s="23"/>
+      <c r="B1257" s="34"/>
     </row>
     <row r="1258" spans="1:2">
-      <c r="A1258" s="23"/>
       <c r="B1258" s="34"/>
     </row>
     <row r="1259" spans="1:2">
-      <c r="B1259" s="34"/>
+      <c r="B1259" s="23"/>
     </row>
     <row r="1260" spans="1:2">
       <c r="B1260" s="23"/>
     </row>
     <row r="1261" spans="1:2">
-      <c r="B1261" s="23"/>
-    </row>
-    <row r="1262" spans="1:2">
-      <c r="B1262" s="34"/>
+      <c r="B1261" s="34"/>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="B1264" s="34"/>
     </row>
     <row r="1265" spans="1:2">
       <c r="B1265" s="34"/>
     </row>
-    <row r="1266" spans="1:2">
-      <c r="B1266" s="34"/>
-    </row>
-    <row r="1268" spans="1:2">
-      <c r="A1268" s="8"/>
+    <row r="1267" spans="1:2">
+      <c r="A1267" s="8"/>
+    </row>
+    <row r="1269" spans="1:2">
+      <c r="B1269" s="35"/>
     </row>
     <row r="1270" spans="1:2">
-      <c r="B1270" s="35"/>
+      <c r="B1270" s="34"/>
     </row>
     <row r="1271" spans="1:2">
+      <c r="A1271" s="34"/>
       <c r="B1271" s="34"/>
     </row>
     <row r="1272" spans="1:2">
@@ -8411,33 +8882,32 @@
       <c r="B1272" s="34"/>
     </row>
     <row r="1273" spans="1:2">
-      <c r="A1273" s="34"/>
-      <c r="B1273" s="34"/>
+      <c r="A1273" s="23"/>
+      <c r="B1273" s="23"/>
     </row>
     <row r="1274" spans="1:2">
-      <c r="A1274" s="23"/>
       <c r="B1274" s="23"/>
     </row>
     <row r="1275" spans="1:2">
-      <c r="B1275" s="23"/>
-    </row>
-    <row r="1276" spans="1:2">
-      <c r="B1276" s="34"/>
+      <c r="B1275" s="34"/>
+    </row>
+    <row r="1278" spans="1:2">
+      <c r="A1278" s="23"/>
+      <c r="B1278" s="25"/>
     </row>
     <row r="1279" spans="1:2">
-      <c r="A1279" s="23"/>
       <c r="B1279" s="25"/>
     </row>
     <row r="1280" spans="1:2">
-      <c r="B1280" s="25"/>
+      <c r="A1280" s="24"/>
+      <c r="B1280" s="34"/>
     </row>
     <row r="1281" spans="1:2">
       <c r="A1281" s="24"/>
-      <c r="B1281" s="34"/>
-    </row>
-    <row r="1282" spans="1:2">
-      <c r="A1282" s="24"/>
-      <c r="B1282" s="24"/>
+      <c r="B1281" s="24"/>
+    </row>
+    <row r="1283" spans="1:2">
+      <c r="B1283" s="24"/>
     </row>
     <row r="1284" spans="1:2">
       <c r="B1284" s="24"/>
@@ -8455,28 +8925,29 @@
       <c r="B1288" s="24"/>
     </row>
     <row r="1289" spans="1:2">
+      <c r="A1289" s="24"/>
       <c r="B1289" s="24"/>
     </row>
-    <row r="1290" spans="1:2">
-      <c r="A1290" s="24"/>
-      <c r="B1290" s="24"/>
+    <row r="1291" spans="1:2">
+      <c r="A1291" s="24"/>
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="24"/>
+      <c r="B1292" s="24"/>
     </row>
     <row r="1293" spans="1:2">
-      <c r="A1293" s="24"/>
-      <c r="B1293" s="24"/>
+      <c r="A1293" s="8"/>
+      <c r="B1293" s="46"/>
     </row>
     <row r="1294" spans="1:2">
-      <c r="A1294" s="8"/>
-      <c r="B1294" s="46"/>
+      <c r="B1294" s="35"/>
     </row>
     <row r="1295" spans="1:2">
-      <c r="B1295" s="35"/>
+      <c r="B1295" s="34"/>
     </row>
     <row r="1296" spans="1:2">
-      <c r="B1296" s="34"/>
+      <c r="A1296" s="25"/>
+      <c r="B1296" s="25"/>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="25"/>
@@ -8487,17 +8958,16 @@
       <c r="B1298" s="25"/>
     </row>
     <row r="1299" spans="1:2">
-      <c r="A1299" s="25"/>
       <c r="B1299" s="25"/>
     </row>
     <row r="1300" spans="1:2">
       <c r="B1300" s="25"/>
     </row>
     <row r="1301" spans="1:2">
+      <c r="A1301" s="25"/>
       <c r="B1301" s="25"/>
     </row>
     <row r="1302" spans="1:2">
-      <c r="A1302" s="25"/>
       <c r="B1302" s="25"/>
     </row>
     <row r="1303" spans="1:2">
@@ -8537,13 +9007,13 @@
       <c r="B1314" s="25"/>
     </row>
     <row r="1315" spans="1:2">
-      <c r="B1315" s="25"/>
+      <c r="B1315" s="34"/>
     </row>
     <row r="1316" spans="1:2">
-      <c r="B1316" s="34"/>
+      <c r="A1316" s="25"/>
+      <c r="B1316" s="25"/>
     </row>
     <row r="1317" spans="1:2">
-      <c r="A1317" s="25"/>
       <c r="B1317" s="25"/>
     </row>
     <row r="1318" spans="1:2">
@@ -8555,11 +9025,11 @@
     <row r="1320" spans="1:2">
       <c r="B1320" s="25"/>
     </row>
-    <row r="1321" spans="1:2">
-      <c r="B1321" s="25"/>
+    <row r="1322" spans="1:2">
+      <c r="A1322" s="25"/>
+      <c r="B1322" s="25"/>
     </row>
     <row r="1323" spans="1:2">
-      <c r="A1323" s="25"/>
       <c r="B1323" s="25"/>
     </row>
     <row r="1324" spans="1:2">
@@ -8575,56 +9045,56 @@
       <c r="B1327" s="25"/>
     </row>
     <row r="1328" spans="1:2">
+      <c r="A1328" s="25"/>
       <c r="B1328" s="25"/>
     </row>
-    <row r="1329" spans="1:2">
-      <c r="A1329" s="25"/>
+    <row r="1329" spans="2:2">
       <c r="B1329" s="25"/>
     </row>
-    <row r="1330" spans="1:2">
+    <row r="1330" spans="2:2">
       <c r="B1330" s="25"/>
     </row>
-    <row r="1331" spans="1:2">
+    <row r="1331" spans="2:2">
       <c r="B1331" s="25"/>
     </row>
-    <row r="1332" spans="1:2">
+    <row r="1332" spans="2:2">
       <c r="B1332" s="25"/>
     </row>
-    <row r="1333" spans="1:2">
+    <row r="1333" spans="2:2">
       <c r="B1333" s="25"/>
     </row>
-    <row r="1334" spans="1:2">
+    <row r="1334" spans="2:2">
       <c r="B1334" s="25"/>
     </row>
-    <row r="1335" spans="1:2">
+    <row r="1335" spans="2:2">
       <c r="B1335" s="25"/>
     </row>
-    <row r="1336" spans="1:2">
+    <row r="1336" spans="2:2">
       <c r="B1336" s="25"/>
     </row>
-    <row r="1337" spans="1:2">
+    <row r="1337" spans="2:2">
       <c r="B1337" s="25"/>
     </row>
-    <row r="1338" spans="1:2">
+    <row r="1338" spans="2:2">
       <c r="B1338" s="25"/>
     </row>
-    <row r="1339" spans="1:2">
+    <row r="1339" spans="2:2">
       <c r="B1339" s="25"/>
     </row>
-    <row r="1340" spans="1:2">
+    <row r="1340" spans="2:2">
       <c r="B1340" s="25"/>
     </row>
-    <row r="1341" spans="1:2">
+    <row r="1341" spans="2:2">
       <c r="B1341" s="25"/>
     </row>
-    <row r="1342" spans="1:2">
+    <row r="1342" spans="2:2">
       <c r="B1342" s="25"/>
     </row>
-    <row r="1343" spans="1:2">
+    <row r="1343" spans="2:2">
       <c r="B1343" s="25"/>
     </row>
-    <row r="1344" spans="1:2">
-      <c r="B1344" s="25"/>
+    <row r="1345" spans="2:2">
+      <c r="B1345" s="25"/>
     </row>
     <row r="1346" spans="2:2">
       <c r="B1346" s="25"/>
@@ -8633,16 +9103,16 @@
       <c r="B1347" s="25"/>
     </row>
     <row r="1348" spans="2:2">
-      <c r="B1348" s="25"/>
+      <c r="B1348" s="47"/>
     </row>
     <row r="1349" spans="2:2">
-      <c r="B1349" s="47"/>
+      <c r="B1349" s="25"/>
     </row>
     <row r="1350" spans="2:2">
-      <c r="B1350" s="25"/>
+      <c r="B1350" s="35"/>
     </row>
     <row r="1351" spans="2:2">
-      <c r="B1351" s="35"/>
+      <c r="B1351" s="25"/>
     </row>
     <row r="1352" spans="2:2">
       <c r="B1352" s="25"/>
@@ -8672,10 +9142,10 @@
       <c r="B1360" s="25"/>
     </row>
     <row r="1361" spans="1:2">
+      <c r="A1361" s="25"/>
       <c r="B1361" s="25"/>
     </row>
     <row r="1362" spans="1:2">
-      <c r="A1362" s="25"/>
       <c r="B1362" s="25"/>
     </row>
     <row r="1363" spans="1:2">
@@ -8697,10 +9167,10 @@
       <c r="B1368" s="25"/>
     </row>
     <row r="1369" spans="1:2">
-      <c r="B1369" s="25"/>
+      <c r="B1369" s="34"/>
     </row>
     <row r="1370" spans="1:2">
-      <c r="B1370" s="34"/>
+      <c r="B1370" s="25"/>
     </row>
     <row r="1371" spans="1:2">
       <c r="B1371" s="25"/>
@@ -8787,16 +9257,16 @@
       <c r="B1398" s="25"/>
     </row>
     <row r="1399" spans="1:2">
-      <c r="B1399" s="25"/>
+      <c r="B1399" s="34"/>
     </row>
     <row r="1400" spans="1:2">
-      <c r="B1400" s="34"/>
-    </row>
-    <row r="1401" spans="1:2">
-      <c r="B1401" s="25"/>
+      <c r="B1400" s="25"/>
+    </row>
+    <row r="1402" spans="1:2">
+      <c r="A1402" s="26"/>
+      <c r="B1402" s="26"/>
     </row>
     <row r="1403" spans="1:2">
-      <c r="A1403" s="26"/>
       <c r="B1403" s="26"/>
     </row>
     <row r="1404" spans="1:2">
@@ -8806,81 +9276,81 @@
       <c r="B1405" s="26"/>
     </row>
     <row r="1406" spans="1:2">
-      <c r="B1406" s="26"/>
+      <c r="A1406" s="27"/>
+      <c r="B1406" s="27"/>
     </row>
     <row r="1407" spans="1:2">
-      <c r="A1407" s="27"/>
-      <c r="B1407" s="27"/>
+      <c r="A1407" s="28"/>
+      <c r="B1407" s="28"/>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="28"/>
       <c r="B1408" s="28"/>
     </row>
-    <row r="1409" spans="1:2">
-      <c r="A1409" s="28"/>
-      <c r="B1409" s="28"/>
-    </row>
-    <row r="1412" spans="1:2">
-      <c r="A1412" s="29"/>
-    </row>
-    <row r="1437" spans="2:2">
-      <c r="B1437" s="29"/>
-    </row>
-    <row r="1442" spans="1:2">
-      <c r="B1442" s="48"/>
-    </row>
-    <row r="1446" spans="1:2">
-      <c r="B1446" s="29"/>
+    <row r="1411" spans="1:1">
+      <c r="A1411" s="29"/>
+    </row>
+    <row r="1436" spans="2:2">
+      <c r="B1436" s="29"/>
+    </row>
+    <row r="1441" spans="1:2">
+      <c r="B1441" s="48"/>
+    </row>
+    <row r="1445" spans="1:2">
+      <c r="B1445" s="29"/>
+    </row>
+    <row r="1448" spans="1:2">
+      <c r="B1448" s="29"/>
     </row>
     <row r="1449" spans="1:2">
       <c r="B1449" s="29"/>
     </row>
-    <row r="1450" spans="1:2">
-      <c r="B1450" s="29"/>
+    <row r="1453" spans="1:2">
+      <c r="B1453" s="29"/>
     </row>
     <row r="1454" spans="1:2">
+      <c r="A1454" s="29"/>
       <c r="B1454" s="29"/>
     </row>
-    <row r="1455" spans="1:2">
-      <c r="A1455" s="29"/>
-      <c r="B1455" s="29"/>
-    </row>
-    <row r="1458" spans="1:2">
-      <c r="B1458" s="29"/>
+    <row r="1457" spans="1:2">
+      <c r="B1457" s="29"/>
+    </row>
+    <row r="1462" spans="1:2">
+      <c r="B1462" s="29"/>
     </row>
     <row r="1463" spans="1:2">
       <c r="B1463" s="29"/>
     </row>
     <row r="1464" spans="1:2">
-      <c r="B1464" s="29"/>
+      <c r="A1464" s="29"/>
     </row>
     <row r="1465" spans="1:2">
-      <c r="A1465" s="29"/>
-    </row>
-    <row r="1466" spans="1:2">
-      <c r="B1466" s="29"/>
-    </row>
-    <row r="1471" spans="1:2">
-      <c r="B1471" s="29"/>
-    </row>
-    <row r="1478" spans="1:2">
-      <c r="B1478" s="29"/>
+      <c r="B1465" s="29"/>
+    </row>
+    <row r="1470" spans="1:2">
+      <c r="B1470" s="29"/>
+    </row>
+    <row r="1477" spans="1:2">
+      <c r="B1477" s="29"/>
+    </row>
+    <row r="1484" spans="1:2">
+      <c r="A1484" s="32"/>
+      <c r="B1484" s="49"/>
     </row>
     <row r="1485" spans="1:2">
-      <c r="A1485" s="32"/>
-      <c r="B1485" s="49"/>
+      <c r="A1485" s="30"/>
+      <c r="B1485" s="32"/>
     </row>
     <row r="1486" spans="1:2">
-      <c r="A1486" s="30"/>
-      <c r="B1486" s="32"/>
+      <c r="A1486" s="31"/>
+      <c r="B1486" s="31"/>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="31"/>
       <c r="B1487" s="31"/>
     </row>
     <row r="1488" spans="1:2">
-      <c r="A1488" s="31"/>
-      <c r="B1488" s="31"/>
+      <c r="B1488" s="49"/>
     </row>
     <row r="1489" spans="1:2">
       <c r="B1489" s="49"/>
@@ -8898,10 +9368,10 @@
       <c r="B1493" s="49"/>
     </row>
     <row r="1494" spans="1:2">
-      <c r="B1494" s="49"/>
-    </row>
-    <row r="1495" spans="1:2">
-      <c r="A1495" s="33"/>
+      <c r="A1494" s="33"/>
+    </row>
+    <row r="1499" spans="1:2">
+      <c r="B1499" s="33"/>
     </row>
     <row r="1500" spans="1:2">
       <c r="B1500" s="33"/>
@@ -8909,102 +9379,102 @@
     <row r="1501" spans="1:2">
       <c r="B1501" s="33"/>
     </row>
-    <row r="1502" spans="1:2">
-      <c r="B1502" s="33"/>
-    </row>
-    <row r="1504" spans="1:2">
-      <c r="A1504" s="33"/>
+    <row r="1503" spans="1:2">
+      <c r="A1503" s="33"/>
+    </row>
+    <row r="1507" spans="1:2">
+      <c r="A1507" s="33"/>
+      <c r="B1507" s="33"/>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="33"/>
       <c r="B1508" s="33"/>
     </row>
     <row r="1509" spans="1:2">
-      <c r="A1509" s="33"/>
       <c r="B1509" s="33"/>
     </row>
-    <row r="1510" spans="1:2">
-      <c r="B1510" s="33"/>
-    </row>
-    <row r="1513" spans="1:2">
-      <c r="B1513" s="33"/>
-    </row>
-    <row r="1517" spans="1:2">
-      <c r="B1517" s="33"/>
+    <row r="1512" spans="1:2">
+      <c r="B1512" s="33"/>
+    </row>
+    <row r="1516" spans="1:2">
+      <c r="B1516" s="33"/>
+    </row>
+    <row r="1518" spans="1:2">
+      <c r="B1518" s="33"/>
     </row>
     <row r="1519" spans="1:2">
       <c r="B1519" s="33"/>
     </row>
-    <row r="1520" spans="1:2">
-      <c r="B1520" s="33"/>
-    </row>
-    <row r="1529" spans="1:2">
-      <c r="A1529" s="33"/>
-      <c r="B1529" s="33"/>
-    </row>
-    <row r="1533" spans="1:2">
-      <c r="B1533" s="33"/>
+    <row r="1528" spans="1:2">
+      <c r="A1528" s="33"/>
+      <c r="B1528" s="33"/>
+    </row>
+    <row r="1532" spans="1:2">
+      <c r="B1532" s="33"/>
+    </row>
+    <row r="1535" spans="1:2">
+      <c r="B1535" s="33"/>
     </row>
     <row r="1536" spans="1:2">
+      <c r="A1536" s="36"/>
       <c r="B1536" s="33"/>
     </row>
     <row r="1537" spans="1:2">
-      <c r="A1537" s="36"/>
+      <c r="A1537" s="33"/>
       <c r="B1537" s="33"/>
     </row>
-    <row r="1538" spans="1:2">
-      <c r="A1538" s="33"/>
-      <c r="B1538" s="33"/>
-    </row>
-    <row r="1540" spans="1:2">
-      <c r="B1540" s="33"/>
-    </row>
-    <row r="1542" spans="1:2">
-      <c r="A1542" s="33"/>
-      <c r="B1542" s="33"/>
-    </row>
-    <row r="1545" spans="1:2">
-      <c r="B1545" s="33"/>
-    </row>
-    <row r="1550" spans="1:2">
-      <c r="B1550" s="33"/>
-    </row>
-    <row r="1552" spans="1:2">
-      <c r="A1552" s="33"/>
+    <row r="1539" spans="1:2">
+      <c r="B1539" s="33"/>
+    </row>
+    <row r="1541" spans="1:2">
+      <c r="A1541" s="33"/>
+      <c r="B1541" s="33"/>
+    </row>
+    <row r="1544" spans="1:2">
+      <c r="B1544" s="33"/>
+    </row>
+    <row r="1549" spans="1:2">
+      <c r="B1549" s="33"/>
+    </row>
+    <row r="1551" spans="1:2">
+      <c r="A1551" s="33"/>
+    </row>
+    <row r="1554" spans="2:2">
+      <c r="B1554" s="33"/>
     </row>
     <row r="1555" spans="2:2">
       <c r="B1555" s="33"/>
     </row>
-    <row r="1556" spans="2:2">
-      <c r="B1556" s="33"/>
-    </row>
-    <row r="1690" spans="2:2">
+    <row r="1689" spans="1:2">
+      <c r="B1689" s="37"/>
+    </row>
+    <row r="1690" spans="1:2">
       <c r="B1690" s="37"/>
     </row>
-    <row r="1691" spans="2:2">
+    <row r="1691" spans="1:2">
       <c r="B1691" s="37"/>
     </row>
-    <row r="1692" spans="2:2">
+    <row r="1692" spans="1:2">
       <c r="B1692" s="37"/>
     </row>
-    <row r="1693" spans="2:2">
-      <c r="B1693" s="37"/>
-    </row>
-    <row r="1695" spans="2:2">
+    <row r="1694" spans="1:2">
+      <c r="B1694" s="37"/>
+    </row>
+    <row r="1695" spans="1:2">
       <c r="B1695" s="37"/>
     </row>
-    <row r="1696" spans="2:2">
+    <row r="1696" spans="1:2">
+      <c r="A1696" s="37"/>
       <c r="B1696" s="37"/>
     </row>
     <row r="1697" spans="1:2">
-      <c r="A1697" s="37"/>
       <c r="B1697" s="37"/>
     </row>
     <row r="1698" spans="1:2">
+      <c r="A1698" s="37"/>
       <c r="B1698" s="37"/>
     </row>
     <row r="1699" spans="1:2">
-      <c r="A1699" s="37"/>
       <c r="B1699" s="37"/>
     </row>
     <row r="1700" spans="1:2">
@@ -9020,10 +9490,10 @@
       <c r="B1703" s="37"/>
     </row>
     <row r="1704" spans="1:2">
+      <c r="A1704" s="37"/>
       <c r="B1704" s="37"/>
     </row>
     <row r="1705" spans="1:2">
-      <c r="A1705" s="37"/>
       <c r="B1705" s="37"/>
     </row>
     <row r="1706" spans="1:2">
@@ -9035,8 +9505,8 @@
     <row r="1708" spans="1:2">
       <c r="B1708" s="37"/>
     </row>
-    <row r="1709" spans="1:2">
-      <c r="B1709" s="37"/>
+    <row r="1710" spans="1:2">
+      <c r="B1710" s="37"/>
     </row>
     <row r="1711" spans="1:2">
       <c r="B1711" s="37"/>
@@ -9047,8 +9517,8 @@
     <row r="1713" spans="2:2">
       <c r="B1713" s="37"/>
     </row>
-    <row r="1714" spans="2:2">
-      <c r="B1714" s="37"/>
+    <row r="1716" spans="2:2">
+      <c r="B1716" s="37"/>
     </row>
     <row r="1717" spans="2:2">
       <c r="B1717" s="37"/>
@@ -9083,8 +9553,8 @@
     <row r="1727" spans="2:2">
       <c r="B1727" s="37"/>
     </row>
-    <row r="1728" spans="2:2">
-      <c r="B1728" s="37"/>
+    <row r="1729" spans="1:2">
+      <c r="B1729" s="37"/>
     </row>
     <row r="1730" spans="1:2">
       <c r="B1730" s="37"/>
@@ -9099,10 +9569,10 @@
       <c r="B1733" s="37"/>
     </row>
     <row r="1734" spans="1:2">
+      <c r="A1734" s="37"/>
       <c r="B1734" s="37"/>
     </row>
     <row r="1735" spans="1:2">
-      <c r="A1735" s="37"/>
       <c r="B1735" s="37"/>
     </row>
     <row r="1736" spans="1:2">
@@ -9118,10 +9588,10 @@
       <c r="B1739" s="37"/>
     </row>
     <row r="1740" spans="1:2">
+      <c r="A1740" s="37"/>
       <c r="B1740" s="37"/>
     </row>
     <row r="1741" spans="1:2">
-      <c r="A1741" s="37"/>
       <c r="B1741" s="37"/>
     </row>
     <row r="1742" spans="1:2">
@@ -9149,77 +9619,77 @@
       <c r="B1749" s="37"/>
     </row>
     <row r="1750" spans="1:2">
+      <c r="A1750" s="37"/>
       <c r="B1750" s="37"/>
     </row>
-    <row r="1751" spans="1:2">
-      <c r="A1751" s="37"/>
-      <c r="B1751" s="37"/>
-    </row>
-    <row r="1753" spans="1:2">
-      <c r="B1753" s="38"/>
-    </row>
-    <row r="1771" spans="1:2">
-      <c r="A1771" s="33"/>
-      <c r="B1771" s="33"/>
-    </row>
-    <row r="1773" spans="1:2">
-      <c r="B1773" s="38"/>
-    </row>
-    <row r="1784" spans="1:2">
-      <c r="B1784" s="38"/>
-    </row>
-    <row r="1787" spans="1:2">
-      <c r="A1787" s="38"/>
-      <c r="B1787" s="38"/>
-    </row>
-    <row r="1789" spans="1:2">
-      <c r="B1789" s="50"/>
-    </row>
-    <row r="1794" spans="2:2">
-      <c r="B1794" s="50"/>
-    </row>
-    <row r="1800" spans="2:2">
-      <c r="B1800" s="38"/>
-    </row>
-    <row r="1805" spans="2:2">
-      <c r="B1805" s="38"/>
-    </row>
-    <row r="1807" spans="2:2">
-      <c r="B1807" s="38"/>
-    </row>
-    <row r="1811" spans="2:2">
-      <c r="B1811" s="40"/>
-    </row>
-    <row r="1829" spans="2:2">
-      <c r="B1829" s="40"/>
-    </row>
-    <row r="1840" spans="2:2">
-      <c r="B1840" s="40"/>
-    </row>
-    <row r="1860" spans="2:2">
-      <c r="B1860" s="40"/>
+    <row r="1752" spans="1:2">
+      <c r="B1752" s="38"/>
+    </row>
+    <row r="1770" spans="1:2">
+      <c r="A1770" s="33"/>
+      <c r="B1770" s="33"/>
+    </row>
+    <row r="1772" spans="1:2">
+      <c r="B1772" s="38"/>
+    </row>
+    <row r="1783" spans="1:2">
+      <c r="B1783" s="38"/>
+    </row>
+    <row r="1786" spans="1:2">
+      <c r="A1786" s="38"/>
+      <c r="B1786" s="38"/>
+    </row>
+    <row r="1788" spans="1:2">
+      <c r="B1788" s="50"/>
+    </row>
+    <row r="1793" spans="2:2">
+      <c r="B1793" s="50"/>
+    </row>
+    <row r="1799" spans="2:2">
+      <c r="B1799" s="38"/>
+    </row>
+    <row r="1804" spans="2:2">
+      <c r="B1804" s="38"/>
+    </row>
+    <row r="1806" spans="2:2">
+      <c r="B1806" s="38"/>
+    </row>
+    <row r="1810" spans="2:2">
+      <c r="B1810" s="40"/>
+    </row>
+    <row r="1828" spans="2:2">
+      <c r="B1828" s="40"/>
+    </row>
+    <row r="1839" spans="2:2">
+      <c r="B1839" s="40"/>
+    </row>
+    <row r="1859" spans="2:2">
+      <c r="B1859" s="40"/>
+    </row>
+    <row r="1869" spans="2:2">
+      <c r="B1869" s="39"/>
     </row>
     <row r="1870" spans="2:2">
       <c r="B1870" s="39"/>
     </row>
-    <row r="1871" spans="2:2">
-      <c r="B1871" s="39"/>
+    <row r="1872" spans="2:2">
+      <c r="B1872" s="39"/>
     </row>
     <row r="1873" spans="1:2">
       <c r="B1873" s="39"/>
     </row>
-    <row r="1874" spans="1:2">
-      <c r="B1874" s="39"/>
+    <row r="1876" spans="1:2">
+      <c r="B1876" s="39"/>
     </row>
     <row r="1877" spans="1:2">
+      <c r="A1877" s="39"/>
       <c r="B1877" s="39"/>
     </row>
-    <row r="1878" spans="1:2">
-      <c r="A1878" s="39"/>
-      <c r="B1878" s="39"/>
-    </row>
-    <row r="1880" spans="1:2">
-      <c r="B1880" s="39"/>
+    <row r="1879" spans="1:2">
+      <c r="B1879" s="39"/>
+    </row>
+    <row r="1883" spans="1:2">
+      <c r="B1883" s="39"/>
     </row>
     <row r="1884" spans="1:2">
       <c r="B1884" s="39"/>
@@ -9227,95 +9697,95 @@
     <row r="1885" spans="1:2">
       <c r="B1885" s="39"/>
     </row>
-    <row r="1886" spans="1:2">
-      <c r="B1886" s="39"/>
-    </row>
-    <row r="1891" spans="2:2">
-      <c r="B1891" s="39"/>
-    </row>
-    <row r="1893" spans="2:2">
-      <c r="B1893" s="39"/>
-    </row>
-    <row r="1902" spans="2:2">
-      <c r="B1902" s="39"/>
-    </row>
-    <row r="1905" spans="2:2">
-      <c r="B1905" s="39"/>
+    <row r="1890" spans="2:2">
+      <c r="B1890" s="39"/>
+    </row>
+    <row r="1892" spans="2:2">
+      <c r="B1892" s="39"/>
+    </row>
+    <row r="1901" spans="2:2">
+      <c r="B1901" s="39"/>
+    </row>
+    <row r="1904" spans="2:2">
+      <c r="B1904" s="39"/>
+    </row>
+    <row r="1911" spans="2:2">
+      <c r="B1911" s="39"/>
     </row>
     <row r="1912" spans="2:2">
       <c r="B1912" s="39"/>
     </row>
-    <row r="1913" spans="2:2">
-      <c r="B1913" s="39"/>
-    </row>
-    <row r="1915" spans="2:2">
-      <c r="B1915" s="39"/>
-    </row>
-    <row r="1917" spans="2:2">
-      <c r="B1917" s="39"/>
+    <row r="1914" spans="2:2">
+      <c r="B1914" s="39"/>
+    </row>
+    <row r="1916" spans="2:2">
+      <c r="B1916" s="39"/>
+    </row>
+    <row r="1928" spans="1:2">
+      <c r="B1928" s="39"/>
     </row>
     <row r="1929" spans="1:2">
       <c r="B1929" s="39"/>
     </row>
     <row r="1930" spans="1:2">
+      <c r="A1930" s="39"/>
       <c r="B1930" s="39"/>
     </row>
-    <row r="1931" spans="1:2">
-      <c r="A1931" s="39"/>
-      <c r="B1931" s="39"/>
+    <row r="1937" spans="1:2">
+      <c r="B1937" s="39"/>
     </row>
     <row r="1938" spans="1:2">
       <c r="B1938" s="39"/>
     </row>
-    <row r="1939" spans="1:2">
-      <c r="B1939" s="39"/>
-    </row>
-    <row r="1948" spans="1:2">
-      <c r="A1948" s="39"/>
-    </row>
-    <row r="1951" spans="1:2">
-      <c r="B1951" s="39"/>
-    </row>
-    <row r="1962" spans="2:2">
-      <c r="B1962" s="39"/>
-    </row>
-    <row r="1964" spans="2:2">
-      <c r="B1964" s="39"/>
-    </row>
-    <row r="1966" spans="2:2">
+    <row r="1947" spans="1:2">
+      <c r="A1947" s="39"/>
+    </row>
+    <row r="1950" spans="1:2">
+      <c r="B1950" s="39"/>
+    </row>
+    <row r="1961" spans="1:2">
+      <c r="B1961" s="39"/>
+    </row>
+    <row r="1963" spans="1:2">
+      <c r="B1963" s="39"/>
+    </row>
+    <row r="1965" spans="1:2">
+      <c r="B1965" s="39"/>
+    </row>
+    <row r="1966" spans="1:2">
       <c r="B1966" s="39"/>
     </row>
-    <row r="1967" spans="2:2">
-      <c r="B1967" s="39"/>
-    </row>
-    <row r="1969" spans="1:2">
-      <c r="A1969" s="39"/>
-      <c r="B1969" s="39"/>
-    </row>
-    <row r="1973" spans="1:2">
-      <c r="B1973" s="39"/>
-    </row>
-    <row r="1977" spans="1:2">
-      <c r="B1977" s="39"/>
-    </row>
-    <row r="1979" spans="1:2">
-      <c r="B1979" s="39"/>
+    <row r="1968" spans="1:2">
+      <c r="A1968" s="39"/>
+      <c r="B1968" s="39"/>
+    </row>
+    <row r="1972" spans="2:2">
+      <c r="B1972" s="39"/>
+    </row>
+    <row r="1976" spans="2:2">
+      <c r="B1976" s="39"/>
+    </row>
+    <row r="1978" spans="2:2">
+      <c r="B1978" s="39"/>
+    </row>
+    <row r="1984" spans="2:2">
+      <c r="B1984" s="39"/>
     </row>
     <row r="1985" spans="1:2">
+      <c r="A1985" s="39"/>
       <c r="B1985" s="39"/>
     </row>
     <row r="1986" spans="1:2">
-      <c r="A1986" s="39"/>
       <c r="B1986" s="39"/>
     </row>
-    <row r="1987" spans="1:2">
-      <c r="B1987" s="39"/>
-    </row>
-    <row r="1994" spans="1:2">
-      <c r="B1994" s="39"/>
-    </row>
-    <row r="1996" spans="1:2">
-      <c r="B1996" s="39"/>
+    <row r="1993" spans="1:2">
+      <c r="B1993" s="39"/>
+    </row>
+    <row r="1995" spans="1:2">
+      <c r="B1995" s="39"/>
+    </row>
+    <row r="2005" spans="1:2">
+      <c r="B2005" s="51"/>
     </row>
     <row r="2006" spans="1:2">
       <c r="B2006" s="51"/>
@@ -9324,10 +9794,10 @@
       <c r="B2007" s="51"/>
     </row>
     <row r="2008" spans="1:2">
+      <c r="A2008" s="51"/>
       <c r="B2008" s="51"/>
     </row>
     <row r="2009" spans="1:2">
-      <c r="A2009" s="51"/>
       <c r="B2009" s="51"/>
     </row>
     <row r="2010" spans="1:2">
@@ -9348,8 +9818,8 @@
     <row r="2015" spans="1:2">
       <c r="B2015" s="51"/>
     </row>
-    <row r="2016" spans="1:2">
-      <c r="B2016" s="51"/>
+    <row r="2018" spans="2:2">
+      <c r="B2018" s="51"/>
     </row>
     <row r="2019" spans="2:2">
       <c r="B2019" s="51"/>
@@ -9403,20 +9873,20 @@
       <c r="B2035" s="51"/>
     </row>
     <row r="2036" spans="1:2">
-      <c r="B2036" s="51"/>
+      <c r="A2036" s="51"/>
+      <c r="B2036" s="54"/>
     </row>
     <row r="2037" spans="1:2">
-      <c r="A2037" s="51"/>
-      <c r="B2037" s="54"/>
+      <c r="B2037" s="51"/>
     </row>
     <row r="2038" spans="1:2">
       <c r="B2038" s="51"/>
     </row>
-    <row r="2039" spans="1:2">
-      <c r="B2039" s="51"/>
-    </row>
-    <row r="2041" spans="1:2">
-      <c r="B2041" s="51"/>
+    <row r="2040" spans="1:2">
+      <c r="B2040" s="51"/>
+    </row>
+    <row r="2042" spans="1:2">
+      <c r="B2042" s="51"/>
     </row>
     <row r="2043" spans="1:2">
       <c r="B2043" s="51"/>
@@ -9425,10 +9895,10 @@
       <c r="B2044" s="51"/>
     </row>
     <row r="2045" spans="1:2">
+      <c r="A2045" s="51"/>
       <c r="B2045" s="51"/>
     </row>
     <row r="2046" spans="1:2">
-      <c r="A2046" s="51"/>
       <c r="B2046" s="51"/>
     </row>
     <row r="2047" spans="1:2">
@@ -9477,17 +9947,17 @@
       <c r="B2061" s="51"/>
     </row>
     <row r="2062" spans="1:2">
-      <c r="B2062" s="51"/>
-    </row>
-    <row r="2063" spans="1:2">
-      <c r="A2063" s="52"/>
-      <c r="B2063" s="53"/>
+      <c r="A2062" s="52"/>
+      <c r="B2062" s="53"/>
+    </row>
+    <row r="2064" spans="1:2">
+      <c r="B2064" s="54"/>
     </row>
     <row r="2065" spans="2:2">
       <c r="B2065" s="54"/>
     </row>
-    <row r="2066" spans="2:2">
-      <c r="B2066" s="54"/>
+    <row r="2068" spans="2:2">
+      <c r="B2068" s="54"/>
     </row>
     <row r="2069" spans="2:2">
       <c r="B2069" s="54"/>
@@ -9498,44 +9968,44 @@
     <row r="2071" spans="2:2">
       <c r="B2071" s="54"/>
     </row>
-    <row r="2072" spans="2:2">
-      <c r="B2072" s="54"/>
+    <row r="2073" spans="2:2">
+      <c r="B2073" s="54"/>
     </row>
     <row r="2074" spans="2:2">
       <c r="B2074" s="54"/>
     </row>
-    <row r="2075" spans="2:2">
-      <c r="B2075" s="54"/>
-    </row>
-    <row r="2077" spans="2:2">
-      <c r="B2077" s="54"/>
+    <row r="2076" spans="2:2">
+      <c r="B2076" s="54"/>
+    </row>
+    <row r="2079" spans="2:2">
+      <c r="B2079" s="54"/>
     </row>
     <row r="2080" spans="2:2">
       <c r="B2080" s="54"/>
     </row>
-    <row r="2081" spans="2:2">
-      <c r="B2081" s="54"/>
+    <row r="2082" spans="2:2">
+      <c r="B2082" s="54"/>
     </row>
     <row r="2083" spans="2:2">
       <c r="B2083" s="54"/>
     </row>
-    <row r="2084" spans="2:2">
-      <c r="B2084" s="54"/>
-    </row>
-    <row r="2086" spans="2:2">
-      <c r="B2086" s="54"/>
+    <row r="2085" spans="2:2">
+      <c r="B2085" s="54"/>
+    </row>
+    <row r="2090" spans="2:2">
+      <c r="B2090" s="54"/>
     </row>
     <row r="2091" spans="2:2">
       <c r="B2091" s="54"/>
     </row>
-    <row r="2092" spans="2:2">
-      <c r="B2092" s="54"/>
-    </row>
-    <row r="2094" spans="2:2">
-      <c r="B2094" s="54"/>
-    </row>
-    <row r="2096" spans="2:2">
-      <c r="B2096" s="54"/>
+    <row r="2093" spans="2:2">
+      <c r="B2093" s="54"/>
+    </row>
+    <row r="2095" spans="2:2">
+      <c r="B2095" s="54"/>
+    </row>
+    <row r="2097" spans="1:2">
+      <c r="B2097" s="54"/>
     </row>
     <row r="2098" spans="1:2">
       <c r="B2098" s="54"/>
@@ -9546,17 +10016,18 @@
     <row r="2100" spans="1:2">
       <c r="B2100" s="54"/>
     </row>
-    <row r="2101" spans="1:2">
-      <c r="B2101" s="54"/>
-    </row>
-    <row r="2104" spans="1:2">
-      <c r="B2104" s="54"/>
+    <row r="2103" spans="1:2">
+      <c r="B2103" s="54"/>
+    </row>
+    <row r="2105" spans="1:2">
+      <c r="B2105" s="54"/>
     </row>
     <row r="2106" spans="1:2">
       <c r="B2106" s="54"/>
     </row>
     <row r="2107" spans="1:2">
-      <c r="B2107" s="54"/>
+      <c r="A2107" s="55"/>
+      <c r="B2107" s="55"/>
     </row>
     <row r="2108" spans="1:2">
       <c r="A2108" s="55"/>
@@ -9587,27 +10058,27 @@
       <c r="B2114" s="55"/>
     </row>
     <row r="2115" spans="1:2">
-      <c r="A2115" s="55"/>
-      <c r="B2115" s="55"/>
+      <c r="A2115" s="57"/>
+      <c r="B2115" s="56"/>
     </row>
     <row r="2116" spans="1:2">
       <c r="A2116" s="57"/>
-      <c r="B2116" s="56"/>
-    </row>
-    <row r="2117" spans="1:2">
-      <c r="A2117" s="57"/>
-      <c r="B2117" s="57"/>
-    </row>
-    <row r="2119" spans="1:2">
-      <c r="A2119" s="57"/>
-      <c r="B2119" s="57"/>
+      <c r="B2116" s="57"/>
+    </row>
+    <row r="2118" spans="1:2">
+      <c r="A2118" s="57"/>
+      <c r="B2118" s="57"/>
+    </row>
+    <row r="2120" spans="1:2">
+      <c r="A2120" s="57"/>
+      <c r="B2120" s="57"/>
     </row>
     <row r="2121" spans="1:2">
-      <c r="A2121" s="57"/>
       <c r="B2121" s="57"/>
     </row>
-    <row r="2122" spans="1:2">
-      <c r="B2122" s="57"/>
+    <row r="2123" spans="1:2">
+      <c r="A2123" s="57"/>
+      <c r="B2123" s="57"/>
     </row>
     <row r="2124" spans="1:2">
       <c r="A2124" s="57"/>
@@ -9617,52 +10088,52 @@
       <c r="A2125" s="57"/>
       <c r="B2125" s="57"/>
     </row>
-    <row r="2126" spans="1:2">
-      <c r="A2126" s="57"/>
-      <c r="B2126" s="57"/>
+    <row r="2127" spans="1:2">
+      <c r="B2127" s="57"/>
     </row>
     <row r="2128" spans="1:2">
+      <c r="A2128" s="57"/>
       <c r="B2128" s="57"/>
     </row>
-    <row r="2129" spans="1:2">
-      <c r="A2129" s="57"/>
+    <row r="2129" spans="2:2">
       <c r="B2129" s="57"/>
     </row>
-    <row r="2130" spans="1:2">
-      <c r="B2130" s="57"/>
-    </row>
-    <row r="2132" spans="1:2">
+    <row r="2131" spans="2:2">
+      <c r="B2131" s="57"/>
+    </row>
+    <row r="2132" spans="2:2">
       <c r="B2132" s="57"/>
     </row>
-    <row r="2133" spans="1:2">
+    <row r="2133" spans="2:2">
       <c r="B2133" s="57"/>
     </row>
-    <row r="2134" spans="1:2">
+    <row r="2134" spans="2:2">
       <c r="B2134" s="57"/>
     </row>
-    <row r="2135" spans="1:2">
-      <c r="B2135" s="57"/>
-    </row>
-    <row r="2142" spans="1:2">
-      <c r="B2142" s="57"/>
-    </row>
-    <row r="2151" spans="1:2">
-      <c r="A2151" s="57"/>
-      <c r="B2151" s="57"/>
+    <row r="2141" spans="2:2">
+      <c r="B2141" s="57"/>
+    </row>
+    <row r="2150" spans="1:2">
+      <c r="A2150" s="57"/>
+      <c r="B2150" s="57"/>
+    </row>
+    <row r="2159" spans="1:2">
+      <c r="B2159" s="57"/>
     </row>
     <row r="2160" spans="1:2">
       <c r="B2160" s="57"/>
     </row>
-    <row r="2161" spans="1:2">
-      <c r="B2161" s="57"/>
+    <row r="2174" spans="1:2">
+      <c r="A2174" s="57"/>
+      <c r="B2174" s="57"/>
     </row>
     <row r="2175" spans="1:2">
       <c r="A2175" s="57"/>
       <c r="B2175" s="57"/>
     </row>
-    <row r="2176" spans="1:2">
-      <c r="A2176" s="57"/>
-      <c r="B2176" s="57"/>
+    <row r="2178" spans="1:2">
+      <c r="A2178" s="57"/>
+      <c r="B2178" s="57"/>
     </row>
     <row r="2179" spans="1:2">
       <c r="A2179" s="57"/>
@@ -9674,169 +10145,168 @@
     </row>
     <row r="2181" spans="1:2">
       <c r="A2181" s="57"/>
-      <c r="B2181" s="57"/>
     </row>
     <row r="2182" spans="1:2">
       <c r="A2182" s="57"/>
-    </row>
-    <row r="2183" spans="1:2">
-      <c r="A2183" s="57"/>
-      <c r="B2183" s="57"/>
-    </row>
-    <row r="2185" spans="1:2">
-      <c r="B2185" s="57"/>
+      <c r="B2182" s="57"/>
+    </row>
+    <row r="2184" spans="1:2">
+      <c r="B2184" s="57"/>
+    </row>
+    <row r="2186" spans="1:2">
+      <c r="B2186" s="57"/>
     </row>
     <row r="2187" spans="1:2">
+      <c r="A2187" s="57"/>
       <c r="B2187" s="57"/>
     </row>
-    <row r="2188" spans="1:2">
-      <c r="A2188" s="57"/>
-      <c r="B2188" s="57"/>
-    </row>
-    <row r="2191" spans="1:2">
-      <c r="A2191" s="57"/>
-    </row>
-    <row r="2208" spans="1:1">
-      <c r="A2208" s="57"/>
-    </row>
-    <row r="2212" spans="1:2">
-      <c r="A2212" s="57"/>
-      <c r="B2212" s="57"/>
-    </row>
-    <row r="2216" spans="1:2">
-      <c r="A2216" s="57"/>
-      <c r="B2216" s="57"/>
-    </row>
-    <row r="2218" spans="1:2">
-      <c r="A2218" s="57"/>
-      <c r="B2218" s="57"/>
+    <row r="2190" spans="1:2">
+      <c r="A2190" s="57"/>
+    </row>
+    <row r="2207" spans="1:1">
+      <c r="A2207" s="57"/>
+    </row>
+    <row r="2211" spans="1:2">
+      <c r="A2211" s="57"/>
+      <c r="B2211" s="57"/>
+    </row>
+    <row r="2215" spans="1:2">
+      <c r="A2215" s="57"/>
+      <c r="B2215" s="57"/>
+    </row>
+    <row r="2217" spans="1:2">
+      <c r="A2217" s="57"/>
+      <c r="B2217" s="57"/>
+    </row>
+    <row r="2221" spans="1:2">
+      <c r="B2221" s="58"/>
     </row>
     <row r="2222" spans="1:2">
       <c r="B2222" s="58"/>
     </row>
     <row r="2223" spans="1:2">
+      <c r="A2223" s="58"/>
       <c r="B2223" s="58"/>
     </row>
-    <row r="2224" spans="1:2">
-      <c r="A2224" s="58"/>
-      <c r="B2224" s="58"/>
+    <row r="2228" spans="2:2">
+      <c r="B2228" s="58"/>
     </row>
     <row r="2229" spans="2:2">
       <c r="B2229" s="58"/>
     </row>
-    <row r="2230" spans="2:2">
-      <c r="B2230" s="58"/>
-    </row>
-    <row r="2236" spans="2:2">
-      <c r="B2236" s="58"/>
-    </row>
-    <row r="2239" spans="2:2">
-      <c r="B2239" s="58"/>
-    </row>
-    <row r="2245" spans="1:2">
-      <c r="B2245" s="58"/>
-    </row>
-    <row r="2248" spans="1:2">
-      <c r="A2248" s="58"/>
-      <c r="B2248" s="58"/>
-    </row>
-    <row r="2258" spans="1:2">
-      <c r="B2258" s="58"/>
-    </row>
-    <row r="2261" spans="1:2">
-      <c r="B2261" s="58"/>
-    </row>
-    <row r="2265" spans="1:2">
-      <c r="A2265" s="58"/>
-      <c r="B2265" s="58"/>
+    <row r="2235" spans="2:2">
+      <c r="B2235" s="58"/>
+    </row>
+    <row r="2238" spans="2:2">
+      <c r="B2238" s="58"/>
+    </row>
+    <row r="2244" spans="1:2">
+      <c r="B2244" s="58"/>
+    </row>
+    <row r="2247" spans="1:2">
+      <c r="A2247" s="58"/>
+      <c r="B2247" s="58"/>
+    </row>
+    <row r="2257" spans="1:2">
+      <c r="B2257" s="58"/>
+    </row>
+    <row r="2260" spans="1:2">
+      <c r="B2260" s="58"/>
+    </row>
+    <row r="2264" spans="1:2">
+      <c r="A2264" s="58"/>
+      <c r="B2264" s="58"/>
+    </row>
+    <row r="2304" spans="1:1">
+      <c r="A2304" s="59"/>
     </row>
     <row r="2305" spans="1:2">
       <c r="A2305" s="59"/>
+      <c r="B2305" s="59"/>
     </row>
     <row r="2306" spans="1:2">
-      <c r="A2306" s="59"/>
       <c r="B2306" s="59"/>
     </row>
     <row r="2307" spans="1:2">
       <c r="B2307" s="59"/>
     </row>
-    <row r="2308" spans="1:2">
-      <c r="B2308" s="59"/>
-    </row>
-    <row r="2315" spans="1:2">
-      <c r="B2315" s="59"/>
-    </row>
-    <row r="2317" spans="1:2">
-      <c r="A2317" s="59"/>
-      <c r="B2317" s="59"/>
-    </row>
-    <row r="2321" spans="1:2">
-      <c r="B2321" s="59"/>
+    <row r="2314" spans="1:2">
+      <c r="B2314" s="59"/>
+    </row>
+    <row r="2316" spans="1:2">
+      <c r="A2316" s="59"/>
+      <c r="B2316" s="59"/>
+    </row>
+    <row r="2320" spans="1:2">
+      <c r="B2320" s="59"/>
+    </row>
+    <row r="2324" spans="1:2">
+      <c r="A2324" s="59"/>
+      <c r="B2324" s="59"/>
     </row>
     <row r="2325" spans="1:2">
-      <c r="A2325" s="59"/>
       <c r="B2325" s="59"/>
     </row>
     <row r="2326" spans="1:2">
       <c r="B2326" s="59"/>
     </row>
-    <row r="2327" spans="1:2">
-      <c r="B2327" s="59"/>
-    </row>
-    <row r="2332" spans="1:2">
-      <c r="B2332" s="59"/>
-    </row>
-    <row r="2343" spans="1:2">
-      <c r="A2343" s="59"/>
-    </row>
-    <row r="2347" spans="1:2">
-      <c r="B2347" s="59"/>
-    </row>
-    <row r="2351" spans="1:2">
-      <c r="B2351" s="59"/>
-    </row>
-    <row r="2353" spans="1:2">
-      <c r="A2353" s="60"/>
-      <c r="B2353" s="60"/>
-    </row>
-    <row r="2354" spans="1:2">
+    <row r="2331" spans="1:2">
+      <c r="B2331" s="59"/>
+    </row>
+    <row r="2342" spans="1:2">
+      <c r="A2342" s="59"/>
+    </row>
+    <row r="2346" spans="1:2">
+      <c r="B2346" s="59"/>
+    </row>
+    <row r="2350" spans="1:2">
+      <c r="B2350" s="59"/>
+    </row>
+    <row r="2352" spans="1:2">
+      <c r="A2352" s="60"/>
+      <c r="B2352" s="60"/>
+    </row>
+    <row r="2353" spans="2:2">
+      <c r="B2353" s="61"/>
+    </row>
+    <row r="2354" spans="2:2">
       <c r="B2354" s="61"/>
     </row>
-    <row r="2355" spans="1:2">
+    <row r="2355" spans="2:2">
       <c r="B2355" s="61"/>
     </row>
-    <row r="2356" spans="1:2">
+    <row r="2356" spans="2:2">
       <c r="B2356" s="61"/>
     </row>
-    <row r="2357" spans="1:2">
-      <c r="B2357" s="61"/>
-    </row>
-    <row r="2360" spans="1:2">
+    <row r="2359" spans="2:2">
+      <c r="B2359" s="61"/>
+    </row>
+    <row r="2360" spans="2:2">
       <c r="B2360" s="61"/>
     </row>
-    <row r="2361" spans="1:2">
+    <row r="2361" spans="2:2">
       <c r="B2361" s="61"/>
     </row>
-    <row r="2362" spans="1:2">
-      <c r="B2362" s="61"/>
-    </row>
-    <row r="2363" spans="1:2">
-      <c r="B2363" s="62"/>
-    </row>
-    <row r="2364" spans="1:2">
+    <row r="2362" spans="2:2">
+      <c r="B2362" s="62"/>
+    </row>
+    <row r="2363" spans="2:2">
+      <c r="B2363" s="61"/>
+    </row>
+    <row r="2364" spans="2:2">
       <c r="B2364" s="61"/>
     </row>
-    <row r="2365" spans="1:2">
+    <row r="2365" spans="2:2">
       <c r="B2365" s="61"/>
     </row>
-    <row r="2366" spans="1:2">
+    <row r="2366" spans="2:2">
       <c r="B2366" s="61"/>
     </row>
-    <row r="2367" spans="1:2">
+    <row r="2367" spans="2:2">
       <c r="B2367" s="61"/>
     </row>
-    <row r="2368" spans="1:2">
-      <c r="B2368" s="61"/>
+    <row r="2369" spans="2:2">
+      <c r="B2369" s="61"/>
     </row>
     <row r="2370" spans="2:2">
       <c r="B2370" s="61"/>
@@ -9872,7 +10342,7 @@
       <c r="B2380" s="61"/>
     </row>
     <row r="2381" spans="2:2">
-      <c r="B2381" s="61"/>
+      <c r="B2381" s="62"/>
     </row>
     <row r="2382" spans="2:2">
       <c r="B2382" s="62"/>
@@ -9921,9 +10391,6 @@
     </row>
     <row r="2397" spans="2:2">
       <c r="B2397" s="62"/>
-    </row>
-    <row r="2398" spans="2:2">
-      <c r="B2398" s="62"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B250">

--- a/name/dictionary_flavor.xlsx
+++ b/name/dictionary_flavor.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E085F329-790F-4104-9465-46EF8669E559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF72B36-7FFD-45F0-AA1A-9CC4232BD232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1681</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1680</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="722">
   <si>
     <t>Japanese</t>
   </si>
@@ -1658,9 +1658,6 @@
   </si>
   <si>
     <t>Rich Milk</t>
-  </si>
-  <si>
-    <t>ブラックP</t>
   </si>
   <si>
     <t>サワクリ</t>
@@ -3299,6 +3296,16 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3322,16 +3329,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3346,14 +3343,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31E880F3-601E-4A23-91BF-5CF49E0AE873}" name="Table1" displayName="Table1" ref="A1:B1681" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B1681" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1681">
-    <sortCondition descending="1" ref="B5:B1681"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31E880F3-601E-4A23-91BF-5CF49E0AE873}" name="Table1" displayName="Table1" ref="A1:B1680" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:B1680" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1680">
+    <sortCondition descending="1" ref="B5:B1680"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{54EBA6F5-E9BF-4232-BECC-69FB485DBB2B}" name="Japanese" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{1BF58F47-A867-48E5-94A7-3EDDF931DA6B}" name="English" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{54EBA6F5-E9BF-4232-BECC-69FB485DBB2B}" name="Japanese" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1BF58F47-A867-48E5-94A7-3EDDF931DA6B}" name="English" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3618,10 +3615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2397"/>
+  <dimension ref="A1:G2396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -5968,104 +5965,104 @@
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="67" t="s">
+      <c r="A291" s="8" t="s">
         <v>545</v>
       </c>
       <c r="B291" s="108" t="s">
-        <v>37</v>
+        <v>311</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B292" s="108" t="s">
-        <v>311</v>
+      <c r="B292" s="8" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="8" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="8" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B300" s="8" t="s">
         <v>560</v>
+      </c>
+      <c r="B300" s="109" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B301" s="109" t="s">
         <v>562</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
+      </c>
+      <c r="B302" s="109" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B303" s="109" t="s">
         <v>568</v>
@@ -6076,31 +6073,31 @@
         <v>570</v>
       </c>
       <c r="B304" s="109" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="B305" s="109" t="s">
-        <v>568</v>
+      <c r="B305" s="8" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="B306" s="8" t="s">
         <v>573</v>
+      </c>
+      <c r="B306" s="109" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="B307" s="109" t="s">
         <v>575</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6108,47 +6105,47 @@
         <v>576</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>219</v>
+        <v>577</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B311" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="B311" s="8" t="s">
-        <v>582</v>
-      </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="8" t="s">
+      <c r="A312" t="s">
         <v>583</v>
       </c>
-      <c r="B312" s="8" t="s">
-        <v>582</v>
+      <c r="B312" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
+        <v>585</v>
+      </c>
+      <c r="B313" t="s">
         <v>584</v>
-      </c>
-      <c r="B313" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -6156,15 +6153,15 @@
         <v>586</v>
       </c>
       <c r="B314" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" t="s">
+      <c r="A315" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="B315" t="s">
-        <v>585</v>
+      <c r="B315" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -6172,87 +6169,87 @@
         <v>588</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>29</v>
+        <v>589</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="B317" s="8" t="s">
         <v>590</v>
+      </c>
+      <c r="B317" s="110" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="B318" s="110" t="s">
         <v>592</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="8" t="s">
+      <c r="A325" s="67" t="s">
+        <v>606</v>
+      </c>
+      <c r="B325" s="74" t="s">
         <v>605</v>
       </c>
-      <c r="B325" s="8" t="s">
-        <v>606</v>
-      </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="67" t="s">
+      <c r="A326" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="B326" s="74" t="s">
-        <v>606</v>
+      <c r="B326" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -6260,55 +6257,55 @@
         <v>608</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>47</v>
+        <v>609</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="B331" s="8" t="s">
         <v>616</v>
+      </c>
+      <c r="B331" s="111" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B332" s="111" t="s">
         <v>618</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>620</v>
+        <v>381</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6316,372 +6313,373 @@
         <v>621</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>381</v>
+        <v>622</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="15.75" customHeight="1">
       <c r="A336" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="15.75" customHeight="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
       <c r="A337" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="B343" s="8" t="s">
         <v>639</v>
+      </c>
+      <c r="B343" s="112" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B344" s="112" t="s">
         <v>641</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="B350" s="8" t="s">
         <v>653</v>
+      </c>
+      <c r="B350" s="112" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B351" s="112" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="B352" s="112" t="s">
         <v>657</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="B357" s="8" t="s">
         <v>667</v>
+      </c>
+      <c r="B357" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="B358" t="s">
         <v>669</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="8" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="B362" s="8" t="s">
+      <c r="A362" s="113" t="s">
         <v>677</v>
       </c>
+      <c r="B362" s="113" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="113" t="s">
-        <v>678</v>
-      </c>
-      <c r="B363" s="113" t="s">
+      <c r="A363" s="8" t="s">
         <v>679</v>
       </c>
+      <c r="B363" s="8" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="B364" s="8" t="s">
+      <c r="A364" t="s">
         <v>681</v>
+      </c>
+      <c r="B364" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B365" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>684</v>
-      </c>
-      <c r="B366" t="s">
         <v>685</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
         <v>686</v>
       </c>
-      <c r="B367" s="8" t="s">
-        <v>714</v>
+      <c r="B367" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B368" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B369" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" t="s">
-        <v>691</v>
-      </c>
-      <c r="B370" t="s">
         <v>692</v>
       </c>
+      <c r="B370" s="113" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" t="s">
-        <v>693</v>
+      <c r="A371" s="113" t="s">
+        <v>694</v>
       </c>
       <c r="B371" s="113" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="113" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B372" s="113" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="113" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B373" s="113" t="s">
-        <v>698</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="E373" s="3"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="113" t="s">
-        <v>699</v>
-      </c>
-      <c r="B374" s="113" t="s">
         <v>700</v>
       </c>
-      <c r="E374" s="3"/>
+      <c r="B374" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="113" t="s">
+      <c r="A375" s="114" t="s">
         <v>701</v>
       </c>
-      <c r="B375" s="8" t="s">
-        <v>704</v>
+      <c r="B375" s="114" t="s">
+        <v>702</v>
       </c>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="114" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B376" s="114" t="s">
-        <v>703</v>
-      </c>
-      <c r="E376" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="E376" s="3"/>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="114" t="s">
-        <v>705</v>
-      </c>
-      <c r="B377" s="114" t="s">
+      <c r="A377" s="8" t="s">
         <v>706</v>
       </c>
+      <c r="B377" s="8" t="s">
+        <v>707</v>
+      </c>
       <c r="E377" s="3"/>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="B378" s="8" t="s">
+      <c r="A378" s="114" t="s">
         <v>708</v>
       </c>
-      <c r="E378" s="3"/>
+      <c r="B378" s="114" t="s">
+        <v>709</v>
+      </c>
+      <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5">
-      <c r="A379" s="114" t="s">
-        <v>709</v>
-      </c>
-      <c r="B379" s="114" t="s">
+      <c r="A379" s="8" t="s">
         <v>710</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E379" s="2"/>
     </row>
@@ -6690,34 +6688,34 @@
         <v>711</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E380" s="2"/>
+        <v>712</v>
+      </c>
+      <c r="E380" s="3"/>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="E381" s="3"/>
+        <v>715</v>
+      </c>
+      <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="B382" s="8" t="s">
         <v>716</v>
       </c>
+      <c r="B382" s="114" t="s">
+        <v>717</v>
+      </c>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5">
-      <c r="A383" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="B383" s="114" t="s">
+      <c r="A383" t="s">
         <v>718</v>
+      </c>
+      <c r="B383" t="s">
+        <v>721</v>
       </c>
       <c r="E383" s="2"/>
     </row>
@@ -6725,18 +6723,13 @@
       <c r="A384" t="s">
         <v>719</v>
       </c>
-      <c r="B384" t="s">
-        <v>722</v>
+      <c r="B384" s="115" t="s">
+        <v>720</v>
       </c>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5">
-      <c r="A385" t="s">
-        <v>720</v>
-      </c>
-      <c r="B385" s="115" t="s">
-        <v>721</v>
-      </c>
+      <c r="B385" s="34"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5">
@@ -6748,19 +6741,18 @@
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5">
-      <c r="B388" s="34"/>
-      <c r="E388" s="2"/>
+      <c r="E388" s="3"/>
     </row>
     <row r="389" spans="1:5">
-      <c r="E389" s="3"/>
+      <c r="B389" s="7"/>
+      <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5">
-      <c r="B390" s="7"/>
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5">
-      <c r="A391" s="1"/>
-      <c r="B391" s="1"/>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5">
@@ -6770,16 +6762,17 @@
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5">
-      <c r="E394" s="2"/>
+      <c r="A394" s="34"/>
+      <c r="E394" s="3"/>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="34"/>
-      <c r="E395" s="3"/>
+      <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5">
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5">
+      <c r="B397" s="5"/>
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5">
@@ -6787,14 +6780,13 @@
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5">
-      <c r="B399" s="5"/>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5">
-      <c r="E400" s="2"/>
+      <c r="E400" s="3"/>
     </row>
     <row r="401" spans="1:5">
-      <c r="E401" s="3"/>
+      <c r="E401" s="2"/>
     </row>
     <row r="402" spans="1:5">
       <c r="E402" s="2"/>
@@ -6806,85 +6798,85 @@
       <c r="E404" s="2"/>
     </row>
     <row r="405" spans="1:5">
-      <c r="E405" s="2"/>
+      <c r="B405" s="5"/>
+      <c r="E405" s="3"/>
     </row>
     <row r="406" spans="1:5">
-      <c r="B406" s="5"/>
-      <c r="E406" s="3"/>
+      <c r="E406" s="2"/>
     </row>
     <row r="407" spans="1:5">
-      <c r="E407" s="2"/>
+      <c r="A407" s="10"/>
+      <c r="B407" s="5"/>
+      <c r="E407" s="3"/>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="10"/>
-      <c r="B408" s="5"/>
-      <c r="E408" s="3"/>
+      <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5">
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5">
-      <c r="E410" s="2"/>
+      <c r="E410" s="3"/>
     </row>
     <row r="411" spans="1:5">
-      <c r="E411" s="3"/>
+      <c r="B411" s="20"/>
+      <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5">
-      <c r="B412" s="20"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5">
-      <c r="E413" s="2"/>
+      <c r="E413" s="3"/>
     </row>
     <row r="414" spans="1:5">
-      <c r="E414" s="3"/>
+      <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="E415" s="2"/>
+      <c r="E415" s="3"/>
     </row>
     <row r="416" spans="1:5">
+      <c r="B416" s="34"/>
       <c r="E416" s="3"/>
     </row>
     <row r="417" spans="1:5">
-      <c r="B417" s="34"/>
+      <c r="A417" s="12"/>
       <c r="E417" s="3"/>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="12"/>
       <c r="E418" s="3"/>
     </row>
     <row r="419" spans="1:5">
-      <c r="E419" s="3"/>
+      <c r="E419" s="2"/>
     </row>
     <row r="420" spans="1:5">
-      <c r="E420" s="2"/>
+      <c r="E420" s="3"/>
     </row>
     <row r="421" spans="1:5">
-      <c r="E421" s="3"/>
+      <c r="E421" s="2"/>
     </row>
     <row r="422" spans="1:5">
-      <c r="E422" s="2"/>
+      <c r="A422" s="6"/>
+      <c r="B422" s="5"/>
+      <c r="E422" s="3"/>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="6"/>
-      <c r="B423" s="5"/>
+      <c r="A423" s="9"/>
+      <c r="B423" s="9"/>
       <c r="E423" s="3"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="9"/>
-      <c r="B424" s="9"/>
-      <c r="E424" s="3"/>
+      <c r="B424" s="7"/>
+      <c r="E424" s="2"/>
     </row>
     <row r="425" spans="1:5">
-      <c r="B425" s="7"/>
-      <c r="E425" s="2"/>
+      <c r="B425" s="12"/>
+      <c r="E425" s="3"/>
     </row>
     <row r="426" spans="1:5">
-      <c r="B426" s="12"/>
       <c r="E426" s="3"/>
     </row>
     <row r="427" spans="1:5">
-      <c r="E427" s="3"/>
+      <c r="E427" s="2"/>
     </row>
     <row r="428" spans="1:5">
       <c r="E428" s="2"/>
@@ -6893,27 +6885,27 @@
       <c r="E429" s="2"/>
     </row>
     <row r="430" spans="1:5">
-      <c r="E430" s="2"/>
+      <c r="B430" s="7"/>
+      <c r="E430" s="3"/>
     </row>
     <row r="431" spans="1:5">
-      <c r="B431" s="7"/>
-      <c r="E431" s="3"/>
+      <c r="E431" s="2"/>
     </row>
     <row r="432" spans="1:5">
       <c r="E432" s="2"/>
     </row>
     <row r="433" spans="1:5">
+      <c r="B433" s="12"/>
       <c r="E433" s="2"/>
     </row>
     <row r="434" spans="1:5">
-      <c r="B434" s="12"/>
       <c r="E434" s="2"/>
     </row>
     <row r="435" spans="1:5">
+      <c r="B435" s="34"/>
       <c r="E435" s="2"/>
     </row>
     <row r="436" spans="1:5">
-      <c r="B436" s="34"/>
       <c r="E436" s="2"/>
     </row>
     <row r="437" spans="1:5">
@@ -6926,98 +6918,99 @@
       <c r="E439" s="2"/>
     </row>
     <row r="440" spans="1:5">
-      <c r="E440" s="2"/>
+      <c r="B440" s="34"/>
+      <c r="E440" s="3"/>
     </row>
     <row r="441" spans="1:5">
-      <c r="B441" s="34"/>
-      <c r="E441" s="3"/>
+      <c r="B441" s="7"/>
+      <c r="E441" s="2"/>
     </row>
     <row r="442" spans="1:5">
-      <c r="B442" s="7"/>
+      <c r="B442" s="5"/>
       <c r="E442" s="2"/>
     </row>
     <row r="443" spans="1:5">
-      <c r="B443" s="5"/>
-      <c r="E443" s="2"/>
+      <c r="B443" s="42"/>
+      <c r="E443" s="3"/>
     </row>
     <row r="444" spans="1:5">
-      <c r="B444" s="42"/>
-      <c r="E444" s="3"/>
+      <c r="E444" s="2"/>
     </row>
     <row r="445" spans="1:5">
-      <c r="E445" s="2"/>
+      <c r="E445" s="3"/>
     </row>
     <row r="446" spans="1:5">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
       <c r="E446" s="3"/>
     </row>
     <row r="447" spans="1:5">
-      <c r="A447" s="1"/>
-      <c r="B447" s="1"/>
-      <c r="E447" s="3"/>
+      <c r="B447" s="5"/>
+      <c r="E447" s="2"/>
     </row>
     <row r="448" spans="1:5">
-      <c r="B448" s="5"/>
-      <c r="E448" s="2"/>
+      <c r="E448" s="3"/>
     </row>
     <row r="449" spans="1:5">
       <c r="E449" s="3"/>
     </row>
     <row r="450" spans="1:5">
+      <c r="A450" s="11"/>
+      <c r="B450" s="5"/>
       <c r="E450" s="3"/>
     </row>
     <row r="451" spans="1:5">
-      <c r="A451" s="11"/>
-      <c r="B451" s="5"/>
+      <c r="A451" s="12"/>
       <c r="E451" s="3"/>
     </row>
     <row r="452" spans="1:5">
-      <c r="A452" s="12"/>
-      <c r="E452" s="3"/>
+      <c r="E452" s="2"/>
     </row>
     <row r="453" spans="1:5">
-      <c r="E453" s="2"/>
+      <c r="E453" s="3"/>
     </row>
     <row r="454" spans="1:5">
-      <c r="E454" s="3"/>
+      <c r="E454" s="2"/>
     </row>
     <row r="455" spans="1:5">
       <c r="E455" s="2"/>
     </row>
     <row r="456" spans="1:5">
+      <c r="A456" s="10"/>
+      <c r="B456" s="5"/>
       <c r="E456" s="2"/>
     </row>
     <row r="457" spans="1:5">
-      <c r="A457" s="10"/>
-      <c r="B457" s="5"/>
       <c r="E457" s="2"/>
     </row>
     <row r="458" spans="1:5">
       <c r="E458" s="2"/>
     </row>
     <row r="459" spans="1:5">
+      <c r="A459" s="34"/>
+      <c r="B459" s="34"/>
       <c r="E459" s="2"/>
     </row>
     <row r="460" spans="1:5">
-      <c r="A460" s="34"/>
-      <c r="B460" s="34"/>
+      <c r="A460" s="7"/>
+      <c r="B460" s="7"/>
       <c r="E460" s="2"/>
     </row>
     <row r="461" spans="1:5">
-      <c r="A461" s="7"/>
-      <c r="B461" s="7"/>
       <c r="E461" s="2"/>
     </row>
     <row r="462" spans="1:5">
+      <c r="B462" s="7"/>
       <c r="E462" s="2"/>
     </row>
     <row r="463" spans="1:5">
+      <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="E463" s="2"/>
     </row>
     <row r="464" spans="1:5">
-      <c r="A464" s="7"/>
       <c r="B464" s="7"/>
-      <c r="E464" s="2"/>
+      <c r="E464" s="3"/>
     </row>
     <row r="465" spans="1:5">
       <c r="B465" s="7"/>
@@ -7028,73 +7021,74 @@
       <c r="E466" s="3"/>
     </row>
     <row r="467" spans="1:5">
-      <c r="B467" s="7"/>
+      <c r="B467" s="5"/>
       <c r="E467" s="3"/>
     </row>
     <row r="468" spans="1:5">
-      <c r="B468" s="5"/>
       <c r="E468" s="3"/>
     </row>
     <row r="469" spans="1:5">
       <c r="E469" s="3"/>
     </row>
     <row r="470" spans="1:5">
-      <c r="E470" s="3"/>
+      <c r="A470" s="6"/>
+      <c r="B470" s="5"/>
+      <c r="E470" s="2"/>
     </row>
     <row r="471" spans="1:5">
-      <c r="A471" s="6"/>
-      <c r="B471" s="5"/>
+      <c r="A471" s="34"/>
+      <c r="B471" s="34"/>
       <c r="E471" s="2"/>
     </row>
     <row r="472" spans="1:5">
-      <c r="A472" s="34"/>
-      <c r="B472" s="34"/>
       <c r="E472" s="2"/>
     </row>
     <row r="473" spans="1:5">
       <c r="E473" s="2"/>
     </row>
     <row r="474" spans="1:5">
+      <c r="B474" s="7"/>
       <c r="E474" s="2"/>
     </row>
     <row r="475" spans="1:5">
-      <c r="B475" s="7"/>
       <c r="E475" s="2"/>
     </row>
     <row r="476" spans="1:5">
+      <c r="B476" s="12"/>
       <c r="E476" s="2"/>
     </row>
     <row r="477" spans="1:5">
-      <c r="B477" s="12"/>
       <c r="E477" s="2"/>
     </row>
     <row r="478" spans="1:5">
-      <c r="E478" s="2"/>
+      <c r="E478" s="3"/>
     </row>
     <row r="479" spans="1:5">
+      <c r="B479" s="34"/>
       <c r="E479" s="3"/>
     </row>
     <row r="480" spans="1:5">
+      <c r="A480" s="7"/>
       <c r="B480" s="34"/>
-      <c r="E480" s="3"/>
+      <c r="E480" s="2"/>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="7"/>
       <c r="B481" s="34"/>
-      <c r="E481" s="2"/>
+      <c r="E481" s="3"/>
     </row>
     <row r="482" spans="1:5">
-      <c r="A482" s="7"/>
-      <c r="B482" s="34"/>
       <c r="E482" s="3"/>
     </row>
     <row r="483" spans="1:5">
-      <c r="E483" s="3"/>
+      <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
+      <c r="E483" s="2"/>
     </row>
     <row r="484" spans="1:5">
-      <c r="A484" s="1"/>
-      <c r="B484" s="1"/>
-      <c r="E484" s="2"/>
+      <c r="A484" s="7"/>
+      <c r="B484" s="7"/>
+      <c r="E484" s="3"/>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="7"/>
@@ -7102,162 +7096,160 @@
       <c r="E485" s="3"/>
     </row>
     <row r="486" spans="1:5">
-      <c r="A486" s="7"/>
-      <c r="B486" s="7"/>
-      <c r="E486" s="3"/>
+      <c r="E486" s="2"/>
     </row>
     <row r="487" spans="1:5">
-      <c r="E487" s="2"/>
+      <c r="E487" s="3"/>
     </row>
     <row r="488" spans="1:5">
-      <c r="E488" s="3"/>
+      <c r="E488" s="2"/>
     </row>
     <row r="489" spans="1:5">
-      <c r="E489" s="2"/>
+      <c r="E489" s="3"/>
     </row>
     <row r="490" spans="1:5">
-      <c r="E490" s="3"/>
+      <c r="A490" s="9"/>
+      <c r="B490" s="9"/>
+      <c r="E490" s="2"/>
     </row>
     <row r="491" spans="1:5">
-      <c r="A491" s="9"/>
-      <c r="B491" s="9"/>
-      <c r="E491" s="2"/>
+      <c r="E491" s="3"/>
     </row>
     <row r="492" spans="1:5">
+      <c r="B492" s="5"/>
       <c r="E492" s="3"/>
     </row>
     <row r="493" spans="1:5">
-      <c r="B493" s="5"/>
-      <c r="E493" s="3"/>
+      <c r="E493" s="2"/>
     </row>
     <row r="494" spans="1:5">
-      <c r="E494" s="2"/>
+      <c r="E494" s="3"/>
     </row>
     <row r="495" spans="1:5">
+      <c r="B495" s="7"/>
       <c r="E495" s="3"/>
     </row>
     <row r="496" spans="1:5">
+      <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="E496" s="3"/>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
-      <c r="E497" s="3"/>
+      <c r="E497" s="2"/>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="7"/>
-      <c r="B498" s="7"/>
+      <c r="A498" s="34"/>
+      <c r="B498" s="34"/>
       <c r="E498" s="2"/>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="34"/>
-      <c r="B499" s="34"/>
       <c r="E499" s="2"/>
     </row>
     <row r="500" spans="1:5">
-      <c r="E500" s="2"/>
+      <c r="E500" s="3"/>
     </row>
     <row r="501" spans="1:5">
-      <c r="E501" s="3"/>
+      <c r="E501" s="2"/>
     </row>
     <row r="502" spans="1:5">
       <c r="E502" s="2"/>
     </row>
     <row r="503" spans="1:5">
-      <c r="E503" s="2"/>
+      <c r="E503" s="3"/>
     </row>
     <row r="504" spans="1:5">
-      <c r="E504" s="3"/>
+      <c r="E504" s="2"/>
     </row>
     <row r="505" spans="1:5">
-      <c r="E505" s="2"/>
+      <c r="E505" s="3"/>
     </row>
     <row r="506" spans="1:5">
-      <c r="E506" s="3"/>
+      <c r="E506" s="2"/>
     </row>
     <row r="507" spans="1:5">
-      <c r="E507" s="2"/>
+      <c r="E507" s="3"/>
     </row>
     <row r="508" spans="1:5">
-      <c r="E508" s="3"/>
+      <c r="E508" s="2"/>
     </row>
     <row r="509" spans="1:5">
+      <c r="A509" s="10"/>
+      <c r="B509" s="41"/>
       <c r="E509" s="2"/>
     </row>
     <row r="510" spans="1:5">
-      <c r="A510" s="10"/>
-      <c r="B510" s="41"/>
-      <c r="E510" s="2"/>
+      <c r="E510" s="3"/>
     </row>
     <row r="511" spans="1:5">
-      <c r="E511" s="3"/>
+      <c r="A511" s="1"/>
+      <c r="B511" s="7"/>
+      <c r="E511" s="2"/>
     </row>
     <row r="512" spans="1:5">
-      <c r="A512" s="1"/>
-      <c r="B512" s="7"/>
+      <c r="A512" s="34"/>
+      <c r="B512" s="34"/>
       <c r="E512" s="2"/>
     </row>
     <row r="513" spans="1:5">
-      <c r="A513" s="34"/>
-      <c r="B513" s="34"/>
       <c r="E513" s="2"/>
     </row>
     <row r="514" spans="1:5">
-      <c r="E514" s="2"/>
+      <c r="B514" s="34"/>
+      <c r="E514" s="3"/>
     </row>
     <row r="515" spans="1:5">
-      <c r="B515" s="34"/>
       <c r="E515" s="3"/>
     </row>
     <row r="516" spans="1:5">
-      <c r="E516" s="3"/>
+      <c r="E516" s="2"/>
     </row>
     <row r="517" spans="1:5">
+      <c r="B517" s="43"/>
       <c r="E517" s="2"/>
     </row>
     <row r="518" spans="1:5">
-      <c r="B518" s="43"/>
       <c r="E518" s="2"/>
     </row>
     <row r="519" spans="1:5">
+      <c r="B519" s="7"/>
       <c r="E519" s="2"/>
     </row>
     <row r="520" spans="1:5">
-      <c r="B520" s="7"/>
-      <c r="E520" s="2"/>
+      <c r="A520" s="12"/>
+      <c r="B520" s="12"/>
+      <c r="E520" s="3"/>
     </row>
     <row r="521" spans="1:5">
-      <c r="A521" s="12"/>
-      <c r="B521" s="12"/>
-      <c r="E521" s="3"/>
+      <c r="E521" s="2"/>
     </row>
     <row r="522" spans="1:5">
       <c r="E522" s="2"/>
     </row>
     <row r="523" spans="1:5">
-      <c r="E523" s="2"/>
+      <c r="E523" s="3"/>
     </row>
     <row r="524" spans="1:5">
+      <c r="B524" s="34"/>
       <c r="E524" s="3"/>
     </row>
     <row r="525" spans="1:5">
-      <c r="B525" s="34"/>
+      <c r="B525" s="5"/>
       <c r="E525" s="3"/>
     </row>
     <row r="526" spans="1:5">
-      <c r="B526" s="5"/>
-      <c r="E526" s="3"/>
+      <c r="B526" s="7"/>
+      <c r="E526" s="2"/>
     </row>
     <row r="527" spans="1:5">
-      <c r="B527" s="7"/>
-      <c r="E527" s="2"/>
+      <c r="E527" s="3"/>
     </row>
     <row r="528" spans="1:5">
       <c r="E528" s="3"/>
     </row>
     <row r="529" spans="1:5">
-      <c r="E529" s="3"/>
+      <c r="E529" s="2"/>
     </row>
     <row r="530" spans="1:5">
       <c r="E530" s="2"/>
@@ -7266,33 +7258,33 @@
       <c r="E531" s="2"/>
     </row>
     <row r="532" spans="1:5">
+      <c r="B532" s="20"/>
       <c r="E532" s="2"/>
     </row>
     <row r="533" spans="1:5">
-      <c r="B533" s="20"/>
+      <c r="A533" s="10"/>
+      <c r="B533" s="5"/>
       <c r="E533" s="2"/>
     </row>
     <row r="534" spans="1:5">
-      <c r="A534" s="10"/>
-      <c r="B534" s="5"/>
       <c r="E534" s="2"/>
     </row>
     <row r="535" spans="1:5">
-      <c r="E535" s="2"/>
+      <c r="E535" s="3"/>
     </row>
     <row r="536" spans="1:5">
+      <c r="A536" s="10"/>
+      <c r="B536" s="5"/>
       <c r="E536" s="3"/>
     </row>
     <row r="537" spans="1:5">
-      <c r="A537" s="10"/>
-      <c r="B537" s="5"/>
-      <c r="E537" s="3"/>
+      <c r="E537" s="2"/>
     </row>
     <row r="538" spans="1:5">
+      <c r="B538" s="7"/>
       <c r="E538" s="2"/>
     </row>
     <row r="539" spans="1:5">
-      <c r="B539" s="7"/>
       <c r="E539" s="2"/>
     </row>
     <row r="540" spans="1:5">
@@ -7308,42 +7300,43 @@
       <c r="E543" s="2"/>
     </row>
     <row r="544" spans="1:5">
-      <c r="E544" s="2"/>
+      <c r="B544" s="12"/>
+      <c r="E544" s="3"/>
     </row>
     <row r="545" spans="1:5">
-      <c r="B545" s="12"/>
-      <c r="E545" s="3"/>
+      <c r="E545" s="2"/>
     </row>
     <row r="546" spans="1:5">
       <c r="E546" s="2"/>
     </row>
     <row r="547" spans="1:5">
+      <c r="B547" s="27"/>
       <c r="E547" s="2"/>
     </row>
     <row r="548" spans="1:5">
-      <c r="B548" s="27"/>
-      <c r="E548" s="2"/>
+      <c r="E548" s="3"/>
     </row>
     <row r="549" spans="1:5">
-      <c r="E549" s="3"/>
+      <c r="E549" s="2"/>
     </row>
     <row r="550" spans="1:5">
-      <c r="E550" s="2"/>
+      <c r="E550" s="3"/>
     </row>
     <row r="551" spans="1:5">
-      <c r="E551" s="3"/>
+      <c r="B551" s="35"/>
+      <c r="E551" s="2"/>
     </row>
     <row r="552" spans="1:5">
-      <c r="B552" s="35"/>
       <c r="E552" s="2"/>
     </row>
     <row r="553" spans="1:5">
       <c r="E553" s="2"/>
     </row>
     <row r="554" spans="1:5">
-      <c r="E554" s="2"/>
+      <c r="B554" s="7"/>
     </row>
     <row r="555" spans="1:5">
+      <c r="A555" s="7"/>
       <c r="B555" s="7"/>
     </row>
     <row r="556" spans="1:5">
@@ -7351,55 +7344,54 @@
       <c r="B556" s="7"/>
     </row>
     <row r="557" spans="1:5">
-      <c r="A557" s="7"/>
-      <c r="B557" s="7"/>
+      <c r="A557" s="10"/>
+      <c r="B557" s="5"/>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="10"/>
-      <c r="B558" s="5"/>
-    </row>
-    <row r="559" spans="1:5">
-      <c r="A559" s="10"/>
-      <c r="B559" s="35"/>
+      <c r="B558" s="35"/>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="B563" s="7"/>
     </row>
     <row r="564" spans="1:3">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="1:3">
-      <c r="B565" s="7"/>
+    <row r="569" spans="1:3">
+      <c r="B569" s="7"/>
     </row>
     <row r="570" spans="1:3">
-      <c r="B570" s="7"/>
+      <c r="A570" s="1"/>
+      <c r="B570" s="1"/>
     </row>
     <row r="571" spans="1:3">
-      <c r="A571" s="1"/>
-      <c r="B571" s="1"/>
+      <c r="C571" s="3"/>
     </row>
     <row r="572" spans="1:3">
-      <c r="C572" s="3"/>
+      <c r="A572" s="34"/>
+      <c r="B572" s="34"/>
+      <c r="C572" s="2"/>
     </row>
     <row r="573" spans="1:3">
-      <c r="A573" s="34"/>
-      <c r="B573" s="34"/>
-      <c r="C573" s="2"/>
+      <c r="C573" s="3"/>
     </row>
     <row r="574" spans="1:3">
-      <c r="C574" s="3"/>
+      <c r="C574" s="2"/>
     </row>
     <row r="575" spans="1:3">
       <c r="C575" s="2"/>
     </row>
     <row r="576" spans="1:3">
-      <c r="C576" s="2"/>
+      <c r="C576" s="3"/>
     </row>
     <row r="577" spans="1:3">
-      <c r="C577" s="3"/>
+      <c r="C577" s="2"/>
     </row>
     <row r="578" spans="1:3">
+      <c r="A578" s="34"/>
       <c r="C578" s="2"/>
     </row>
     <row r="579" spans="1:3">
-      <c r="A579" s="34"/>
       <c r="C579" s="2"/>
     </row>
     <row r="580" spans="1:3">
@@ -7409,41 +7401,42 @@
       <c r="C581" s="2"/>
     </row>
     <row r="582" spans="1:3">
-      <c r="C582" s="2"/>
+      <c r="C582" s="3"/>
     </row>
     <row r="583" spans="1:3">
-      <c r="C583" s="3"/>
+      <c r="C583" s="2"/>
     </row>
     <row r="584" spans="1:3">
+      <c r="A584" s="34"/>
+      <c r="B584" s="34"/>
       <c r="C584" s="2"/>
     </row>
     <row r="585" spans="1:3">
-      <c r="A585" s="34"/>
-      <c r="B585" s="34"/>
       <c r="C585" s="2"/>
     </row>
     <row r="586" spans="1:3">
-      <c r="C586" s="2"/>
+      <c r="A586" s="1"/>
+      <c r="B586" s="1"/>
     </row>
     <row r="587" spans="1:3">
-      <c r="A587" s="1"/>
-      <c r="B587" s="1"/>
+      <c r="C587" s="3"/>
     </row>
     <row r="588" spans="1:3">
-      <c r="C588" s="3"/>
+      <c r="B588" s="7"/>
+      <c r="C588" s="2"/>
     </row>
     <row r="589" spans="1:3">
       <c r="B589" s="7"/>
-      <c r="C589" s="2"/>
+      <c r="C589" s="3"/>
     </row>
     <row r="590" spans="1:3">
-      <c r="B590" s="7"/>
-      <c r="C590" s="3"/>
+      <c r="C590" s="2"/>
     </row>
     <row r="591" spans="1:3">
-      <c r="C591" s="2"/>
+      <c r="C591" s="3"/>
     </row>
     <row r="592" spans="1:3">
+      <c r="B592" s="34"/>
       <c r="C592" s="3"/>
     </row>
     <row r="593" spans="1:3">
@@ -7451,76 +7444,75 @@
       <c r="C593" s="3"/>
     </row>
     <row r="594" spans="1:3">
-      <c r="B594" s="34"/>
       <c r="C594" s="3"/>
     </row>
     <row r="595" spans="1:3">
-      <c r="C595" s="3"/>
+      <c r="B595" s="20"/>
+      <c r="C595" s="2"/>
     </row>
     <row r="596" spans="1:3">
-      <c r="B596" s="20"/>
       <c r="C596" s="2"/>
     </row>
     <row r="597" spans="1:3">
-      <c r="C597" s="2"/>
+      <c r="C597" s="3"/>
     </row>
     <row r="598" spans="1:3">
+      <c r="A598" s="34"/>
+      <c r="B598" s="34"/>
       <c r="C598" s="3"/>
     </row>
     <row r="599" spans="1:3">
-      <c r="A599" s="34"/>
-      <c r="B599" s="34"/>
       <c r="C599" s="3"/>
     </row>
     <row r="600" spans="1:3">
-      <c r="C600" s="3"/>
+      <c r="C600" s="2"/>
     </row>
     <row r="601" spans="1:3">
+      <c r="A601" s="55"/>
       <c r="C601" s="2"/>
     </row>
     <row r="602" spans="1:3">
-      <c r="A602" s="55"/>
-      <c r="C602" s="2"/>
+      <c r="B602" s="7"/>
+      <c r="C602" s="3"/>
     </row>
     <row r="603" spans="1:3">
+      <c r="A603" s="7"/>
       <c r="B603" s="7"/>
       <c r="C603" s="3"/>
     </row>
     <row r="604" spans="1:3">
-      <c r="A604" s="7"/>
-      <c r="B604" s="7"/>
       <c r="C604" s="3"/>
     </row>
     <row r="605" spans="1:3">
+      <c r="B605" s="5"/>
       <c r="C605" s="3"/>
     </row>
     <row r="606" spans="1:3">
-      <c r="B606" s="5"/>
       <c r="C606" s="3"/>
     </row>
     <row r="607" spans="1:3">
+      <c r="B607" s="7"/>
       <c r="C607" s="3"/>
     </row>
     <row r="608" spans="1:3">
-      <c r="B608" s="7"/>
       <c r="C608" s="3"/>
     </row>
     <row r="609" spans="1:3">
       <c r="C609" s="3"/>
     </row>
     <row r="610" spans="1:3">
+      <c r="B610" s="5"/>
       <c r="C610" s="3"/>
     </row>
     <row r="611" spans="1:3">
-      <c r="B611" s="5"/>
-      <c r="C611" s="3"/>
+      <c r="C611" s="2"/>
     </row>
     <row r="612" spans="1:3">
+      <c r="B612" s="7"/>
       <c r="C612" s="2"/>
     </row>
     <row r="613" spans="1:3">
-      <c r="B613" s="7"/>
-      <c r="C613" s="2"/>
+      <c r="C613" s="3"/>
     </row>
     <row r="614" spans="1:3">
       <c r="C614" s="3"/>
@@ -7529,172 +7521,172 @@
       <c r="C615" s="3"/>
     </row>
     <row r="616" spans="1:3">
-      <c r="C616" s="3"/>
+      <c r="A616" s="5"/>
+      <c r="B616" s="5"/>
+      <c r="C616" s="2"/>
     </row>
     <row r="617" spans="1:3">
-      <c r="A617" s="5"/>
-      <c r="B617" s="5"/>
       <c r="C617" s="2"/>
     </row>
     <row r="618" spans="1:3">
-      <c r="C618" s="2"/>
+      <c r="C618" s="3"/>
     </row>
     <row r="619" spans="1:3">
+      <c r="A619" s="4"/>
+      <c r="B619" s="4"/>
       <c r="C619" s="3"/>
     </row>
     <row r="620" spans="1:3">
-      <c r="A620" s="4"/>
-      <c r="B620" s="4"/>
-      <c r="C620" s="3"/>
+      <c r="A620" s="10"/>
+      <c r="B620" s="5"/>
+      <c r="C620" s="2"/>
     </row>
     <row r="621" spans="1:3">
-      <c r="A621" s="10"/>
-      <c r="B621" s="5"/>
-      <c r="C621" s="2"/>
+      <c r="B621" s="20"/>
+      <c r="C621" s="3"/>
     </row>
     <row r="622" spans="1:3">
-      <c r="B622" s="20"/>
-      <c r="C622" s="3"/>
+      <c r="C622" s="2"/>
     </row>
     <row r="623" spans="1:3">
       <c r="C623" s="2"/>
     </row>
     <row r="624" spans="1:3">
-      <c r="C624" s="2"/>
-    </row>
-    <row r="625" spans="2:3">
-      <c r="C625" s="3"/>
-    </row>
-    <row r="626" spans="2:3">
-      <c r="B626" s="7"/>
+      <c r="C624" s="3"/>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="B625" s="7"/>
+      <c r="C625" s="2"/>
+    </row>
+    <row r="626" spans="1:3">
       <c r="C626" s="2"/>
     </row>
-    <row r="627" spans="2:3">
-      <c r="C627" s="2"/>
-    </row>
-    <row r="628" spans="2:3">
-      <c r="B628" s="7"/>
+    <row r="627" spans="1:3">
+      <c r="B627" s="7"/>
+      <c r="C627" s="3"/>
+    </row>
+    <row r="628" spans="1:3">
       <c r="C628" s="3"/>
     </row>
-    <row r="629" spans="2:3">
-      <c r="C629" s="3"/>
-    </row>
-    <row r="630" spans="2:3">
-      <c r="C630" s="2"/>
-    </row>
-    <row r="631" spans="2:3">
+    <row r="629" spans="1:3">
+      <c r="C629" s="2"/>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="C630" s="3"/>
+    </row>
+    <row r="631" spans="1:3">
       <c r="C631" s="3"/>
     </row>
-    <row r="632" spans="2:3">
+    <row r="632" spans="1:3">
       <c r="C632" s="3"/>
     </row>
-    <row r="633" spans="2:3">
+    <row r="633" spans="1:3">
       <c r="C633" s="3"/>
     </row>
-    <row r="634" spans="2:3">
-      <c r="C634" s="3"/>
-    </row>
-    <row r="635" spans="2:3">
-      <c r="B635" s="7"/>
-      <c r="C635" s="2"/>
-    </row>
-    <row r="636" spans="2:3">
-      <c r="C636" s="3"/>
-    </row>
-    <row r="637" spans="2:3">
+    <row r="634" spans="1:3">
+      <c r="B634" s="7"/>
+      <c r="C634" s="2"/>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="C635" s="3"/>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="C636" s="2"/>
+    </row>
+    <row r="637" spans="1:3">
       <c r="C637" s="2"/>
     </row>
-    <row r="638" spans="2:3">
-      <c r="C638" s="2"/>
-    </row>
-    <row r="639" spans="2:3">
-      <c r="B639" s="7"/>
+    <row r="638" spans="1:3">
+      <c r="B638" s="7"/>
+      <c r="C638" s="3"/>
+    </row>
+    <row r="639" spans="1:3">
       <c r="C639" s="3"/>
     </row>
-    <row r="640" spans="2:3">
+    <row r="640" spans="1:3">
+      <c r="A640" s="34"/>
+      <c r="B640" s="34"/>
       <c r="C640" s="3"/>
     </row>
     <row r="641" spans="1:3">
-      <c r="A641" s="34"/>
-      <c r="B641" s="34"/>
       <c r="C641" s="3"/>
     </row>
     <row r="642" spans="1:3">
-      <c r="C642" s="3"/>
+      <c r="C642" s="2"/>
     </row>
     <row r="643" spans="1:3">
-      <c r="C643" s="2"/>
+      <c r="C643" s="3"/>
     </row>
     <row r="644" spans="1:3">
-      <c r="C644" s="3"/>
+      <c r="C644" s="2"/>
     </row>
     <row r="645" spans="1:3">
-      <c r="C645" s="2"/>
+      <c r="C645" s="3"/>
     </row>
     <row r="646" spans="1:3">
-      <c r="C646" s="3"/>
+      <c r="A646" s="34"/>
+      <c r="B646" s="34"/>
+      <c r="C646" s="2"/>
     </row>
     <row r="647" spans="1:3">
-      <c r="A647" s="34"/>
-      <c r="B647" s="34"/>
-      <c r="C647" s="2"/>
+      <c r="C647" s="3"/>
     </row>
     <row r="648" spans="1:3">
+      <c r="B648" s="7"/>
       <c r="C648" s="3"/>
     </row>
     <row r="649" spans="1:3">
-      <c r="B649" s="7"/>
-      <c r="C649" s="3"/>
+      <c r="C649" s="2"/>
     </row>
     <row r="650" spans="1:3">
       <c r="C650" s="2"/>
     </row>
     <row r="651" spans="1:3">
-      <c r="C651" s="2"/>
+      <c r="C651" s="3"/>
     </row>
     <row r="652" spans="1:3">
       <c r="C652" s="3"/>
     </row>
     <row r="653" spans="1:3">
-      <c r="C653" s="3"/>
+      <c r="A653" s="7"/>
+      <c r="B653" s="7"/>
+      <c r="C653" s="2"/>
     </row>
     <row r="654" spans="1:3">
-      <c r="A654" s="7"/>
-      <c r="B654" s="7"/>
       <c r="C654" s="2"/>
     </row>
     <row r="655" spans="1:3">
+      <c r="B655" s="7"/>
       <c r="C655" s="2"/>
     </row>
     <row r="656" spans="1:3">
-      <c r="B656" s="7"/>
+      <c r="B656" s="5"/>
       <c r="C656" s="2"/>
     </row>
     <row r="657" spans="1:3">
-      <c r="B657" s="5"/>
-      <c r="C657" s="2"/>
+      <c r="C657" s="3"/>
     </row>
     <row r="658" spans="1:3">
+      <c r="A658" s="7"/>
+      <c r="B658" s="7"/>
       <c r="C658" s="3"/>
     </row>
     <row r="659" spans="1:3">
-      <c r="A659" s="7"/>
-      <c r="B659" s="7"/>
-      <c r="C659" s="3"/>
+      <c r="B659" s="34"/>
+      <c r="C659" s="2"/>
     </row>
     <row r="660" spans="1:3">
-      <c r="B660" s="34"/>
       <c r="C660" s="2"/>
     </row>
     <row r="661" spans="1:3">
+      <c r="B661" s="34"/>
       <c r="C661" s="2"/>
     </row>
     <row r="662" spans="1:3">
-      <c r="B662" s="34"/>
-      <c r="C662" s="2"/>
+      <c r="C662" s="3"/>
     </row>
     <row r="663" spans="1:3">
-      <c r="C663" s="3"/>
+      <c r="C663" s="2"/>
     </row>
     <row r="664" spans="1:3">
       <c r="C664" s="2"/>
@@ -7703,23 +7695,23 @@
       <c r="C665" s="2"/>
     </row>
     <row r="666" spans="1:3">
+      <c r="A666" s="5"/>
+      <c r="B666" s="5"/>
       <c r="C666" s="2"/>
     </row>
     <row r="667" spans="1:3">
-      <c r="A667" s="5"/>
-      <c r="B667" s="5"/>
-      <c r="C667" s="2"/>
+      <c r="A667" s="7"/>
+      <c r="B667" s="7"/>
+      <c r="C667" s="3"/>
     </row>
     <row r="668" spans="1:3">
-      <c r="A668" s="7"/>
-      <c r="B668" s="7"/>
-      <c r="C668" s="3"/>
+      <c r="C668" s="2"/>
     </row>
     <row r="669" spans="1:3">
-      <c r="C669" s="2"/>
+      <c r="B669" s="5"/>
+      <c r="C669" s="3"/>
     </row>
     <row r="670" spans="1:3">
-      <c r="B670" s="5"/>
       <c r="C670" s="3"/>
     </row>
     <row r="671" spans="1:3">
@@ -7729,31 +7721,31 @@
       <c r="C672" s="3"/>
     </row>
     <row r="673" spans="1:3">
-      <c r="C673" s="3"/>
+      <c r="C673" s="2"/>
     </row>
     <row r="674" spans="1:3">
-      <c r="C674" s="2"/>
+      <c r="A674" s="10"/>
+      <c r="B674" s="34"/>
+      <c r="C674" s="3"/>
     </row>
     <row r="675" spans="1:3">
-      <c r="A675" s="10"/>
-      <c r="B675" s="34"/>
       <c r="C675" s="3"/>
     </row>
     <row r="676" spans="1:3">
+      <c r="A676" s="7"/>
+      <c r="B676" s="7"/>
       <c r="C676" s="3"/>
     </row>
     <row r="677" spans="1:3">
-      <c r="A677" s="7"/>
+      <c r="A677" s="1"/>
       <c r="B677" s="7"/>
       <c r="C677" s="3"/>
     </row>
     <row r="678" spans="1:3">
-      <c r="A678" s="1"/>
-      <c r="B678" s="7"/>
       <c r="C678" s="3"/>
     </row>
     <row r="679" spans="1:3">
-      <c r="C679" s="3"/>
+      <c r="C679" s="2"/>
     </row>
     <row r="680" spans="1:3">
       <c r="C680" s="2"/>
@@ -7765,66 +7757,66 @@
       <c r="C682" s="2"/>
     </row>
     <row r="683" spans="1:3">
+      <c r="B683" s="7"/>
       <c r="C683" s="2"/>
     </row>
     <row r="684" spans="1:3">
-      <c r="B684" s="7"/>
-      <c r="C684" s="2"/>
+      <c r="C684" s="3"/>
     </row>
     <row r="685" spans="1:3">
-      <c r="C685" s="3"/>
+      <c r="B685" s="7"/>
+      <c r="C685" s="2"/>
     </row>
     <row r="686" spans="1:3">
-      <c r="B686" s="7"/>
       <c r="C686" s="2"/>
     </row>
     <row r="687" spans="1:3">
+      <c r="A687" s="10"/>
+      <c r="B687" s="5"/>
       <c r="C687" s="2"/>
     </row>
     <row r="688" spans="1:3">
-      <c r="A688" s="10"/>
-      <c r="B688" s="5"/>
-      <c r="C688" s="2"/>
+      <c r="C688" s="3"/>
     </row>
     <row r="689" spans="1:3">
-      <c r="C689" s="3"/>
+      <c r="B689" s="7"/>
+      <c r="C689" s="2"/>
     </row>
     <row r="690" spans="1:3">
-      <c r="B690" s="7"/>
       <c r="C690" s="2"/>
     </row>
     <row r="691" spans="1:3">
-      <c r="C691" s="2"/>
+      <c r="C691" s="3"/>
     </row>
     <row r="692" spans="1:3">
       <c r="C692" s="3"/>
     </row>
     <row r="693" spans="1:3">
-      <c r="C693" s="3"/>
+      <c r="A693" s="1"/>
+      <c r="B693" s="1"/>
+      <c r="C693" s="2"/>
     </row>
     <row r="694" spans="1:3">
-      <c r="A694" s="1"/>
-      <c r="B694" s="1"/>
       <c r="C694" s="2"/>
     </row>
     <row r="695" spans="1:3">
-      <c r="C695" s="2"/>
+      <c r="B695" s="7"/>
+      <c r="C695" s="3"/>
     </row>
     <row r="696" spans="1:3">
-      <c r="B696" s="7"/>
       <c r="C696" s="3"/>
     </row>
     <row r="697" spans="1:3">
+      <c r="B697" s="35"/>
       <c r="C697" s="3"/>
     </row>
     <row r="698" spans="1:3">
+      <c r="A698" s="34"/>
       <c r="B698" s="35"/>
       <c r="C698" s="3"/>
     </row>
     <row r="699" spans="1:3">
-      <c r="A699" s="34"/>
-      <c r="B699" s="35"/>
-      <c r="C699" s="3"/>
+      <c r="C699" s="2"/>
     </row>
     <row r="700" spans="1:3">
       <c r="C700" s="2"/>
@@ -7833,179 +7825,179 @@
       <c r="C701" s="2"/>
     </row>
     <row r="702" spans="1:3">
+      <c r="B702" s="7"/>
       <c r="C702" s="2"/>
     </row>
     <row r="703" spans="1:3">
-      <c r="B703" s="7"/>
-      <c r="C703" s="2"/>
+      <c r="A703" s="12"/>
+      <c r="C703" s="3"/>
     </row>
     <row r="704" spans="1:3">
-      <c r="A704" s="12"/>
-      <c r="C704" s="3"/>
+      <c r="C704" s="2"/>
     </row>
     <row r="705" spans="1:3">
       <c r="C705" s="2"/>
     </row>
     <row r="706" spans="1:3">
+      <c r="A706" s="34"/>
+      <c r="B706" s="34"/>
       <c r="C706" s="2"/>
     </row>
     <row r="707" spans="1:3">
-      <c r="A707" s="34"/>
-      <c r="B707" s="34"/>
       <c r="C707" s="2"/>
     </row>
     <row r="708" spans="1:3">
+      <c r="B708" s="34"/>
       <c r="C708" s="2"/>
     </row>
     <row r="709" spans="1:3">
-      <c r="B709" s="34"/>
-      <c r="C709" s="2"/>
+      <c r="B709" s="7"/>
+      <c r="C709" s="3"/>
     </row>
     <row r="710" spans="1:3">
-      <c r="B710" s="7"/>
-      <c r="C710" s="3"/>
+      <c r="B710" s="34"/>
+      <c r="C710" s="2"/>
     </row>
     <row r="711" spans="1:3">
       <c r="B711" s="34"/>
       <c r="C711" s="2"/>
     </row>
     <row r="712" spans="1:3">
-      <c r="B712" s="34"/>
       <c r="C712" s="2"/>
     </row>
     <row r="713" spans="1:3">
       <c r="C713" s="2"/>
     </row>
     <row r="714" spans="1:3">
-      <c r="C714" s="2"/>
+      <c r="C714" s="3"/>
     </row>
     <row r="715" spans="1:3">
-      <c r="C715" s="3"/>
+      <c r="C715" s="2"/>
     </row>
     <row r="716" spans="1:3">
       <c r="C716" s="2"/>
     </row>
     <row r="717" spans="1:3">
+      <c r="A717" s="34"/>
       <c r="C717" s="2"/>
     </row>
-    <row r="718" spans="1:3">
-      <c r="A718" s="34"/>
-      <c r="C718" s="2"/>
-    </row>
-    <row r="731" spans="2:2">
-      <c r="B731" s="34"/>
-    </row>
-    <row r="736" spans="2:2">
-      <c r="B736" s="7"/>
+    <row r="730" spans="2:2">
+      <c r="B730" s="34"/>
+    </row>
+    <row r="735" spans="2:2">
+      <c r="B735" s="7"/>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="B738" s="7"/>
     </row>
     <row r="739" spans="1:2">
-      <c r="B739" s="7"/>
-    </row>
-    <row r="740" spans="1:2">
-      <c r="A740" s="5"/>
-      <c r="B740" s="5"/>
+      <c r="A739" s="5"/>
+      <c r="B739" s="5"/>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="B741" s="7"/>
     </row>
     <row r="742" spans="1:2">
+      <c r="A742" s="6"/>
       <c r="B742" s="7"/>
     </row>
     <row r="743" spans="1:2">
-      <c r="A743" s="6"/>
-      <c r="B743" s="7"/>
+      <c r="A743" s="34"/>
+      <c r="B743" s="34"/>
     </row>
     <row r="744" spans="1:2">
-      <c r="A744" s="34"/>
-      <c r="B744" s="34"/>
+      <c r="A744" s="12"/>
+      <c r="B744" s="12"/>
     </row>
     <row r="745" spans="1:2">
-      <c r="A745" s="12"/>
-      <c r="B745" s="12"/>
+      <c r="A745" s="34"/>
+      <c r="B745" s="34"/>
     </row>
     <row r="746" spans="1:2">
-      <c r="A746" s="34"/>
       <c r="B746" s="34"/>
     </row>
     <row r="747" spans="1:2">
-      <c r="B747" s="34"/>
+      <c r="A747" s="12"/>
+      <c r="B747" s="20"/>
     </row>
     <row r="748" spans="1:2">
-      <c r="A748" s="12"/>
-      <c r="B748" s="20"/>
+      <c r="A748" s="34"/>
+      <c r="B748" s="34"/>
     </row>
     <row r="749" spans="1:2">
-      <c r="A749" s="34"/>
-      <c r="B749" s="34"/>
+      <c r="B749" s="44"/>
     </row>
     <row r="750" spans="1:2">
-      <c r="B750" s="44"/>
+      <c r="B750" s="12"/>
     </row>
     <row r="751" spans="1:2">
-      <c r="B751" s="12"/>
+      <c r="A751" s="12"/>
+      <c r="B751" s="34"/>
     </row>
     <row r="752" spans="1:2">
-      <c r="A752" s="12"/>
       <c r="B752" s="34"/>
     </row>
     <row r="753" spans="1:2">
       <c r="B753" s="34"/>
     </row>
     <row r="754" spans="1:2">
+      <c r="A754" s="55"/>
       <c r="B754" s="34"/>
     </row>
     <row r="755" spans="1:2">
-      <c r="A755" s="55"/>
       <c r="B755" s="34"/>
     </row>
     <row r="756" spans="1:2">
-      <c r="B756" s="34"/>
-    </row>
-    <row r="757" spans="1:2">
-      <c r="A757" s="8"/>
-      <c r="B757" s="20"/>
-    </row>
-    <row r="759" spans="1:2">
-      <c r="B759" s="13"/>
+      <c r="A756" s="8"/>
+      <c r="B756" s="20"/>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="B758" s="13"/>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="B760" s="34"/>
     </row>
     <row r="761" spans="1:2">
       <c r="B761" s="34"/>
     </row>
     <row r="762" spans="1:2">
-      <c r="B762" s="34"/>
-    </row>
-    <row r="763" spans="1:2">
-      <c r="B763" s="13"/>
+      <c r="B762" s="13"/>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="B764" s="13"/>
     </row>
     <row r="765" spans="1:2">
-      <c r="B765" s="13"/>
-    </row>
-    <row r="766" spans="1:2">
-      <c r="B766" s="34"/>
+      <c r="B765" s="34"/>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="B767" s="13"/>
     </row>
     <row r="768" spans="1:2">
       <c r="B768" s="13"/>
     </row>
     <row r="769" spans="1:2">
-      <c r="B769" s="13"/>
+      <c r="B769" s="34"/>
     </row>
     <row r="770" spans="1:2">
-      <c r="B770" s="34"/>
+      <c r="B770" s="13"/>
     </row>
     <row r="771" spans="1:2">
       <c r="B771" s="13"/>
     </row>
-    <row r="772" spans="1:2">
-      <c r="B772" s="13"/>
+    <row r="773" spans="1:2">
+      <c r="B773" s="13"/>
     </row>
     <row r="774" spans="1:2">
       <c r="B774" s="13"/>
     </row>
-    <row r="775" spans="1:2">
-      <c r="B775" s="13"/>
+    <row r="776" spans="1:2">
+      <c r="B776" s="34"/>
     </row>
     <row r="777" spans="1:2">
       <c r="B777" s="34"/>
     </row>
     <row r="778" spans="1:2">
-      <c r="B778" s="34"/>
+      <c r="B778" s="13"/>
     </row>
     <row r="779" spans="1:2">
       <c r="B779" s="13"/>
@@ -8020,11 +8012,11 @@
       <c r="B782" s="13"/>
     </row>
     <row r="783" spans="1:2">
+      <c r="A783" s="13"/>
       <c r="B783" s="13"/>
     </row>
-    <row r="784" spans="1:2">
-      <c r="A784" s="13"/>
-      <c r="B784" s="13"/>
+    <row r="785" spans="1:2">
+      <c r="B785" s="13"/>
     </row>
     <row r="786" spans="1:2">
       <c r="B786" s="13"/>
@@ -8033,29 +8025,29 @@
       <c r="B787" s="13"/>
     </row>
     <row r="788" spans="1:2">
+      <c r="A788" s="13"/>
       <c r="B788" s="13"/>
     </row>
     <row r="789" spans="1:2">
-      <c r="A789" s="13"/>
       <c r="B789" s="13"/>
     </row>
     <row r="790" spans="1:2">
-      <c r="B790" s="13"/>
+      <c r="B790" s="34"/>
     </row>
     <row r="791" spans="1:2">
-      <c r="B791" s="34"/>
+      <c r="B791" s="13"/>
     </row>
     <row r="792" spans="1:2">
       <c r="B792" s="13"/>
     </row>
-    <row r="793" spans="1:2">
-      <c r="B793" s="13"/>
+    <row r="794" spans="1:2">
+      <c r="B794" s="34"/>
     </row>
     <row r="795" spans="1:2">
       <c r="B795" s="34"/>
     </row>
     <row r="796" spans="1:2">
-      <c r="B796" s="34"/>
+      <c r="B796" s="13"/>
     </row>
     <row r="797" spans="1:2">
       <c r="B797" s="13"/>
@@ -8069,80 +8061,81 @@
     <row r="800" spans="1:2">
       <c r="B800" s="13"/>
     </row>
-    <row r="801" spans="1:2">
+    <row r="801" spans="1:3">
       <c r="B801" s="13"/>
     </row>
-    <row r="802" spans="1:2">
-      <c r="B802" s="13"/>
-    </row>
-    <row r="803" spans="1:2">
-      <c r="B803" s="20"/>
-    </row>
-    <row r="804" spans="1:2">
-      <c r="B804" s="34"/>
-    </row>
-    <row r="805" spans="1:2">
-      <c r="B805" s="13"/>
-    </row>
-    <row r="806" spans="1:2">
-      <c r="B806" s="20"/>
-    </row>
-    <row r="807" spans="1:2">
-      <c r="B807" s="34"/>
-    </row>
-    <row r="809" spans="1:2">
-      <c r="B809" s="13"/>
-    </row>
-    <row r="810" spans="1:2">
-      <c r="B810" s="34"/>
-    </row>
-    <row r="811" spans="1:2">
+    <row r="802" spans="1:3">
+      <c r="B802" s="20"/>
+    </row>
+    <row r="803" spans="1:3">
+      <c r="B803" s="34"/>
+    </row>
+    <row r="804" spans="1:3">
+      <c r="B804" s="13"/>
+    </row>
+    <row r="805" spans="1:3">
+      <c r="B805" s="20"/>
+    </row>
+    <row r="806" spans="1:3">
+      <c r="B806" s="34"/>
+    </row>
+    <row r="808" spans="1:3">
+      <c r="B808" s="13"/>
+    </row>
+    <row r="809" spans="1:3">
+      <c r="B809" s="34"/>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="B810" s="13"/>
+    </row>
+    <row r="811" spans="1:3">
       <c r="B811" s="13"/>
     </row>
-    <row r="812" spans="1:2">
-      <c r="B812" s="13"/>
-    </row>
-    <row r="814" spans="1:2">
-      <c r="B814" s="14"/>
-    </row>
-    <row r="816" spans="1:2">
-      <c r="A816" s="14"/>
-      <c r="B816" s="14"/>
+    <row r="813" spans="1:3">
+      <c r="B813" s="14"/>
+    </row>
+    <row r="815" spans="1:3">
+      <c r="A815" s="14"/>
+      <c r="B815" s="14"/>
+    </row>
+    <row r="816" spans="1:3">
+      <c r="C816" s="2"/>
     </row>
     <row r="817" spans="1:3">
       <c r="C817" s="2"/>
     </row>
     <row r="818" spans="1:3">
+      <c r="B818" s="14"/>
       <c r="C818" s="2"/>
     </row>
     <row r="819" spans="1:3">
       <c r="B819" s="14"/>
-      <c r="C819" s="2"/>
+      <c r="C819" s="3"/>
     </row>
     <row r="820" spans="1:3">
-      <c r="B820" s="14"/>
+      <c r="A820" s="34"/>
+      <c r="B820" s="34"/>
       <c r="C820" s="3"/>
     </row>
     <row r="821" spans="1:3">
-      <c r="A821" s="34"/>
-      <c r="B821" s="34"/>
+      <c r="B821" s="20"/>
       <c r="C821" s="3"/>
     </row>
     <row r="822" spans="1:3">
-      <c r="B822" s="20"/>
-      <c r="C822" s="3"/>
+      <c r="C822" s="2"/>
     </row>
     <row r="823" spans="1:3">
       <c r="C823" s="2"/>
     </row>
     <row r="824" spans="1:3">
-      <c r="C824" s="2"/>
+      <c r="B824" s="14"/>
+      <c r="C824" s="3"/>
     </row>
     <row r="825" spans="1:3">
-      <c r="B825" s="14"/>
       <c r="C825" s="3"/>
     </row>
     <row r="826" spans="1:3">
+      <c r="B826" s="34"/>
       <c r="C826" s="3"/>
     </row>
     <row r="827" spans="1:3">
@@ -8154,23 +8147,22 @@
       <c r="C828" s="3"/>
     </row>
     <row r="829" spans="1:3">
-      <c r="B829" s="34"/>
       <c r="C829" s="3"/>
     </row>
     <row r="830" spans="1:3">
-      <c r="C830" s="3"/>
+      <c r="C830" s="2"/>
     </row>
     <row r="831" spans="1:3">
-      <c r="C831" s="2"/>
+      <c r="C831" s="3"/>
     </row>
     <row r="832" spans="1:3">
       <c r="C832" s="3"/>
     </row>
     <row r="833" spans="3:3">
-      <c r="C833" s="3"/>
+      <c r="C833" s="2"/>
     </row>
     <row r="834" spans="3:3">
-      <c r="C834" s="2"/>
+      <c r="C834" s="3"/>
     </row>
     <row r="835" spans="3:3">
       <c r="C835" s="3"/>
@@ -8182,7 +8174,7 @@
       <c r="C837" s="3"/>
     </row>
     <row r="838" spans="3:3">
-      <c r="C838" s="3"/>
+      <c r="C838" s="2"/>
     </row>
     <row r="839" spans="3:3">
       <c r="C839" s="2"/>
@@ -8191,13 +8183,13 @@
       <c r="C840" s="2"/>
     </row>
     <row r="841" spans="3:3">
-      <c r="C841" s="2"/>
+      <c r="C841" s="3"/>
     </row>
     <row r="842" spans="3:3">
-      <c r="C842" s="3"/>
+      <c r="C842" s="2"/>
     </row>
     <row r="843" spans="3:3">
-      <c r="C843" s="2"/>
+      <c r="C843" s="3"/>
     </row>
     <row r="844" spans="3:3">
       <c r="C844" s="3"/>
@@ -8206,13 +8198,13 @@
       <c r="C845" s="3"/>
     </row>
     <row r="846" spans="3:3">
-      <c r="C846" s="3"/>
+      <c r="C846" s="2"/>
     </row>
     <row r="847" spans="3:3">
       <c r="C847" s="2"/>
     </row>
     <row r="848" spans="3:3">
-      <c r="C848" s="2"/>
+      <c r="C848" s="3"/>
     </row>
     <row r="849" spans="1:3">
       <c r="C849" s="3"/>
@@ -8233,19 +8225,19 @@
       <c r="C854" s="3"/>
     </row>
     <row r="855" spans="1:3">
-      <c r="C855" s="3"/>
+      <c r="C855" s="2"/>
     </row>
     <row r="856" spans="1:3">
-      <c r="C856" s="2"/>
+      <c r="C856" s="3"/>
     </row>
     <row r="857" spans="1:3">
-      <c r="C857" s="3"/>
+      <c r="C857" s="2"/>
     </row>
     <row r="858" spans="1:3">
+      <c r="A858" s="55"/>
       <c r="C858" s="2"/>
     </row>
     <row r="859" spans="1:3">
-      <c r="A859" s="55"/>
       <c r="C859" s="2"/>
     </row>
     <row r="860" spans="1:3">
@@ -8258,65 +8250,65 @@
       <c r="C862" s="2"/>
     </row>
     <row r="863" spans="1:3">
-      <c r="C863" s="2"/>
+      <c r="C863" s="3"/>
     </row>
     <row r="864" spans="1:3">
-      <c r="C864" s="3"/>
+      <c r="C864" s="2"/>
     </row>
     <row r="865" spans="1:3">
-      <c r="C865" s="2"/>
+      <c r="C865" s="3"/>
     </row>
     <row r="866" spans="1:3">
-      <c r="C866" s="3"/>
+      <c r="C866" s="2"/>
     </row>
     <row r="867" spans="1:3">
       <c r="C867" s="2"/>
     </row>
     <row r="868" spans="1:3">
-      <c r="C868" s="2"/>
+      <c r="C868" s="3"/>
     </row>
     <row r="869" spans="1:3">
-      <c r="C869" s="3"/>
+      <c r="B869" s="15"/>
+      <c r="C869" s="2"/>
     </row>
     <row r="870" spans="1:3">
+      <c r="A870" s="15"/>
       <c r="B870" s="15"/>
-      <c r="C870" s="2"/>
+      <c r="C870" s="3"/>
     </row>
     <row r="871" spans="1:3">
-      <c r="A871" s="15"/>
       <c r="B871" s="15"/>
-      <c r="C871" s="3"/>
+      <c r="C871" s="2"/>
     </row>
     <row r="872" spans="1:3">
       <c r="B872" s="15"/>
       <c r="C872" s="2"/>
     </row>
     <row r="873" spans="1:3">
-      <c r="B873" s="15"/>
       <c r="C873" s="2"/>
     </row>
     <row r="874" spans="1:3">
-      <c r="C874" s="2"/>
+      <c r="C874" s="3"/>
     </row>
     <row r="875" spans="1:3">
-      <c r="C875" s="3"/>
+      <c r="A875" s="15"/>
+      <c r="C875" s="2"/>
     </row>
     <row r="876" spans="1:3">
-      <c r="A876" s="15"/>
-      <c r="C876" s="2"/>
+      <c r="C876" s="3"/>
     </row>
     <row r="877" spans="1:3">
-      <c r="C877" s="3"/>
+      <c r="B877" s="15"/>
+      <c r="C877" s="2"/>
     </row>
     <row r="878" spans="1:3">
-      <c r="B878" s="15"/>
       <c r="C878" s="2"/>
     </row>
     <row r="879" spans="1:3">
-      <c r="C879" s="2"/>
+      <c r="C879" s="3"/>
     </row>
     <row r="880" spans="1:3">
-      <c r="C880" s="3"/>
+      <c r="C880" s="2"/>
     </row>
     <row r="881" spans="1:3">
       <c r="C881" s="2"/>
@@ -8325,132 +8317,133 @@
       <c r="C882" s="2"/>
     </row>
     <row r="883" spans="1:3">
-      <c r="C883" s="2"/>
+      <c r="C883" s="3"/>
     </row>
     <row r="884" spans="1:3">
-      <c r="C884" s="3"/>
+      <c r="C884" s="2"/>
     </row>
     <row r="885" spans="1:3">
-      <c r="C885" s="2"/>
+      <c r="C885" s="3"/>
     </row>
     <row r="886" spans="1:3">
+      <c r="B886" s="35"/>
       <c r="C886" s="3"/>
     </row>
     <row r="887" spans="1:3">
+      <c r="A887" s="15"/>
       <c r="B887" s="35"/>
-      <c r="C887" s="3"/>
-    </row>
-    <row r="888" spans="1:3">
-      <c r="A888" s="15"/>
-      <c r="B888" s="35"/>
-    </row>
-    <row r="892" spans="1:3">
-      <c r="B892" s="34"/>
+    </row>
+    <row r="891" spans="1:3">
+      <c r="B891" s="34"/>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="B894" s="34"/>
     </row>
     <row r="895" spans="1:3">
+      <c r="A895" s="34"/>
       <c r="B895" s="34"/>
     </row>
     <row r="896" spans="1:3">
-      <c r="A896" s="34"/>
-      <c r="B896" s="34"/>
+      <c r="B896" s="15"/>
     </row>
     <row r="897" spans="1:2">
       <c r="B897" s="15"/>
     </row>
     <row r="898" spans="1:2">
-      <c r="B898" s="15"/>
-    </row>
-    <row r="899" spans="1:2">
-      <c r="B899" s="37"/>
+      <c r="B898" s="37"/>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="B902" s="45"/>
     </row>
     <row r="903" spans="1:2">
-      <c r="B903" s="45"/>
-    </row>
-    <row r="904" spans="1:2">
-      <c r="A904" s="18"/>
-      <c r="B904" s="18"/>
-    </row>
-    <row r="907" spans="1:2">
-      <c r="B907" s="34"/>
+      <c r="A903" s="18"/>
+      <c r="B903" s="18"/>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="B906" s="34"/>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="8"/>
+      <c r="B913" s="16"/>
     </row>
     <row r="914" spans="1:2">
-      <c r="A914" s="8"/>
       <c r="B914" s="16"/>
     </row>
     <row r="915" spans="1:2">
-      <c r="B915" s="16"/>
+      <c r="A915" s="16"/>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" s="16"/>
-    </row>
-    <row r="917" spans="1:2">
-      <c r="A917" s="16"/>
-      <c r="B917" s="16"/>
+      <c r="B916" s="16"/>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="55"/>
     </row>
     <row r="920" spans="1:2">
-      <c r="A920" s="55"/>
+      <c r="B920" s="34"/>
     </row>
     <row r="921" spans="1:2">
       <c r="B921" s="34"/>
     </row>
-    <row r="922" spans="1:2">
-      <c r="B922" s="34"/>
+    <row r="926" spans="1:2">
+      <c r="A926" s="16"/>
+      <c r="B926" s="16"/>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" s="16"/>
       <c r="B927" s="16"/>
     </row>
-    <row r="928" spans="1:2">
-      <c r="A928" s="16"/>
-      <c r="B928" s="16"/>
-    </row>
-    <row r="932" spans="1:2">
-      <c r="B932" s="16"/>
-    </row>
-    <row r="935" spans="1:2">
-      <c r="A935" s="34"/>
-      <c r="B935" s="34"/>
-    </row>
-    <row r="942" spans="1:2">
-      <c r="A942" s="17"/>
-      <c r="B942" s="17"/>
-    </row>
-    <row r="946" spans="1:2">
-      <c r="B946" s="17"/>
-    </row>
-    <row r="949" spans="1:2">
-      <c r="A949" s="18"/>
-    </row>
-    <row r="953" spans="1:2">
-      <c r="A953" s="18"/>
-      <c r="B953" s="18"/>
+    <row r="931" spans="1:2">
+      <c r="B931" s="16"/>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="34"/>
+      <c r="B934" s="34"/>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="17"/>
+      <c r="B941" s="17"/>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="B945" s="17"/>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="18"/>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="18"/>
+      <c r="B952" s="18"/>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="18"/>
     </row>
     <row r="961" spans="1:2">
-      <c r="A961" s="18"/>
+      <c r="B961" s="19"/>
     </row>
     <row r="962" spans="1:2">
+      <c r="A962" s="19"/>
       <c r="B962" s="19"/>
     </row>
-    <row r="963" spans="1:2">
-      <c r="A963" s="19"/>
-      <c r="B963" s="19"/>
+    <row r="964" spans="1:2">
+      <c r="B964" s="34"/>
     </row>
     <row r="965" spans="1:2">
-      <c r="B965" s="34"/>
+      <c r="B965" s="19"/>
     </row>
     <row r="966" spans="1:2">
-      <c r="B966" s="19"/>
-    </row>
-    <row r="967" spans="1:2">
-      <c r="A967" s="34"/>
-      <c r="B967" s="34"/>
+      <c r="A966" s="34"/>
+      <c r="B966" s="34"/>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="8"/>
+      <c r="B970" s="19"/>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" s="8"/>
       <c r="B971" s="19"/>
     </row>
     <row r="972" spans="1:2">
-      <c r="A972" s="8"/>
+      <c r="A972" s="19"/>
       <c r="B972" s="19"/>
     </row>
     <row r="973" spans="1:2">
@@ -8458,105 +8451,104 @@
       <c r="B973" s="19"/>
     </row>
     <row r="974" spans="1:2">
-      <c r="A974" s="19"/>
-      <c r="B974" s="19"/>
-    </row>
-    <row r="975" spans="1:2">
-      <c r="B975" s="34"/>
-    </row>
-    <row r="988" spans="1:2">
-      <c r="A988" s="19"/>
-      <c r="B988" s="19"/>
+      <c r="B974" s="34"/>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="19"/>
+      <c r="B987" s="19"/>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="B993" s="34"/>
     </row>
     <row r="994" spans="1:2">
+      <c r="A994" s="19"/>
       <c r="B994" s="34"/>
     </row>
-    <row r="995" spans="1:2">
-      <c r="A995" s="19"/>
-      <c r="B995" s="34"/>
-    </row>
-    <row r="997" spans="1:2">
-      <c r="B997" s="19"/>
-    </row>
-    <row r="1001" spans="1:2">
-      <c r="A1001" s="19"/>
-      <c r="B1001" s="20"/>
-    </row>
-    <row r="1014" spans="1:1">
-      <c r="A1014" s="20"/>
-    </row>
-    <row r="1025" spans="1:2">
-      <c r="B1025" s="19"/>
-    </row>
-    <row r="1027" spans="1:2">
-      <c r="A1027" s="34"/>
-      <c r="B1027" s="34"/>
-    </row>
-    <row r="1029" spans="1:2">
-      <c r="B1029" s="34"/>
+    <row r="996" spans="1:2">
+      <c r="B996" s="19"/>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" s="19"/>
+      <c r="B1000" s="20"/>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="20"/>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="B1024" s="19"/>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="34"/>
+      <c r="B1026" s="34"/>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="B1028" s="34"/>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" s="20"/>
     </row>
     <row r="1031" spans="1:2">
-      <c r="A1031" s="20"/>
+      <c r="B1031" s="35"/>
     </row>
     <row r="1032" spans="1:2">
-      <c r="B1032" s="35"/>
+      <c r="A1032" s="34"/>
     </row>
     <row r="1033" spans="1:2">
-      <c r="A1033" s="34"/>
-    </row>
-    <row r="1034" spans="1:2">
-      <c r="B1034" s="35"/>
+      <c r="B1033" s="35"/>
+    </row>
+    <row r="1035" spans="1:2">
+      <c r="A1035" s="20"/>
+      <c r="B1035" s="35"/>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" s="20"/>
-      <c r="B1036" s="35"/>
+      <c r="B1036" s="20"/>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" s="20"/>
       <c r="B1037" s="20"/>
     </row>
     <row r="1038" spans="1:2">
-      <c r="A1038" s="20"/>
-      <c r="B1038" s="20"/>
+      <c r="A1038" s="34"/>
+      <c r="B1038" s="34"/>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" s="34"/>
       <c r="B1039" s="34"/>
     </row>
     <row r="1040" spans="1:2">
-      <c r="A1040" s="34"/>
+      <c r="A1040" s="20"/>
       <c r="B1040" s="34"/>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" s="20"/>
-      <c r="B1041" s="34"/>
     </row>
     <row r="1042" spans="1:2">
-      <c r="A1042" s="20"/>
-    </row>
-    <row r="1043" spans="1:2">
-      <c r="B1043" s="34"/>
-    </row>
-    <row r="1046" spans="1:2">
-      <c r="A1046" s="34"/>
-    </row>
-    <row r="1048" spans="1:2">
-      <c r="B1048" s="34"/>
-    </row>
-    <row r="1050" spans="1:2">
-      <c r="A1050" s="20"/>
-      <c r="B1050" s="20"/>
+      <c r="B1042" s="34"/>
+    </row>
+    <row r="1045" spans="1:2">
+      <c r="A1045" s="34"/>
+    </row>
+    <row r="1047" spans="1:2">
+      <c r="B1047" s="34"/>
+    </row>
+    <row r="1049" spans="1:2">
+      <c r="A1049" s="20"/>
+      <c r="B1049" s="20"/>
+    </row>
+    <row r="1052" spans="1:2">
+      <c r="A1052" s="20"/>
+      <c r="B1052" s="20"/>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" s="20"/>
-      <c r="B1053" s="20"/>
-    </row>
-    <row r="1054" spans="1:2">
-      <c r="A1054" s="20"/>
-    </row>
-    <row r="1056" spans="1:2">
-      <c r="A1056" s="20"/>
-      <c r="B1056" s="20"/>
+    </row>
+    <row r="1055" spans="1:2">
+      <c r="A1055" s="20"/>
+      <c r="B1055" s="20"/>
+    </row>
+    <row r="1057" spans="2:2">
+      <c r="B1057" s="20"/>
     </row>
     <row r="1058" spans="2:2">
       <c r="B1058" s="20"/>
@@ -8564,313 +8556,314 @@
     <row r="1059" spans="2:2">
       <c r="B1059" s="20"/>
     </row>
-    <row r="1060" spans="2:2">
-      <c r="B1060" s="20"/>
-    </row>
-    <row r="1062" spans="2:2">
-      <c r="B1062" s="34"/>
+    <row r="1061" spans="2:2">
+      <c r="B1061" s="34"/>
+    </row>
+    <row r="1064" spans="2:2">
+      <c r="B1064" s="34"/>
     </row>
     <row r="1065" spans="2:2">
       <c r="B1065" s="34"/>
     </row>
     <row r="1066" spans="2:2">
-      <c r="B1066" s="34"/>
-    </row>
-    <row r="1067" spans="2:2">
-      <c r="B1067" s="20"/>
-    </row>
-    <row r="1069" spans="2:2">
-      <c r="B1069" s="20"/>
+      <c r="B1066" s="20"/>
+    </row>
+    <row r="1068" spans="2:2">
+      <c r="B1068" s="20"/>
+    </row>
+    <row r="1071" spans="2:2">
+      <c r="B1071" s="20"/>
     </row>
     <row r="1072" spans="2:2">
       <c r="B1072" s="20"/>
     </row>
-    <row r="1073" spans="1:2">
-      <c r="B1073" s="20"/>
+    <row r="1079" spans="1:2">
+      <c r="A1079" s="55"/>
+      <c r="B1079" s="34"/>
     </row>
     <row r="1080" spans="1:2">
-      <c r="A1080" s="55"/>
-      <c r="B1080" s="34"/>
+      <c r="B1080" s="20"/>
     </row>
     <row r="1081" spans="1:2">
       <c r="B1081" s="20"/>
     </row>
-    <row r="1082" spans="1:2">
-      <c r="B1082" s="20"/>
-    </row>
-    <row r="1086" spans="1:2">
-      <c r="B1086" s="34"/>
+    <row r="1085" spans="1:2">
+      <c r="B1085" s="34"/>
+    </row>
+    <row r="1089" spans="1:2">
+      <c r="B1089" s="21"/>
     </row>
     <row r="1090" spans="1:2">
-      <c r="B1090" s="21"/>
-    </row>
-    <row r="1091" spans="1:2">
-      <c r="A1091" s="21"/>
+      <c r="A1090" s="21"/>
+    </row>
+    <row r="1099" spans="1:2">
+      <c r="A1099" s="22"/>
+      <c r="B1099" s="34"/>
     </row>
     <row r="1100" spans="1:2">
-      <c r="A1100" s="22"/>
-      <c r="B1100" s="34"/>
+      <c r="B1100" s="22"/>
     </row>
     <row r="1101" spans="1:2">
+      <c r="A1101" s="22"/>
       <c r="B1101" s="22"/>
     </row>
     <row r="1102" spans="1:2">
-      <c r="A1102" s="22"/>
       <c r="B1102" s="22"/>
     </row>
     <row r="1103" spans="1:2">
-      <c r="B1103" s="22"/>
-    </row>
-    <row r="1104" spans="1:2">
-      <c r="B1104" s="34"/>
-    </row>
-    <row r="1106" spans="1:2">
-      <c r="A1106" s="22"/>
-      <c r="B1106" s="34"/>
-    </row>
-    <row r="1109" spans="1:2">
-      <c r="B1109" s="22"/>
-    </row>
-    <row r="1111" spans="1:2">
-      <c r="B1111" s="22"/>
-    </row>
-    <row r="1116" spans="1:2">
-      <c r="A1116" s="34"/>
-    </row>
-    <row r="1118" spans="1:2">
-      <c r="A1118" s="34"/>
-      <c r="B1118" s="34"/>
+      <c r="B1103" s="34"/>
+    </row>
+    <row r="1105" spans="1:2">
+      <c r="A1105" s="22"/>
+      <c r="B1105" s="34"/>
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="B1108" s="22"/>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="B1110" s="22"/>
+    </row>
+    <row r="1115" spans="1:2">
+      <c r="A1115" s="34"/>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="A1117" s="34"/>
+      <c r="B1117" s="34"/>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="A1119" s="22"/>
     </row>
     <row r="1120" spans="1:2">
-      <c r="A1120" s="22"/>
-    </row>
-    <row r="1121" spans="1:2">
-      <c r="B1121" s="34"/>
+      <c r="B1120" s="34"/>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="A1122" s="34"/>
     </row>
     <row r="1123" spans="1:2">
-      <c r="A1123" s="34"/>
+      <c r="B1123" s="22"/>
     </row>
     <row r="1124" spans="1:2">
-      <c r="B1124" s="22"/>
-    </row>
-    <row r="1125" spans="1:2">
-      <c r="B1125" s="34"/>
-    </row>
-    <row r="1129" spans="1:2">
-      <c r="A1129" s="34"/>
-      <c r="B1129" s="35"/>
-    </row>
-    <row r="1131" spans="1:2">
-      <c r="A1131" s="34"/>
-      <c r="B1131" s="35"/>
+      <c r="B1124" s="34"/>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" s="34"/>
+      <c r="B1128" s="35"/>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="A1130" s="34"/>
+      <c r="B1130" s="35"/>
+    </row>
+    <row r="1132" spans="1:2">
+      <c r="A1132" s="22"/>
+      <c r="B1132" s="22"/>
     </row>
     <row r="1133" spans="1:2">
-      <c r="A1133" s="22"/>
       <c r="B1133" s="22"/>
     </row>
     <row r="1134" spans="1:2">
-      <c r="B1134" s="22"/>
+      <c r="A1134" s="22"/>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" s="22"/>
     </row>
     <row r="1136" spans="1:2">
-      <c r="A1136" s="22"/>
-    </row>
-    <row r="1137" spans="1:2">
-      <c r="B1137" s="34"/>
-    </row>
-    <row r="1141" spans="1:2">
-      <c r="A1141" s="34"/>
-      <c r="B1141" s="34"/>
+      <c r="B1136" s="34"/>
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="A1140" s="34"/>
+      <c r="B1140" s="34"/>
+    </row>
+    <row r="1142" spans="1:2">
+      <c r="B1142" s="22"/>
     </row>
     <row r="1143" spans="1:2">
+      <c r="A1143" s="22"/>
       <c r="B1143" s="22"/>
     </row>
-    <row r="1144" spans="1:2">
-      <c r="A1144" s="22"/>
-      <c r="B1144" s="22"/>
+    <row r="1145" spans="1:2">
+      <c r="B1145" s="22"/>
     </row>
     <row r="1146" spans="1:2">
       <c r="B1146" s="22"/>
     </row>
-    <row r="1147" spans="1:2">
-      <c r="B1147" s="22"/>
+    <row r="1148" spans="1:2">
+      <c r="B1148" s="22"/>
     </row>
     <row r="1149" spans="1:2">
-      <c r="B1149" s="22"/>
+      <c r="B1149" s="34"/>
     </row>
     <row r="1150" spans="1:2">
-      <c r="B1150" s="34"/>
+      <c r="A1150" s="22"/>
+      <c r="B1150" s="22"/>
     </row>
     <row r="1151" spans="1:2">
-      <c r="A1151" s="22"/>
-      <c r="B1151" s="22"/>
+      <c r="B1151" s="34"/>
     </row>
     <row r="1152" spans="1:2">
       <c r="B1152" s="34"/>
     </row>
-    <row r="1153" spans="1:2">
-      <c r="B1153" s="34"/>
-    </row>
-    <row r="1158" spans="1:2">
-      <c r="A1158" s="34"/>
-    </row>
-    <row r="1161" spans="1:2">
-      <c r="B1161" s="22"/>
+    <row r="1157" spans="1:2">
+      <c r="A1157" s="34"/>
+    </row>
+    <row r="1160" spans="1:2">
+      <c r="B1160" s="22"/>
+    </row>
+    <row r="1162" spans="1:2">
+      <c r="B1162" s="22"/>
     </row>
     <row r="1163" spans="1:2">
       <c r="B1163" s="22"/>
     </row>
     <row r="1164" spans="1:2">
-      <c r="B1164" s="22"/>
+      <c r="B1164" s="35"/>
     </row>
     <row r="1165" spans="1:2">
-      <c r="B1165" s="35"/>
-    </row>
-    <row r="1166" spans="1:2">
-      <c r="A1166" s="22"/>
+      <c r="A1165" s="22"/>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" s="34"/>
+      <c r="B1169" s="34"/>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="34"/>
       <c r="B1170" s="34"/>
     </row>
-    <row r="1171" spans="1:2">
-      <c r="A1171" s="34"/>
-      <c r="B1171" s="34"/>
+    <row r="1172" spans="1:2">
+      <c r="A1172" s="22"/>
+      <c r="B1172" s="34"/>
     </row>
     <row r="1173" spans="1:2">
-      <c r="A1173" s="22"/>
-      <c r="B1173" s="34"/>
-    </row>
-    <row r="1174" spans="1:2">
-      <c r="B1174" s="22"/>
-    </row>
-    <row r="1184" spans="1:2">
-      <c r="B1184" s="23"/>
-    </row>
-    <row r="1187" spans="1:2">
-      <c r="B1187" s="23"/>
-    </row>
-    <row r="1197" spans="1:2">
-      <c r="B1197" s="23"/>
+      <c r="B1173" s="22"/>
+    </row>
+    <row r="1183" spans="1:2">
+      <c r="B1183" s="23"/>
+    </row>
+    <row r="1186" spans="1:2">
+      <c r="B1186" s="23"/>
+    </row>
+    <row r="1196" spans="1:2">
+      <c r="B1196" s="23"/>
+    </row>
+    <row r="1199" spans="1:2">
+      <c r="A1199" s="23"/>
+      <c r="B1199" s="39"/>
     </row>
     <row r="1200" spans="1:2">
-      <c r="A1200" s="23"/>
-      <c r="B1200" s="39"/>
+      <c r="B1200" s="34"/>
     </row>
     <row r="1201" spans="1:2">
+      <c r="A1201" s="34"/>
       <c r="B1201" s="34"/>
     </row>
-    <row r="1202" spans="1:2">
-      <c r="A1202" s="34"/>
-      <c r="B1202" s="34"/>
-    </row>
-    <row r="1204" spans="1:2">
-      <c r="A1204" s="34"/>
-      <c r="B1204" s="34"/>
-    </row>
-    <row r="1212" spans="1:2">
-      <c r="B1212" s="23"/>
-    </row>
-    <row r="1214" spans="1:2">
-      <c r="B1214" s="23"/>
+    <row r="1203" spans="1:2">
+      <c r="A1203" s="34"/>
+      <c r="B1203" s="34"/>
+    </row>
+    <row r="1211" spans="1:2">
+      <c r="B1211" s="23"/>
+    </row>
+    <row r="1213" spans="1:2">
+      <c r="B1213" s="23"/>
+    </row>
+    <row r="1215" spans="1:2">
+      <c r="B1215" s="23"/>
     </row>
     <row r="1216" spans="1:2">
+      <c r="A1216" s="23"/>
       <c r="B1216" s="23"/>
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="23"/>
       <c r="B1217" s="23"/>
     </row>
-    <row r="1218" spans="1:2">
-      <c r="A1218" s="23"/>
-      <c r="B1218" s="23"/>
+    <row r="1219" spans="1:2">
+      <c r="A1219" s="23"/>
+      <c r="B1219" s="23"/>
     </row>
     <row r="1220" spans="1:2">
-      <c r="A1220" s="23"/>
+      <c r="A1220" s="8"/>
       <c r="B1220" s="23"/>
     </row>
     <row r="1221" spans="1:2">
-      <c r="A1221" s="8"/>
-      <c r="B1221" s="23"/>
-    </row>
-    <row r="1222" spans="1:2">
-      <c r="A1222" s="23"/>
+      <c r="A1221" s="23"/>
+    </row>
+    <row r="1223" spans="1:2">
+      <c r="B1223" s="23"/>
     </row>
     <row r="1224" spans="1:2">
-      <c r="B1224" s="23"/>
-    </row>
-    <row r="1225" spans="1:2">
-      <c r="B1225" s="34"/>
-    </row>
-    <row r="1230" spans="1:2">
-      <c r="B1230" s="23"/>
-    </row>
-    <row r="1234" spans="1:2">
-      <c r="B1234" s="34"/>
-    </row>
-    <row r="1236" spans="1:2">
-      <c r="B1236" s="23"/>
-    </row>
-    <row r="1240" spans="1:2">
-      <c r="B1240" s="34"/>
-    </row>
-    <row r="1242" spans="1:2">
-      <c r="B1242" s="34"/>
+      <c r="B1224" s="34"/>
+    </row>
+    <row r="1229" spans="1:2">
+      <c r="B1229" s="23"/>
+    </row>
+    <row r="1233" spans="1:2">
+      <c r="B1233" s="34"/>
+    </row>
+    <row r="1235" spans="1:2">
+      <c r="B1235" s="23"/>
+    </row>
+    <row r="1239" spans="1:2">
+      <c r="B1239" s="34"/>
+    </row>
+    <row r="1241" spans="1:2">
+      <c r="B1241" s="34"/>
+    </row>
+    <row r="1243" spans="1:2">
+      <c r="B1243" s="34"/>
     </row>
     <row r="1244" spans="1:2">
+      <c r="A1244" s="34"/>
       <c r="B1244" s="34"/>
     </row>
-    <row r="1245" spans="1:2">
-      <c r="A1245" s="34"/>
-      <c r="B1245" s="34"/>
-    </row>
-    <row r="1248" spans="1:2">
-      <c r="B1248" s="34"/>
-    </row>
-    <row r="1251" spans="1:2">
-      <c r="B1251" s="23"/>
+    <row r="1247" spans="1:2">
+      <c r="B1247" s="34"/>
+    </row>
+    <row r="1250" spans="1:2">
+      <c r="B1250" s="23"/>
+    </row>
+    <row r="1253" spans="1:2">
+      <c r="B1253" s="23"/>
     </row>
     <row r="1254" spans="1:2">
       <c r="B1254" s="23"/>
     </row>
     <row r="1255" spans="1:2">
+      <c r="A1255" s="23"/>
       <c r="B1255" s="23"/>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="23"/>
-      <c r="B1256" s="23"/>
+      <c r="B1256" s="34"/>
     </row>
     <row r="1257" spans="1:2">
-      <c r="A1257" s="23"/>
       <c r="B1257" s="34"/>
     </row>
     <row r="1258" spans="1:2">
-      <c r="B1258" s="34"/>
+      <c r="B1258" s="23"/>
     </row>
     <row r="1259" spans="1:2">
       <c r="B1259" s="23"/>
     </row>
     <row r="1260" spans="1:2">
-      <c r="B1260" s="23"/>
-    </row>
-    <row r="1261" spans="1:2">
-      <c r="B1261" s="34"/>
+      <c r="B1260" s="34"/>
+    </row>
+    <row r="1263" spans="1:2">
+      <c r="B1263" s="34"/>
     </row>
     <row r="1264" spans="1:2">
       <c r="B1264" s="34"/>
     </row>
-    <row r="1265" spans="1:2">
-      <c r="B1265" s="34"/>
-    </row>
-    <row r="1267" spans="1:2">
-      <c r="A1267" s="8"/>
+    <row r="1266" spans="1:2">
+      <c r="A1266" s="8"/>
+    </row>
+    <row r="1268" spans="1:2">
+      <c r="B1268" s="35"/>
     </row>
     <row r="1269" spans="1:2">
-      <c r="B1269" s="35"/>
+      <c r="B1269" s="34"/>
     </row>
     <row r="1270" spans="1:2">
+      <c r="A1270" s="34"/>
       <c r="B1270" s="34"/>
     </row>
     <row r="1271" spans="1:2">
@@ -8878,33 +8871,32 @@
       <c r="B1271" s="34"/>
     </row>
     <row r="1272" spans="1:2">
-      <c r="A1272" s="34"/>
-      <c r="B1272" s="34"/>
+      <c r="A1272" s="23"/>
+      <c r="B1272" s="23"/>
     </row>
     <row r="1273" spans="1:2">
-      <c r="A1273" s="23"/>
       <c r="B1273" s="23"/>
     </row>
     <row r="1274" spans="1:2">
-      <c r="B1274" s="23"/>
-    </row>
-    <row r="1275" spans="1:2">
-      <c r="B1275" s="34"/>
+      <c r="B1274" s="34"/>
+    </row>
+    <row r="1277" spans="1:2">
+      <c r="A1277" s="23"/>
+      <c r="B1277" s="25"/>
     </row>
     <row r="1278" spans="1:2">
-      <c r="A1278" s="23"/>
       <c r="B1278" s="25"/>
     </row>
     <row r="1279" spans="1:2">
-      <c r="B1279" s="25"/>
+      <c r="A1279" s="24"/>
+      <c r="B1279" s="34"/>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="24"/>
-      <c r="B1280" s="34"/>
-    </row>
-    <row r="1281" spans="1:2">
-      <c r="A1281" s="24"/>
-      <c r="B1281" s="24"/>
+      <c r="B1280" s="24"/>
+    </row>
+    <row r="1282" spans="1:2">
+      <c r="B1282" s="24"/>
     </row>
     <row r="1283" spans="1:2">
       <c r="B1283" s="24"/>
@@ -8922,28 +8914,29 @@
       <c r="B1287" s="24"/>
     </row>
     <row r="1288" spans="1:2">
+      <c r="A1288" s="24"/>
       <c r="B1288" s="24"/>
     </row>
-    <row r="1289" spans="1:2">
-      <c r="A1289" s="24"/>
-      <c r="B1289" s="24"/>
+    <row r="1290" spans="1:2">
+      <c r="A1290" s="24"/>
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="24"/>
+      <c r="B1291" s="24"/>
     </row>
     <row r="1292" spans="1:2">
-      <c r="A1292" s="24"/>
-      <c r="B1292" s="24"/>
+      <c r="A1292" s="8"/>
+      <c r="B1292" s="46"/>
     </row>
     <row r="1293" spans="1:2">
-      <c r="A1293" s="8"/>
-      <c r="B1293" s="46"/>
+      <c r="B1293" s="35"/>
     </row>
     <row r="1294" spans="1:2">
-      <c r="B1294" s="35"/>
+      <c r="B1294" s="34"/>
     </row>
     <row r="1295" spans="1:2">
-      <c r="B1295" s="34"/>
+      <c r="A1295" s="25"/>
+      <c r="B1295" s="25"/>
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="25"/>
@@ -8954,17 +8947,16 @@
       <c r="B1297" s="25"/>
     </row>
     <row r="1298" spans="1:2">
-      <c r="A1298" s="25"/>
       <c r="B1298" s="25"/>
     </row>
     <row r="1299" spans="1:2">
       <c r="B1299" s="25"/>
     </row>
     <row r="1300" spans="1:2">
+      <c r="A1300" s="25"/>
       <c r="B1300" s="25"/>
     </row>
     <row r="1301" spans="1:2">
-      <c r="A1301" s="25"/>
       <c r="B1301" s="25"/>
     </row>
     <row r="1302" spans="1:2">
@@ -9004,13 +8996,13 @@
       <c r="B1313" s="25"/>
     </row>
     <row r="1314" spans="1:2">
-      <c r="B1314" s="25"/>
+      <c r="B1314" s="34"/>
     </row>
     <row r="1315" spans="1:2">
-      <c r="B1315" s="34"/>
+      <c r="A1315" s="25"/>
+      <c r="B1315" s="25"/>
     </row>
     <row r="1316" spans="1:2">
-      <c r="A1316" s="25"/>
       <c r="B1316" s="25"/>
     </row>
     <row r="1317" spans="1:2">
@@ -9022,11 +9014,11 @@
     <row r="1319" spans="1:2">
       <c r="B1319" s="25"/>
     </row>
-    <row r="1320" spans="1:2">
-      <c r="B1320" s="25"/>
+    <row r="1321" spans="1:2">
+      <c r="A1321" s="25"/>
+      <c r="B1321" s="25"/>
     </row>
     <row r="1322" spans="1:2">
-      <c r="A1322" s="25"/>
       <c r="B1322" s="25"/>
     </row>
     <row r="1323" spans="1:2">
@@ -9042,10 +9034,10 @@
       <c r="B1326" s="25"/>
     </row>
     <row r="1327" spans="1:2">
+      <c r="A1327" s="25"/>
       <c r="B1327" s="25"/>
     </row>
     <row r="1328" spans="1:2">
-      <c r="A1328" s="25"/>
       <c r="B1328" s="25"/>
     </row>
     <row r="1329" spans="2:2">
@@ -9090,104 +9082,104 @@
     <row r="1342" spans="2:2">
       <c r="B1342" s="25"/>
     </row>
-    <row r="1343" spans="2:2">
-      <c r="B1343" s="25"/>
-    </row>
-    <row r="1345" spans="2:2">
+    <row r="1344" spans="2:2">
+      <c r="B1344" s="25"/>
+    </row>
+    <row r="1345" spans="1:2">
       <c r="B1345" s="25"/>
     </row>
-    <row r="1346" spans="2:2">
+    <row r="1346" spans="1:2">
       <c r="B1346" s="25"/>
     </row>
-    <row r="1347" spans="2:2">
-      <c r="B1347" s="25"/>
-    </row>
-    <row r="1348" spans="2:2">
-      <c r="B1348" s="47"/>
-    </row>
-    <row r="1349" spans="2:2">
-      <c r="B1349" s="25"/>
-    </row>
-    <row r="1350" spans="2:2">
-      <c r="B1350" s="35"/>
-    </row>
-    <row r="1351" spans="2:2">
+    <row r="1347" spans="1:2">
+      <c r="B1347" s="47"/>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="B1348" s="25"/>
+    </row>
+    <row r="1349" spans="1:2">
+      <c r="B1349" s="35"/>
+    </row>
+    <row r="1350" spans="1:2">
+      <c r="B1350" s="25"/>
+    </row>
+    <row r="1351" spans="1:2">
       <c r="B1351" s="25"/>
     </row>
-    <row r="1352" spans="2:2">
+    <row r="1352" spans="1:2">
       <c r="B1352" s="25"/>
     </row>
-    <row r="1353" spans="2:2">
+    <row r="1353" spans="1:2">
       <c r="B1353" s="25"/>
     </row>
-    <row r="1354" spans="2:2">
+    <row r="1354" spans="1:2">
       <c r="B1354" s="25"/>
     </row>
-    <row r="1355" spans="2:2">
+    <row r="1355" spans="1:2">
       <c r="B1355" s="25"/>
     </row>
-    <row r="1356" spans="2:2">
+    <row r="1356" spans="1:2">
       <c r="B1356" s="25"/>
     </row>
-    <row r="1357" spans="2:2">
+    <row r="1357" spans="1:2">
       <c r="B1357" s="25"/>
     </row>
-    <row r="1358" spans="2:2">
+    <row r="1358" spans="1:2">
       <c r="B1358" s="25"/>
     </row>
-    <row r="1359" spans="2:2">
+    <row r="1359" spans="1:2">
       <c r="B1359" s="25"/>
     </row>
-    <row r="1360" spans="2:2">
+    <row r="1360" spans="1:2">
+      <c r="A1360" s="25"/>
       <c r="B1360" s="25"/>
     </row>
-    <row r="1361" spans="1:2">
-      <c r="A1361" s="25"/>
+    <row r="1361" spans="2:2">
       <c r="B1361" s="25"/>
     </row>
-    <row r="1362" spans="1:2">
+    <row r="1362" spans="2:2">
       <c r="B1362" s="25"/>
     </row>
-    <row r="1363" spans="1:2">
+    <row r="1363" spans="2:2">
       <c r="B1363" s="25"/>
     </row>
-    <row r="1364" spans="1:2">
+    <row r="1364" spans="2:2">
       <c r="B1364" s="25"/>
     </row>
-    <row r="1365" spans="1:2">
+    <row r="1365" spans="2:2">
       <c r="B1365" s="25"/>
     </row>
-    <row r="1366" spans="1:2">
+    <row r="1366" spans="2:2">
       <c r="B1366" s="25"/>
     </row>
-    <row r="1367" spans="1:2">
+    <row r="1367" spans="2:2">
       <c r="B1367" s="25"/>
     </row>
-    <row r="1368" spans="1:2">
-      <c r="B1368" s="25"/>
-    </row>
-    <row r="1369" spans="1:2">
-      <c r="B1369" s="34"/>
-    </row>
-    <row r="1370" spans="1:2">
+    <row r="1368" spans="2:2">
+      <c r="B1368" s="34"/>
+    </row>
+    <row r="1369" spans="2:2">
+      <c r="B1369" s="25"/>
+    </row>
+    <row r="1370" spans="2:2">
       <c r="B1370" s="25"/>
     </row>
-    <row r="1371" spans="1:2">
+    <row r="1371" spans="2:2">
       <c r="B1371" s="25"/>
     </row>
-    <row r="1372" spans="1:2">
+    <row r="1372" spans="2:2">
       <c r="B1372" s="25"/>
     </row>
-    <row r="1373" spans="1:2">
+    <row r="1373" spans="2:2">
       <c r="B1373" s="25"/>
     </row>
-    <row r="1374" spans="1:2">
+    <row r="1374" spans="2:2">
       <c r="B1374" s="25"/>
     </row>
-    <row r="1375" spans="1:2">
+    <row r="1375" spans="2:2">
       <c r="B1375" s="25"/>
     </row>
-    <row r="1376" spans="1:2">
+    <row r="1376" spans="2:2">
       <c r="B1376" s="25"/>
     </row>
     <row r="1377" spans="2:2">
@@ -9254,16 +9246,16 @@
       <c r="B1397" s="25"/>
     </row>
     <row r="1398" spans="1:2">
-      <c r="B1398" s="25"/>
+      <c r="B1398" s="34"/>
     </row>
     <row r="1399" spans="1:2">
-      <c r="B1399" s="34"/>
-    </row>
-    <row r="1400" spans="1:2">
-      <c r="B1400" s="25"/>
+      <c r="B1399" s="25"/>
+    </row>
+    <row r="1401" spans="1:2">
+      <c r="A1401" s="26"/>
+      <c r="B1401" s="26"/>
     </row>
     <row r="1402" spans="1:2">
-      <c r="A1402" s="26"/>
       <c r="B1402" s="26"/>
     </row>
     <row r="1403" spans="1:2">
@@ -9273,81 +9265,81 @@
       <c r="B1404" s="26"/>
     </row>
     <row r="1405" spans="1:2">
-      <c r="B1405" s="26"/>
+      <c r="A1405" s="27"/>
+      <c r="B1405" s="27"/>
     </row>
     <row r="1406" spans="1:2">
-      <c r="A1406" s="27"/>
-      <c r="B1406" s="27"/>
+      <c r="A1406" s="28"/>
+      <c r="B1406" s="28"/>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="28"/>
       <c r="B1407" s="28"/>
     </row>
-    <row r="1408" spans="1:2">
-      <c r="A1408" s="28"/>
-      <c r="B1408" s="28"/>
-    </row>
-    <row r="1411" spans="1:1">
-      <c r="A1411" s="29"/>
-    </row>
-    <row r="1436" spans="2:2">
-      <c r="B1436" s="29"/>
-    </row>
-    <row r="1441" spans="1:2">
-      <c r="B1441" s="48"/>
-    </row>
-    <row r="1445" spans="1:2">
-      <c r="B1445" s="29"/>
+    <row r="1410" spans="1:1">
+      <c r="A1410" s="29"/>
+    </row>
+    <row r="1435" spans="2:2">
+      <c r="B1435" s="29"/>
+    </row>
+    <row r="1440" spans="2:2">
+      <c r="B1440" s="48"/>
+    </row>
+    <row r="1444" spans="1:2">
+      <c r="B1444" s="29"/>
+    </row>
+    <row r="1447" spans="1:2">
+      <c r="B1447" s="29"/>
     </row>
     <row r="1448" spans="1:2">
       <c r="B1448" s="29"/>
     </row>
-    <row r="1449" spans="1:2">
-      <c r="B1449" s="29"/>
+    <row r="1452" spans="1:2">
+      <c r="B1452" s="29"/>
     </row>
     <row r="1453" spans="1:2">
+      <c r="A1453" s="29"/>
       <c r="B1453" s="29"/>
     </row>
-    <row r="1454" spans="1:2">
-      <c r="A1454" s="29"/>
-      <c r="B1454" s="29"/>
-    </row>
-    <row r="1457" spans="1:2">
-      <c r="B1457" s="29"/>
+    <row r="1456" spans="1:2">
+      <c r="B1456" s="29"/>
+    </row>
+    <row r="1461" spans="1:2">
+      <c r="B1461" s="29"/>
     </row>
     <row r="1462" spans="1:2">
       <c r="B1462" s="29"/>
     </row>
     <row r="1463" spans="1:2">
-      <c r="B1463" s="29"/>
+      <c r="A1463" s="29"/>
     </row>
     <row r="1464" spans="1:2">
-      <c r="A1464" s="29"/>
-    </row>
-    <row r="1465" spans="1:2">
-      <c r="B1465" s="29"/>
-    </row>
-    <row r="1470" spans="1:2">
-      <c r="B1470" s="29"/>
-    </row>
-    <row r="1477" spans="1:2">
-      <c r="B1477" s="29"/>
+      <c r="B1464" s="29"/>
+    </row>
+    <row r="1469" spans="1:2">
+      <c r="B1469" s="29"/>
+    </row>
+    <row r="1476" spans="1:2">
+      <c r="B1476" s="29"/>
+    </row>
+    <row r="1483" spans="1:2">
+      <c r="A1483" s="32"/>
+      <c r="B1483" s="49"/>
     </row>
     <row r="1484" spans="1:2">
-      <c r="A1484" s="32"/>
-      <c r="B1484" s="49"/>
+      <c r="A1484" s="30"/>
+      <c r="B1484" s="32"/>
     </row>
     <row r="1485" spans="1:2">
-      <c r="A1485" s="30"/>
-      <c r="B1485" s="32"/>
+      <c r="A1485" s="31"/>
+      <c r="B1485" s="31"/>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="31"/>
       <c r="B1486" s="31"/>
     </row>
     <row r="1487" spans="1:2">
-      <c r="A1487" s="31"/>
-      <c r="B1487" s="31"/>
+      <c r="B1487" s="49"/>
     </row>
     <row r="1488" spans="1:2">
       <c r="B1488" s="49"/>
@@ -9365,10 +9357,10 @@
       <c r="B1492" s="49"/>
     </row>
     <row r="1493" spans="1:2">
-      <c r="B1493" s="49"/>
-    </row>
-    <row r="1494" spans="1:2">
-      <c r="A1494" s="33"/>
+      <c r="A1493" s="33"/>
+    </row>
+    <row r="1498" spans="1:2">
+      <c r="B1498" s="33"/>
     </row>
     <row r="1499" spans="1:2">
       <c r="B1499" s="33"/>
@@ -9376,74 +9368,74 @@
     <row r="1500" spans="1:2">
       <c r="B1500" s="33"/>
     </row>
-    <row r="1501" spans="1:2">
-      <c r="B1501" s="33"/>
-    </row>
-    <row r="1503" spans="1:2">
-      <c r="A1503" s="33"/>
+    <row r="1502" spans="1:2">
+      <c r="A1502" s="33"/>
+    </row>
+    <row r="1506" spans="1:2">
+      <c r="A1506" s="33"/>
+      <c r="B1506" s="33"/>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="33"/>
       <c r="B1507" s="33"/>
     </row>
     <row r="1508" spans="1:2">
-      <c r="A1508" s="33"/>
       <c r="B1508" s="33"/>
     </row>
-    <row r="1509" spans="1:2">
-      <c r="B1509" s="33"/>
-    </row>
-    <row r="1512" spans="1:2">
-      <c r="B1512" s="33"/>
-    </row>
-    <row r="1516" spans="1:2">
-      <c r="B1516" s="33"/>
+    <row r="1511" spans="1:2">
+      <c r="B1511" s="33"/>
+    </row>
+    <row r="1515" spans="1:2">
+      <c r="B1515" s="33"/>
+    </row>
+    <row r="1517" spans="1:2">
+      <c r="B1517" s="33"/>
     </row>
     <row r="1518" spans="1:2">
       <c r="B1518" s="33"/>
     </row>
-    <row r="1519" spans="1:2">
-      <c r="B1519" s="33"/>
-    </row>
-    <row r="1528" spans="1:2">
-      <c r="A1528" s="33"/>
-      <c r="B1528" s="33"/>
-    </row>
-    <row r="1532" spans="1:2">
-      <c r="B1532" s="33"/>
+    <row r="1527" spans="1:2">
+      <c r="A1527" s="33"/>
+      <c r="B1527" s="33"/>
+    </row>
+    <row r="1531" spans="1:2">
+      <c r="B1531" s="33"/>
+    </row>
+    <row r="1534" spans="1:2">
+      <c r="B1534" s="33"/>
     </row>
     <row r="1535" spans="1:2">
+      <c r="A1535" s="36"/>
       <c r="B1535" s="33"/>
     </row>
     <row r="1536" spans="1:2">
-      <c r="A1536" s="36"/>
+      <c r="A1536" s="33"/>
       <c r="B1536" s="33"/>
     </row>
-    <row r="1537" spans="1:2">
-      <c r="A1537" s="33"/>
-      <c r="B1537" s="33"/>
-    </row>
-    <row r="1539" spans="1:2">
-      <c r="B1539" s="33"/>
-    </row>
-    <row r="1541" spans="1:2">
-      <c r="A1541" s="33"/>
-      <c r="B1541" s="33"/>
-    </row>
-    <row r="1544" spans="1:2">
-      <c r="B1544" s="33"/>
-    </row>
-    <row r="1549" spans="1:2">
-      <c r="B1549" s="33"/>
-    </row>
-    <row r="1551" spans="1:2">
-      <c r="A1551" s="33"/>
+    <row r="1538" spans="1:2">
+      <c r="B1538" s="33"/>
+    </row>
+    <row r="1540" spans="1:2">
+      <c r="A1540" s="33"/>
+      <c r="B1540" s="33"/>
+    </row>
+    <row r="1543" spans="1:2">
+      <c r="B1543" s="33"/>
+    </row>
+    <row r="1548" spans="1:2">
+      <c r="B1548" s="33"/>
+    </row>
+    <row r="1550" spans="1:2">
+      <c r="A1550" s="33"/>
+    </row>
+    <row r="1553" spans="2:2">
+      <c r="B1553" s="33"/>
     </row>
     <row r="1554" spans="2:2">
       <c r="B1554" s="33"/>
     </row>
-    <row r="1555" spans="2:2">
-      <c r="B1555" s="33"/>
+    <row r="1688" spans="1:2">
+      <c r="B1688" s="37"/>
     </row>
     <row r="1689" spans="1:2">
       <c r="B1689" s="37"/>
@@ -9454,24 +9446,24 @@
     <row r="1691" spans="1:2">
       <c r="B1691" s="37"/>
     </row>
-    <row r="1692" spans="1:2">
-      <c r="B1692" s="37"/>
+    <row r="1693" spans="1:2">
+      <c r="B1693" s="37"/>
     </row>
     <row r="1694" spans="1:2">
       <c r="B1694" s="37"/>
     </row>
     <row r="1695" spans="1:2">
+      <c r="A1695" s="37"/>
       <c r="B1695" s="37"/>
     </row>
     <row r="1696" spans="1:2">
-      <c r="A1696" s="37"/>
       <c r="B1696" s="37"/>
     </row>
     <row r="1697" spans="1:2">
+      <c r="A1697" s="37"/>
       <c r="B1697" s="37"/>
     </row>
     <row r="1698" spans="1:2">
-      <c r="A1698" s="37"/>
       <c r="B1698" s="37"/>
     </row>
     <row r="1699" spans="1:2">
@@ -9487,10 +9479,10 @@
       <c r="B1702" s="37"/>
     </row>
     <row r="1703" spans="1:2">
+      <c r="A1703" s="37"/>
       <c r="B1703" s="37"/>
     </row>
     <row r="1704" spans="1:2">
-      <c r="A1704" s="37"/>
       <c r="B1704" s="37"/>
     </row>
     <row r="1705" spans="1:2">
@@ -9502,8 +9494,8 @@
     <row r="1707" spans="1:2">
       <c r="B1707" s="37"/>
     </row>
-    <row r="1708" spans="1:2">
-      <c r="B1708" s="37"/>
+    <row r="1709" spans="1:2">
+      <c r="B1709" s="37"/>
     </row>
     <row r="1710" spans="1:2">
       <c r="B1710" s="37"/>
@@ -9514,8 +9506,8 @@
     <row r="1712" spans="1:2">
       <c r="B1712" s="37"/>
     </row>
-    <row r="1713" spans="2:2">
-      <c r="B1713" s="37"/>
+    <row r="1715" spans="2:2">
+      <c r="B1715" s="37"/>
     </row>
     <row r="1716" spans="2:2">
       <c r="B1716" s="37"/>
@@ -9550,8 +9542,8 @@
     <row r="1726" spans="2:2">
       <c r="B1726" s="37"/>
     </row>
-    <row r="1727" spans="2:2">
-      <c r="B1727" s="37"/>
+    <row r="1728" spans="2:2">
+      <c r="B1728" s="37"/>
     </row>
     <row r="1729" spans="1:2">
       <c r="B1729" s="37"/>
@@ -9566,10 +9558,10 @@
       <c r="B1732" s="37"/>
     </row>
     <row r="1733" spans="1:2">
+      <c r="A1733" s="37"/>
       <c r="B1733" s="37"/>
     </row>
     <row r="1734" spans="1:2">
-      <c r="A1734" s="37"/>
       <c r="B1734" s="37"/>
     </row>
     <row r="1735" spans="1:2">
@@ -9585,10 +9577,10 @@
       <c r="B1738" s="37"/>
     </row>
     <row r="1739" spans="1:2">
+      <c r="A1739" s="37"/>
       <c r="B1739" s="37"/>
     </row>
     <row r="1740" spans="1:2">
-      <c r="A1740" s="37"/>
       <c r="B1740" s="37"/>
     </row>
     <row r="1741" spans="1:2">
@@ -9616,77 +9608,77 @@
       <c r="B1748" s="37"/>
     </row>
     <row r="1749" spans="1:2">
+      <c r="A1749" s="37"/>
       <c r="B1749" s="37"/>
     </row>
-    <row r="1750" spans="1:2">
-      <c r="A1750" s="37"/>
-      <c r="B1750" s="37"/>
-    </row>
-    <row r="1752" spans="1:2">
-      <c r="B1752" s="38"/>
-    </row>
-    <row r="1770" spans="1:2">
-      <c r="A1770" s="33"/>
-      <c r="B1770" s="33"/>
-    </row>
-    <row r="1772" spans="1:2">
-      <c r="B1772" s="38"/>
-    </row>
-    <row r="1783" spans="1:2">
-      <c r="B1783" s="38"/>
-    </row>
-    <row r="1786" spans="1:2">
-      <c r="A1786" s="38"/>
-      <c r="B1786" s="38"/>
-    </row>
-    <row r="1788" spans="1:2">
-      <c r="B1788" s="50"/>
-    </row>
-    <row r="1793" spans="2:2">
-      <c r="B1793" s="50"/>
-    </row>
-    <row r="1799" spans="2:2">
-      <c r="B1799" s="38"/>
-    </row>
-    <row r="1804" spans="2:2">
-      <c r="B1804" s="38"/>
-    </row>
-    <row r="1806" spans="2:2">
-      <c r="B1806" s="38"/>
-    </row>
-    <row r="1810" spans="2:2">
-      <c r="B1810" s="40"/>
-    </row>
-    <row r="1828" spans="2:2">
-      <c r="B1828" s="40"/>
-    </row>
-    <row r="1839" spans="2:2">
-      <c r="B1839" s="40"/>
-    </row>
-    <row r="1859" spans="2:2">
-      <c r="B1859" s="40"/>
+    <row r="1751" spans="1:2">
+      <c r="B1751" s="38"/>
+    </row>
+    <row r="1769" spans="1:2">
+      <c r="A1769" s="33"/>
+      <c r="B1769" s="33"/>
+    </row>
+    <row r="1771" spans="1:2">
+      <c r="B1771" s="38"/>
+    </row>
+    <row r="1782" spans="1:2">
+      <c r="B1782" s="38"/>
+    </row>
+    <row r="1785" spans="1:2">
+      <c r="A1785" s="38"/>
+      <c r="B1785" s="38"/>
+    </row>
+    <row r="1787" spans="1:2">
+      <c r="B1787" s="50"/>
+    </row>
+    <row r="1792" spans="1:2">
+      <c r="B1792" s="50"/>
+    </row>
+    <row r="1798" spans="2:2">
+      <c r="B1798" s="38"/>
+    </row>
+    <row r="1803" spans="2:2">
+      <c r="B1803" s="38"/>
+    </row>
+    <row r="1805" spans="2:2">
+      <c r="B1805" s="38"/>
+    </row>
+    <row r="1809" spans="2:2">
+      <c r="B1809" s="40"/>
+    </row>
+    <row r="1827" spans="2:2">
+      <c r="B1827" s="40"/>
+    </row>
+    <row r="1838" spans="2:2">
+      <c r="B1838" s="40"/>
+    </row>
+    <row r="1858" spans="2:2">
+      <c r="B1858" s="40"/>
+    </row>
+    <row r="1868" spans="2:2">
+      <c r="B1868" s="39"/>
     </row>
     <row r="1869" spans="2:2">
       <c r="B1869" s="39"/>
     </row>
-    <row r="1870" spans="2:2">
-      <c r="B1870" s="39"/>
+    <row r="1871" spans="2:2">
+      <c r="B1871" s="39"/>
     </row>
     <row r="1872" spans="2:2">
       <c r="B1872" s="39"/>
     </row>
-    <row r="1873" spans="1:2">
-      <c r="B1873" s="39"/>
+    <row r="1875" spans="1:2">
+      <c r="B1875" s="39"/>
     </row>
     <row r="1876" spans="1:2">
+      <c r="A1876" s="39"/>
       <c r="B1876" s="39"/>
     </row>
-    <row r="1877" spans="1:2">
-      <c r="A1877" s="39"/>
-      <c r="B1877" s="39"/>
-    </row>
-    <row r="1879" spans="1:2">
-      <c r="B1879" s="39"/>
+    <row r="1878" spans="1:2">
+      <c r="B1878" s="39"/>
+    </row>
+    <row r="1882" spans="1:2">
+      <c r="B1882" s="39"/>
     </row>
     <row r="1883" spans="1:2">
       <c r="B1883" s="39"/>
@@ -9694,95 +9686,95 @@
     <row r="1884" spans="1:2">
       <c r="B1884" s="39"/>
     </row>
-    <row r="1885" spans="1:2">
-      <c r="B1885" s="39"/>
-    </row>
-    <row r="1890" spans="2:2">
-      <c r="B1890" s="39"/>
-    </row>
-    <row r="1892" spans="2:2">
-      <c r="B1892" s="39"/>
-    </row>
-    <row r="1901" spans="2:2">
-      <c r="B1901" s="39"/>
-    </row>
-    <row r="1904" spans="2:2">
-      <c r="B1904" s="39"/>
+    <row r="1889" spans="2:2">
+      <c r="B1889" s="39"/>
+    </row>
+    <row r="1891" spans="2:2">
+      <c r="B1891" s="39"/>
+    </row>
+    <row r="1900" spans="2:2">
+      <c r="B1900" s="39"/>
+    </row>
+    <row r="1903" spans="2:2">
+      <c r="B1903" s="39"/>
+    </row>
+    <row r="1910" spans="2:2">
+      <c r="B1910" s="39"/>
     </row>
     <row r="1911" spans="2:2">
       <c r="B1911" s="39"/>
     </row>
-    <row r="1912" spans="2:2">
-      <c r="B1912" s="39"/>
-    </row>
-    <row r="1914" spans="2:2">
-      <c r="B1914" s="39"/>
-    </row>
-    <row r="1916" spans="2:2">
-      <c r="B1916" s="39"/>
+    <row r="1913" spans="2:2">
+      <c r="B1913" s="39"/>
+    </row>
+    <row r="1915" spans="2:2">
+      <c r="B1915" s="39"/>
+    </row>
+    <row r="1927" spans="1:2">
+      <c r="B1927" s="39"/>
     </row>
     <row r="1928" spans="1:2">
       <c r="B1928" s="39"/>
     </row>
     <row r="1929" spans="1:2">
+      <c r="A1929" s="39"/>
       <c r="B1929" s="39"/>
     </row>
-    <row r="1930" spans="1:2">
-      <c r="A1930" s="39"/>
-      <c r="B1930" s="39"/>
+    <row r="1936" spans="1:2">
+      <c r="B1936" s="39"/>
     </row>
     <row r="1937" spans="1:2">
       <c r="B1937" s="39"/>
     </row>
-    <row r="1938" spans="1:2">
-      <c r="B1938" s="39"/>
-    </row>
-    <row r="1947" spans="1:2">
-      <c r="A1947" s="39"/>
-    </row>
-    <row r="1950" spans="1:2">
-      <c r="B1950" s="39"/>
-    </row>
-    <row r="1961" spans="1:2">
-      <c r="B1961" s="39"/>
-    </row>
-    <row r="1963" spans="1:2">
-      <c r="B1963" s="39"/>
+    <row r="1946" spans="1:2">
+      <c r="A1946" s="39"/>
+    </row>
+    <row r="1949" spans="1:2">
+      <c r="B1949" s="39"/>
+    </row>
+    <row r="1960" spans="1:2">
+      <c r="B1960" s="39"/>
+    </row>
+    <row r="1962" spans="1:2">
+      <c r="B1962" s="39"/>
+    </row>
+    <row r="1964" spans="1:2">
+      <c r="B1964" s="39"/>
     </row>
     <row r="1965" spans="1:2">
       <c r="B1965" s="39"/>
     </row>
-    <row r="1966" spans="1:2">
-      <c r="B1966" s="39"/>
-    </row>
-    <row r="1968" spans="1:2">
-      <c r="A1968" s="39"/>
-      <c r="B1968" s="39"/>
-    </row>
-    <row r="1972" spans="2:2">
-      <c r="B1972" s="39"/>
-    </row>
-    <row r="1976" spans="2:2">
-      <c r="B1976" s="39"/>
-    </row>
-    <row r="1978" spans="2:2">
-      <c r="B1978" s="39"/>
-    </row>
-    <row r="1984" spans="2:2">
+    <row r="1967" spans="1:2">
+      <c r="A1967" s="39"/>
+      <c r="B1967" s="39"/>
+    </row>
+    <row r="1971" spans="1:2">
+      <c r="B1971" s="39"/>
+    </row>
+    <row r="1975" spans="1:2">
+      <c r="B1975" s="39"/>
+    </row>
+    <row r="1977" spans="1:2">
+      <c r="B1977" s="39"/>
+    </row>
+    <row r="1983" spans="1:2">
+      <c r="B1983" s="39"/>
+    </row>
+    <row r="1984" spans="1:2">
+      <c r="A1984" s="39"/>
       <c r="B1984" s="39"/>
     </row>
-    <row r="1985" spans="1:2">
-      <c r="A1985" s="39"/>
+    <row r="1985" spans="2:2">
       <c r="B1985" s="39"/>
     </row>
-    <row r="1986" spans="1:2">
-      <c r="B1986" s="39"/>
-    </row>
-    <row r="1993" spans="1:2">
-      <c r="B1993" s="39"/>
-    </row>
-    <row r="1995" spans="1:2">
-      <c r="B1995" s="39"/>
+    <row r="1992" spans="2:2">
+      <c r="B1992" s="39"/>
+    </row>
+    <row r="1994" spans="2:2">
+      <c r="B1994" s="39"/>
+    </row>
+    <row r="2004" spans="1:2">
+      <c r="B2004" s="51"/>
     </row>
     <row r="2005" spans="1:2">
       <c r="B2005" s="51"/>
@@ -9791,10 +9783,10 @@
       <c r="B2006" s="51"/>
     </row>
     <row r="2007" spans="1:2">
+      <c r="A2007" s="51"/>
       <c r="B2007" s="51"/>
     </row>
     <row r="2008" spans="1:2">
-      <c r="A2008" s="51"/>
       <c r="B2008" s="51"/>
     </row>
     <row r="2009" spans="1:2">
@@ -9815,8 +9807,8 @@
     <row r="2014" spans="1:2">
       <c r="B2014" s="51"/>
     </row>
-    <row r="2015" spans="1:2">
-      <c r="B2015" s="51"/>
+    <row r="2017" spans="2:2">
+      <c r="B2017" s="51"/>
     </row>
     <row r="2018" spans="2:2">
       <c r="B2018" s="51"/>
@@ -9870,20 +9862,20 @@
       <c r="B2034" s="51"/>
     </row>
     <row r="2035" spans="1:2">
-      <c r="B2035" s="51"/>
+      <c r="A2035" s="51"/>
+      <c r="B2035" s="54"/>
     </row>
     <row r="2036" spans="1:2">
-      <c r="A2036" s="51"/>
-      <c r="B2036" s="54"/>
+      <c r="B2036" s="51"/>
     </row>
     <row r="2037" spans="1:2">
       <c r="B2037" s="51"/>
     </row>
-    <row r="2038" spans="1:2">
-      <c r="B2038" s="51"/>
-    </row>
-    <row r="2040" spans="1:2">
-      <c r="B2040" s="51"/>
+    <row r="2039" spans="1:2">
+      <c r="B2039" s="51"/>
+    </row>
+    <row r="2041" spans="1:2">
+      <c r="B2041" s="51"/>
     </row>
     <row r="2042" spans="1:2">
       <c r="B2042" s="51"/>
@@ -9892,10 +9884,10 @@
       <c r="B2043" s="51"/>
     </row>
     <row r="2044" spans="1:2">
+      <c r="A2044" s="51"/>
       <c r="B2044" s="51"/>
     </row>
     <row r="2045" spans="1:2">
-      <c r="A2045" s="51"/>
       <c r="B2045" s="51"/>
     </row>
     <row r="2046" spans="1:2">
@@ -9944,17 +9936,17 @@
       <c r="B2060" s="51"/>
     </row>
     <row r="2061" spans="1:2">
-      <c r="B2061" s="51"/>
-    </row>
-    <row r="2062" spans="1:2">
-      <c r="A2062" s="52"/>
-      <c r="B2062" s="53"/>
+      <c r="A2061" s="52"/>
+      <c r="B2061" s="53"/>
+    </row>
+    <row r="2063" spans="1:2">
+      <c r="B2063" s="54"/>
     </row>
     <row r="2064" spans="1:2">
       <c r="B2064" s="54"/>
     </row>
-    <row r="2065" spans="2:2">
-      <c r="B2065" s="54"/>
+    <row r="2067" spans="2:2">
+      <c r="B2067" s="54"/>
     </row>
     <row r="2068" spans="2:2">
       <c r="B2068" s="54"/>
@@ -9965,44 +9957,44 @@
     <row r="2070" spans="2:2">
       <c r="B2070" s="54"/>
     </row>
-    <row r="2071" spans="2:2">
-      <c r="B2071" s="54"/>
+    <row r="2072" spans="2:2">
+      <c r="B2072" s="54"/>
     </row>
     <row r="2073" spans="2:2">
       <c r="B2073" s="54"/>
     </row>
-    <row r="2074" spans="2:2">
-      <c r="B2074" s="54"/>
-    </row>
-    <row r="2076" spans="2:2">
-      <c r="B2076" s="54"/>
+    <row r="2075" spans="2:2">
+      <c r="B2075" s="54"/>
+    </row>
+    <row r="2078" spans="2:2">
+      <c r="B2078" s="54"/>
     </row>
     <row r="2079" spans="2:2">
       <c r="B2079" s="54"/>
     </row>
-    <row r="2080" spans="2:2">
-      <c r="B2080" s="54"/>
+    <row r="2081" spans="2:2">
+      <c r="B2081" s="54"/>
     </row>
     <row r="2082" spans="2:2">
       <c r="B2082" s="54"/>
     </row>
-    <row r="2083" spans="2:2">
-      <c r="B2083" s="54"/>
-    </row>
-    <row r="2085" spans="2:2">
-      <c r="B2085" s="54"/>
+    <row r="2084" spans="2:2">
+      <c r="B2084" s="54"/>
+    </row>
+    <row r="2089" spans="2:2">
+      <c r="B2089" s="54"/>
     </row>
     <row r="2090" spans="2:2">
       <c r="B2090" s="54"/>
     </row>
-    <row r="2091" spans="2:2">
-      <c r="B2091" s="54"/>
-    </row>
-    <row r="2093" spans="2:2">
-      <c r="B2093" s="54"/>
-    </row>
-    <row r="2095" spans="2:2">
-      <c r="B2095" s="54"/>
+    <row r="2092" spans="2:2">
+      <c r="B2092" s="54"/>
+    </row>
+    <row r="2094" spans="2:2">
+      <c r="B2094" s="54"/>
+    </row>
+    <row r="2096" spans="2:2">
+      <c r="B2096" s="54"/>
     </row>
     <row r="2097" spans="1:2">
       <c r="B2097" s="54"/>
@@ -10013,17 +10005,18 @@
     <row r="2099" spans="1:2">
       <c r="B2099" s="54"/>
     </row>
-    <row r="2100" spans="1:2">
-      <c r="B2100" s="54"/>
-    </row>
-    <row r="2103" spans="1:2">
-      <c r="B2103" s="54"/>
+    <row r="2102" spans="1:2">
+      <c r="B2102" s="54"/>
+    </row>
+    <row r="2104" spans="1:2">
+      <c r="B2104" s="54"/>
     </row>
     <row r="2105" spans="1:2">
       <c r="B2105" s="54"/>
     </row>
     <row r="2106" spans="1:2">
-      <c r="B2106" s="54"/>
+      <c r="A2106" s="55"/>
+      <c r="B2106" s="55"/>
     </row>
     <row r="2107" spans="1:2">
       <c r="A2107" s="55"/>
@@ -10054,27 +10047,27 @@
       <c r="B2113" s="55"/>
     </row>
     <row r="2114" spans="1:2">
-      <c r="A2114" s="55"/>
-      <c r="B2114" s="55"/>
+      <c r="A2114" s="57"/>
+      <c r="B2114" s="56"/>
     </row>
     <row r="2115" spans="1:2">
       <c r="A2115" s="57"/>
-      <c r="B2115" s="56"/>
-    </row>
-    <row r="2116" spans="1:2">
-      <c r="A2116" s="57"/>
-      <c r="B2116" s="57"/>
-    </row>
-    <row r="2118" spans="1:2">
-      <c r="A2118" s="57"/>
-      <c r="B2118" s="57"/>
+      <c r="B2115" s="57"/>
+    </row>
+    <row r="2117" spans="1:2">
+      <c r="A2117" s="57"/>
+      <c r="B2117" s="57"/>
+    </row>
+    <row r="2119" spans="1:2">
+      <c r="A2119" s="57"/>
+      <c r="B2119" s="57"/>
     </row>
     <row r="2120" spans="1:2">
-      <c r="A2120" s="57"/>
       <c r="B2120" s="57"/>
     </row>
-    <row r="2121" spans="1:2">
-      <c r="B2121" s="57"/>
+    <row r="2122" spans="1:2">
+      <c r="A2122" s="57"/>
+      <c r="B2122" s="57"/>
     </row>
     <row r="2123" spans="1:2">
       <c r="A2123" s="57"/>
@@ -10084,19 +10077,18 @@
       <c r="A2124" s="57"/>
       <c r="B2124" s="57"/>
     </row>
-    <row r="2125" spans="1:2">
-      <c r="A2125" s="57"/>
-      <c r="B2125" s="57"/>
+    <row r="2126" spans="1:2">
+      <c r="B2126" s="57"/>
     </row>
     <row r="2127" spans="1:2">
+      <c r="A2127" s="57"/>
       <c r="B2127" s="57"/>
     </row>
     <row r="2128" spans="1:2">
-      <c r="A2128" s="57"/>
       <c r="B2128" s="57"/>
     </row>
-    <row r="2129" spans="2:2">
-      <c r="B2129" s="57"/>
+    <row r="2130" spans="2:2">
+      <c r="B2130" s="57"/>
     </row>
     <row r="2131" spans="2:2">
       <c r="B2131" s="57"/>
@@ -10107,29 +10099,30 @@
     <row r="2133" spans="2:2">
       <c r="B2133" s="57"/>
     </row>
-    <row r="2134" spans="2:2">
-      <c r="B2134" s="57"/>
-    </row>
-    <row r="2141" spans="2:2">
-      <c r="B2141" s="57"/>
-    </row>
-    <row r="2150" spans="1:2">
-      <c r="A2150" s="57"/>
-      <c r="B2150" s="57"/>
+    <row r="2140" spans="2:2">
+      <c r="B2140" s="57"/>
+    </row>
+    <row r="2149" spans="1:2">
+      <c r="A2149" s="57"/>
+      <c r="B2149" s="57"/>
+    </row>
+    <row r="2158" spans="1:2">
+      <c r="B2158" s="57"/>
     </row>
     <row r="2159" spans="1:2">
       <c r="B2159" s="57"/>
     </row>
-    <row r="2160" spans="1:2">
-      <c r="B2160" s="57"/>
+    <row r="2173" spans="1:2">
+      <c r="A2173" s="57"/>
+      <c r="B2173" s="57"/>
     </row>
     <row r="2174" spans="1:2">
       <c r="A2174" s="57"/>
       <c r="B2174" s="57"/>
     </row>
-    <row r="2175" spans="1:2">
-      <c r="A2175" s="57"/>
-      <c r="B2175" s="57"/>
+    <row r="2177" spans="1:2">
+      <c r="A2177" s="57"/>
+      <c r="B2177" s="57"/>
     </row>
     <row r="2178" spans="1:2">
       <c r="A2178" s="57"/>
@@ -10141,130 +10134,129 @@
     </row>
     <row r="2180" spans="1:2">
       <c r="A2180" s="57"/>
-      <c r="B2180" s="57"/>
     </row>
     <row r="2181" spans="1:2">
       <c r="A2181" s="57"/>
-    </row>
-    <row r="2182" spans="1:2">
-      <c r="A2182" s="57"/>
-      <c r="B2182" s="57"/>
-    </row>
-    <row r="2184" spans="1:2">
-      <c r="B2184" s="57"/>
+      <c r="B2181" s="57"/>
+    </row>
+    <row r="2183" spans="1:2">
+      <c r="B2183" s="57"/>
+    </row>
+    <row r="2185" spans="1:2">
+      <c r="B2185" s="57"/>
     </row>
     <row r="2186" spans="1:2">
+      <c r="A2186" s="57"/>
       <c r="B2186" s="57"/>
     </row>
-    <row r="2187" spans="1:2">
-      <c r="A2187" s="57"/>
-      <c r="B2187" s="57"/>
-    </row>
-    <row r="2190" spans="1:2">
-      <c r="A2190" s="57"/>
-    </row>
-    <row r="2207" spans="1:1">
-      <c r="A2207" s="57"/>
-    </row>
-    <row r="2211" spans="1:2">
-      <c r="A2211" s="57"/>
-      <c r="B2211" s="57"/>
-    </row>
-    <row r="2215" spans="1:2">
-      <c r="A2215" s="57"/>
-      <c r="B2215" s="57"/>
-    </row>
-    <row r="2217" spans="1:2">
-      <c r="A2217" s="57"/>
-      <c r="B2217" s="57"/>
+    <row r="2189" spans="1:2">
+      <c r="A2189" s="57"/>
+    </row>
+    <row r="2206" spans="1:1">
+      <c r="A2206" s="57"/>
+    </row>
+    <row r="2210" spans="1:2">
+      <c r="A2210" s="57"/>
+      <c r="B2210" s="57"/>
+    </row>
+    <row r="2214" spans="1:2">
+      <c r="A2214" s="57"/>
+      <c r="B2214" s="57"/>
+    </row>
+    <row r="2216" spans="1:2">
+      <c r="A2216" s="57"/>
+      <c r="B2216" s="57"/>
+    </row>
+    <row r="2220" spans="1:2">
+      <c r="B2220" s="58"/>
     </row>
     <row r="2221" spans="1:2">
       <c r="B2221" s="58"/>
     </row>
     <row r="2222" spans="1:2">
+      <c r="A2222" s="58"/>
       <c r="B2222" s="58"/>
     </row>
-    <row r="2223" spans="1:2">
-      <c r="A2223" s="58"/>
-      <c r="B2223" s="58"/>
+    <row r="2227" spans="2:2">
+      <c r="B2227" s="58"/>
     </row>
     <row r="2228" spans="2:2">
       <c r="B2228" s="58"/>
     </row>
-    <row r="2229" spans="2:2">
-      <c r="B2229" s="58"/>
-    </row>
-    <row r="2235" spans="2:2">
-      <c r="B2235" s="58"/>
-    </row>
-    <row r="2238" spans="2:2">
-      <c r="B2238" s="58"/>
-    </row>
-    <row r="2244" spans="1:2">
-      <c r="B2244" s="58"/>
-    </row>
-    <row r="2247" spans="1:2">
-      <c r="A2247" s="58"/>
-      <c r="B2247" s="58"/>
-    </row>
-    <row r="2257" spans="1:2">
-      <c r="B2257" s="58"/>
-    </row>
-    <row r="2260" spans="1:2">
-      <c r="B2260" s="58"/>
-    </row>
-    <row r="2264" spans="1:2">
-      <c r="A2264" s="58"/>
-      <c r="B2264" s="58"/>
-    </row>
-    <row r="2304" spans="1:1">
+    <row r="2234" spans="2:2">
+      <c r="B2234" s="58"/>
+    </row>
+    <row r="2237" spans="2:2">
+      <c r="B2237" s="58"/>
+    </row>
+    <row r="2243" spans="1:2">
+      <c r="B2243" s="58"/>
+    </row>
+    <row r="2246" spans="1:2">
+      <c r="A2246" s="58"/>
+      <c r="B2246" s="58"/>
+    </row>
+    <row r="2256" spans="1:2">
+      <c r="B2256" s="58"/>
+    </row>
+    <row r="2259" spans="1:2">
+      <c r="B2259" s="58"/>
+    </row>
+    <row r="2263" spans="1:2">
+      <c r="A2263" s="58"/>
+      <c r="B2263" s="58"/>
+    </row>
+    <row r="2303" spans="1:2">
+      <c r="A2303" s="59"/>
+    </row>
+    <row r="2304" spans="1:2">
       <c r="A2304" s="59"/>
+      <c r="B2304" s="59"/>
     </row>
     <row r="2305" spans="1:2">
-      <c r="A2305" s="59"/>
       <c r="B2305" s="59"/>
     </row>
     <row r="2306" spans="1:2">
       <c r="B2306" s="59"/>
     </row>
-    <row r="2307" spans="1:2">
-      <c r="B2307" s="59"/>
-    </row>
-    <row r="2314" spans="1:2">
-      <c r="B2314" s="59"/>
-    </row>
-    <row r="2316" spans="1:2">
-      <c r="A2316" s="59"/>
-      <c r="B2316" s="59"/>
-    </row>
-    <row r="2320" spans="1:2">
-      <c r="B2320" s="59"/>
+    <row r="2313" spans="1:2">
+      <c r="B2313" s="59"/>
+    </row>
+    <row r="2315" spans="1:2">
+      <c r="A2315" s="59"/>
+      <c r="B2315" s="59"/>
+    </row>
+    <row r="2319" spans="1:2">
+      <c r="B2319" s="59"/>
+    </row>
+    <row r="2323" spans="1:2">
+      <c r="A2323" s="59"/>
+      <c r="B2323" s="59"/>
     </row>
     <row r="2324" spans="1:2">
-      <c r="A2324" s="59"/>
       <c r="B2324" s="59"/>
     </row>
     <row r="2325" spans="1:2">
       <c r="B2325" s="59"/>
     </row>
-    <row r="2326" spans="1:2">
-      <c r="B2326" s="59"/>
-    </row>
-    <row r="2331" spans="1:2">
-      <c r="B2331" s="59"/>
-    </row>
-    <row r="2342" spans="1:2">
-      <c r="A2342" s="59"/>
-    </row>
-    <row r="2346" spans="1:2">
-      <c r="B2346" s="59"/>
-    </row>
-    <row r="2350" spans="1:2">
-      <c r="B2350" s="59"/>
+    <row r="2330" spans="1:2">
+      <c r="B2330" s="59"/>
+    </row>
+    <row r="2341" spans="1:2">
+      <c r="A2341" s="59"/>
+    </row>
+    <row r="2345" spans="1:2">
+      <c r="B2345" s="59"/>
+    </row>
+    <row r="2349" spans="1:2">
+      <c r="B2349" s="59"/>
+    </row>
+    <row r="2351" spans="1:2">
+      <c r="A2351" s="60"/>
+      <c r="B2351" s="60"/>
     </row>
     <row r="2352" spans="1:2">
-      <c r="A2352" s="60"/>
-      <c r="B2352" s="60"/>
+      <c r="B2352" s="61"/>
     </row>
     <row r="2353" spans="2:2">
       <c r="B2353" s="61"/>
@@ -10275,8 +10267,8 @@
     <row r="2355" spans="2:2">
       <c r="B2355" s="61"/>
     </row>
-    <row r="2356" spans="2:2">
-      <c r="B2356" s="61"/>
+    <row r="2358" spans="2:2">
+      <c r="B2358" s="61"/>
     </row>
     <row r="2359" spans="2:2">
       <c r="B2359" s="61"/>
@@ -10285,10 +10277,10 @@
       <c r="B2360" s="61"/>
     </row>
     <row r="2361" spans="2:2">
-      <c r="B2361" s="61"/>
+      <c r="B2361" s="62"/>
     </row>
     <row r="2362" spans="2:2">
-      <c r="B2362" s="62"/>
+      <c r="B2362" s="61"/>
     </row>
     <row r="2363" spans="2:2">
       <c r="B2363" s="61"/>
@@ -10302,8 +10294,8 @@
     <row r="2366" spans="2:2">
       <c r="B2366" s="61"/>
     </row>
-    <row r="2367" spans="2:2">
-      <c r="B2367" s="61"/>
+    <row r="2368" spans="2:2">
+      <c r="B2368" s="61"/>
     </row>
     <row r="2369" spans="2:2">
       <c r="B2369" s="61"/>
@@ -10339,7 +10331,7 @@
       <c r="B2379" s="61"/>
     </row>
     <row r="2380" spans="2:2">
-      <c r="B2380" s="61"/>
+      <c r="B2380" s="62"/>
     </row>
     <row r="2381" spans="2:2">
       <c r="B2381" s="62"/>
@@ -10388,16 +10380,13 @@
     </row>
     <row r="2396" spans="2:2">
       <c r="B2396" s="62"/>
-    </row>
-    <row r="2397" spans="2:2">
-      <c r="B2397" s="62"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B250">
     <sortCondition descending="1" ref="B15:B250"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/name/dictionary_flavor.xlsx
+++ b/name/dictionary_flavor.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF72B36-7FFD-45F0-AA1A-9CC4232BD232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8E0361-3D52-435B-AE91-0923FF99922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1230" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1680</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1679</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="746">
   <si>
     <t>Japanese</t>
   </si>
@@ -2189,18 +2189,97 @@
   </si>
   <si>
     <t>Camembert Cheese</t>
+  </si>
+  <si>
+    <t>ほんのり甘い</t>
+  </si>
+  <si>
+    <t>Slightly Sweet</t>
+  </si>
+  <si>
+    <t>しおとスパイス</t>
+  </si>
+  <si>
+    <t>しおとバター</t>
+  </si>
+  <si>
+    <t>Salt And Butter</t>
+  </si>
+  <si>
+    <t>Salt And Spice</t>
+  </si>
+  <si>
+    <t>大豆しお</t>
+  </si>
+  <si>
+    <t>Soybean Salt</t>
+  </si>
+  <si>
+    <t>デコポンミックス</t>
+  </si>
+  <si>
+    <t>Dekopon Mix</t>
+  </si>
+  <si>
+    <t>オホーツクの塩</t>
+  </si>
+  <si>
+    <t>Okhotsk Salt</t>
+  </si>
+  <si>
+    <t>岩塩</t>
+  </si>
+  <si>
+    <t>Rock Salt</t>
+  </si>
+  <si>
+    <t>とちおとめ苺</t>
+  </si>
+  <si>
+    <t>Tochiotome Strawberry</t>
+  </si>
+  <si>
+    <t>宇治の露抹茶薫るようかん</t>
+  </si>
+  <si>
+    <t>Uji Matcha Dew Scented Yokan</t>
+  </si>
+  <si>
+    <t>ストロベリーミックス</t>
+  </si>
+  <si>
+    <t>Strawberry Mix</t>
+  </si>
+  <si>
+    <t>マスカットミックス</t>
+  </si>
+  <si>
+    <t>Muscat Mix</t>
+  </si>
+  <si>
+    <t>グレープフルーツミックス</t>
+  </si>
+  <si>
+    <t>Grapefruits Mix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="102">
+  <fonts count="103">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2957,154 +3036,157 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3150,10 +3232,10 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3163,22 +3245,22 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3200,20 +3282,20 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3238,20 +3320,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3343,10 +3425,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31E880F3-601E-4A23-91BF-5CF49E0AE873}" name="Table1" displayName="Table1" ref="A1:B1680" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:B1680" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1680">
-    <sortCondition descending="1" ref="B5:B1680"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31E880F3-601E-4A23-91BF-5CF49E0AE873}" name="Table1" displayName="Table1" ref="A1:B1679" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:B1679" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1679">
+    <sortCondition descending="1" ref="B5:B1679"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{54EBA6F5-E9BF-4232-BECC-69FB485DBB2B}" name="Japanese" dataDxfId="2"/>
@@ -3615,10 +3697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2396"/>
+  <dimension ref="A1:G2395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A379" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -6729,46 +6811,111 @@
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5">
-      <c r="B385" s="34"/>
+      <c r="A385" t="s">
+        <v>722</v>
+      </c>
+      <c r="B385" s="116" t="s">
+        <v>723</v>
+      </c>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5">
-      <c r="B386" s="34"/>
+      <c r="A386" t="s">
+        <v>724</v>
+      </c>
+      <c r="B386" s="116" t="s">
+        <v>727</v>
+      </c>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5">
-      <c r="B387" s="34"/>
+      <c r="A387" t="s">
+        <v>725</v>
+      </c>
+      <c r="B387" s="116" t="s">
+        <v>726</v>
+      </c>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>728</v>
+      </c>
+      <c r="B388" t="s">
+        <v>729</v>
+      </c>
       <c r="E388" s="3"/>
     </row>
     <row r="389" spans="1:5">
-      <c r="B389" s="7"/>
+      <c r="A389" t="s">
+        <v>730</v>
+      </c>
+      <c r="B389" s="116" t="s">
+        <v>731</v>
+      </c>
       <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
+      <c r="A390" s="116" t="s">
+        <v>732</v>
+      </c>
+      <c r="B390" s="116" t="s">
+        <v>733</v>
+      </c>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>734</v>
+      </c>
+      <c r="B391" t="s">
+        <v>735</v>
+      </c>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5">
+      <c r="A392" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>737</v>
+      </c>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>738</v>
+      </c>
+      <c r="B393" t="s">
+        <v>739</v>
+      </c>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="34"/>
-      <c r="E394" s="3"/>
+      <c r="A394" t="s">
+        <v>740</v>
+      </c>
+      <c r="B394" t="s">
+        <v>741</v>
+      </c>
+      <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>742</v>
+      </c>
+      <c r="B395" t="s">
+        <v>743</v>
+      </c>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>744</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>745</v>
+      </c>
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5">
@@ -6776,14 +6923,13 @@
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5">
-      <c r="B398" s="5"/>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5">
-      <c r="E399" s="2"/>
+      <c r="E399" s="3"/>
     </row>
     <row r="400" spans="1:5">
-      <c r="E400" s="3"/>
+      <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5">
       <c r="E401" s="2"/>
@@ -6795,85 +6941,85 @@
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5">
-      <c r="E404" s="2"/>
+      <c r="B404" s="5"/>
+      <c r="E404" s="3"/>
     </row>
     <row r="405" spans="1:5">
-      <c r="B405" s="5"/>
-      <c r="E405" s="3"/>
+      <c r="E405" s="2"/>
     </row>
     <row r="406" spans="1:5">
-      <c r="E406" s="2"/>
+      <c r="A406" s="10"/>
+      <c r="B406" s="5"/>
+      <c r="E406" s="3"/>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="10"/>
-      <c r="B407" s="5"/>
-      <c r="E407" s="3"/>
+      <c r="E407" s="2"/>
     </row>
     <row r="408" spans="1:5">
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5">
-      <c r="E409" s="2"/>
+      <c r="E409" s="3"/>
     </row>
     <row r="410" spans="1:5">
-      <c r="E410" s="3"/>
+      <c r="B410" s="20"/>
+      <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5">
-      <c r="B411" s="20"/>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5">
-      <c r="E412" s="2"/>
+      <c r="E412" s="3"/>
     </row>
     <row r="413" spans="1:5">
-      <c r="E413" s="3"/>
+      <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5">
-      <c r="E414" s="2"/>
+      <c r="E414" s="3"/>
     </row>
     <row r="415" spans="1:5">
+      <c r="B415" s="34"/>
       <c r="E415" s="3"/>
     </row>
     <row r="416" spans="1:5">
-      <c r="B416" s="34"/>
+      <c r="A416" s="12"/>
       <c r="E416" s="3"/>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="12"/>
       <c r="E417" s="3"/>
     </row>
     <row r="418" spans="1:5">
-      <c r="E418" s="3"/>
+      <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5">
-      <c r="E419" s="2"/>
+      <c r="E419" s="3"/>
     </row>
     <row r="420" spans="1:5">
-      <c r="E420" s="3"/>
+      <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5">
-      <c r="E421" s="2"/>
+      <c r="A421" s="6"/>
+      <c r="B421" s="5"/>
+      <c r="E421" s="3"/>
     </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="6"/>
-      <c r="B422" s="5"/>
+      <c r="A422" s="9"/>
+      <c r="B422" s="9"/>
       <c r="E422" s="3"/>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="9"/>
-      <c r="B423" s="9"/>
-      <c r="E423" s="3"/>
+      <c r="B423" s="7"/>
+      <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="B424" s="7"/>
-      <c r="E424" s="2"/>
+      <c r="B424" s="12"/>
+      <c r="E424" s="3"/>
     </row>
     <row r="425" spans="1:5">
-      <c r="B425" s="12"/>
       <c r="E425" s="3"/>
     </row>
     <row r="426" spans="1:5">
-      <c r="E426" s="3"/>
+      <c r="E426" s="2"/>
     </row>
     <row r="427" spans="1:5">
       <c r="E427" s="2"/>
@@ -6882,27 +7028,27 @@
       <c r="E428" s="2"/>
     </row>
     <row r="429" spans="1:5">
-      <c r="E429" s="2"/>
+      <c r="B429" s="7"/>
+      <c r="E429" s="3"/>
     </row>
     <row r="430" spans="1:5">
-      <c r="B430" s="7"/>
-      <c r="E430" s="3"/>
+      <c r="E430" s="2"/>
     </row>
     <row r="431" spans="1:5">
       <c r="E431" s="2"/>
     </row>
     <row r="432" spans="1:5">
+      <c r="B432" s="12"/>
       <c r="E432" s="2"/>
     </row>
     <row r="433" spans="1:5">
-      <c r="B433" s="12"/>
       <c r="E433" s="2"/>
     </row>
     <row r="434" spans="1:5">
+      <c r="B434" s="34"/>
       <c r="E434" s="2"/>
     </row>
     <row r="435" spans="1:5">
-      <c r="B435" s="34"/>
       <c r="E435" s="2"/>
     </row>
     <row r="436" spans="1:5">
@@ -6915,98 +7061,99 @@
       <c r="E438" s="2"/>
     </row>
     <row r="439" spans="1:5">
-      <c r="E439" s="2"/>
+      <c r="B439" s="34"/>
+      <c r="E439" s="3"/>
     </row>
     <row r="440" spans="1:5">
-      <c r="B440" s="34"/>
-      <c r="E440" s="3"/>
+      <c r="B440" s="7"/>
+      <c r="E440" s="2"/>
     </row>
     <row r="441" spans="1:5">
-      <c r="B441" s="7"/>
+      <c r="B441" s="5"/>
       <c r="E441" s="2"/>
     </row>
     <row r="442" spans="1:5">
-      <c r="B442" s="5"/>
-      <c r="E442" s="2"/>
+      <c r="B442" s="42"/>
+      <c r="E442" s="3"/>
     </row>
     <row r="443" spans="1:5">
-      <c r="B443" s="42"/>
-      <c r="E443" s="3"/>
+      <c r="E443" s="2"/>
     </row>
     <row r="444" spans="1:5">
-      <c r="E444" s="2"/>
+      <c r="E444" s="3"/>
     </row>
     <row r="445" spans="1:5">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
       <c r="E445" s="3"/>
     </row>
     <row r="446" spans="1:5">
-      <c r="A446" s="1"/>
-      <c r="B446" s="1"/>
-      <c r="E446" s="3"/>
+      <c r="B446" s="5"/>
+      <c r="E446" s="2"/>
     </row>
     <row r="447" spans="1:5">
-      <c r="B447" s="5"/>
-      <c r="E447" s="2"/>
+      <c r="E447" s="3"/>
     </row>
     <row r="448" spans="1:5">
       <c r="E448" s="3"/>
     </row>
     <row r="449" spans="1:5">
+      <c r="A449" s="11"/>
+      <c r="B449" s="5"/>
       <c r="E449" s="3"/>
     </row>
     <row r="450" spans="1:5">
-      <c r="A450" s="11"/>
-      <c r="B450" s="5"/>
+      <c r="A450" s="12"/>
       <c r="E450" s="3"/>
     </row>
     <row r="451" spans="1:5">
-      <c r="A451" s="12"/>
-      <c r="E451" s="3"/>
+      <c r="E451" s="2"/>
     </row>
     <row r="452" spans="1:5">
-      <c r="E452" s="2"/>
+      <c r="E452" s="3"/>
     </row>
     <row r="453" spans="1:5">
-      <c r="E453" s="3"/>
+      <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:5">
       <c r="E454" s="2"/>
     </row>
     <row r="455" spans="1:5">
+      <c r="A455" s="10"/>
+      <c r="B455" s="5"/>
       <c r="E455" s="2"/>
     </row>
     <row r="456" spans="1:5">
-      <c r="A456" s="10"/>
-      <c r="B456" s="5"/>
       <c r="E456" s="2"/>
     </row>
     <row r="457" spans="1:5">
       <c r="E457" s="2"/>
     </row>
     <row r="458" spans="1:5">
+      <c r="A458" s="34"/>
+      <c r="B458" s="34"/>
       <c r="E458" s="2"/>
     </row>
     <row r="459" spans="1:5">
-      <c r="A459" s="34"/>
-      <c r="B459" s="34"/>
+      <c r="A459" s="7"/>
+      <c r="B459" s="7"/>
       <c r="E459" s="2"/>
     </row>
     <row r="460" spans="1:5">
-      <c r="A460" s="7"/>
-      <c r="B460" s="7"/>
       <c r="E460" s="2"/>
     </row>
     <row r="461" spans="1:5">
+      <c r="B461" s="7"/>
       <c r="E461" s="2"/>
     </row>
     <row r="462" spans="1:5">
+      <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="E462" s="2"/>
     </row>
     <row r="463" spans="1:5">
-      <c r="A463" s="7"/>
       <c r="B463" s="7"/>
-      <c r="E463" s="2"/>
+      <c r="E463" s="3"/>
     </row>
     <row r="464" spans="1:5">
       <c r="B464" s="7"/>
@@ -7017,73 +7164,74 @@
       <c r="E465" s="3"/>
     </row>
     <row r="466" spans="1:5">
-      <c r="B466" s="7"/>
+      <c r="B466" s="5"/>
       <c r="E466" s="3"/>
     </row>
     <row r="467" spans="1:5">
-      <c r="B467" s="5"/>
       <c r="E467" s="3"/>
     </row>
     <row r="468" spans="1:5">
       <c r="E468" s="3"/>
     </row>
     <row r="469" spans="1:5">
-      <c r="E469" s="3"/>
+      <c r="A469" s="6"/>
+      <c r="B469" s="5"/>
+      <c r="E469" s="2"/>
     </row>
     <row r="470" spans="1:5">
-      <c r="A470" s="6"/>
-      <c r="B470" s="5"/>
+      <c r="A470" s="34"/>
+      <c r="B470" s="34"/>
       <c r="E470" s="2"/>
     </row>
     <row r="471" spans="1:5">
-      <c r="A471" s="34"/>
-      <c r="B471" s="34"/>
       <c r="E471" s="2"/>
     </row>
     <row r="472" spans="1:5">
       <c r="E472" s="2"/>
     </row>
     <row r="473" spans="1:5">
+      <c r="B473" s="7"/>
       <c r="E473" s="2"/>
     </row>
     <row r="474" spans="1:5">
-      <c r="B474" s="7"/>
       <c r="E474" s="2"/>
     </row>
     <row r="475" spans="1:5">
+      <c r="B475" s="12"/>
       <c r="E475" s="2"/>
     </row>
     <row r="476" spans="1:5">
-      <c r="B476" s="12"/>
       <c r="E476" s="2"/>
     </row>
     <row r="477" spans="1:5">
-      <c r="E477" s="2"/>
+      <c r="E477" s="3"/>
     </row>
     <row r="478" spans="1:5">
+      <c r="B478" s="34"/>
       <c r="E478" s="3"/>
     </row>
     <row r="479" spans="1:5">
+      <c r="A479" s="7"/>
       <c r="B479" s="34"/>
-      <c r="E479" s="3"/>
+      <c r="E479" s="2"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="7"/>
       <c r="B480" s="34"/>
-      <c r="E480" s="2"/>
+      <c r="E480" s="3"/>
     </row>
     <row r="481" spans="1:5">
-      <c r="A481" s="7"/>
-      <c r="B481" s="34"/>
       <c r="E481" s="3"/>
     </row>
     <row r="482" spans="1:5">
-      <c r="E482" s="3"/>
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="E482" s="2"/>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="1"/>
-      <c r="B483" s="1"/>
-      <c r="E483" s="2"/>
+      <c r="A483" s="7"/>
+      <c r="B483" s="7"/>
+      <c r="E483" s="3"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="7"/>
@@ -7091,162 +7239,160 @@
       <c r="E484" s="3"/>
     </row>
     <row r="485" spans="1:5">
-      <c r="A485" s="7"/>
-      <c r="B485" s="7"/>
-      <c r="E485" s="3"/>
+      <c r="E485" s="2"/>
     </row>
     <row r="486" spans="1:5">
-      <c r="E486" s="2"/>
+      <c r="E486" s="3"/>
     </row>
     <row r="487" spans="1:5">
-      <c r="E487" s="3"/>
+      <c r="E487" s="2"/>
     </row>
     <row r="488" spans="1:5">
-      <c r="E488" s="2"/>
+      <c r="E488" s="3"/>
     </row>
     <row r="489" spans="1:5">
-      <c r="E489" s="3"/>
+      <c r="A489" s="9"/>
+      <c r="B489" s="9"/>
+      <c r="E489" s="2"/>
     </row>
     <row r="490" spans="1:5">
-      <c r="A490" s="9"/>
-      <c r="B490" s="9"/>
-      <c r="E490" s="2"/>
+      <c r="E490" s="3"/>
     </row>
     <row r="491" spans="1:5">
+      <c r="B491" s="5"/>
       <c r="E491" s="3"/>
     </row>
     <row r="492" spans="1:5">
-      <c r="B492" s="5"/>
-      <c r="E492" s="3"/>
+      <c r="E492" s="2"/>
     </row>
     <row r="493" spans="1:5">
-      <c r="E493" s="2"/>
+      <c r="E493" s="3"/>
     </row>
     <row r="494" spans="1:5">
+      <c r="B494" s="7"/>
       <c r="E494" s="3"/>
     </row>
     <row r="495" spans="1:5">
+      <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="E495" s="3"/>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
-      <c r="E496" s="3"/>
+      <c r="E496" s="2"/>
     </row>
     <row r="497" spans="1:5">
-      <c r="A497" s="7"/>
-      <c r="B497" s="7"/>
+      <c r="A497" s="34"/>
+      <c r="B497" s="34"/>
       <c r="E497" s="2"/>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="34"/>
-      <c r="B498" s="34"/>
       <c r="E498" s="2"/>
     </row>
     <row r="499" spans="1:5">
-      <c r="E499" s="2"/>
+      <c r="E499" s="3"/>
     </row>
     <row r="500" spans="1:5">
-      <c r="E500" s="3"/>
+      <c r="E500" s="2"/>
     </row>
     <row r="501" spans="1:5">
       <c r="E501" s="2"/>
     </row>
     <row r="502" spans="1:5">
-      <c r="E502" s="2"/>
+      <c r="E502" s="3"/>
     </row>
     <row r="503" spans="1:5">
-      <c r="E503" s="3"/>
+      <c r="E503" s="2"/>
     </row>
     <row r="504" spans="1:5">
-      <c r="E504" s="2"/>
+      <c r="E504" s="3"/>
     </row>
     <row r="505" spans="1:5">
-      <c r="E505" s="3"/>
+      <c r="E505" s="2"/>
     </row>
     <row r="506" spans="1:5">
-      <c r="E506" s="2"/>
+      <c r="E506" s="3"/>
     </row>
     <row r="507" spans="1:5">
-      <c r="E507" s="3"/>
+      <c r="E507" s="2"/>
     </row>
     <row r="508" spans="1:5">
+      <c r="A508" s="10"/>
+      <c r="B508" s="41"/>
       <c r="E508" s="2"/>
     </row>
     <row r="509" spans="1:5">
-      <c r="A509" s="10"/>
-      <c r="B509" s="41"/>
-      <c r="E509" s="2"/>
+      <c r="E509" s="3"/>
     </row>
     <row r="510" spans="1:5">
-      <c r="E510" s="3"/>
+      <c r="A510" s="1"/>
+      <c r="B510" s="7"/>
+      <c r="E510" s="2"/>
     </row>
     <row r="511" spans="1:5">
-      <c r="A511" s="1"/>
-      <c r="B511" s="7"/>
+      <c r="A511" s="34"/>
+      <c r="B511" s="34"/>
       <c r="E511" s="2"/>
     </row>
     <row r="512" spans="1:5">
-      <c r="A512" s="34"/>
-      <c r="B512" s="34"/>
       <c r="E512" s="2"/>
     </row>
     <row r="513" spans="1:5">
-      <c r="E513" s="2"/>
+      <c r="B513" s="34"/>
+      <c r="E513" s="3"/>
     </row>
     <row r="514" spans="1:5">
-      <c r="B514" s="34"/>
       <c r="E514" s="3"/>
     </row>
     <row r="515" spans="1:5">
-      <c r="E515" s="3"/>
+      <c r="E515" s="2"/>
     </row>
     <row r="516" spans="1:5">
+      <c r="B516" s="43"/>
       <c r="E516" s="2"/>
     </row>
     <row r="517" spans="1:5">
-      <c r="B517" s="43"/>
       <c r="E517" s="2"/>
     </row>
     <row r="518" spans="1:5">
+      <c r="B518" s="7"/>
       <c r="E518" s="2"/>
     </row>
     <row r="519" spans="1:5">
-      <c r="B519" s="7"/>
-      <c r="E519" s="2"/>
+      <c r="A519" s="12"/>
+      <c r="B519" s="12"/>
+      <c r="E519" s="3"/>
     </row>
     <row r="520" spans="1:5">
-      <c r="A520" s="12"/>
-      <c r="B520" s="12"/>
-      <c r="E520" s="3"/>
+      <c r="E520" s="2"/>
     </row>
     <row r="521" spans="1:5">
       <c r="E521" s="2"/>
     </row>
     <row r="522" spans="1:5">
-      <c r="E522" s="2"/>
+      <c r="E522" s="3"/>
     </row>
     <row r="523" spans="1:5">
+      <c r="B523" s="34"/>
       <c r="E523" s="3"/>
     </row>
     <row r="524" spans="1:5">
-      <c r="B524" s="34"/>
+      <c r="B524" s="5"/>
       <c r="E524" s="3"/>
     </row>
     <row r="525" spans="1:5">
-      <c r="B525" s="5"/>
-      <c r="E525" s="3"/>
+      <c r="B525" s="7"/>
+      <c r="E525" s="2"/>
     </row>
     <row r="526" spans="1:5">
-      <c r="B526" s="7"/>
-      <c r="E526" s="2"/>
+      <c r="E526" s="3"/>
     </row>
     <row r="527" spans="1:5">
       <c r="E527" s="3"/>
     </row>
     <row r="528" spans="1:5">
-      <c r="E528" s="3"/>
+      <c r="E528" s="2"/>
     </row>
     <row r="529" spans="1:5">
       <c r="E529" s="2"/>
@@ -7255,33 +7401,33 @@
       <c r="E530" s="2"/>
     </row>
     <row r="531" spans="1:5">
+      <c r="B531" s="20"/>
       <c r="E531" s="2"/>
     </row>
     <row r="532" spans="1:5">
-      <c r="B532" s="20"/>
+      <c r="A532" s="10"/>
+      <c r="B532" s="5"/>
       <c r="E532" s="2"/>
     </row>
     <row r="533" spans="1:5">
-      <c r="A533" s="10"/>
-      <c r="B533" s="5"/>
       <c r="E533" s="2"/>
     </row>
     <row r="534" spans="1:5">
-      <c r="E534" s="2"/>
+      <c r="E534" s="3"/>
     </row>
     <row r="535" spans="1:5">
+      <c r="A535" s="10"/>
+      <c r="B535" s="5"/>
       <c r="E535" s="3"/>
     </row>
     <row r="536" spans="1:5">
-      <c r="A536" s="10"/>
-      <c r="B536" s="5"/>
-      <c r="E536" s="3"/>
+      <c r="E536" s="2"/>
     </row>
     <row r="537" spans="1:5">
+      <c r="B537" s="7"/>
       <c r="E537" s="2"/>
     </row>
     <row r="538" spans="1:5">
-      <c r="B538" s="7"/>
       <c r="E538" s="2"/>
     </row>
     <row r="539" spans="1:5">
@@ -7297,42 +7443,43 @@
       <c r="E542" s="2"/>
     </row>
     <row r="543" spans="1:5">
-      <c r="E543" s="2"/>
+      <c r="B543" s="12"/>
+      <c r="E543" s="3"/>
     </row>
     <row r="544" spans="1:5">
-      <c r="B544" s="12"/>
-      <c r="E544" s="3"/>
+      <c r="E544" s="2"/>
     </row>
     <row r="545" spans="1:5">
       <c r="E545" s="2"/>
     </row>
     <row r="546" spans="1:5">
+      <c r="B546" s="27"/>
       <c r="E546" s="2"/>
     </row>
     <row r="547" spans="1:5">
-      <c r="B547" s="27"/>
-      <c r="E547" s="2"/>
+      <c r="E547" s="3"/>
     </row>
     <row r="548" spans="1:5">
-      <c r="E548" s="3"/>
+      <c r="E548" s="2"/>
     </row>
     <row r="549" spans="1:5">
-      <c r="E549" s="2"/>
+      <c r="E549" s="3"/>
     </row>
     <row r="550" spans="1:5">
-      <c r="E550" s="3"/>
+      <c r="B550" s="35"/>
+      <c r="E550" s="2"/>
     </row>
     <row r="551" spans="1:5">
-      <c r="B551" s="35"/>
       <c r="E551" s="2"/>
     </row>
     <row r="552" spans="1:5">
       <c r="E552" s="2"/>
     </row>
     <row r="553" spans="1:5">
-      <c r="E553" s="2"/>
+      <c r="B553" s="7"/>
     </row>
     <row r="554" spans="1:5">
+      <c r="A554" s="7"/>
       <c r="B554" s="7"/>
     </row>
     <row r="555" spans="1:5">
@@ -7340,55 +7487,54 @@
       <c r="B555" s="7"/>
     </row>
     <row r="556" spans="1:5">
-      <c r="A556" s="7"/>
-      <c r="B556" s="7"/>
+      <c r="A556" s="10"/>
+      <c r="B556" s="5"/>
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="10"/>
-      <c r="B557" s="5"/>
-    </row>
-    <row r="558" spans="1:5">
-      <c r="A558" s="10"/>
-      <c r="B558" s="35"/>
+      <c r="B557" s="35"/>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="B562" s="7"/>
     </row>
     <row r="563" spans="1:3">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="1:3">
-      <c r="B564" s="7"/>
+    <row r="568" spans="1:3">
+      <c r="B568" s="7"/>
     </row>
     <row r="569" spans="1:3">
-      <c r="B569" s="7"/>
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
     </row>
     <row r="570" spans="1:3">
-      <c r="A570" s="1"/>
-      <c r="B570" s="1"/>
+      <c r="C570" s="3"/>
     </row>
     <row r="571" spans="1:3">
-      <c r="C571" s="3"/>
+      <c r="A571" s="34"/>
+      <c r="B571" s="34"/>
+      <c r="C571" s="2"/>
     </row>
     <row r="572" spans="1:3">
-      <c r="A572" s="34"/>
-      <c r="B572" s="34"/>
-      <c r="C572" s="2"/>
+      <c r="C572" s="3"/>
     </row>
     <row r="573" spans="1:3">
-      <c r="C573" s="3"/>
+      <c r="C573" s="2"/>
     </row>
     <row r="574" spans="1:3">
       <c r="C574" s="2"/>
     </row>
     <row r="575" spans="1:3">
-      <c r="C575" s="2"/>
+      <c r="C575" s="3"/>
     </row>
     <row r="576" spans="1:3">
-      <c r="C576" s="3"/>
+      <c r="C576" s="2"/>
     </row>
     <row r="577" spans="1:3">
+      <c r="A577" s="34"/>
       <c r="C577" s="2"/>
     </row>
     <row r="578" spans="1:3">
-      <c r="A578" s="34"/>
       <c r="C578" s="2"/>
     </row>
     <row r="579" spans="1:3">
@@ -7398,41 +7544,42 @@
       <c r="C580" s="2"/>
     </row>
     <row r="581" spans="1:3">
-      <c r="C581" s="2"/>
+      <c r="C581" s="3"/>
     </row>
     <row r="582" spans="1:3">
-      <c r="C582" s="3"/>
+      <c r="C582" s="2"/>
     </row>
     <row r="583" spans="1:3">
+      <c r="A583" s="34"/>
+      <c r="B583" s="34"/>
       <c r="C583" s="2"/>
     </row>
     <row r="584" spans="1:3">
-      <c r="A584" s="34"/>
-      <c r="B584" s="34"/>
       <c r="C584" s="2"/>
     </row>
     <row r="585" spans="1:3">
-      <c r="C585" s="2"/>
+      <c r="A585" s="1"/>
+      <c r="B585" s="1"/>
     </row>
     <row r="586" spans="1:3">
-      <c r="A586" s="1"/>
-      <c r="B586" s="1"/>
+      <c r="C586" s="3"/>
     </row>
     <row r="587" spans="1:3">
-      <c r="C587" s="3"/>
+      <c r="B587" s="7"/>
+      <c r="C587" s="2"/>
     </row>
     <row r="588" spans="1:3">
       <c r="B588" s="7"/>
-      <c r="C588" s="2"/>
+      <c r="C588" s="3"/>
     </row>
     <row r="589" spans="1:3">
-      <c r="B589" s="7"/>
-      <c r="C589" s="3"/>
+      <c r="C589" s="2"/>
     </row>
     <row r="590" spans="1:3">
-      <c r="C590" s="2"/>
+      <c r="C590" s="3"/>
     </row>
     <row r="591" spans="1:3">
+      <c r="B591" s="34"/>
       <c r="C591" s="3"/>
     </row>
     <row r="592" spans="1:3">
@@ -7440,76 +7587,75 @@
       <c r="C592" s="3"/>
     </row>
     <row r="593" spans="1:3">
-      <c r="B593" s="34"/>
       <c r="C593" s="3"/>
     </row>
     <row r="594" spans="1:3">
-      <c r="C594" s="3"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="2"/>
     </row>
     <row r="595" spans="1:3">
-      <c r="B595" s="20"/>
       <c r="C595" s="2"/>
     </row>
     <row r="596" spans="1:3">
-      <c r="C596" s="2"/>
+      <c r="C596" s="3"/>
     </row>
     <row r="597" spans="1:3">
+      <c r="A597" s="34"/>
+      <c r="B597" s="34"/>
       <c r="C597" s="3"/>
     </row>
     <row r="598" spans="1:3">
-      <c r="A598" s="34"/>
-      <c r="B598" s="34"/>
       <c r="C598" s="3"/>
     </row>
     <row r="599" spans="1:3">
-      <c r="C599" s="3"/>
+      <c r="C599" s="2"/>
     </row>
     <row r="600" spans="1:3">
+      <c r="A600" s="55"/>
       <c r="C600" s="2"/>
     </row>
     <row r="601" spans="1:3">
-      <c r="A601" s="55"/>
-      <c r="C601" s="2"/>
+      <c r="B601" s="7"/>
+      <c r="C601" s="3"/>
     </row>
     <row r="602" spans="1:3">
+      <c r="A602" s="7"/>
       <c r="B602" s="7"/>
       <c r="C602" s="3"/>
     </row>
     <row r="603" spans="1:3">
-      <c r="A603" s="7"/>
-      <c r="B603" s="7"/>
       <c r="C603" s="3"/>
     </row>
     <row r="604" spans="1:3">
+      <c r="B604" s="5"/>
       <c r="C604" s="3"/>
     </row>
     <row r="605" spans="1:3">
-      <c r="B605" s="5"/>
       <c r="C605" s="3"/>
     </row>
     <row r="606" spans="1:3">
+      <c r="B606" s="7"/>
       <c r="C606" s="3"/>
     </row>
     <row r="607" spans="1:3">
-      <c r="B607" s="7"/>
       <c r="C607" s="3"/>
     </row>
     <row r="608" spans="1:3">
       <c r="C608" s="3"/>
     </row>
     <row r="609" spans="1:3">
+      <c r="B609" s="5"/>
       <c r="C609" s="3"/>
     </row>
     <row r="610" spans="1:3">
-      <c r="B610" s="5"/>
-      <c r="C610" s="3"/>
+      <c r="C610" s="2"/>
     </row>
     <row r="611" spans="1:3">
+      <c r="B611" s="7"/>
       <c r="C611" s="2"/>
     </row>
     <row r="612" spans="1:3">
-      <c r="B612" s="7"/>
-      <c r="C612" s="2"/>
+      <c r="C612" s="3"/>
     </row>
     <row r="613" spans="1:3">
       <c r="C613" s="3"/>
@@ -7518,58 +7664,58 @@
       <c r="C614" s="3"/>
     </row>
     <row r="615" spans="1:3">
-      <c r="C615" s="3"/>
+      <c r="A615" s="5"/>
+      <c r="B615" s="5"/>
+      <c r="C615" s="2"/>
     </row>
     <row r="616" spans="1:3">
-      <c r="A616" s="5"/>
-      <c r="B616" s="5"/>
       <c r="C616" s="2"/>
     </row>
     <row r="617" spans="1:3">
-      <c r="C617" s="2"/>
+      <c r="C617" s="3"/>
     </row>
     <row r="618" spans="1:3">
+      <c r="A618" s="4"/>
+      <c r="B618" s="4"/>
       <c r="C618" s="3"/>
     </row>
     <row r="619" spans="1:3">
-      <c r="A619" s="4"/>
-      <c r="B619" s="4"/>
-      <c r="C619" s="3"/>
+      <c r="A619" s="10"/>
+      <c r="B619" s="5"/>
+      <c r="C619" s="2"/>
     </row>
     <row r="620" spans="1:3">
-      <c r="A620" s="10"/>
-      <c r="B620" s="5"/>
-      <c r="C620" s="2"/>
+      <c r="B620" s="20"/>
+      <c r="C620" s="3"/>
     </row>
     <row r="621" spans="1:3">
-      <c r="B621" s="20"/>
-      <c r="C621" s="3"/>
+      <c r="C621" s="2"/>
     </row>
     <row r="622" spans="1:3">
       <c r="C622" s="2"/>
     </row>
     <row r="623" spans="1:3">
-      <c r="C623" s="2"/>
+      <c r="C623" s="3"/>
     </row>
     <row r="624" spans="1:3">
-      <c r="C624" s="3"/>
+      <c r="B624" s="7"/>
+      <c r="C624" s="2"/>
     </row>
     <row r="625" spans="1:3">
-      <c r="B625" s="7"/>
       <c r="C625" s="2"/>
     </row>
     <row r="626" spans="1:3">
-      <c r="C626" s="2"/>
+      <c r="B626" s="7"/>
+      <c r="C626" s="3"/>
     </row>
     <row r="627" spans="1:3">
-      <c r="B627" s="7"/>
       <c r="C627" s="3"/>
     </row>
     <row r="628" spans="1:3">
-      <c r="C628" s="3"/>
+      <c r="C628" s="2"/>
     </row>
     <row r="629" spans="1:3">
-      <c r="C629" s="2"/>
+      <c r="C629" s="3"/>
     </row>
     <row r="630" spans="1:3">
       <c r="C630" s="3"/>
@@ -7581,109 +7727,109 @@
       <c r="C632" s="3"/>
     </row>
     <row r="633" spans="1:3">
-      <c r="C633" s="3"/>
+      <c r="B633" s="7"/>
+      <c r="C633" s="2"/>
     </row>
     <row r="634" spans="1:3">
-      <c r="B634" s="7"/>
-      <c r="C634" s="2"/>
+      <c r="C634" s="3"/>
     </row>
     <row r="635" spans="1:3">
-      <c r="C635" s="3"/>
+      <c r="C635" s="2"/>
     </row>
     <row r="636" spans="1:3">
       <c r="C636" s="2"/>
     </row>
     <row r="637" spans="1:3">
-      <c r="C637" s="2"/>
+      <c r="B637" s="7"/>
+      <c r="C637" s="3"/>
     </row>
     <row r="638" spans="1:3">
-      <c r="B638" s="7"/>
       <c r="C638" s="3"/>
     </row>
     <row r="639" spans="1:3">
+      <c r="A639" s="34"/>
+      <c r="B639" s="34"/>
       <c r="C639" s="3"/>
     </row>
     <row r="640" spans="1:3">
-      <c r="A640" s="34"/>
-      <c r="B640" s="34"/>
       <c r="C640" s="3"/>
     </row>
     <row r="641" spans="1:3">
-      <c r="C641" s="3"/>
+      <c r="C641" s="2"/>
     </row>
     <row r="642" spans="1:3">
-      <c r="C642" s="2"/>
+      <c r="C642" s="3"/>
     </row>
     <row r="643" spans="1:3">
-      <c r="C643" s="3"/>
+      <c r="C643" s="2"/>
     </row>
     <row r="644" spans="1:3">
-      <c r="C644" s="2"/>
+      <c r="C644" s="3"/>
     </row>
     <row r="645" spans="1:3">
-      <c r="C645" s="3"/>
+      <c r="A645" s="34"/>
+      <c r="B645" s="34"/>
+      <c r="C645" s="2"/>
     </row>
     <row r="646" spans="1:3">
-      <c r="A646" s="34"/>
-      <c r="B646" s="34"/>
-      <c r="C646" s="2"/>
+      <c r="C646" s="3"/>
     </row>
     <row r="647" spans="1:3">
+      <c r="B647" s="7"/>
       <c r="C647" s="3"/>
     </row>
     <row r="648" spans="1:3">
-      <c r="B648" s="7"/>
-      <c r="C648" s="3"/>
+      <c r="C648" s="2"/>
     </row>
     <row r="649" spans="1:3">
       <c r="C649" s="2"/>
     </row>
     <row r="650" spans="1:3">
-      <c r="C650" s="2"/>
+      <c r="C650" s="3"/>
     </row>
     <row r="651" spans="1:3">
       <c r="C651" s="3"/>
     </row>
     <row r="652" spans="1:3">
-      <c r="C652" s="3"/>
+      <c r="A652" s="7"/>
+      <c r="B652" s="7"/>
+      <c r="C652" s="2"/>
     </row>
     <row r="653" spans="1:3">
-      <c r="A653" s="7"/>
-      <c r="B653" s="7"/>
       <c r="C653" s="2"/>
     </row>
     <row r="654" spans="1:3">
+      <c r="B654" s="7"/>
       <c r="C654" s="2"/>
     </row>
     <row r="655" spans="1:3">
-      <c r="B655" s="7"/>
+      <c r="B655" s="5"/>
       <c r="C655" s="2"/>
     </row>
     <row r="656" spans="1:3">
-      <c r="B656" s="5"/>
-      <c r="C656" s="2"/>
+      <c r="C656" s="3"/>
     </row>
     <row r="657" spans="1:3">
+      <c r="A657" s="7"/>
+      <c r="B657" s="7"/>
       <c r="C657" s="3"/>
     </row>
     <row r="658" spans="1:3">
-      <c r="A658" s="7"/>
-      <c r="B658" s="7"/>
-      <c r="C658" s="3"/>
+      <c r="B658" s="34"/>
+      <c r="C658" s="2"/>
     </row>
     <row r="659" spans="1:3">
-      <c r="B659" s="34"/>
       <c r="C659" s="2"/>
     </row>
     <row r="660" spans="1:3">
+      <c r="B660" s="34"/>
       <c r="C660" s="2"/>
     </row>
     <row r="661" spans="1:3">
-      <c r="B661" s="34"/>
-      <c r="C661" s="2"/>
+      <c r="C661" s="3"/>
     </row>
     <row r="662" spans="1:3">
-      <c r="C662" s="3"/>
+      <c r="C662" s="2"/>
     </row>
     <row r="663" spans="1:3">
       <c r="C663" s="2"/>
@@ -7692,23 +7838,23 @@
       <c r="C664" s="2"/>
     </row>
     <row r="665" spans="1:3">
+      <c r="A665" s="5"/>
+      <c r="B665" s="5"/>
       <c r="C665" s="2"/>
     </row>
     <row r="666" spans="1:3">
-      <c r="A666" s="5"/>
-      <c r="B666" s="5"/>
-      <c r="C666" s="2"/>
+      <c r="A666" s="7"/>
+      <c r="B666" s="7"/>
+      <c r="C666" s="3"/>
     </row>
     <row r="667" spans="1:3">
-      <c r="A667" s="7"/>
-      <c r="B667" s="7"/>
-      <c r="C667" s="3"/>
+      <c r="C667" s="2"/>
     </row>
     <row r="668" spans="1:3">
-      <c r="C668" s="2"/>
+      <c r="B668" s="5"/>
+      <c r="C668" s="3"/>
     </row>
     <row r="669" spans="1:3">
-      <c r="B669" s="5"/>
       <c r="C669" s="3"/>
     </row>
     <row r="670" spans="1:3">
@@ -7718,31 +7864,31 @@
       <c r="C671" s="3"/>
     </row>
     <row r="672" spans="1:3">
-      <c r="C672" s="3"/>
+      <c r="C672" s="2"/>
     </row>
     <row r="673" spans="1:3">
-      <c r="C673" s="2"/>
+      <c r="A673" s="10"/>
+      <c r="B673" s="34"/>
+      <c r="C673" s="3"/>
     </row>
     <row r="674" spans="1:3">
-      <c r="A674" s="10"/>
-      <c r="B674" s="34"/>
       <c r="C674" s="3"/>
     </row>
     <row r="675" spans="1:3">
+      <c r="A675" s="7"/>
+      <c r="B675" s="7"/>
       <c r="C675" s="3"/>
     </row>
     <row r="676" spans="1:3">
-      <c r="A676" s="7"/>
+      <c r="A676" s="1"/>
       <c r="B676" s="7"/>
       <c r="C676" s="3"/>
     </row>
     <row r="677" spans="1:3">
-      <c r="A677" s="1"/>
-      <c r="B677" s="7"/>
       <c r="C677" s="3"/>
     </row>
     <row r="678" spans="1:3">
-      <c r="C678" s="3"/>
+      <c r="C678" s="2"/>
     </row>
     <row r="679" spans="1:3">
       <c r="C679" s="2"/>
@@ -7754,66 +7900,66 @@
       <c r="C681" s="2"/>
     </row>
     <row r="682" spans="1:3">
+      <c r="B682" s="7"/>
       <c r="C682" s="2"/>
     </row>
     <row r="683" spans="1:3">
-      <c r="B683" s="7"/>
-      <c r="C683" s="2"/>
+      <c r="C683" s="3"/>
     </row>
     <row r="684" spans="1:3">
-      <c r="C684" s="3"/>
+      <c r="B684" s="7"/>
+      <c r="C684" s="2"/>
     </row>
     <row r="685" spans="1:3">
-      <c r="B685" s="7"/>
       <c r="C685" s="2"/>
     </row>
     <row r="686" spans="1:3">
+      <c r="A686" s="10"/>
+      <c r="B686" s="5"/>
       <c r="C686" s="2"/>
     </row>
     <row r="687" spans="1:3">
-      <c r="A687" s="10"/>
-      <c r="B687" s="5"/>
-      <c r="C687" s="2"/>
+      <c r="C687" s="3"/>
     </row>
     <row r="688" spans="1:3">
-      <c r="C688" s="3"/>
+      <c r="B688" s="7"/>
+      <c r="C688" s="2"/>
     </row>
     <row r="689" spans="1:3">
-      <c r="B689" s="7"/>
       <c r="C689" s="2"/>
     </row>
     <row r="690" spans="1:3">
-      <c r="C690" s="2"/>
+      <c r="C690" s="3"/>
     </row>
     <row r="691" spans="1:3">
       <c r="C691" s="3"/>
     </row>
     <row r="692" spans="1:3">
-      <c r="C692" s="3"/>
+      <c r="A692" s="1"/>
+      <c r="B692" s="1"/>
+      <c r="C692" s="2"/>
     </row>
     <row r="693" spans="1:3">
-      <c r="A693" s="1"/>
-      <c r="B693" s="1"/>
       <c r="C693" s="2"/>
     </row>
     <row r="694" spans="1:3">
-      <c r="C694" s="2"/>
+      <c r="B694" s="7"/>
+      <c r="C694" s="3"/>
     </row>
     <row r="695" spans="1:3">
-      <c r="B695" s="7"/>
       <c r="C695" s="3"/>
     </row>
     <row r="696" spans="1:3">
+      <c r="B696" s="35"/>
       <c r="C696" s="3"/>
     </row>
     <row r="697" spans="1:3">
+      <c r="A697" s="34"/>
       <c r="B697" s="35"/>
       <c r="C697" s="3"/>
     </row>
     <row r="698" spans="1:3">
-      <c r="A698" s="34"/>
-      <c r="B698" s="35"/>
-      <c r="C698" s="3"/>
+      <c r="C698" s="2"/>
     </row>
     <row r="699" spans="1:3">
       <c r="C699" s="2"/>
@@ -7822,179 +7968,179 @@
       <c r="C700" s="2"/>
     </row>
     <row r="701" spans="1:3">
+      <c r="B701" s="7"/>
       <c r="C701" s="2"/>
     </row>
     <row r="702" spans="1:3">
-      <c r="B702" s="7"/>
-      <c r="C702" s="2"/>
+      <c r="A702" s="12"/>
+      <c r="C702" s="3"/>
     </row>
     <row r="703" spans="1:3">
-      <c r="A703" s="12"/>
-      <c r="C703" s="3"/>
+      <c r="C703" s="2"/>
     </row>
     <row r="704" spans="1:3">
       <c r="C704" s="2"/>
     </row>
     <row r="705" spans="1:3">
+      <c r="A705" s="34"/>
+      <c r="B705" s="34"/>
       <c r="C705" s="2"/>
     </row>
     <row r="706" spans="1:3">
-      <c r="A706" s="34"/>
-      <c r="B706" s="34"/>
       <c r="C706" s="2"/>
     </row>
     <row r="707" spans="1:3">
+      <c r="B707" s="34"/>
       <c r="C707" s="2"/>
     </row>
     <row r="708" spans="1:3">
-      <c r="B708" s="34"/>
-      <c r="C708" s="2"/>
+      <c r="B708" s="7"/>
+      <c r="C708" s="3"/>
     </row>
     <row r="709" spans="1:3">
-      <c r="B709" s="7"/>
-      <c r="C709" s="3"/>
+      <c r="B709" s="34"/>
+      <c r="C709" s="2"/>
     </row>
     <row r="710" spans="1:3">
       <c r="B710" s="34"/>
       <c r="C710" s="2"/>
     </row>
     <row r="711" spans="1:3">
-      <c r="B711" s="34"/>
       <c r="C711" s="2"/>
     </row>
     <row r="712" spans="1:3">
       <c r="C712" s="2"/>
     </row>
     <row r="713" spans="1:3">
-      <c r="C713" s="2"/>
+      <c r="C713" s="3"/>
     </row>
     <row r="714" spans="1:3">
-      <c r="C714" s="3"/>
+      <c r="C714" s="2"/>
     </row>
     <row r="715" spans="1:3">
       <c r="C715" s="2"/>
     </row>
     <row r="716" spans="1:3">
+      <c r="A716" s="34"/>
       <c r="C716" s="2"/>
     </row>
-    <row r="717" spans="1:3">
-      <c r="A717" s="34"/>
-      <c r="C717" s="2"/>
-    </row>
-    <row r="730" spans="2:2">
-      <c r="B730" s="34"/>
-    </row>
-    <row r="735" spans="2:2">
-      <c r="B735" s="7"/>
+    <row r="729" spans="2:2">
+      <c r="B729" s="34"/>
+    </row>
+    <row r="734" spans="2:2">
+      <c r="B734" s="7"/>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="B737" s="7"/>
     </row>
     <row r="738" spans="1:2">
-      <c r="B738" s="7"/>
-    </row>
-    <row r="739" spans="1:2">
-      <c r="A739" s="5"/>
-      <c r="B739" s="5"/>
+      <c r="A738" s="5"/>
+      <c r="B738" s="5"/>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="B740" s="7"/>
     </row>
     <row r="741" spans="1:2">
+      <c r="A741" s="6"/>
       <c r="B741" s="7"/>
     </row>
     <row r="742" spans="1:2">
-      <c r="A742" s="6"/>
-      <c r="B742" s="7"/>
+      <c r="A742" s="34"/>
+      <c r="B742" s="34"/>
     </row>
     <row r="743" spans="1:2">
-      <c r="A743" s="34"/>
-      <c r="B743" s="34"/>
+      <c r="A743" s="12"/>
+      <c r="B743" s="12"/>
     </row>
     <row r="744" spans="1:2">
-      <c r="A744" s="12"/>
-      <c r="B744" s="12"/>
+      <c r="A744" s="34"/>
+      <c r="B744" s="34"/>
     </row>
     <row r="745" spans="1:2">
-      <c r="A745" s="34"/>
       <c r="B745" s="34"/>
     </row>
     <row r="746" spans="1:2">
-      <c r="B746" s="34"/>
+      <c r="A746" s="12"/>
+      <c r="B746" s="20"/>
     </row>
     <row r="747" spans="1:2">
-      <c r="A747" s="12"/>
-      <c r="B747" s="20"/>
+      <c r="A747" s="34"/>
+      <c r="B747" s="34"/>
     </row>
     <row r="748" spans="1:2">
-      <c r="A748" s="34"/>
-      <c r="B748" s="34"/>
+      <c r="B748" s="44"/>
     </row>
     <row r="749" spans="1:2">
-      <c r="B749" s="44"/>
+      <c r="B749" s="12"/>
     </row>
     <row r="750" spans="1:2">
-      <c r="B750" s="12"/>
+      <c r="A750" s="12"/>
+      <c r="B750" s="34"/>
     </row>
     <row r="751" spans="1:2">
-      <c r="A751" s="12"/>
       <c r="B751" s="34"/>
     </row>
     <row r="752" spans="1:2">
       <c r="B752" s="34"/>
     </row>
     <row r="753" spans="1:2">
+      <c r="A753" s="55"/>
       <c r="B753" s="34"/>
     </row>
     <row r="754" spans="1:2">
-      <c r="A754" s="55"/>
       <c r="B754" s="34"/>
     </row>
     <row r="755" spans="1:2">
-      <c r="B755" s="34"/>
-    </row>
-    <row r="756" spans="1:2">
-      <c r="A756" s="8"/>
-      <c r="B756" s="20"/>
-    </row>
-    <row r="758" spans="1:2">
-      <c r="B758" s="13"/>
+      <c r="A755" s="8"/>
+      <c r="B755" s="20"/>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="B757" s="13"/>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="B759" s="34"/>
     </row>
     <row r="760" spans="1:2">
       <c r="B760" s="34"/>
     </row>
     <row r="761" spans="1:2">
-      <c r="B761" s="34"/>
-    </row>
-    <row r="762" spans="1:2">
-      <c r="B762" s="13"/>
+      <c r="B761" s="13"/>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="B763" s="13"/>
     </row>
     <row r="764" spans="1:2">
-      <c r="B764" s="13"/>
-    </row>
-    <row r="765" spans="1:2">
-      <c r="B765" s="34"/>
+      <c r="B764" s="34"/>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="B766" s="13"/>
     </row>
     <row r="767" spans="1:2">
       <c r="B767" s="13"/>
     </row>
     <row r="768" spans="1:2">
-      <c r="B768" s="13"/>
+      <c r="B768" s="34"/>
     </row>
     <row r="769" spans="1:2">
-      <c r="B769" s="34"/>
+      <c r="B769" s="13"/>
     </row>
     <row r="770" spans="1:2">
       <c r="B770" s="13"/>
     </row>
-    <row r="771" spans="1:2">
-      <c r="B771" s="13"/>
+    <row r="772" spans="1:2">
+      <c r="B772" s="13"/>
     </row>
     <row r="773" spans="1:2">
       <c r="B773" s="13"/>
     </row>
-    <row r="774" spans="1:2">
-      <c r="B774" s="13"/>
+    <row r="775" spans="1:2">
+      <c r="B775" s="34"/>
     </row>
     <row r="776" spans="1:2">
       <c r="B776" s="34"/>
     </row>
     <row r="777" spans="1:2">
-      <c r="B777" s="34"/>
+      <c r="B777" s="13"/>
     </row>
     <row r="778" spans="1:2">
       <c r="B778" s="13"/>
@@ -8009,11 +8155,11 @@
       <c r="B781" s="13"/>
     </row>
     <row r="782" spans="1:2">
+      <c r="A782" s="13"/>
       <c r="B782" s="13"/>
     </row>
-    <row r="783" spans="1:2">
-      <c r="A783" s="13"/>
-      <c r="B783" s="13"/>
+    <row r="784" spans="1:2">
+      <c r="B784" s="13"/>
     </row>
     <row r="785" spans="1:2">
       <c r="B785" s="13"/>
@@ -8022,29 +8168,29 @@
       <c r="B786" s="13"/>
     </row>
     <row r="787" spans="1:2">
+      <c r="A787" s="13"/>
       <c r="B787" s="13"/>
     </row>
     <row r="788" spans="1:2">
-      <c r="A788" s="13"/>
       <c r="B788" s="13"/>
     </row>
     <row r="789" spans="1:2">
-      <c r="B789" s="13"/>
+      <c r="B789" s="34"/>
     </row>
     <row r="790" spans="1:2">
-      <c r="B790" s="34"/>
+      <c r="B790" s="13"/>
     </row>
     <row r="791" spans="1:2">
       <c r="B791" s="13"/>
     </row>
-    <row r="792" spans="1:2">
-      <c r="B792" s="13"/>
+    <row r="793" spans="1:2">
+      <c r="B793" s="34"/>
     </row>
     <row r="794" spans="1:2">
       <c r="B794" s="34"/>
     </row>
     <row r="795" spans="1:2">
-      <c r="B795" s="34"/>
+      <c r="B795" s="13"/>
     </row>
     <row r="796" spans="1:2">
       <c r="B796" s="13"/>
@@ -8062,76 +8208,77 @@
       <c r="B800" s="13"/>
     </row>
     <row r="801" spans="1:3">
-      <c r="B801" s="13"/>
+      <c r="B801" s="20"/>
     </row>
     <row r="802" spans="1:3">
-      <c r="B802" s="20"/>
+      <c r="B802" s="34"/>
     </row>
     <row r="803" spans="1:3">
-      <c r="B803" s="34"/>
+      <c r="B803" s="13"/>
     </row>
     <row r="804" spans="1:3">
-      <c r="B804" s="13"/>
+      <c r="B804" s="20"/>
     </row>
     <row r="805" spans="1:3">
-      <c r="B805" s="20"/>
-    </row>
-    <row r="806" spans="1:3">
-      <c r="B806" s="34"/>
+      <c r="B805" s="34"/>
+    </row>
+    <row r="807" spans="1:3">
+      <c r="B807" s="13"/>
     </row>
     <row r="808" spans="1:3">
-      <c r="B808" s="13"/>
+      <c r="B808" s="34"/>
     </row>
     <row r="809" spans="1:3">
-      <c r="B809" s="34"/>
+      <c r="B809" s="13"/>
     </row>
     <row r="810" spans="1:3">
       <c r="B810" s="13"/>
     </row>
-    <row r="811" spans="1:3">
-      <c r="B811" s="13"/>
-    </row>
-    <row r="813" spans="1:3">
-      <c r="B813" s="14"/>
+    <row r="812" spans="1:3">
+      <c r="B812" s="14"/>
+    </row>
+    <row r="814" spans="1:3">
+      <c r="A814" s="14"/>
+      <c r="B814" s="14"/>
     </row>
     <row r="815" spans="1:3">
-      <c r="A815" s="14"/>
-      <c r="B815" s="14"/>
+      <c r="C815" s="2"/>
     </row>
     <row r="816" spans="1:3">
       <c r="C816" s="2"/>
     </row>
     <row r="817" spans="1:3">
+      <c r="B817" s="14"/>
       <c r="C817" s="2"/>
     </row>
     <row r="818" spans="1:3">
       <c r="B818" s="14"/>
-      <c r="C818" s="2"/>
+      <c r="C818" s="3"/>
     </row>
     <row r="819" spans="1:3">
-      <c r="B819" s="14"/>
+      <c r="A819" s="34"/>
+      <c r="B819" s="34"/>
       <c r="C819" s="3"/>
     </row>
     <row r="820" spans="1:3">
-      <c r="A820" s="34"/>
-      <c r="B820" s="34"/>
+      <c r="B820" s="20"/>
       <c r="C820" s="3"/>
     </row>
     <row r="821" spans="1:3">
-      <c r="B821" s="20"/>
-      <c r="C821" s="3"/>
+      <c r="C821" s="2"/>
     </row>
     <row r="822" spans="1:3">
       <c r="C822" s="2"/>
     </row>
     <row r="823" spans="1:3">
-      <c r="C823" s="2"/>
+      <c r="B823" s="14"/>
+      <c r="C823" s="3"/>
     </row>
     <row r="824" spans="1:3">
-      <c r="B824" s="14"/>
       <c r="C824" s="3"/>
     </row>
     <row r="825" spans="1:3">
+      <c r="B825" s="34"/>
       <c r="C825" s="3"/>
     </row>
     <row r="826" spans="1:3">
@@ -8143,23 +8290,22 @@
       <c r="C827" s="3"/>
     </row>
     <row r="828" spans="1:3">
-      <c r="B828" s="34"/>
       <c r="C828" s="3"/>
     </row>
     <row r="829" spans="1:3">
-      <c r="C829" s="3"/>
+      <c r="C829" s="2"/>
     </row>
     <row r="830" spans="1:3">
-      <c r="C830" s="2"/>
+      <c r="C830" s="3"/>
     </row>
     <row r="831" spans="1:3">
       <c r="C831" s="3"/>
     </row>
     <row r="832" spans="1:3">
-      <c r="C832" s="3"/>
+      <c r="C832" s="2"/>
     </row>
     <row r="833" spans="3:3">
-      <c r="C833" s="2"/>
+      <c r="C833" s="3"/>
     </row>
     <row r="834" spans="3:3">
       <c r="C834" s="3"/>
@@ -8171,7 +8317,7 @@
       <c r="C836" s="3"/>
     </row>
     <row r="837" spans="3:3">
-      <c r="C837" s="3"/>
+      <c r="C837" s="2"/>
     </row>
     <row r="838" spans="3:3">
       <c r="C838" s="2"/>
@@ -8180,13 +8326,13 @@
       <c r="C839" s="2"/>
     </row>
     <row r="840" spans="3:3">
-      <c r="C840" s="2"/>
+      <c r="C840" s="3"/>
     </row>
     <row r="841" spans="3:3">
-      <c r="C841" s="3"/>
+      <c r="C841" s="2"/>
     </row>
     <row r="842" spans="3:3">
-      <c r="C842" s="2"/>
+      <c r="C842" s="3"/>
     </row>
     <row r="843" spans="3:3">
       <c r="C843" s="3"/>
@@ -8195,13 +8341,13 @@
       <c r="C844" s="3"/>
     </row>
     <row r="845" spans="3:3">
-      <c r="C845" s="3"/>
+      <c r="C845" s="2"/>
     </row>
     <row r="846" spans="3:3">
       <c r="C846" s="2"/>
     </row>
     <row r="847" spans="3:3">
-      <c r="C847" s="2"/>
+      <c r="C847" s="3"/>
     </row>
     <row r="848" spans="3:3">
       <c r="C848" s="3"/>
@@ -8222,19 +8368,19 @@
       <c r="C853" s="3"/>
     </row>
     <row r="854" spans="1:3">
-      <c r="C854" s="3"/>
+      <c r="C854" s="2"/>
     </row>
     <row r="855" spans="1:3">
-      <c r="C855" s="2"/>
+      <c r="C855" s="3"/>
     </row>
     <row r="856" spans="1:3">
-      <c r="C856" s="3"/>
+      <c r="C856" s="2"/>
     </row>
     <row r="857" spans="1:3">
+      <c r="A857" s="55"/>
       <c r="C857" s="2"/>
     </row>
     <row r="858" spans="1:3">
-      <c r="A858" s="55"/>
       <c r="C858" s="2"/>
     </row>
     <row r="859" spans="1:3">
@@ -8247,65 +8393,65 @@
       <c r="C861" s="2"/>
     </row>
     <row r="862" spans="1:3">
-      <c r="C862" s="2"/>
+      <c r="C862" s="3"/>
     </row>
     <row r="863" spans="1:3">
-      <c r="C863" s="3"/>
+      <c r="C863" s="2"/>
     </row>
     <row r="864" spans="1:3">
-      <c r="C864" s="2"/>
+      <c r="C864" s="3"/>
     </row>
     <row r="865" spans="1:3">
-      <c r="C865" s="3"/>
+      <c r="C865" s="2"/>
     </row>
     <row r="866" spans="1:3">
       <c r="C866" s="2"/>
     </row>
     <row r="867" spans="1:3">
-      <c r="C867" s="2"/>
+      <c r="C867" s="3"/>
     </row>
     <row r="868" spans="1:3">
-      <c r="C868" s="3"/>
+      <c r="B868" s="15"/>
+      <c r="C868" s="2"/>
     </row>
     <row r="869" spans="1:3">
+      <c r="A869" s="15"/>
       <c r="B869" s="15"/>
-      <c r="C869" s="2"/>
+      <c r="C869" s="3"/>
     </row>
     <row r="870" spans="1:3">
-      <c r="A870" s="15"/>
       <c r="B870" s="15"/>
-      <c r="C870" s="3"/>
+      <c r="C870" s="2"/>
     </row>
     <row r="871" spans="1:3">
       <c r="B871" s="15"/>
       <c r="C871" s="2"/>
     </row>
     <row r="872" spans="1:3">
-      <c r="B872" s="15"/>
       <c r="C872" s="2"/>
     </row>
     <row r="873" spans="1:3">
-      <c r="C873" s="2"/>
+      <c r="C873" s="3"/>
     </row>
     <row r="874" spans="1:3">
-      <c r="C874" s="3"/>
+      <c r="A874" s="15"/>
+      <c r="C874" s="2"/>
     </row>
     <row r="875" spans="1:3">
-      <c r="A875" s="15"/>
-      <c r="C875" s="2"/>
+      <c r="C875" s="3"/>
     </row>
     <row r="876" spans="1:3">
-      <c r="C876" s="3"/>
+      <c r="B876" s="15"/>
+      <c r="C876" s="2"/>
     </row>
     <row r="877" spans="1:3">
-      <c r="B877" s="15"/>
       <c r="C877" s="2"/>
     </row>
     <row r="878" spans="1:3">
-      <c r="C878" s="2"/>
+      <c r="C878" s="3"/>
     </row>
     <row r="879" spans="1:3">
-      <c r="C879" s="3"/>
+      <c r="C879" s="2"/>
     </row>
     <row r="880" spans="1:3">
       <c r="C880" s="2"/>
@@ -8314,132 +8460,133 @@
       <c r="C881" s="2"/>
     </row>
     <row r="882" spans="1:3">
-      <c r="C882" s="2"/>
+      <c r="C882" s="3"/>
     </row>
     <row r="883" spans="1:3">
-      <c r="C883" s="3"/>
+      <c r="C883" s="2"/>
     </row>
     <row r="884" spans="1:3">
-      <c r="C884" s="2"/>
+      <c r="C884" s="3"/>
     </row>
     <row r="885" spans="1:3">
+      <c r="B885" s="35"/>
       <c r="C885" s="3"/>
     </row>
     <row r="886" spans="1:3">
+      <c r="A886" s="15"/>
       <c r="B886" s="35"/>
-      <c r="C886" s="3"/>
-    </row>
-    <row r="887" spans="1:3">
-      <c r="A887" s="15"/>
-      <c r="B887" s="35"/>
-    </row>
-    <row r="891" spans="1:3">
-      <c r="B891" s="34"/>
+    </row>
+    <row r="890" spans="1:3">
+      <c r="B890" s="34"/>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="B893" s="34"/>
     </row>
     <row r="894" spans="1:3">
+      <c r="A894" s="34"/>
       <c r="B894" s="34"/>
     </row>
     <row r="895" spans="1:3">
-      <c r="A895" s="34"/>
-      <c r="B895" s="34"/>
+      <c r="B895" s="15"/>
     </row>
     <row r="896" spans="1:3">
       <c r="B896" s="15"/>
     </row>
     <row r="897" spans="1:2">
-      <c r="B897" s="15"/>
-    </row>
-    <row r="898" spans="1:2">
-      <c r="B898" s="37"/>
+      <c r="B897" s="37"/>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="B901" s="45"/>
     </row>
     <row r="902" spans="1:2">
-      <c r="B902" s="45"/>
-    </row>
-    <row r="903" spans="1:2">
-      <c r="A903" s="18"/>
-      <c r="B903" s="18"/>
-    </row>
-    <row r="906" spans="1:2">
-      <c r="B906" s="34"/>
+      <c r="A902" s="18"/>
+      <c r="B902" s="18"/>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="B905" s="34"/>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="8"/>
+      <c r="B912" s="16"/>
     </row>
     <row r="913" spans="1:2">
-      <c r="A913" s="8"/>
       <c r="B913" s="16"/>
     </row>
     <row r="914" spans="1:2">
-      <c r="B914" s="16"/>
+      <c r="A914" s="16"/>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" s="16"/>
-    </row>
-    <row r="916" spans="1:2">
-      <c r="A916" s="16"/>
-      <c r="B916" s="16"/>
+      <c r="B915" s="16"/>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="55"/>
     </row>
     <row r="919" spans="1:2">
-      <c r="A919" s="55"/>
+      <c r="B919" s="34"/>
     </row>
     <row r="920" spans="1:2">
       <c r="B920" s="34"/>
     </row>
-    <row r="921" spans="1:2">
-      <c r="B921" s="34"/>
+    <row r="925" spans="1:2">
+      <c r="A925" s="16"/>
+      <c r="B925" s="16"/>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" s="16"/>
       <c r="B926" s="16"/>
     </row>
-    <row r="927" spans="1:2">
-      <c r="A927" s="16"/>
-      <c r="B927" s="16"/>
-    </row>
-    <row r="931" spans="1:2">
-      <c r="B931" s="16"/>
-    </row>
-    <row r="934" spans="1:2">
-      <c r="A934" s="34"/>
-      <c r="B934" s="34"/>
-    </row>
-    <row r="941" spans="1:2">
-      <c r="A941" s="17"/>
-      <c r="B941" s="17"/>
-    </row>
-    <row r="945" spans="1:2">
-      <c r="B945" s="17"/>
-    </row>
-    <row r="948" spans="1:2">
-      <c r="A948" s="18"/>
-    </row>
-    <row r="952" spans="1:2">
-      <c r="A952" s="18"/>
-      <c r="B952" s="18"/>
+    <row r="930" spans="1:2">
+      <c r="B930" s="16"/>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="34"/>
+      <c r="B933" s="34"/>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="17"/>
+      <c r="B940" s="17"/>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="B944" s="17"/>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="18"/>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="18"/>
+      <c r="B951" s="18"/>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="18"/>
     </row>
     <row r="960" spans="1:2">
-      <c r="A960" s="18"/>
+      <c r="B960" s="19"/>
     </row>
     <row r="961" spans="1:2">
+      <c r="A961" s="19"/>
       <c r="B961" s="19"/>
     </row>
-    <row r="962" spans="1:2">
-      <c r="A962" s="19"/>
-      <c r="B962" s="19"/>
+    <row r="963" spans="1:2">
+      <c r="B963" s="34"/>
     </row>
     <row r="964" spans="1:2">
-      <c r="B964" s="34"/>
+      <c r="B964" s="19"/>
     </row>
     <row r="965" spans="1:2">
-      <c r="B965" s="19"/>
-    </row>
-    <row r="966" spans="1:2">
-      <c r="A966" s="34"/>
-      <c r="B966" s="34"/>
+      <c r="A965" s="34"/>
+      <c r="B965" s="34"/>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="8"/>
+      <c r="B969" s="19"/>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" s="8"/>
       <c r="B970" s="19"/>
     </row>
     <row r="971" spans="1:2">
-      <c r="A971" s="8"/>
+      <c r="A971" s="19"/>
       <c r="B971" s="19"/>
     </row>
     <row r="972" spans="1:2">
@@ -8447,105 +8594,104 @@
       <c r="B972" s="19"/>
     </row>
     <row r="973" spans="1:2">
-      <c r="A973" s="19"/>
-      <c r="B973" s="19"/>
-    </row>
-    <row r="974" spans="1:2">
-      <c r="B974" s="34"/>
-    </row>
-    <row r="987" spans="1:2">
-      <c r="A987" s="19"/>
-      <c r="B987" s="19"/>
+      <c r="B973" s="34"/>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="19"/>
+      <c r="B986" s="19"/>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="B992" s="34"/>
     </row>
     <row r="993" spans="1:2">
+      <c r="A993" s="19"/>
       <c r="B993" s="34"/>
     </row>
-    <row r="994" spans="1:2">
-      <c r="A994" s="19"/>
-      <c r="B994" s="34"/>
-    </row>
-    <row r="996" spans="1:2">
-      <c r="B996" s="19"/>
-    </row>
-    <row r="1000" spans="1:2">
-      <c r="A1000" s="19"/>
-      <c r="B1000" s="20"/>
-    </row>
-    <row r="1013" spans="1:2">
-      <c r="A1013" s="20"/>
-    </row>
-    <row r="1024" spans="1:2">
-      <c r="B1024" s="19"/>
-    </row>
-    <row r="1026" spans="1:2">
-      <c r="A1026" s="34"/>
-      <c r="B1026" s="34"/>
-    </row>
-    <row r="1028" spans="1:2">
-      <c r="B1028" s="34"/>
+    <row r="995" spans="1:2">
+      <c r="B995" s="19"/>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" s="19"/>
+      <c r="B999" s="20"/>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="20"/>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="B1023" s="19"/>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" s="34"/>
+      <c r="B1025" s="34"/>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="B1027" s="34"/>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="A1029" s="20"/>
     </row>
     <row r="1030" spans="1:2">
-      <c r="A1030" s="20"/>
+      <c r="B1030" s="35"/>
     </row>
     <row r="1031" spans="1:2">
-      <c r="B1031" s="35"/>
+      <c r="A1031" s="34"/>
     </row>
     <row r="1032" spans="1:2">
-      <c r="A1032" s="34"/>
-    </row>
-    <row r="1033" spans="1:2">
-      <c r="B1033" s="35"/>
+      <c r="B1032" s="35"/>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" s="20"/>
+      <c r="B1034" s="35"/>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" s="20"/>
-      <c r="B1035" s="35"/>
+      <c r="B1035" s="20"/>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" s="20"/>
       <c r="B1036" s="20"/>
     </row>
     <row r="1037" spans="1:2">
-      <c r="A1037" s="20"/>
-      <c r="B1037" s="20"/>
+      <c r="A1037" s="34"/>
+      <c r="B1037" s="34"/>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" s="34"/>
       <c r="B1038" s="34"/>
     </row>
     <row r="1039" spans="1:2">
-      <c r="A1039" s="34"/>
+      <c r="A1039" s="20"/>
       <c r="B1039" s="34"/>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" s="20"/>
-      <c r="B1040" s="34"/>
     </row>
     <row r="1041" spans="1:2">
-      <c r="A1041" s="20"/>
-    </row>
-    <row r="1042" spans="1:2">
-      <c r="B1042" s="34"/>
-    </row>
-    <row r="1045" spans="1:2">
-      <c r="A1045" s="34"/>
-    </row>
-    <row r="1047" spans="1:2">
-      <c r="B1047" s="34"/>
-    </row>
-    <row r="1049" spans="1:2">
-      <c r="A1049" s="20"/>
-      <c r="B1049" s="20"/>
+      <c r="B1041" s="34"/>
+    </row>
+    <row r="1044" spans="1:2">
+      <c r="A1044" s="34"/>
+    </row>
+    <row r="1046" spans="1:2">
+      <c r="B1046" s="34"/>
+    </row>
+    <row r="1048" spans="1:2">
+      <c r="A1048" s="20"/>
+      <c r="B1048" s="20"/>
+    </row>
+    <row r="1051" spans="1:2">
+      <c r="A1051" s="20"/>
+      <c r="B1051" s="20"/>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" s="20"/>
-      <c r="B1052" s="20"/>
-    </row>
-    <row r="1053" spans="1:2">
-      <c r="A1053" s="20"/>
-    </row>
-    <row r="1055" spans="1:2">
-      <c r="A1055" s="20"/>
-      <c r="B1055" s="20"/>
+    </row>
+    <row r="1054" spans="1:2">
+      <c r="A1054" s="20"/>
+      <c r="B1054" s="20"/>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="B1056" s="20"/>
     </row>
     <row r="1057" spans="2:2">
       <c r="B1057" s="20"/>
@@ -8553,313 +8699,314 @@
     <row r="1058" spans="2:2">
       <c r="B1058" s="20"/>
     </row>
-    <row r="1059" spans="2:2">
-      <c r="B1059" s="20"/>
-    </row>
-    <row r="1061" spans="2:2">
-      <c r="B1061" s="34"/>
+    <row r="1060" spans="2:2">
+      <c r="B1060" s="34"/>
+    </row>
+    <row r="1063" spans="2:2">
+      <c r="B1063" s="34"/>
     </row>
     <row r="1064" spans="2:2">
       <c r="B1064" s="34"/>
     </row>
     <row r="1065" spans="2:2">
-      <c r="B1065" s="34"/>
-    </row>
-    <row r="1066" spans="2:2">
-      <c r="B1066" s="20"/>
-    </row>
-    <row r="1068" spans="2:2">
-      <c r="B1068" s="20"/>
+      <c r="B1065" s="20"/>
+    </row>
+    <row r="1067" spans="2:2">
+      <c r="B1067" s="20"/>
+    </row>
+    <row r="1070" spans="2:2">
+      <c r="B1070" s="20"/>
     </row>
     <row r="1071" spans="2:2">
       <c r="B1071" s="20"/>
     </row>
-    <row r="1072" spans="2:2">
-      <c r="B1072" s="20"/>
+    <row r="1078" spans="1:2">
+      <c r="A1078" s="55"/>
+      <c r="B1078" s="34"/>
     </row>
     <row r="1079" spans="1:2">
-      <c r="A1079" s="55"/>
-      <c r="B1079" s="34"/>
+      <c r="B1079" s="20"/>
     </row>
     <row r="1080" spans="1:2">
       <c r="B1080" s="20"/>
     </row>
-    <row r="1081" spans="1:2">
-      <c r="B1081" s="20"/>
-    </row>
-    <row r="1085" spans="1:2">
-      <c r="B1085" s="34"/>
+    <row r="1084" spans="1:2">
+      <c r="B1084" s="34"/>
+    </row>
+    <row r="1088" spans="1:2">
+      <c r="B1088" s="21"/>
     </row>
     <row r="1089" spans="1:2">
-      <c r="B1089" s="21"/>
-    </row>
-    <row r="1090" spans="1:2">
-      <c r="A1090" s="21"/>
+      <c r="A1089" s="21"/>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="A1098" s="22"/>
+      <c r="B1098" s="34"/>
     </row>
     <row r="1099" spans="1:2">
-      <c r="A1099" s="22"/>
-      <c r="B1099" s="34"/>
+      <c r="B1099" s="22"/>
     </row>
     <row r="1100" spans="1:2">
+      <c r="A1100" s="22"/>
       <c r="B1100" s="22"/>
     </row>
     <row r="1101" spans="1:2">
-      <c r="A1101" s="22"/>
       <c r="B1101" s="22"/>
     </row>
     <row r="1102" spans="1:2">
-      <c r="B1102" s="22"/>
-    </row>
-    <row r="1103" spans="1:2">
-      <c r="B1103" s="34"/>
-    </row>
-    <row r="1105" spans="1:2">
-      <c r="A1105" s="22"/>
-      <c r="B1105" s="34"/>
-    </row>
-    <row r="1108" spans="1:2">
-      <c r="B1108" s="22"/>
-    </row>
-    <row r="1110" spans="1:2">
-      <c r="B1110" s="22"/>
-    </row>
-    <row r="1115" spans="1:2">
-      <c r="A1115" s="34"/>
-    </row>
-    <row r="1117" spans="1:2">
-      <c r="A1117" s="34"/>
-      <c r="B1117" s="34"/>
+      <c r="B1102" s="34"/>
+    </row>
+    <row r="1104" spans="1:2">
+      <c r="A1104" s="22"/>
+      <c r="B1104" s="34"/>
+    </row>
+    <row r="1107" spans="1:2">
+      <c r="B1107" s="22"/>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="B1109" s="22"/>
+    </row>
+    <row r="1114" spans="1:2">
+      <c r="A1114" s="34"/>
+    </row>
+    <row r="1116" spans="1:2">
+      <c r="A1116" s="34"/>
+      <c r="B1116" s="34"/>
+    </row>
+    <row r="1118" spans="1:2">
+      <c r="A1118" s="22"/>
     </row>
     <row r="1119" spans="1:2">
-      <c r="A1119" s="22"/>
-    </row>
-    <row r="1120" spans="1:2">
-      <c r="B1120" s="34"/>
+      <c r="B1119" s="34"/>
+    </row>
+    <row r="1121" spans="1:2">
+      <c r="A1121" s="34"/>
     </row>
     <row r="1122" spans="1:2">
-      <c r="A1122" s="34"/>
+      <c r="B1122" s="22"/>
     </row>
     <row r="1123" spans="1:2">
-      <c r="B1123" s="22"/>
-    </row>
-    <row r="1124" spans="1:2">
-      <c r="B1124" s="34"/>
-    </row>
-    <row r="1128" spans="1:2">
-      <c r="A1128" s="34"/>
-      <c r="B1128" s="35"/>
-    </row>
-    <row r="1130" spans="1:2">
-      <c r="A1130" s="34"/>
-      <c r="B1130" s="35"/>
+      <c r="B1123" s="34"/>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="34"/>
+      <c r="B1127" s="35"/>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="34"/>
+      <c r="B1129" s="35"/>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="A1131" s="22"/>
+      <c r="B1131" s="22"/>
     </row>
     <row r="1132" spans="1:2">
-      <c r="A1132" s="22"/>
       <c r="B1132" s="22"/>
     </row>
     <row r="1133" spans="1:2">
-      <c r="B1133" s="22"/>
+      <c r="A1133" s="22"/>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" s="22"/>
     </row>
     <row r="1135" spans="1:2">
-      <c r="A1135" s="22"/>
-    </row>
-    <row r="1136" spans="1:2">
-      <c r="B1136" s="34"/>
-    </row>
-    <row r="1140" spans="1:2">
-      <c r="A1140" s="34"/>
-      <c r="B1140" s="34"/>
+      <c r="B1135" s="34"/>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="A1139" s="34"/>
+      <c r="B1139" s="34"/>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="B1141" s="22"/>
     </row>
     <row r="1142" spans="1:2">
+      <c r="A1142" s="22"/>
       <c r="B1142" s="22"/>
     </row>
-    <row r="1143" spans="1:2">
-      <c r="A1143" s="22"/>
-      <c r="B1143" s="22"/>
+    <row r="1144" spans="1:2">
+      <c r="B1144" s="22"/>
     </row>
     <row r="1145" spans="1:2">
       <c r="B1145" s="22"/>
     </row>
-    <row r="1146" spans="1:2">
-      <c r="B1146" s="22"/>
+    <row r="1147" spans="1:2">
+      <c r="B1147" s="22"/>
     </row>
     <row r="1148" spans="1:2">
-      <c r="B1148" s="22"/>
+      <c r="B1148" s="34"/>
     </row>
     <row r="1149" spans="1:2">
-      <c r="B1149" s="34"/>
+      <c r="A1149" s="22"/>
+      <c r="B1149" s="22"/>
     </row>
     <row r="1150" spans="1:2">
-      <c r="A1150" s="22"/>
-      <c r="B1150" s="22"/>
+      <c r="B1150" s="34"/>
     </row>
     <row r="1151" spans="1:2">
       <c r="B1151" s="34"/>
     </row>
-    <row r="1152" spans="1:2">
-      <c r="B1152" s="34"/>
-    </row>
-    <row r="1157" spans="1:2">
-      <c r="A1157" s="34"/>
-    </row>
-    <row r="1160" spans="1:2">
-      <c r="B1160" s="22"/>
+    <row r="1156" spans="1:2">
+      <c r="A1156" s="34"/>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="B1159" s="22"/>
+    </row>
+    <row r="1161" spans="1:2">
+      <c r="B1161" s="22"/>
     </row>
     <row r="1162" spans="1:2">
       <c r="B1162" s="22"/>
     </row>
     <row r="1163" spans="1:2">
-      <c r="B1163" s="22"/>
+      <c r="B1163" s="35"/>
     </row>
     <row r="1164" spans="1:2">
-      <c r="B1164" s="35"/>
-    </row>
-    <row r="1165" spans="1:2">
-      <c r="A1165" s="22"/>
+      <c r="A1164" s="22"/>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" s="34"/>
+      <c r="B1168" s="34"/>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" s="34"/>
       <c r="B1169" s="34"/>
     </row>
-    <row r="1170" spans="1:2">
-      <c r="A1170" s="34"/>
-      <c r="B1170" s="34"/>
+    <row r="1171" spans="1:2">
+      <c r="A1171" s="22"/>
+      <c r="B1171" s="34"/>
     </row>
     <row r="1172" spans="1:2">
-      <c r="A1172" s="22"/>
-      <c r="B1172" s="34"/>
-    </row>
-    <row r="1173" spans="1:2">
-      <c r="B1173" s="22"/>
-    </row>
-    <row r="1183" spans="1:2">
-      <c r="B1183" s="23"/>
-    </row>
-    <row r="1186" spans="1:2">
-      <c r="B1186" s="23"/>
-    </row>
-    <row r="1196" spans="1:2">
-      <c r="B1196" s="23"/>
+      <c r="B1172" s="22"/>
+    </row>
+    <row r="1182" spans="1:2">
+      <c r="B1182" s="23"/>
+    </row>
+    <row r="1185" spans="1:2">
+      <c r="B1185" s="23"/>
+    </row>
+    <row r="1195" spans="1:2">
+      <c r="B1195" s="23"/>
+    </row>
+    <row r="1198" spans="1:2">
+      <c r="A1198" s="23"/>
+      <c r="B1198" s="39"/>
     </row>
     <row r="1199" spans="1:2">
-      <c r="A1199" s="23"/>
-      <c r="B1199" s="39"/>
+      <c r="B1199" s="34"/>
     </row>
     <row r="1200" spans="1:2">
+      <c r="A1200" s="34"/>
       <c r="B1200" s="34"/>
     </row>
-    <row r="1201" spans="1:2">
-      <c r="A1201" s="34"/>
-      <c r="B1201" s="34"/>
-    </row>
-    <row r="1203" spans="1:2">
-      <c r="A1203" s="34"/>
-      <c r="B1203" s="34"/>
-    </row>
-    <row r="1211" spans="1:2">
-      <c r="B1211" s="23"/>
-    </row>
-    <row r="1213" spans="1:2">
-      <c r="B1213" s="23"/>
+    <row r="1202" spans="1:2">
+      <c r="A1202" s="34"/>
+      <c r="B1202" s="34"/>
+    </row>
+    <row r="1210" spans="1:2">
+      <c r="B1210" s="23"/>
+    </row>
+    <row r="1212" spans="1:2">
+      <c r="B1212" s="23"/>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="B1214" s="23"/>
     </row>
     <row r="1215" spans="1:2">
+      <c r="A1215" s="23"/>
       <c r="B1215" s="23"/>
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="23"/>
       <c r="B1216" s="23"/>
     </row>
-    <row r="1217" spans="1:2">
-      <c r="A1217" s="23"/>
-      <c r="B1217" s="23"/>
+    <row r="1218" spans="1:2">
+      <c r="A1218" s="23"/>
+      <c r="B1218" s="23"/>
     </row>
     <row r="1219" spans="1:2">
-      <c r="A1219" s="23"/>
+      <c r="A1219" s="8"/>
       <c r="B1219" s="23"/>
     </row>
     <row r="1220" spans="1:2">
-      <c r="A1220" s="8"/>
-      <c r="B1220" s="23"/>
-    </row>
-    <row r="1221" spans="1:2">
-      <c r="A1221" s="23"/>
+      <c r="A1220" s="23"/>
+    </row>
+    <row r="1222" spans="1:2">
+      <c r="B1222" s="23"/>
     </row>
     <row r="1223" spans="1:2">
-      <c r="B1223" s="23"/>
-    </row>
-    <row r="1224" spans="1:2">
-      <c r="B1224" s="34"/>
-    </row>
-    <row r="1229" spans="1:2">
-      <c r="B1229" s="23"/>
-    </row>
-    <row r="1233" spans="1:2">
-      <c r="B1233" s="34"/>
-    </row>
-    <row r="1235" spans="1:2">
-      <c r="B1235" s="23"/>
-    </row>
-    <row r="1239" spans="1:2">
-      <c r="B1239" s="34"/>
-    </row>
-    <row r="1241" spans="1:2">
-      <c r="B1241" s="34"/>
+      <c r="B1223" s="34"/>
+    </row>
+    <row r="1228" spans="1:2">
+      <c r="B1228" s="23"/>
+    </row>
+    <row r="1232" spans="1:2">
+      <c r="B1232" s="34"/>
+    </row>
+    <row r="1234" spans="1:2">
+      <c r="B1234" s="23"/>
+    </row>
+    <row r="1238" spans="1:2">
+      <c r="B1238" s="34"/>
+    </row>
+    <row r="1240" spans="1:2">
+      <c r="B1240" s="34"/>
+    </row>
+    <row r="1242" spans="1:2">
+      <c r="B1242" s="34"/>
     </row>
     <row r="1243" spans="1:2">
+      <c r="A1243" s="34"/>
       <c r="B1243" s="34"/>
     </row>
-    <row r="1244" spans="1:2">
-      <c r="A1244" s="34"/>
-      <c r="B1244" s="34"/>
-    </row>
-    <row r="1247" spans="1:2">
-      <c r="B1247" s="34"/>
-    </row>
-    <row r="1250" spans="1:2">
-      <c r="B1250" s="23"/>
+    <row r="1246" spans="1:2">
+      <c r="B1246" s="34"/>
+    </row>
+    <row r="1249" spans="1:2">
+      <c r="B1249" s="23"/>
+    </row>
+    <row r="1252" spans="1:2">
+      <c r="B1252" s="23"/>
     </row>
     <row r="1253" spans="1:2">
       <c r="B1253" s="23"/>
     </row>
     <row r="1254" spans="1:2">
+      <c r="A1254" s="23"/>
       <c r="B1254" s="23"/>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="23"/>
-      <c r="B1255" s="23"/>
+      <c r="B1255" s="34"/>
     </row>
     <row r="1256" spans="1:2">
-      <c r="A1256" s="23"/>
       <c r="B1256" s="34"/>
     </row>
     <row r="1257" spans="1:2">
-      <c r="B1257" s="34"/>
+      <c r="B1257" s="23"/>
     </row>
     <row r="1258" spans="1:2">
       <c r="B1258" s="23"/>
     </row>
     <row r="1259" spans="1:2">
-      <c r="B1259" s="23"/>
-    </row>
-    <row r="1260" spans="1:2">
-      <c r="B1260" s="34"/>
+      <c r="B1259" s="34"/>
+    </row>
+    <row r="1262" spans="1:2">
+      <c r="B1262" s="34"/>
     </row>
     <row r="1263" spans="1:2">
       <c r="B1263" s="34"/>
     </row>
-    <row r="1264" spans="1:2">
-      <c r="B1264" s="34"/>
-    </row>
-    <row r="1266" spans="1:2">
-      <c r="A1266" s="8"/>
+    <row r="1265" spans="1:2">
+      <c r="A1265" s="8"/>
+    </row>
+    <row r="1267" spans="1:2">
+      <c r="B1267" s="35"/>
     </row>
     <row r="1268" spans="1:2">
-      <c r="B1268" s="35"/>
+      <c r="B1268" s="34"/>
     </row>
     <row r="1269" spans="1:2">
+      <c r="A1269" s="34"/>
       <c r="B1269" s="34"/>
     </row>
     <row r="1270" spans="1:2">
@@ -8867,33 +9014,32 @@
       <c r="B1270" s="34"/>
     </row>
     <row r="1271" spans="1:2">
-      <c r="A1271" s="34"/>
-      <c r="B1271" s="34"/>
+      <c r="A1271" s="23"/>
+      <c r="B1271" s="23"/>
     </row>
     <row r="1272" spans="1:2">
-      <c r="A1272" s="23"/>
       <c r="B1272" s="23"/>
     </row>
     <row r="1273" spans="1:2">
-      <c r="B1273" s="23"/>
-    </row>
-    <row r="1274" spans="1:2">
-      <c r="B1274" s="34"/>
+      <c r="B1273" s="34"/>
+    </row>
+    <row r="1276" spans="1:2">
+      <c r="A1276" s="23"/>
+      <c r="B1276" s="25"/>
     </row>
     <row r="1277" spans="1:2">
-      <c r="A1277" s="23"/>
       <c r="B1277" s="25"/>
     </row>
     <row r="1278" spans="1:2">
-      <c r="B1278" s="25"/>
+      <c r="A1278" s="24"/>
+      <c r="B1278" s="34"/>
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" s="24"/>
-      <c r="B1279" s="34"/>
-    </row>
-    <row r="1280" spans="1:2">
-      <c r="A1280" s="24"/>
-      <c r="B1280" s="24"/>
+      <c r="B1279" s="24"/>
+    </row>
+    <row r="1281" spans="1:2">
+      <c r="B1281" s="24"/>
     </row>
     <row r="1282" spans="1:2">
       <c r="B1282" s="24"/>
@@ -8911,28 +9057,29 @@
       <c r="B1286" s="24"/>
     </row>
     <row r="1287" spans="1:2">
+      <c r="A1287" s="24"/>
       <c r="B1287" s="24"/>
     </row>
-    <row r="1288" spans="1:2">
-      <c r="A1288" s="24"/>
-      <c r="B1288" s="24"/>
+    <row r="1289" spans="1:2">
+      <c r="A1289" s="24"/>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="24"/>
+      <c r="B1290" s="24"/>
     </row>
     <row r="1291" spans="1:2">
-      <c r="A1291" s="24"/>
-      <c r="B1291" s="24"/>
+      <c r="A1291" s="8"/>
+      <c r="B1291" s="46"/>
     </row>
     <row r="1292" spans="1:2">
-      <c r="A1292" s="8"/>
-      <c r="B1292" s="46"/>
+      <c r="B1292" s="35"/>
     </row>
     <row r="1293" spans="1:2">
-      <c r="B1293" s="35"/>
+      <c r="B1293" s="34"/>
     </row>
     <row r="1294" spans="1:2">
-      <c r="B1294" s="34"/>
+      <c r="A1294" s="25"/>
+      <c r="B1294" s="25"/>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="25"/>
@@ -8943,17 +9090,16 @@
       <c r="B1296" s="25"/>
     </row>
     <row r="1297" spans="1:2">
-      <c r="A1297" s="25"/>
       <c r="B1297" s="25"/>
     </row>
     <row r="1298" spans="1:2">
       <c r="B1298" s="25"/>
     </row>
     <row r="1299" spans="1:2">
+      <c r="A1299" s="25"/>
       <c r="B1299" s="25"/>
     </row>
     <row r="1300" spans="1:2">
-      <c r="A1300" s="25"/>
       <c r="B1300" s="25"/>
     </row>
     <row r="1301" spans="1:2">
@@ -8993,13 +9139,13 @@
       <c r="B1312" s="25"/>
     </row>
     <row r="1313" spans="1:2">
-      <c r="B1313" s="25"/>
+      <c r="B1313" s="34"/>
     </row>
     <row r="1314" spans="1:2">
-      <c r="B1314" s="34"/>
+      <c r="A1314" s="25"/>
+      <c r="B1314" s="25"/>
     </row>
     <row r="1315" spans="1:2">
-      <c r="A1315" s="25"/>
       <c r="B1315" s="25"/>
     </row>
     <row r="1316" spans="1:2">
@@ -9011,11 +9157,11 @@
     <row r="1318" spans="1:2">
       <c r="B1318" s="25"/>
     </row>
-    <row r="1319" spans="1:2">
-      <c r="B1319" s="25"/>
+    <row r="1320" spans="1:2">
+      <c r="A1320" s="25"/>
+      <c r="B1320" s="25"/>
     </row>
     <row r="1321" spans="1:2">
-      <c r="A1321" s="25"/>
       <c r="B1321" s="25"/>
     </row>
     <row r="1322" spans="1:2">
@@ -9031,10 +9177,10 @@
       <c r="B1325" s="25"/>
     </row>
     <row r="1326" spans="1:2">
+      <c r="A1326" s="25"/>
       <c r="B1326" s="25"/>
     </row>
     <row r="1327" spans="1:2">
-      <c r="A1327" s="25"/>
       <c r="B1327" s="25"/>
     </row>
     <row r="1328" spans="1:2">
@@ -9079,8 +9225,8 @@
     <row r="1341" spans="2:2">
       <c r="B1341" s="25"/>
     </row>
-    <row r="1342" spans="2:2">
-      <c r="B1342" s="25"/>
+    <row r="1343" spans="2:2">
+      <c r="B1343" s="25"/>
     </row>
     <row r="1344" spans="2:2">
       <c r="B1344" s="25"/>
@@ -9089,16 +9235,16 @@
       <c r="B1345" s="25"/>
     </row>
     <row r="1346" spans="1:2">
-      <c r="B1346" s="25"/>
+      <c r="B1346" s="47"/>
     </row>
     <row r="1347" spans="1:2">
-      <c r="B1347" s="47"/>
+      <c r="B1347" s="25"/>
     </row>
     <row r="1348" spans="1:2">
-      <c r="B1348" s="25"/>
+      <c r="B1348" s="35"/>
     </row>
     <row r="1349" spans="1:2">
-      <c r="B1349" s="35"/>
+      <c r="B1349" s="25"/>
     </row>
     <row r="1350" spans="1:2">
       <c r="B1350" s="25"/>
@@ -9128,10 +9274,10 @@
       <c r="B1358" s="25"/>
     </row>
     <row r="1359" spans="1:2">
+      <c r="A1359" s="25"/>
       <c r="B1359" s="25"/>
     </row>
     <row r="1360" spans="1:2">
-      <c r="A1360" s="25"/>
       <c r="B1360" s="25"/>
     </row>
     <row r="1361" spans="2:2">
@@ -9153,10 +9299,10 @@
       <c r="B1366" s="25"/>
     </row>
     <row r="1367" spans="2:2">
-      <c r="B1367" s="25"/>
+      <c r="B1367" s="34"/>
     </row>
     <row r="1368" spans="2:2">
-      <c r="B1368" s="34"/>
+      <c r="B1368" s="25"/>
     </row>
     <row r="1369" spans="2:2">
       <c r="B1369" s="25"/>
@@ -9243,16 +9389,16 @@
       <c r="B1396" s="25"/>
     </row>
     <row r="1397" spans="1:2">
-      <c r="B1397" s="25"/>
+      <c r="B1397" s="34"/>
     </row>
     <row r="1398" spans="1:2">
-      <c r="B1398" s="34"/>
-    </row>
-    <row r="1399" spans="1:2">
-      <c r="B1399" s="25"/>
+      <c r="B1398" s="25"/>
+    </row>
+    <row r="1400" spans="1:2">
+      <c r="A1400" s="26"/>
+      <c r="B1400" s="26"/>
     </row>
     <row r="1401" spans="1:2">
-      <c r="A1401" s="26"/>
       <c r="B1401" s="26"/>
     </row>
     <row r="1402" spans="1:2">
@@ -9262,81 +9408,81 @@
       <c r="B1403" s="26"/>
     </row>
     <row r="1404" spans="1:2">
-      <c r="B1404" s="26"/>
+      <c r="A1404" s="27"/>
+      <c r="B1404" s="27"/>
     </row>
     <row r="1405" spans="1:2">
-      <c r="A1405" s="27"/>
-      <c r="B1405" s="27"/>
+      <c r="A1405" s="28"/>
+      <c r="B1405" s="28"/>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="28"/>
       <c r="B1406" s="28"/>
     </row>
-    <row r="1407" spans="1:2">
-      <c r="A1407" s="28"/>
-      <c r="B1407" s="28"/>
-    </row>
-    <row r="1410" spans="1:1">
-      <c r="A1410" s="29"/>
-    </row>
-    <row r="1435" spans="2:2">
-      <c r="B1435" s="29"/>
-    </row>
-    <row r="1440" spans="2:2">
-      <c r="B1440" s="48"/>
-    </row>
-    <row r="1444" spans="1:2">
-      <c r="B1444" s="29"/>
+    <row r="1409" spans="1:1">
+      <c r="A1409" s="29"/>
+    </row>
+    <row r="1434" spans="2:2">
+      <c r="B1434" s="29"/>
+    </row>
+    <row r="1439" spans="2:2">
+      <c r="B1439" s="48"/>
+    </row>
+    <row r="1443" spans="1:2">
+      <c r="B1443" s="29"/>
+    </row>
+    <row r="1446" spans="1:2">
+      <c r="B1446" s="29"/>
     </row>
     <row r="1447" spans="1:2">
       <c r="B1447" s="29"/>
     </row>
-    <row r="1448" spans="1:2">
-      <c r="B1448" s="29"/>
+    <row r="1451" spans="1:2">
+      <c r="B1451" s="29"/>
     </row>
     <row r="1452" spans="1:2">
+      <c r="A1452" s="29"/>
       <c r="B1452" s="29"/>
     </row>
-    <row r="1453" spans="1:2">
-      <c r="A1453" s="29"/>
-      <c r="B1453" s="29"/>
-    </row>
-    <row r="1456" spans="1:2">
-      <c r="B1456" s="29"/>
+    <row r="1455" spans="1:2">
+      <c r="B1455" s="29"/>
+    </row>
+    <row r="1460" spans="1:2">
+      <c r="B1460" s="29"/>
     </row>
     <row r="1461" spans="1:2">
       <c r="B1461" s="29"/>
     </row>
     <row r="1462" spans="1:2">
-      <c r="B1462" s="29"/>
+      <c r="A1462" s="29"/>
     </row>
     <row r="1463" spans="1:2">
-      <c r="A1463" s="29"/>
-    </row>
-    <row r="1464" spans="1:2">
-      <c r="B1464" s="29"/>
-    </row>
-    <row r="1469" spans="1:2">
-      <c r="B1469" s="29"/>
-    </row>
-    <row r="1476" spans="1:2">
-      <c r="B1476" s="29"/>
+      <c r="B1463" s="29"/>
+    </row>
+    <row r="1468" spans="1:2">
+      <c r="B1468" s="29"/>
+    </row>
+    <row r="1475" spans="1:2">
+      <c r="B1475" s="29"/>
+    </row>
+    <row r="1482" spans="1:2">
+      <c r="A1482" s="32"/>
+      <c r="B1482" s="49"/>
     </row>
     <row r="1483" spans="1:2">
-      <c r="A1483" s="32"/>
-      <c r="B1483" s="49"/>
+      <c r="A1483" s="30"/>
+      <c r="B1483" s="32"/>
     </row>
     <row r="1484" spans="1:2">
-      <c r="A1484" s="30"/>
-      <c r="B1484" s="32"/>
+      <c r="A1484" s="31"/>
+      <c r="B1484" s="31"/>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="31"/>
       <c r="B1485" s="31"/>
     </row>
     <row r="1486" spans="1:2">
-      <c r="A1486" s="31"/>
-      <c r="B1486" s="31"/>
+      <c r="B1486" s="49"/>
     </row>
     <row r="1487" spans="1:2">
       <c r="B1487" s="49"/>
@@ -9354,10 +9500,10 @@
       <c r="B1491" s="49"/>
     </row>
     <row r="1492" spans="1:2">
-      <c r="B1492" s="49"/>
-    </row>
-    <row r="1493" spans="1:2">
-      <c r="A1493" s="33"/>
+      <c r="A1492" s="33"/>
+    </row>
+    <row r="1497" spans="1:2">
+      <c r="B1497" s="33"/>
     </row>
     <row r="1498" spans="1:2">
       <c r="B1498" s="33"/>
@@ -9365,74 +9511,74 @@
     <row r="1499" spans="1:2">
       <c r="B1499" s="33"/>
     </row>
-    <row r="1500" spans="1:2">
-      <c r="B1500" s="33"/>
-    </row>
-    <row r="1502" spans="1:2">
-      <c r="A1502" s="33"/>
+    <row r="1501" spans="1:2">
+      <c r="A1501" s="33"/>
+    </row>
+    <row r="1505" spans="1:2">
+      <c r="A1505" s="33"/>
+      <c r="B1505" s="33"/>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="33"/>
       <c r="B1506" s="33"/>
     </row>
     <row r="1507" spans="1:2">
-      <c r="A1507" s="33"/>
       <c r="B1507" s="33"/>
     </row>
-    <row r="1508" spans="1:2">
-      <c r="B1508" s="33"/>
-    </row>
-    <row r="1511" spans="1:2">
-      <c r="B1511" s="33"/>
-    </row>
-    <row r="1515" spans="1:2">
-      <c r="B1515" s="33"/>
+    <row r="1510" spans="1:2">
+      <c r="B1510" s="33"/>
+    </row>
+    <row r="1514" spans="1:2">
+      <c r="B1514" s="33"/>
+    </row>
+    <row r="1516" spans="1:2">
+      <c r="B1516" s="33"/>
     </row>
     <row r="1517" spans="1:2">
       <c r="B1517" s="33"/>
     </row>
-    <row r="1518" spans="1:2">
-      <c r="B1518" s="33"/>
-    </row>
-    <row r="1527" spans="1:2">
-      <c r="A1527" s="33"/>
-      <c r="B1527" s="33"/>
-    </row>
-    <row r="1531" spans="1:2">
-      <c r="B1531" s="33"/>
+    <row r="1526" spans="1:2">
+      <c r="A1526" s="33"/>
+      <c r="B1526" s="33"/>
+    </row>
+    <row r="1530" spans="1:2">
+      <c r="B1530" s="33"/>
+    </row>
+    <row r="1533" spans="1:2">
+      <c r="B1533" s="33"/>
     </row>
     <row r="1534" spans="1:2">
+      <c r="A1534" s="36"/>
       <c r="B1534" s="33"/>
     </row>
     <row r="1535" spans="1:2">
-      <c r="A1535" s="36"/>
+      <c r="A1535" s="33"/>
       <c r="B1535" s="33"/>
     </row>
-    <row r="1536" spans="1:2">
-      <c r="A1536" s="33"/>
-      <c r="B1536" s="33"/>
-    </row>
-    <row r="1538" spans="1:2">
-      <c r="B1538" s="33"/>
-    </row>
-    <row r="1540" spans="1:2">
-      <c r="A1540" s="33"/>
-      <c r="B1540" s="33"/>
-    </row>
-    <row r="1543" spans="1:2">
-      <c r="B1543" s="33"/>
-    </row>
-    <row r="1548" spans="1:2">
-      <c r="B1548" s="33"/>
-    </row>
-    <row r="1550" spans="1:2">
-      <c r="A1550" s="33"/>
+    <row r="1537" spans="1:2">
+      <c r="B1537" s="33"/>
+    </row>
+    <row r="1539" spans="1:2">
+      <c r="A1539" s="33"/>
+      <c r="B1539" s="33"/>
+    </row>
+    <row r="1542" spans="1:2">
+      <c r="B1542" s="33"/>
+    </row>
+    <row r="1547" spans="1:2">
+      <c r="B1547" s="33"/>
+    </row>
+    <row r="1549" spans="1:2">
+      <c r="A1549" s="33"/>
+    </row>
+    <row r="1552" spans="1:2">
+      <c r="B1552" s="33"/>
     </row>
     <row r="1553" spans="2:2">
       <c r="B1553" s="33"/>
     </row>
-    <row r="1554" spans="2:2">
-      <c r="B1554" s="33"/>
+    <row r="1687" spans="1:2">
+      <c r="B1687" s="37"/>
     </row>
     <row r="1688" spans="1:2">
       <c r="B1688" s="37"/>
@@ -9443,24 +9589,24 @@
     <row r="1690" spans="1:2">
       <c r="B1690" s="37"/>
     </row>
-    <row r="1691" spans="1:2">
-      <c r="B1691" s="37"/>
+    <row r="1692" spans="1:2">
+      <c r="B1692" s="37"/>
     </row>
     <row r="1693" spans="1:2">
       <c r="B1693" s="37"/>
     </row>
     <row r="1694" spans="1:2">
+      <c r="A1694" s="37"/>
       <c r="B1694" s="37"/>
     </row>
     <row r="1695" spans="1:2">
-      <c r="A1695" s="37"/>
       <c r="B1695" s="37"/>
     </row>
     <row r="1696" spans="1:2">
+      <c r="A1696" s="37"/>
       <c r="B1696" s="37"/>
     </row>
     <row r="1697" spans="1:2">
-      <c r="A1697" s="37"/>
       <c r="B1697" s="37"/>
     </row>
     <row r="1698" spans="1:2">
@@ -9476,10 +9622,10 @@
       <c r="B1701" s="37"/>
     </row>
     <row r="1702" spans="1:2">
+      <c r="A1702" s="37"/>
       <c r="B1702" s="37"/>
     </row>
     <row r="1703" spans="1:2">
-      <c r="A1703" s="37"/>
       <c r="B1703" s="37"/>
     </row>
     <row r="1704" spans="1:2">
@@ -9491,8 +9637,8 @@
     <row r="1706" spans="1:2">
       <c r="B1706" s="37"/>
     </row>
-    <row r="1707" spans="1:2">
-      <c r="B1707" s="37"/>
+    <row r="1708" spans="1:2">
+      <c r="B1708" s="37"/>
     </row>
     <row r="1709" spans="1:2">
       <c r="B1709" s="37"/>
@@ -9503,8 +9649,8 @@
     <row r="1711" spans="1:2">
       <c r="B1711" s="37"/>
     </row>
-    <row r="1712" spans="1:2">
-      <c r="B1712" s="37"/>
+    <row r="1714" spans="2:2">
+      <c r="B1714" s="37"/>
     </row>
     <row r="1715" spans="2:2">
       <c r="B1715" s="37"/>
@@ -9539,8 +9685,8 @@
     <row r="1725" spans="2:2">
       <c r="B1725" s="37"/>
     </row>
-    <row r="1726" spans="2:2">
-      <c r="B1726" s="37"/>
+    <row r="1727" spans="2:2">
+      <c r="B1727" s="37"/>
     </row>
     <row r="1728" spans="2:2">
       <c r="B1728" s="37"/>
@@ -9555,10 +9701,10 @@
       <c r="B1731" s="37"/>
     </row>
     <row r="1732" spans="1:2">
+      <c r="A1732" s="37"/>
       <c r="B1732" s="37"/>
     </row>
     <row r="1733" spans="1:2">
-      <c r="A1733" s="37"/>
       <c r="B1733" s="37"/>
     </row>
     <row r="1734" spans="1:2">
@@ -9574,10 +9720,10 @@
       <c r="B1737" s="37"/>
     </row>
     <row r="1738" spans="1:2">
+      <c r="A1738" s="37"/>
       <c r="B1738" s="37"/>
     </row>
     <row r="1739" spans="1:2">
-      <c r="A1739" s="37"/>
       <c r="B1739" s="37"/>
     </row>
     <row r="1740" spans="1:2">
@@ -9605,77 +9751,77 @@
       <c r="B1747" s="37"/>
     </row>
     <row r="1748" spans="1:2">
+      <c r="A1748" s="37"/>
       <c r="B1748" s="37"/>
     </row>
-    <row r="1749" spans="1:2">
-      <c r="A1749" s="37"/>
-      <c r="B1749" s="37"/>
-    </row>
-    <row r="1751" spans="1:2">
-      <c r="B1751" s="38"/>
-    </row>
-    <row r="1769" spans="1:2">
-      <c r="A1769" s="33"/>
-      <c r="B1769" s="33"/>
-    </row>
-    <row r="1771" spans="1:2">
-      <c r="B1771" s="38"/>
-    </row>
-    <row r="1782" spans="1:2">
-      <c r="B1782" s="38"/>
-    </row>
-    <row r="1785" spans="1:2">
-      <c r="A1785" s="38"/>
-      <c r="B1785" s="38"/>
-    </row>
-    <row r="1787" spans="1:2">
-      <c r="B1787" s="50"/>
-    </row>
-    <row r="1792" spans="1:2">
-      <c r="B1792" s="50"/>
-    </row>
-    <row r="1798" spans="2:2">
-      <c r="B1798" s="38"/>
-    </row>
-    <row r="1803" spans="2:2">
-      <c r="B1803" s="38"/>
-    </row>
-    <row r="1805" spans="2:2">
-      <c r="B1805" s="38"/>
-    </row>
-    <row r="1809" spans="2:2">
-      <c r="B1809" s="40"/>
-    </row>
-    <row r="1827" spans="2:2">
-      <c r="B1827" s="40"/>
-    </row>
-    <row r="1838" spans="2:2">
-      <c r="B1838" s="40"/>
-    </row>
-    <row r="1858" spans="2:2">
-      <c r="B1858" s="40"/>
+    <row r="1750" spans="1:2">
+      <c r="B1750" s="38"/>
+    </row>
+    <row r="1768" spans="1:2">
+      <c r="A1768" s="33"/>
+      <c r="B1768" s="33"/>
+    </row>
+    <row r="1770" spans="1:2">
+      <c r="B1770" s="38"/>
+    </row>
+    <row r="1781" spans="1:2">
+      <c r="B1781" s="38"/>
+    </row>
+    <row r="1784" spans="1:2">
+      <c r="A1784" s="38"/>
+      <c r="B1784" s="38"/>
+    </row>
+    <row r="1786" spans="1:2">
+      <c r="B1786" s="50"/>
+    </row>
+    <row r="1791" spans="1:2">
+      <c r="B1791" s="50"/>
+    </row>
+    <row r="1797" spans="2:2">
+      <c r="B1797" s="38"/>
+    </row>
+    <row r="1802" spans="2:2">
+      <c r="B1802" s="38"/>
+    </row>
+    <row r="1804" spans="2:2">
+      <c r="B1804" s="38"/>
+    </row>
+    <row r="1808" spans="2:2">
+      <c r="B1808" s="40"/>
+    </row>
+    <row r="1826" spans="2:2">
+      <c r="B1826" s="40"/>
+    </row>
+    <row r="1837" spans="2:2">
+      <c r="B1837" s="40"/>
+    </row>
+    <row r="1857" spans="2:2">
+      <c r="B1857" s="40"/>
+    </row>
+    <row r="1867" spans="2:2">
+      <c r="B1867" s="39"/>
     </row>
     <row r="1868" spans="2:2">
       <c r="B1868" s="39"/>
     </row>
-    <row r="1869" spans="2:2">
-      <c r="B1869" s="39"/>
+    <row r="1870" spans="2:2">
+      <c r="B1870" s="39"/>
     </row>
     <row r="1871" spans="2:2">
       <c r="B1871" s="39"/>
     </row>
-    <row r="1872" spans="2:2">
-      <c r="B1872" s="39"/>
+    <row r="1874" spans="1:2">
+      <c r="B1874" s="39"/>
     </row>
     <row r="1875" spans="1:2">
+      <c r="A1875" s="39"/>
       <c r="B1875" s="39"/>
     </row>
-    <row r="1876" spans="1:2">
-      <c r="A1876" s="39"/>
-      <c r="B1876" s="39"/>
-    </row>
-    <row r="1878" spans="1:2">
-      <c r="B1878" s="39"/>
+    <row r="1877" spans="1:2">
+      <c r="B1877" s="39"/>
+    </row>
+    <row r="1881" spans="1:2">
+      <c r="B1881" s="39"/>
     </row>
     <row r="1882" spans="1:2">
       <c r="B1882" s="39"/>
@@ -9683,95 +9829,95 @@
     <row r="1883" spans="1:2">
       <c r="B1883" s="39"/>
     </row>
-    <row r="1884" spans="1:2">
-      <c r="B1884" s="39"/>
-    </row>
-    <row r="1889" spans="2:2">
-      <c r="B1889" s="39"/>
-    </row>
-    <row r="1891" spans="2:2">
-      <c r="B1891" s="39"/>
-    </row>
-    <row r="1900" spans="2:2">
-      <c r="B1900" s="39"/>
-    </row>
-    <row r="1903" spans="2:2">
-      <c r="B1903" s="39"/>
+    <row r="1888" spans="1:2">
+      <c r="B1888" s="39"/>
+    </row>
+    <row r="1890" spans="2:2">
+      <c r="B1890" s="39"/>
+    </row>
+    <row r="1899" spans="2:2">
+      <c r="B1899" s="39"/>
+    </row>
+    <row r="1902" spans="2:2">
+      <c r="B1902" s="39"/>
+    </row>
+    <row r="1909" spans="2:2">
+      <c r="B1909" s="39"/>
     </row>
     <row r="1910" spans="2:2">
       <c r="B1910" s="39"/>
     </row>
-    <row r="1911" spans="2:2">
-      <c r="B1911" s="39"/>
-    </row>
-    <row r="1913" spans="2:2">
-      <c r="B1913" s="39"/>
-    </row>
-    <row r="1915" spans="2:2">
-      <c r="B1915" s="39"/>
+    <row r="1912" spans="2:2">
+      <c r="B1912" s="39"/>
+    </row>
+    <row r="1914" spans="2:2">
+      <c r="B1914" s="39"/>
+    </row>
+    <row r="1926" spans="1:2">
+      <c r="B1926" s="39"/>
     </row>
     <row r="1927" spans="1:2">
       <c r="B1927" s="39"/>
     </row>
     <row r="1928" spans="1:2">
+      <c r="A1928" s="39"/>
       <c r="B1928" s="39"/>
     </row>
-    <row r="1929" spans="1:2">
-      <c r="A1929" s="39"/>
-      <c r="B1929" s="39"/>
+    <row r="1935" spans="1:2">
+      <c r="B1935" s="39"/>
     </row>
     <row r="1936" spans="1:2">
       <c r="B1936" s="39"/>
     </row>
-    <row r="1937" spans="1:2">
-      <c r="B1937" s="39"/>
-    </row>
-    <row r="1946" spans="1:2">
-      <c r="A1946" s="39"/>
-    </row>
-    <row r="1949" spans="1:2">
-      <c r="B1949" s="39"/>
-    </row>
-    <row r="1960" spans="1:2">
-      <c r="B1960" s="39"/>
-    </row>
-    <row r="1962" spans="1:2">
-      <c r="B1962" s="39"/>
+    <row r="1945" spans="1:2">
+      <c r="A1945" s="39"/>
+    </row>
+    <row r="1948" spans="1:2">
+      <c r="B1948" s="39"/>
+    </row>
+    <row r="1959" spans="1:2">
+      <c r="B1959" s="39"/>
+    </row>
+    <row r="1961" spans="1:2">
+      <c r="B1961" s="39"/>
+    </row>
+    <row r="1963" spans="1:2">
+      <c r="B1963" s="39"/>
     </row>
     <row r="1964" spans="1:2">
       <c r="B1964" s="39"/>
     </row>
-    <row r="1965" spans="1:2">
-      <c r="B1965" s="39"/>
-    </row>
-    <row r="1967" spans="1:2">
-      <c r="A1967" s="39"/>
-      <c r="B1967" s="39"/>
-    </row>
-    <row r="1971" spans="1:2">
-      <c r="B1971" s="39"/>
-    </row>
-    <row r="1975" spans="1:2">
-      <c r="B1975" s="39"/>
-    </row>
-    <row r="1977" spans="1:2">
-      <c r="B1977" s="39"/>
+    <row r="1966" spans="1:2">
+      <c r="A1966" s="39"/>
+      <c r="B1966" s="39"/>
+    </row>
+    <row r="1970" spans="1:2">
+      <c r="B1970" s="39"/>
+    </row>
+    <row r="1974" spans="1:2">
+      <c r="B1974" s="39"/>
+    </row>
+    <row r="1976" spans="1:2">
+      <c r="B1976" s="39"/>
+    </row>
+    <row r="1982" spans="1:2">
+      <c r="B1982" s="39"/>
     </row>
     <row r="1983" spans="1:2">
+      <c r="A1983" s="39"/>
       <c r="B1983" s="39"/>
     </row>
     <row r="1984" spans="1:2">
-      <c r="A1984" s="39"/>
       <c r="B1984" s="39"/>
     </row>
-    <row r="1985" spans="2:2">
-      <c r="B1985" s="39"/>
-    </row>
-    <row r="1992" spans="2:2">
-      <c r="B1992" s="39"/>
-    </row>
-    <row r="1994" spans="2:2">
-      <c r="B1994" s="39"/>
+    <row r="1991" spans="2:2">
+      <c r="B1991" s="39"/>
+    </row>
+    <row r="1993" spans="2:2">
+      <c r="B1993" s="39"/>
+    </row>
+    <row r="2003" spans="1:2">
+      <c r="B2003" s="51"/>
     </row>
     <row r="2004" spans="1:2">
       <c r="B2004" s="51"/>
@@ -9780,10 +9926,10 @@
       <c r="B2005" s="51"/>
     </row>
     <row r="2006" spans="1:2">
+      <c r="A2006" s="51"/>
       <c r="B2006" s="51"/>
     </row>
     <row r="2007" spans="1:2">
-      <c r="A2007" s="51"/>
       <c r="B2007" s="51"/>
     </row>
     <row r="2008" spans="1:2">
@@ -9804,8 +9950,8 @@
     <row r="2013" spans="1:2">
       <c r="B2013" s="51"/>
     </row>
-    <row r="2014" spans="1:2">
-      <c r="B2014" s="51"/>
+    <row r="2016" spans="1:2">
+      <c r="B2016" s="51"/>
     </row>
     <row r="2017" spans="2:2">
       <c r="B2017" s="51"/>
@@ -9859,20 +10005,20 @@
       <c r="B2033" s="51"/>
     </row>
     <row r="2034" spans="1:2">
-      <c r="B2034" s="51"/>
+      <c r="A2034" s="51"/>
+      <c r="B2034" s="54"/>
     </row>
     <row r="2035" spans="1:2">
-      <c r="A2035" s="51"/>
-      <c r="B2035" s="54"/>
+      <c r="B2035" s="51"/>
     </row>
     <row r="2036" spans="1:2">
       <c r="B2036" s="51"/>
     </row>
-    <row r="2037" spans="1:2">
-      <c r="B2037" s="51"/>
-    </row>
-    <row r="2039" spans="1:2">
-      <c r="B2039" s="51"/>
+    <row r="2038" spans="1:2">
+      <c r="B2038" s="51"/>
+    </row>
+    <row r="2040" spans="1:2">
+      <c r="B2040" s="51"/>
     </row>
     <row r="2041" spans="1:2">
       <c r="B2041" s="51"/>
@@ -9881,10 +10027,10 @@
       <c r="B2042" s="51"/>
     </row>
     <row r="2043" spans="1:2">
+      <c r="A2043" s="51"/>
       <c r="B2043" s="51"/>
     </row>
     <row r="2044" spans="1:2">
-      <c r="A2044" s="51"/>
       <c r="B2044" s="51"/>
     </row>
     <row r="2045" spans="1:2">
@@ -9933,17 +10079,17 @@
       <c r="B2059" s="51"/>
     </row>
     <row r="2060" spans="1:2">
-      <c r="B2060" s="51"/>
-    </row>
-    <row r="2061" spans="1:2">
-      <c r="A2061" s="52"/>
-      <c r="B2061" s="53"/>
+      <c r="A2060" s="52"/>
+      <c r="B2060" s="53"/>
+    </row>
+    <row r="2062" spans="1:2">
+      <c r="B2062" s="54"/>
     </row>
     <row r="2063" spans="1:2">
       <c r="B2063" s="54"/>
     </row>
-    <row r="2064" spans="1:2">
-      <c r="B2064" s="54"/>
+    <row r="2066" spans="2:2">
+      <c r="B2066" s="54"/>
     </row>
     <row r="2067" spans="2:2">
       <c r="B2067" s="54"/>
@@ -9954,44 +10100,44 @@
     <row r="2069" spans="2:2">
       <c r="B2069" s="54"/>
     </row>
-    <row r="2070" spans="2:2">
-      <c r="B2070" s="54"/>
+    <row r="2071" spans="2:2">
+      <c r="B2071" s="54"/>
     </row>
     <row r="2072" spans="2:2">
       <c r="B2072" s="54"/>
     </row>
-    <row r="2073" spans="2:2">
-      <c r="B2073" s="54"/>
-    </row>
-    <row r="2075" spans="2:2">
-      <c r="B2075" s="54"/>
+    <row r="2074" spans="2:2">
+      <c r="B2074" s="54"/>
+    </row>
+    <row r="2077" spans="2:2">
+      <c r="B2077" s="54"/>
     </row>
     <row r="2078" spans="2:2">
       <c r="B2078" s="54"/>
     </row>
-    <row r="2079" spans="2:2">
-      <c r="B2079" s="54"/>
+    <row r="2080" spans="2:2">
+      <c r="B2080" s="54"/>
     </row>
     <row r="2081" spans="2:2">
       <c r="B2081" s="54"/>
     </row>
-    <row r="2082" spans="2:2">
-      <c r="B2082" s="54"/>
-    </row>
-    <row r="2084" spans="2:2">
-      <c r="B2084" s="54"/>
+    <row r="2083" spans="2:2">
+      <c r="B2083" s="54"/>
+    </row>
+    <row r="2088" spans="2:2">
+      <c r="B2088" s="54"/>
     </row>
     <row r="2089" spans="2:2">
       <c r="B2089" s="54"/>
     </row>
-    <row r="2090" spans="2:2">
-      <c r="B2090" s="54"/>
-    </row>
-    <row r="2092" spans="2:2">
-      <c r="B2092" s="54"/>
-    </row>
-    <row r="2094" spans="2:2">
-      <c r="B2094" s="54"/>
+    <row r="2091" spans="2:2">
+      <c r="B2091" s="54"/>
+    </row>
+    <row r="2093" spans="2:2">
+      <c r="B2093" s="54"/>
+    </row>
+    <row r="2095" spans="2:2">
+      <c r="B2095" s="54"/>
     </row>
     <row r="2096" spans="2:2">
       <c r="B2096" s="54"/>
@@ -10002,17 +10148,18 @@
     <row r="2098" spans="1:2">
       <c r="B2098" s="54"/>
     </row>
-    <row r="2099" spans="1:2">
-      <c r="B2099" s="54"/>
-    </row>
-    <row r="2102" spans="1:2">
-      <c r="B2102" s="54"/>
+    <row r="2101" spans="1:2">
+      <c r="B2101" s="54"/>
+    </row>
+    <row r="2103" spans="1:2">
+      <c r="B2103" s="54"/>
     </row>
     <row r="2104" spans="1:2">
       <c r="B2104" s="54"/>
     </row>
     <row r="2105" spans="1:2">
-      <c r="B2105" s="54"/>
+      <c r="A2105" s="55"/>
+      <c r="B2105" s="55"/>
     </row>
     <row r="2106" spans="1:2">
       <c r="A2106" s="55"/>
@@ -10043,27 +10190,27 @@
       <c r="B2112" s="55"/>
     </row>
     <row r="2113" spans="1:2">
-      <c r="A2113" s="55"/>
-      <c r="B2113" s="55"/>
+      <c r="A2113" s="57"/>
+      <c r="B2113" s="56"/>
     </row>
     <row r="2114" spans="1:2">
       <c r="A2114" s="57"/>
-      <c r="B2114" s="56"/>
-    </row>
-    <row r="2115" spans="1:2">
-      <c r="A2115" s="57"/>
-      <c r="B2115" s="57"/>
-    </row>
-    <row r="2117" spans="1:2">
-      <c r="A2117" s="57"/>
-      <c r="B2117" s="57"/>
+      <c r="B2114" s="57"/>
+    </row>
+    <row r="2116" spans="1:2">
+      <c r="A2116" s="57"/>
+      <c r="B2116" s="57"/>
+    </row>
+    <row r="2118" spans="1:2">
+      <c r="A2118" s="57"/>
+      <c r="B2118" s="57"/>
     </row>
     <row r="2119" spans="1:2">
-      <c r="A2119" s="57"/>
       <c r="B2119" s="57"/>
     </row>
-    <row r="2120" spans="1:2">
-      <c r="B2120" s="57"/>
+    <row r="2121" spans="1:2">
+      <c r="A2121" s="57"/>
+      <c r="B2121" s="57"/>
     </row>
     <row r="2122" spans="1:2">
       <c r="A2122" s="57"/>
@@ -10073,19 +10220,18 @@
       <c r="A2123" s="57"/>
       <c r="B2123" s="57"/>
     </row>
-    <row r="2124" spans="1:2">
-      <c r="A2124" s="57"/>
-      <c r="B2124" s="57"/>
+    <row r="2125" spans="1:2">
+      <c r="B2125" s="57"/>
     </row>
     <row r="2126" spans="1:2">
+      <c r="A2126" s="57"/>
       <c r="B2126" s="57"/>
     </row>
     <row r="2127" spans="1:2">
-      <c r="A2127" s="57"/>
       <c r="B2127" s="57"/>
     </row>
-    <row r="2128" spans="1:2">
-      <c r="B2128" s="57"/>
+    <row r="2129" spans="2:2">
+      <c r="B2129" s="57"/>
     </row>
     <row r="2130" spans="2:2">
       <c r="B2130" s="57"/>
@@ -10096,29 +10242,30 @@
     <row r="2132" spans="2:2">
       <c r="B2132" s="57"/>
     </row>
-    <row r="2133" spans="2:2">
-      <c r="B2133" s="57"/>
-    </row>
-    <row r="2140" spans="2:2">
-      <c r="B2140" s="57"/>
-    </row>
-    <row r="2149" spans="1:2">
-      <c r="A2149" s="57"/>
-      <c r="B2149" s="57"/>
+    <row r="2139" spans="2:2">
+      <c r="B2139" s="57"/>
+    </row>
+    <row r="2148" spans="1:2">
+      <c r="A2148" s="57"/>
+      <c r="B2148" s="57"/>
+    </row>
+    <row r="2157" spans="1:2">
+      <c r="B2157" s="57"/>
     </row>
     <row r="2158" spans="1:2">
       <c r="B2158" s="57"/>
     </row>
-    <row r="2159" spans="1:2">
-      <c r="B2159" s="57"/>
+    <row r="2172" spans="1:2">
+      <c r="A2172" s="57"/>
+      <c r="B2172" s="57"/>
     </row>
     <row r="2173" spans="1:2">
       <c r="A2173" s="57"/>
       <c r="B2173" s="57"/>
     </row>
-    <row r="2174" spans="1:2">
-      <c r="A2174" s="57"/>
-      <c r="B2174" s="57"/>
+    <row r="2176" spans="1:2">
+      <c r="A2176" s="57"/>
+      <c r="B2176" s="57"/>
     </row>
     <row r="2177" spans="1:2">
       <c r="A2177" s="57"/>
@@ -10130,130 +10277,129 @@
     </row>
     <row r="2179" spans="1:2">
       <c r="A2179" s="57"/>
-      <c r="B2179" s="57"/>
     </row>
     <row r="2180" spans="1:2">
       <c r="A2180" s="57"/>
-    </row>
-    <row r="2181" spans="1:2">
-      <c r="A2181" s="57"/>
-      <c r="B2181" s="57"/>
-    </row>
-    <row r="2183" spans="1:2">
-      <c r="B2183" s="57"/>
+      <c r="B2180" s="57"/>
+    </row>
+    <row r="2182" spans="1:2">
+      <c r="B2182" s="57"/>
+    </row>
+    <row r="2184" spans="1:2">
+      <c r="B2184" s="57"/>
     </row>
     <row r="2185" spans="1:2">
+      <c r="A2185" s="57"/>
       <c r="B2185" s="57"/>
     </row>
-    <row r="2186" spans="1:2">
-      <c r="A2186" s="57"/>
-      <c r="B2186" s="57"/>
-    </row>
-    <row r="2189" spans="1:2">
-      <c r="A2189" s="57"/>
-    </row>
-    <row r="2206" spans="1:1">
-      <c r="A2206" s="57"/>
-    </row>
-    <row r="2210" spans="1:2">
-      <c r="A2210" s="57"/>
-      <c r="B2210" s="57"/>
-    </row>
-    <row r="2214" spans="1:2">
-      <c r="A2214" s="57"/>
-      <c r="B2214" s="57"/>
-    </row>
-    <row r="2216" spans="1:2">
-      <c r="A2216" s="57"/>
-      <c r="B2216" s="57"/>
+    <row r="2188" spans="1:2">
+      <c r="A2188" s="57"/>
+    </row>
+    <row r="2205" spans="1:1">
+      <c r="A2205" s="57"/>
+    </row>
+    <row r="2209" spans="1:2">
+      <c r="A2209" s="57"/>
+      <c r="B2209" s="57"/>
+    </row>
+    <row r="2213" spans="1:2">
+      <c r="A2213" s="57"/>
+      <c r="B2213" s="57"/>
+    </row>
+    <row r="2215" spans="1:2">
+      <c r="A2215" s="57"/>
+      <c r="B2215" s="57"/>
+    </row>
+    <row r="2219" spans="1:2">
+      <c r="B2219" s="58"/>
     </row>
     <row r="2220" spans="1:2">
       <c r="B2220" s="58"/>
     </row>
     <row r="2221" spans="1:2">
+      <c r="A2221" s="58"/>
       <c r="B2221" s="58"/>
     </row>
-    <row r="2222" spans="1:2">
-      <c r="A2222" s="58"/>
-      <c r="B2222" s="58"/>
+    <row r="2226" spans="2:2">
+      <c r="B2226" s="58"/>
     </row>
     <row r="2227" spans="2:2">
       <c r="B2227" s="58"/>
     </row>
-    <row r="2228" spans="2:2">
-      <c r="B2228" s="58"/>
-    </row>
-    <row r="2234" spans="2:2">
-      <c r="B2234" s="58"/>
-    </row>
-    <row r="2237" spans="2:2">
-      <c r="B2237" s="58"/>
-    </row>
-    <row r="2243" spans="1:2">
-      <c r="B2243" s="58"/>
-    </row>
-    <row r="2246" spans="1:2">
-      <c r="A2246" s="58"/>
-      <c r="B2246" s="58"/>
-    </row>
-    <row r="2256" spans="1:2">
-      <c r="B2256" s="58"/>
-    </row>
-    <row r="2259" spans="1:2">
-      <c r="B2259" s="58"/>
-    </row>
-    <row r="2263" spans="1:2">
-      <c r="A2263" s="58"/>
-      <c r="B2263" s="58"/>
+    <row r="2233" spans="2:2">
+      <c r="B2233" s="58"/>
+    </row>
+    <row r="2236" spans="2:2">
+      <c r="B2236" s="58"/>
+    </row>
+    <row r="2242" spans="1:2">
+      <c r="B2242" s="58"/>
+    </row>
+    <row r="2245" spans="1:2">
+      <c r="A2245" s="58"/>
+      <c r="B2245" s="58"/>
+    </row>
+    <row r="2255" spans="1:2">
+      <c r="B2255" s="58"/>
+    </row>
+    <row r="2258" spans="1:2">
+      <c r="B2258" s="58"/>
+    </row>
+    <row r="2262" spans="1:2">
+      <c r="A2262" s="58"/>
+      <c r="B2262" s="58"/>
+    </row>
+    <row r="2302" spans="1:2">
+      <c r="A2302" s="59"/>
     </row>
     <row r="2303" spans="1:2">
       <c r="A2303" s="59"/>
+      <c r="B2303" s="59"/>
     </row>
     <row r="2304" spans="1:2">
-      <c r="A2304" s="59"/>
       <c r="B2304" s="59"/>
     </row>
     <row r="2305" spans="1:2">
       <c r="B2305" s="59"/>
     </row>
-    <row r="2306" spans="1:2">
-      <c r="B2306" s="59"/>
-    </row>
-    <row r="2313" spans="1:2">
-      <c r="B2313" s="59"/>
-    </row>
-    <row r="2315" spans="1:2">
-      <c r="A2315" s="59"/>
-      <c r="B2315" s="59"/>
-    </row>
-    <row r="2319" spans="1:2">
-      <c r="B2319" s="59"/>
+    <row r="2312" spans="1:2">
+      <c r="B2312" s="59"/>
+    </row>
+    <row r="2314" spans="1:2">
+      <c r="A2314" s="59"/>
+      <c r="B2314" s="59"/>
+    </row>
+    <row r="2318" spans="1:2">
+      <c r="B2318" s="59"/>
+    </row>
+    <row r="2322" spans="1:2">
+      <c r="A2322" s="59"/>
+      <c r="B2322" s="59"/>
     </row>
     <row r="2323" spans="1:2">
-      <c r="A2323" s="59"/>
       <c r="B2323" s="59"/>
     </row>
     <row r="2324" spans="1:2">
       <c r="B2324" s="59"/>
     </row>
-    <row r="2325" spans="1:2">
-      <c r="B2325" s="59"/>
-    </row>
-    <row r="2330" spans="1:2">
-      <c r="B2330" s="59"/>
-    </row>
-    <row r="2341" spans="1:2">
-      <c r="A2341" s="59"/>
-    </row>
-    <row r="2345" spans="1:2">
-      <c r="B2345" s="59"/>
-    </row>
-    <row r="2349" spans="1:2">
-      <c r="B2349" s="59"/>
+    <row r="2329" spans="1:2">
+      <c r="B2329" s="59"/>
+    </row>
+    <row r="2340" spans="1:2">
+      <c r="A2340" s="59"/>
+    </row>
+    <row r="2344" spans="1:2">
+      <c r="B2344" s="59"/>
+    </row>
+    <row r="2348" spans="1:2">
+      <c r="B2348" s="59"/>
+    </row>
+    <row r="2350" spans="1:2">
+      <c r="A2350" s="60"/>
+      <c r="B2350" s="60"/>
     </row>
     <row r="2351" spans="1:2">
-      <c r="A2351" s="60"/>
-      <c r="B2351" s="60"/>
+      <c r="B2351" s="61"/>
     </row>
     <row r="2352" spans="1:2">
       <c r="B2352" s="61"/>
@@ -10264,8 +10410,8 @@
     <row r="2354" spans="2:2">
       <c r="B2354" s="61"/>
     </row>
-    <row r="2355" spans="2:2">
-      <c r="B2355" s="61"/>
+    <row r="2357" spans="2:2">
+      <c r="B2357" s="61"/>
     </row>
     <row r="2358" spans="2:2">
       <c r="B2358" s="61"/>
@@ -10274,10 +10420,10 @@
       <c r="B2359" s="61"/>
     </row>
     <row r="2360" spans="2:2">
-      <c r="B2360" s="61"/>
+      <c r="B2360" s="62"/>
     </row>
     <row r="2361" spans="2:2">
-      <c r="B2361" s="62"/>
+      <c r="B2361" s="61"/>
     </row>
     <row r="2362" spans="2:2">
       <c r="B2362" s="61"/>
@@ -10291,8 +10437,8 @@
     <row r="2365" spans="2:2">
       <c r="B2365" s="61"/>
     </row>
-    <row r="2366" spans="2:2">
-      <c r="B2366" s="61"/>
+    <row r="2367" spans="2:2">
+      <c r="B2367" s="61"/>
     </row>
     <row r="2368" spans="2:2">
       <c r="B2368" s="61"/>
@@ -10328,7 +10474,7 @@
       <c r="B2378" s="61"/>
     </row>
     <row r="2379" spans="2:2">
-      <c r="B2379" s="61"/>
+      <c r="B2379" s="62"/>
     </row>
     <row r="2380" spans="2:2">
       <c r="B2380" s="62"/>
@@ -10377,9 +10523,6 @@
     </row>
     <row r="2395" spans="2:2">
       <c r="B2395" s="62"/>
-    </row>
-    <row r="2396" spans="2:2">
-      <c r="B2396" s="62"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B250">

--- a/name/dictionary_flavor.xlsx
+++ b/name/dictionary_flavor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8E0361-3D52-435B-AE91-0923FF99922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A96DE6D-59BD-44E9-B110-4D012BDF0D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1230" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="751">
   <si>
     <t>Japanese</t>
   </si>
@@ -2261,18 +2261,40 @@
   </si>
   <si>
     <t>Grapefruits Mix</t>
+  </si>
+  <si>
+    <t>ティーラテ</t>
+  </si>
+  <si>
+    <t>Tea Latte</t>
+  </si>
+  <si>
+    <t>鴨だし</t>
+  </si>
+  <si>
+    <t>Duck Soup Stock</t>
+  </si>
+  <si>
+    <t>コクミルク</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="103">
+  <fonts count="104">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3036,154 +3058,157 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3229,10 +3254,10 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3242,22 +3267,22 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3279,20 +3304,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3317,20 +3342,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3699,8 +3724,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A379" sqref="A379"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A400" sqref="A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -6919,13 +6944,30 @@
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5">
-      <c r="B397" s="5"/>
+      <c r="A397" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B397" s="117" t="s">
+        <v>747</v>
+      </c>
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5">
+      <c r="A398" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>749</v>
+      </c>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5">
+      <c r="A399" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>544</v>
+      </c>
       <c r="E399" s="3"/>
     </row>
     <row r="400" spans="1:5">
